--- a/Conversion/AutoChangeJson/datasrc/111.xlsx
+++ b/Conversion/AutoChangeJson/datasrc/111.xlsx
@@ -828,7 +828,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2725" uniqueCount="974">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2725" uniqueCount="977">
   <si>
     <t>index</t>
   </si>
@@ -3559,6 +3559,15 @@
     <t>7,9</t>
   </si>
   <si>
+    <t>8,10</t>
+  </si>
+  <si>
+    <t>9,11</t>
+  </si>
+  <si>
+    <t>10,12</t>
+  </si>
+  <si>
     <t>battle</t>
   </si>
   <si>
@@ -3774,10 +3783,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="32">
     <font>
@@ -3844,7 +3853,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3859,15 +3882,37 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3881,18 +3926,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3904,45 +3942,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3967,6 +3969,13 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4018,7 +4027,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4030,19 +4063,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4054,85 +4099,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4150,7 +4123,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4162,43 +4189,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4281,15 +4290,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -4309,7 +4309,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4336,6 +4336,15 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4384,10 +4393,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4396,133 +4405,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="20" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="28" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0">
@@ -4936,27 +4945,27 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="6.25" customWidth="1"/>
-    <col min="2" max="2" width="16.1296296296296" style="17" customWidth="1"/>
-    <col min="3" max="3" width="13.6296296296296" style="17" customWidth="1"/>
-    <col min="4" max="4" width="16.1296296296296" style="17" customWidth="1"/>
-    <col min="5" max="5" width="12.8796296296296" style="17" customWidth="1"/>
-    <col min="6" max="6" width="26.5" style="17" customWidth="1"/>
+    <col min="1" max="1" width="6.22222222222222" customWidth="1"/>
+    <col min="2" max="2" width="16.1111111111111" style="17" customWidth="1"/>
+    <col min="3" max="3" width="13.6666666666667" style="17" customWidth="1"/>
+    <col min="4" max="4" width="16.1111111111111" style="17" customWidth="1"/>
+    <col min="5" max="5" width="12.8888888888889" style="17" customWidth="1"/>
+    <col min="6" max="6" width="26.4444444444444" style="17" customWidth="1"/>
     <col min="7" max="7" width="13" style="28" customWidth="1"/>
-    <col min="8" max="8" width="13.6296296296296" style="17" customWidth="1"/>
-    <col min="9" max="9" width="17.1296296296296" style="29" customWidth="1"/>
-    <col min="10" max="10" width="17.1296296296296" style="10" customWidth="1"/>
-    <col min="11" max="11" width="13.75" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13.6666666666667" style="17" customWidth="1"/>
+    <col min="9" max="9" width="17.1111111111111" style="29" customWidth="1"/>
+    <col min="10" max="10" width="17.1111111111111" style="10" customWidth="1"/>
+    <col min="11" max="11" width="13.7777777777778" style="1" customWidth="1"/>
     <col min="12" max="12" width="19" style="1" customWidth="1"/>
-    <col min="13" max="13" width="16.8796296296296" style="1" customWidth="1"/>
-    <col min="14" max="14" width="21.8796296296296" style="1" customWidth="1"/>
-    <col min="15" max="15" width="17.75" style="9" customWidth="1"/>
-    <col min="16" max="16" width="18.8796296296296" customWidth="1"/>
-    <col min="17" max="17" width="15.1296296296296" customWidth="1"/>
-    <col min="18" max="18" width="24.1296296296296" customWidth="1"/>
-    <col min="19" max="19" width="20.1296296296296" customWidth="1"/>
+    <col min="13" max="13" width="16.8888888888889" style="1" customWidth="1"/>
+    <col min="14" max="14" width="21.8888888888889" style="1" customWidth="1"/>
+    <col min="15" max="15" width="17.7777777777778" style="9" customWidth="1"/>
+    <col min="16" max="16" width="18.8888888888889" customWidth="1"/>
+    <col min="17" max="17" width="15.1111111111111" customWidth="1"/>
+    <col min="18" max="18" width="24.1111111111111" customWidth="1"/>
+    <col min="19" max="19" width="20.1111111111111" customWidth="1"/>
     <col min="20" max="20" width="19" customWidth="1"/>
-    <col min="21" max="21" width="18.5" customWidth="1"/>
+    <col min="21" max="21" width="18.4444444444444" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="17.4" spans="1:21">
@@ -10319,11 +10328,11 @@
   <cols>
     <col min="1" max="1" width="10" style="1" customWidth="1"/>
     <col min="2" max="2" width="6" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.4444444444444" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7777777777778" style="1" customWidth="1"/>
     <col min="5" max="5" width="11" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.62962962962963" style="1" customWidth="1"/>
-    <col min="7" max="15" width="6.87962962962963" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.66666666666667" style="1" customWidth="1"/>
+    <col min="7" max="15" width="6.88888888888889" style="1" customWidth="1"/>
     <col min="16" max="16" width="9" style="1" customWidth="1"/>
     <col min="17" max="16384" width="9" style="1"/>
   </cols>
@@ -11057,11 +11066,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="8.12962962962963" style="16" customWidth="1"/>
-    <col min="2" max="2" width="17.5" style="17" customWidth="1"/>
-    <col min="3" max="3" width="17.1296296296296" customWidth="1"/>
-    <col min="4" max="4" width="64.25" customWidth="1"/>
-    <col min="5" max="5" width="19.1296296296296" customWidth="1"/>
+    <col min="1" max="1" width="8.11111111111111" style="16" customWidth="1"/>
+    <col min="2" max="2" width="17.4444444444444" style="17" customWidth="1"/>
+    <col min="3" max="3" width="17.1111111111111" customWidth="1"/>
+    <col min="4" max="4" width="64.2222222222222" customWidth="1"/>
+    <col min="5" max="5" width="19.1111111111111" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="17.4" spans="1:5">
@@ -11578,11 +11587,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="5"/>
   <cols>
-    <col min="2" max="2" width="34.1296296296296" customWidth="1"/>
-    <col min="3" max="3" width="45.6296296296296" customWidth="1"/>
-    <col min="4" max="4" width="28.5" customWidth="1"/>
-    <col min="5" max="5" width="25.3796296296296" customWidth="1"/>
-    <col min="6" max="6" width="24.25" customWidth="1"/>
+    <col min="2" max="2" width="34.1111111111111" customWidth="1"/>
+    <col min="3" max="3" width="45.6666666666667" customWidth="1"/>
+    <col min="4" max="4" width="28.4444444444444" customWidth="1"/>
+    <col min="5" max="5" width="25.3333333333333" customWidth="1"/>
+    <col min="6" max="6" width="24.2222222222222" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="17.4" spans="1:6">
@@ -11838,15 +11847,15 @@
   <dimension ref="A1:S5"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="4"/>
   <cols>
-    <col min="3" max="6" width="14.1296296296296" customWidth="1"/>
-    <col min="7" max="7" width="14.5" customWidth="1"/>
-    <col min="8" max="15" width="8.87962962962963" customWidth="1"/>
-    <col min="16" max="16" width="18.6296296296296" customWidth="1"/>
+    <col min="3" max="6" width="14.1111111111111" customWidth="1"/>
+    <col min="7" max="7" width="14.4444444444444" customWidth="1"/>
+    <col min="8" max="15" width="8.88888888888889" customWidth="1"/>
+    <col min="16" max="16" width="18.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.6" spans="1:19">
@@ -11919,7 +11928,7 @@
         <v>100</v>
       </c>
       <c r="D2" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1">
         <v>65</v>
@@ -11931,28 +11940,28 @@
         <v>100</v>
       </c>
       <c r="H2" s="10">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I2" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J2" s="1">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="K2" s="1">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L2" s="1">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M2" s="1">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="N2" s="1">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="O2" s="9">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="P2" s="13">
         <v>50</v>
@@ -11978,7 +11987,7 @@
         <v>100</v>
       </c>
       <c r="D3" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E3" s="1">
         <v>55</v>
@@ -12037,7 +12046,7 @@
         <v>150</v>
       </c>
       <c r="D4" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E4" s="1">
         <v>45</v>
@@ -12096,7 +12105,7 @@
         <v>200</v>
       </c>
       <c r="D5" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E5" s="1">
         <v>35</v>
@@ -12157,17 +12166,17 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
     <col min="2" max="2" width="8" style="2" customWidth="1"/>
-    <col min="3" max="3" width="15.75" style="2" customWidth="1"/>
-    <col min="4" max="4" width="12.6296296296296" style="2" customWidth="1"/>
-    <col min="5" max="5" width="12.25" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.6296296296296" style="2" customWidth="1"/>
+    <col min="3" max="3" width="15.7777777777778" style="2" customWidth="1"/>
+    <col min="4" max="4" width="12.6666666666667" style="2" customWidth="1"/>
+    <col min="5" max="5" width="12.2222222222222" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.6666666666667" style="2" customWidth="1"/>
     <col min="7" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -12302,7 +12311,7 @@
         <v>20</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="E7" s="5">
         <v>7</v>
@@ -12322,7 +12331,7 @@
         <v>30</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="E8" s="5">
         <v>8</v>
@@ -12342,7 +12351,7 @@
         <v>40</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="E9" s="5">
         <v>9</v>
@@ -12362,7 +12371,7 @@
         <v>50</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="E10" s="5">
         <v>9</v>
@@ -12382,7 +12391,7 @@
         <v>80</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>903</v>
+        <v>906</v>
       </c>
       <c r="E11" s="5">
         <v>9</v>
@@ -12404,16 +12413,16 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.87962962962963" defaultRowHeight="15.6" outlineLevelRow="6" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15.6" outlineLevelRow="6" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="3.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.8796296296296" style="1" customWidth="1"/>
-    <col min="3" max="3" width="45.6296296296296" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.37962962962963" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.87962962962963" style="1"/>
+    <col min="1" max="1" width="3.44444444444444" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.8888888888889" style="1" customWidth="1"/>
+    <col min="3" max="3" width="45.6666666666667" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.33333333333333" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.88888888888889" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -12421,13 +12430,13 @@
         <v>200</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>904</v>
+        <v>907</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>905</v>
+        <v>908</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>906</v>
+        <v>909</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -12435,13 +12444,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>907</v>
+        <v>910</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>908</v>
+        <v>911</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>909</v>
+        <v>912</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -12452,10 +12461,10 @@
         <v>641</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>910</v>
+        <v>913</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>911</v>
+        <v>914</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -12463,13 +12472,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>912</v>
+        <v>915</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>913</v>
+        <v>916</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>914</v>
+        <v>917</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -12480,10 +12489,10 @@
         <v>759</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>915</v>
+        <v>918</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>909</v>
+        <v>912</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -12491,13 +12500,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>916</v>
+        <v>919</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>920</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>917</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>914</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -12505,13 +12514,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>918</v>
+        <v>921</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>919</v>
+        <v>922</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>914</v>
+        <v>917</v>
       </c>
     </row>
   </sheetData>
@@ -12526,13 +12535,13 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.87962962962963" defaultRowHeight="13.8" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8" outlineLevelCol="5"/>
   <cols>
-    <col min="2" max="2" width="13.25" customWidth="1"/>
-    <col min="3" max="6" width="18.6296296296296" customWidth="1"/>
+    <col min="2" max="2" width="13.2222222222222" customWidth="1"/>
+    <col min="3" max="6" width="18.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.6" spans="1:6">
@@ -12540,19 +12549,19 @@
         <v>200</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>920</v>
+        <v>923</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>921</v>
+        <v>924</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>923</v>
+        <v>926</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>924</v>
+        <v>927</v>
       </c>
     </row>
     <row r="2" ht="15.6" spans="1:6">
@@ -12560,19 +12569,19 @@
         <v>200</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>925</v>
+        <v>928</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>926</v>
+        <v>929</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>927</v>
+        <v>930</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>928</v>
+        <v>931</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>929</v>
+        <v>932</v>
       </c>
     </row>
     <row r="3" ht="15.6" spans="1:6">
@@ -12683,16 +12692,16 @@
         <v>6</v>
       </c>
       <c r="C8" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D8" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E8" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F8" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" ht="15.6" spans="1:6">
@@ -12703,16 +12712,16 @@
         <v>7</v>
       </c>
       <c r="C9" s="3">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D9" s="3">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E9" s="3">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F9" s="3">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" ht="15.6" spans="1:6">
@@ -12723,16 +12732,16 @@
         <v>8</v>
       </c>
       <c r="C10" s="3">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D10" s="3">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E10" s="3">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F10" s="3">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" ht="15.6" spans="1:6">
@@ -12743,16 +12752,16 @@
         <v>9</v>
       </c>
       <c r="C11" s="3">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D11" s="3">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E11" s="3">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F11" s="3">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" ht="15.6" spans="1:6">
@@ -12790,13 +12799,13 @@
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.87962962962963" defaultRowHeight="15.6" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15.6" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="8.87962962962963" style="1"/>
-    <col min="2" max="2" width="22.8796296296296" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.87962962962963" style="1"/>
-    <col min="4" max="4" width="44.5" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.87962962962963" style="1"/>
+    <col min="1" max="1" width="8.88888888888889" style="1"/>
+    <col min="2" max="2" width="22.8888888888889" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88888888888889" style="1"/>
+    <col min="4" max="4" width="44.4444444444444" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.88888888888889" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -12804,13 +12813,13 @@
         <v>200</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>930</v>
+        <v>933</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>931</v>
+        <v>934</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>932</v>
+        <v>935</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -12821,10 +12830,10 @@
         <v>353</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>933</v>
+        <v>936</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>934</v>
+        <v>937</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -12835,10 +12844,10 @@
         <v>354</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>935</v>
+        <v>938</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>936</v>
+        <v>939</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -12849,10 +12858,10 @@
         <v>355</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>937</v>
+        <v>940</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>938</v>
+        <v>941</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -12863,10 +12872,10 @@
         <v>356</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>939</v>
+        <v>942</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>940</v>
+        <v>943</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -12877,10 +12886,10 @@
         <v>357</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>941</v>
+        <v>944</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>942</v>
+        <v>945</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -12891,10 +12900,10 @@
         <v>358</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>943</v>
+        <v>946</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>944</v>
+        <v>947</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -12905,10 +12914,10 @@
         <v>359</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>945</v>
+        <v>948</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>946</v>
+        <v>949</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -12919,10 +12928,10 @@
         <v>360</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>947</v>
+        <v>950</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>948</v>
+        <v>951</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -12933,10 +12942,10 @@
         <v>361</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>949</v>
+        <v>952</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>950</v>
+        <v>953</v>
       </c>
     </row>
   </sheetData>
@@ -12954,12 +12963,12 @@
       <selection activeCell="B3" sqref="B3:B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.87962962962963" defaultRowHeight="15.6" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15.6" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="18" style="2" customWidth="1"/>
-    <col min="2" max="2" width="10.6296296296296" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.1296296296296" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.87962962962963" style="1"/>
+    <col min="2" max="2" width="10.6666666666667" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.1111111111111" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.88888888888889" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -12967,10 +12976,10 @@
         <v>200</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>951</v>
+        <v>954</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>952</v>
+        <v>955</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -12978,10 +12987,10 @@
         <v>200</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>953</v>
+        <v>956</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>954</v>
+        <v>957</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -12989,7 +12998,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>955</v>
+        <v>958</v>
       </c>
       <c r="C3" s="1">
         <v>1</v>
@@ -13000,7 +13009,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>956</v>
+        <v>959</v>
       </c>
       <c r="C4" s="1">
         <v>3</v>
@@ -13011,7 +13020,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>957</v>
+        <v>960</v>
       </c>
       <c r="C5" s="1">
         <v>5</v>
@@ -13022,7 +13031,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>958</v>
+        <v>961</v>
       </c>
       <c r="C6" s="1">
         <v>7</v>
@@ -13033,7 +13042,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>959</v>
+        <v>962</v>
       </c>
       <c r="C7" s="1">
         <v>9</v>
@@ -13069,12 +13078,12 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.87962962962963" defaultRowHeight="15.6" outlineLevelRow="7" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15.6" outlineLevelRow="7" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="8.87962962962963" style="1"/>
-    <col min="2" max="2" width="9.62962962962963" style="1" customWidth="1"/>
-    <col min="3" max="3" width="27.6296296296296" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.87962962962963" style="1"/>
+    <col min="1" max="1" width="8.88888888888889" style="1"/>
+    <col min="2" max="2" width="9.66666666666667" style="1" customWidth="1"/>
+    <col min="3" max="3" width="27.6666666666667" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.88888888888889" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -13085,7 +13094,7 @@
         <v>654</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>960</v>
+        <v>963</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -13096,7 +13105,7 @@
         <v>669</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>961</v>
+        <v>964</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -13104,10 +13113,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>962</v>
+        <v>965</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>963</v>
+        <v>966</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -13115,10 +13124,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>964</v>
+        <v>967</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>965</v>
+        <v>968</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -13126,10 +13135,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>966</v>
+        <v>969</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>967</v>
+        <v>970</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -13137,10 +13146,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>968</v>
+        <v>971</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>969</v>
+        <v>972</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -13148,10 +13157,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>970</v>
+        <v>973</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>971</v>
+        <v>974</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -13159,10 +13168,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>972</v>
+        <v>975</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>973</v>
+        <v>976</v>
       </c>
     </row>
   </sheetData>
@@ -19548,15 +19557,15 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.2"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="10.8796296296296" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.37962962962963" style="1" customWidth="1"/>
-    <col min="4" max="4" width="23.8796296296296" style="1" customWidth="1"/>
-    <col min="5" max="5" width="19.1296296296296" style="21" customWidth="1"/>
-    <col min="6" max="7" width="9.62962962962963" style="1" customWidth="1"/>
-    <col min="8" max="8" width="20.75" style="1" customWidth="1"/>
-    <col min="9" max="9" width="27.8796296296296" style="1" customWidth="1"/>
-    <col min="10" max="10" width="10.6296296296296" style="1" customWidth="1"/>
-    <col min="11" max="11" width="13.25" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.8888888888889" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.33333333333333" style="1" customWidth="1"/>
+    <col min="4" max="4" width="23.8888888888889" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19.1111111111111" style="21" customWidth="1"/>
+    <col min="6" max="7" width="9.66666666666667" style="1" customWidth="1"/>
+    <col min="8" max="8" width="20.7777777777778" style="1" customWidth="1"/>
+    <col min="9" max="9" width="27.8888888888889" style="1" customWidth="1"/>
+    <col min="10" max="10" width="10.6666666666667" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.2222222222222" style="1" customWidth="1"/>
     <col min="12" max="12" width="18" style="1" customWidth="1"/>
     <col min="13" max="16384" width="9" style="1"/>
   </cols>
@@ -28520,7 +28529,7 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="8.62962962962963" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.66666666666667" style="1" customWidth="1"/>
     <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -28899,7 +28908,7 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="10.8796296296296" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.8888888888889" style="1" customWidth="1"/>
     <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -29500,21 +29509,21 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="2" max="2" width="18.3796296296296" customWidth="1"/>
-    <col min="3" max="3" width="20.5" customWidth="1"/>
-    <col min="4" max="4" width="13.5" customWidth="1"/>
+    <col min="2" max="2" width="18.3333333333333" customWidth="1"/>
+    <col min="3" max="3" width="20.4444444444444" customWidth="1"/>
+    <col min="4" max="4" width="13.4444444444444" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
-    <col min="6" max="6" width="16.8796296296296" customWidth="1"/>
-    <col min="7" max="7" width="12.1296296296296" customWidth="1"/>
-    <col min="8" max="8" width="13.25" customWidth="1"/>
+    <col min="6" max="6" width="16.8888888888889" customWidth="1"/>
+    <col min="7" max="7" width="12.1111111111111" customWidth="1"/>
+    <col min="8" max="8" width="13.2222222222222" customWidth="1"/>
     <col min="9" max="9" width="19" customWidth="1"/>
-    <col min="10" max="10" width="37.75" customWidth="1"/>
-    <col min="11" max="11" width="12.3796296296296" customWidth="1"/>
-    <col min="12" max="12" width="11.6296296296296" customWidth="1"/>
-    <col min="13" max="13" width="11.25" customWidth="1"/>
-    <col min="14" max="14" width="12.3796296296296" customWidth="1"/>
-    <col min="15" max="15" width="12.5" customWidth="1"/>
-    <col min="16" max="16" width="12.1296296296296" customWidth="1"/>
+    <col min="10" max="10" width="37.7777777777778" customWidth="1"/>
+    <col min="11" max="11" width="12.3333333333333" customWidth="1"/>
+    <col min="12" max="12" width="11.6666666666667" customWidth="1"/>
+    <col min="13" max="13" width="11.2222222222222" customWidth="1"/>
+    <col min="14" max="14" width="12.3333333333333" customWidth="1"/>
+    <col min="15" max="15" width="12.4444444444444" customWidth="1"/>
+    <col min="16" max="16" width="12.1111111111111" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.6" spans="1:16">
@@ -31954,10 +31963,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="6" outlineLevelCol="4"/>
   <cols>
-    <col min="2" max="2" width="11.1296296296296" customWidth="1"/>
-    <col min="3" max="3" width="17.1296296296296" customWidth="1"/>
+    <col min="2" max="2" width="11.1111111111111" customWidth="1"/>
+    <col min="3" max="3" width="17.1111111111111" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
-    <col min="5" max="5" width="17.8796296296296" customWidth="1"/>
+    <col min="5" max="5" width="17.8888888888889" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">

--- a/Conversion/AutoChangeJson/datasrc/111.xlsx
+++ b/Conversion/AutoChangeJson/datasrc/111.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20928" windowHeight="9960" tabRatio="812" firstSheet="11" activeTab="12"/>
+    <workbookView windowWidth="22368" windowHeight="9420" tabRatio="812" firstSheet="11" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="RoleTable0" sheetId="2" r:id="rId1"/>
@@ -3783,10 +3783,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="32">
     <font>
@@ -3852,6 +3852,30 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
@@ -3873,11 +3897,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3888,18 +3911,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3911,8 +3927,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3926,33 +3943,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3974,19 +3966,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -3996,9 +3986,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
@@ -4027,13 +4027,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4045,7 +4045,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4057,13 +4063,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4081,7 +4093,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4093,19 +4111,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4123,7 +4141,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4135,19 +4153,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4159,13 +4183,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4177,37 +4207,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4290,21 +4290,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -4329,13 +4314,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4387,16 +4376,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4405,34 +4405,37 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4441,100 +4444,97 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="20" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -11847,7 +11847,7 @@
   <dimension ref="A1:S5"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="4"/>
@@ -11999,28 +11999,28 @@
         <v>150</v>
       </c>
       <c r="H3" s="10">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I3" s="1">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J3" s="1">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="K3" s="1">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="L3" s="1">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="M3" s="1">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="N3" s="1">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="O3" s="9">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="P3" s="13">
         <v>100</v>
@@ -12058,28 +12058,28 @@
         <v>200</v>
       </c>
       <c r="H4" s="10">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I4" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J4" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="K4" s="1">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="L4" s="1">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="M4" s="1">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="N4" s="1">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="O4" s="9">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="P4" s="13">
         <v>150</v>
@@ -12117,28 +12117,28 @@
         <v>300</v>
       </c>
       <c r="H5" s="10">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I5" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J5" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="K5" s="1">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="L5" s="1">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="M5" s="1">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="N5" s="1">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="O5" s="9">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="P5" s="13">
         <v>200</v>

--- a/Conversion/AutoChangeJson/datasrc/111.xlsx
+++ b/Conversion/AutoChangeJson/datasrc/111.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" tabRatio="812" firstSheet="11" activeTab="12"/>
+    <workbookView windowWidth="22368" windowHeight="9420" tabRatio="812" firstSheet="4" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="RoleTable0" sheetId="2" r:id="rId1"/>
@@ -828,7 +828,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2725" uniqueCount="977">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2759" uniqueCount="984">
   <si>
     <t>index</t>
   </si>
@@ -2851,6 +2851,9 @@
     <t>seat9</t>
   </si>
   <si>
+    <t>intro</t>
+  </si>
+  <si>
     <t>关卡id</t>
   </si>
   <si>
@@ -2896,42 +2899,81 @@
     <t>位置9</t>
   </si>
   <si>
+    <t>缩写</t>
+  </si>
+  <si>
+    <t>势力</t>
+  </si>
+  <si>
     <t>战斗开始前播放，一二三四五六七八九十</t>
   </si>
   <si>
     <t>战斗结束后播放，一二三四五六七八九十</t>
   </si>
   <si>
-    <t>战役最后</t>
-  </si>
-  <si>
     <t>89,1</t>
   </si>
   <si>
+    <t>黄帝</t>
+  </si>
+  <si>
+    <t>黄</t>
+  </si>
+  <si>
     <t>90,1</t>
   </si>
   <si>
+    <t>魔王</t>
+  </si>
+  <si>
+    <t>蚩</t>
+  </si>
+  <si>
     <t>91,1</t>
   </si>
   <si>
+    <t>战神</t>
+  </si>
+  <si>
+    <t>炎</t>
+  </si>
+  <si>
     <t>92,1</t>
   </si>
   <si>
+    <t>水神</t>
+  </si>
+  <si>
     <t>洪荒凶兽</t>
   </si>
   <si>
     <t>93,1</t>
   </si>
   <si>
+    <t>洪荒</t>
+  </si>
+  <si>
+    <t>荒</t>
+  </si>
+  <si>
     <t>94,1</t>
   </si>
   <si>
+    <t>乌</t>
+  </si>
+  <si>
     <t>95,1</t>
   </si>
   <si>
+    <t>烛</t>
+  </si>
+  <si>
     <t>96,1</t>
   </si>
   <si>
+    <t>大荒</t>
+  </si>
+  <si>
     <t>妖兽侵袭</t>
   </si>
   <si>
@@ -2953,6 +2995,9 @@
     <t>6,1</t>
   </si>
   <si>
+    <t>妖兽</t>
+  </si>
+  <si>
     <t>北方之敌</t>
   </si>
   <si>
@@ -3367,27 +3412,15 @@
     <t>东洲有一富庶之国，炎帝神农率火正祝融、水正共工，战将刑天等统御一方。炎帝神农好德向善，众望所归，万千部落皆臣服。</t>
   </si>
   <si>
-    <t>炎</t>
-  </si>
-  <si>
     <t>炎帝神农</t>
   </si>
   <si>
-    <t>黄帝</t>
-  </si>
-  <si>
     <t>九州之北穷山恶水，常有妖兽出没。至轩辕氏出一个奇人，天生不惧妖兽，纳常先、大鸿为臣，拜力牧、风后为将，又得九天玄女相助，一统北方部族，自号为黄帝。</t>
   </si>
   <si>
-    <t>黄</t>
-  </si>
-  <si>
     <t>南疆地势险要，数百部族各自称王。九黎部族长蚩尤率心腹81人，降服众族，于山岭之间筑起九黎城，屯兵聚强，一时名声大噪。</t>
   </si>
   <si>
-    <t>蚩</t>
-  </si>
-  <si>
     <t>东海之外，甘水之间，有羲和之国。十日之母羲和，常憩于扶桑树下。天雷作响，羲和睁开双目，遥望九州之境。</t>
   </si>
   <si>
@@ -3412,28 +3445,16 @@
     <t>钟山之境有一上古正神，名曰烛阴，为龙族之首。烛阴统领龙族，在此镇压万千海兽，成一方之主。</t>
   </si>
   <si>
-    <t>烛</t>
-  </si>
-  <si>
     <t>钟山烛阴</t>
   </si>
   <si>
     <t>九霄之外，乃飞兽之国。金翅鹏扇风起雾，九婴吞水吐火。金乌王统领万千飞兽，翱翔千里，俯瞰九州。</t>
   </si>
   <si>
-    <t>乌</t>
-  </si>
-  <si>
     <t>太虚金乌</t>
   </si>
   <si>
-    <t>大荒</t>
-  </si>
-  <si>
     <t>大荒之境有百兽沉眠，饕餮、穷奇、梼杌皆为鸿蒙凶兽。至天柱倾塌之时，凶兽之主混沌降世，大荒之国终于苏醒。</t>
-  </si>
-  <si>
-    <t>荒</t>
   </si>
   <si>
     <t>伏羲依万物生息规律演绎八卦，令十二祖巫掌管风水雷电，天地初定。伏羲携众神归隐于东海深处，休养生息。</t>
@@ -3853,6 +3874,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
@@ -3869,7 +3898,7 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -3877,7 +3906,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3885,13 +3914,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3912,7 +3934,7 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -3927,6 +3949,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -3935,19 +3964,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <sz val="12"/>
+      <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -3974,9 +3993,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -3986,16 +4007,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4027,13 +4048,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4045,13 +4072,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4069,37 +4096,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4111,19 +4120,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4141,7 +4144,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4153,7 +4156,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4165,31 +4174,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4201,13 +4216,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4290,6 +4311,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -4310,30 +4355,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4393,10 +4414,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4405,19 +4426,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4426,16 +4447,10 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4444,49 +4459,67 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4495,46 +4528,34 @@
     <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -10318,10 +10339,10 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O21"/>
+  <dimension ref="A1:Q21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R15" sqref="R15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S7" sqref="S7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
@@ -10337,7 +10358,7 @@
     <col min="17" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="A1" s="1" t="s">
         <v>653</v>
       </c>
@@ -10383,55 +10404,67 @@
       <c r="O1" s="1" t="s">
         <v>667</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+        <v>683</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>901</v>
       </c>
@@ -10442,19 +10475,25 @@
         <v>192</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>683</v>
+        <v>686</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>684</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>685</v>
+        <v>687</v>
+      </c>
+      <c r="F3" s="1">
+        <v>-1</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+        <v>688</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>902</v>
       </c>
@@ -10465,19 +10504,25 @@
         <v>193</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>683</v>
+        <v>686</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>684</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>685</v>
+        <v>687</v>
+      </c>
+      <c r="F4" s="1">
+        <v>-1</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+        <v>691</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>903</v>
       </c>
@@ -10488,19 +10533,25 @@
         <v>194</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>683</v>
+        <v>686</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>684</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>685</v>
+        <v>687</v>
+      </c>
+      <c r="F5" s="1">
+        <v>-1</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+        <v>694</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>904</v>
       </c>
@@ -10511,19 +10562,25 @@
         <v>195</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>683</v>
+        <v>686</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>684</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>685</v>
+        <v>687</v>
+      </c>
+      <c r="F6" s="1">
+        <v>-1</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
+        <v>697</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>905</v>
       </c>
@@ -10531,22 +10588,28 @@
         <v>2</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>690</v>
+        <v>699</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>683</v>
+        <v>686</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>684</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>685</v>
+        <v>687</v>
+      </c>
+      <c r="F7" s="1">
+        <v>-1</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
+        <v>700</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>906</v>
       </c>
@@ -10557,19 +10620,25 @@
         <v>197</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>683</v>
+        <v>686</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>684</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>685</v>
+        <v>687</v>
+      </c>
+      <c r="F8" s="1">
+        <v>-1</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
+        <v>703</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>907</v>
       </c>
@@ -10580,19 +10649,25 @@
         <v>198</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>683</v>
+        <v>686</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>684</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>685</v>
+        <v>687</v>
+      </c>
+      <c r="F9" s="1">
+        <v>-1</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
+        <v>705</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>908</v>
       </c>
@@ -10603,19 +10678,25 @@
         <v>199</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>683</v>
+        <v>686</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>684</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>685</v>
+        <v>687</v>
+      </c>
+      <c r="F10" s="1">
+        <v>-1</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>707</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>1</v>
       </c>
@@ -10623,31 +10704,37 @@
         <v>1</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>695</v>
+        <v>709</v>
       </c>
       <c r="F11" s="1">
         <v>5</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>696</v>
+        <v>710</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>697</v>
+        <v>711</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>698</v>
+        <v>712</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>699</v>
+        <v>713</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>700</v>
+        <v>714</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>715</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>716</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>2</v>
       </c>
@@ -10655,31 +10742,37 @@
         <v>1</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>702</v>
+        <v>717</v>
       </c>
       <c r="F12" s="1">
         <v>10</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>703</v>
+        <v>718</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>704</v>
+        <v>719</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>705</v>
+        <v>720</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>706</v>
+        <v>721</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>707</v>
+        <v>722</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>723</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>3</v>
       </c>
@@ -10687,40 +10780,46 @@
         <v>1</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>709</v>
+        <v>724</v>
       </c>
       <c r="F13" s="1">
         <v>15</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>710</v>
+        <v>725</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>711</v>
+        <v>726</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>712</v>
+        <v>727</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>713</v>
+        <v>728</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>714</v>
+        <v>729</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>715</v>
+        <v>730</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>706</v>
+        <v>721</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>707</v>
+        <v>722</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>723</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>4</v>
       </c>
@@ -10728,40 +10827,46 @@
         <v>1</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>716</v>
+        <v>731</v>
       </c>
       <c r="F14" s="1">
         <v>20</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>710</v>
+        <v>725</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>717</v>
+        <v>732</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>712</v>
+        <v>727</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>718</v>
+        <v>733</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>719</v>
+        <v>734</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>720</v>
+        <v>735</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>721</v>
+        <v>736</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>722</v>
+        <v>737</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>738</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>5</v>
       </c>
@@ -10769,40 +10874,46 @@
         <v>1</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>724</v>
+        <v>739</v>
       </c>
       <c r="F15" s="1">
         <v>25</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>725</v>
+        <v>740</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>726</v>
+        <v>741</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>727</v>
+        <v>742</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>728</v>
+        <v>743</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>729</v>
+        <v>744</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>730</v>
+        <v>745</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>706</v>
+        <v>721</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>707</v>
+        <v>722</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>723</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>6</v>
       </c>
@@ -10810,40 +10921,46 @@
         <v>1</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>731</v>
+        <v>746</v>
       </c>
       <c r="F16" s="1">
         <v>30</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>732</v>
+        <v>747</v>
       </c>
       <c r="H16" s="1" t="s">
+        <v>748</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>749</v>
+      </c>
+      <c r="J16" s="1" t="s">
         <v>733</v>
       </c>
-      <c r="I16" s="1" t="s">
+      <c r="K16" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="L16" s="1" t="s">
         <v>734</v>
       </c>
-      <c r="J16" s="1" t="s">
-        <v>718</v>
-      </c>
-      <c r="K16" s="1" t="s">
+      <c r="M16" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="L16" s="1" t="s">
-        <v>719</v>
-      </c>
-      <c r="M16" s="1" t="s">
-        <v>720</v>
-      </c>
       <c r="N16" s="1" t="s">
-        <v>721</v>
+        <v>736</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>737</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>7</v>
       </c>
@@ -10857,34 +10974,40 @@
         <v>35</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>722</v>
+        <v>737</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>736</v>
+        <v>751</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>737</v>
+        <v>752</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>735</v>
+        <v>750</v>
       </c>
       <c r="K17" s="1" t="s">
+        <v>753</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="M17" s="1" t="s">
         <v>738</v>
       </c>
-      <c r="L17" s="1" t="s">
-        <v>729</v>
-      </c>
-      <c r="M17" s="1" t="s">
-        <v>723</v>
-      </c>
       <c r="N17" s="1" t="s">
-        <v>739</v>
+        <v>754</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>755</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q17" s="1" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>8</v>
       </c>
@@ -10892,40 +11015,46 @@
         <v>1</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>741</v>
+        <v>756</v>
       </c>
       <c r="F18" s="1">
         <v>40</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>742</v>
+        <v>757</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>743</v>
+        <v>758</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>744</v>
+        <v>759</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>745</v>
+        <v>760</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>746</v>
+        <v>761</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>747</v>
+        <v>762</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>748</v>
+        <v>763</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>749</v>
+        <v>764</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>765</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q18" s="1" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>9</v>
       </c>
@@ -10939,34 +11068,40 @@
         <v>45</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>751</v>
+        <v>766</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>729</v>
+        <v>744</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>752</v>
+        <v>767</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>753</v>
+        <v>768</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>754</v>
+        <v>769</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>755</v>
+        <v>770</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>756</v>
+        <v>771</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>757</v>
+        <v>772</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>773</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q19" s="1" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>10</v>
       </c>
@@ -10974,40 +11109,46 @@
         <v>1</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>759</v>
+        <v>774</v>
       </c>
       <c r="F20" s="1">
         <v>50</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>742</v>
+        <v>757</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>743</v>
+        <v>758</v>
       </c>
       <c r="I20" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>767</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="L20" s="1" t="s">
         <v>744</v>
       </c>
-      <c r="J20" s="1" t="s">
-        <v>752</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>750</v>
-      </c>
-      <c r="L20" s="1" t="s">
-        <v>729</v>
-      </c>
       <c r="M20" s="1" t="s">
-        <v>760</v>
+        <v>775</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>761</v>
+        <v>776</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>777</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q20" s="1" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>11</v>
       </c>
@@ -11015,37 +11156,43 @@
         <v>1</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>763</v>
+        <v>778</v>
       </c>
       <c r="F21" s="1">
         <v>55</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>743</v>
+        <v>758</v>
       </c>
       <c r="H21" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>779</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>768</v>
+      </c>
+      <c r="K21" s="1" t="s">
         <v>744</v>
       </c>
-      <c r="I21" s="1" t="s">
-        <v>764</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>753</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>729</v>
-      </c>
       <c r="L21" s="1" t="s">
-        <v>754</v>
+        <v>769</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>765</v>
+        <v>780</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>766</v>
+        <v>781</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>767</v>
+        <v>782</v>
+      </c>
+      <c r="P21" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q21" s="1" t="s">
+        <v>702</v>
       </c>
     </row>
   </sheetData>
@@ -11078,16 +11225,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>768</v>
+        <v>783</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>769</v>
+        <v>784</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>770</v>
+        <v>785</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>771</v>
+        <v>786</v>
       </c>
     </row>
     <row r="2" ht="17.4" spans="1:5">
@@ -11095,16 +11242,16 @@
         <v>13</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>772</v>
+        <v>787</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>773</v>
+        <v>788</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>774</v>
+        <v>789</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>775</v>
+        <v>790</v>
       </c>
     </row>
     <row r="3" ht="17.4" spans="1:5">
@@ -11112,16 +11259,16 @@
         <v>16</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>776</v>
+        <v>791</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>777</v>
+        <v>792</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>778</v>
+        <v>793</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>779</v>
+        <v>794</v>
       </c>
     </row>
     <row r="4" ht="17.4" spans="1:5">
@@ -11129,16 +11276,16 @@
         <v>23</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>780</v>
+        <v>795</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>781</v>
+        <v>796</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>782</v>
+        <v>797</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>783</v>
+        <v>798</v>
       </c>
     </row>
     <row r="5" ht="17.4" spans="1:5">
@@ -11146,16 +11293,16 @@
         <v>26</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>784</v>
+        <v>799</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>785</v>
+        <v>800</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>786</v>
+        <v>801</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>787</v>
+        <v>802</v>
       </c>
     </row>
     <row r="6" ht="17.4" spans="1:5">
@@ -11163,16 +11310,16 @@
         <v>33</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>788</v>
+        <v>803</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>789</v>
+        <v>804</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>790</v>
+        <v>805</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>791</v>
+        <v>806</v>
       </c>
     </row>
     <row r="7" ht="17.4" spans="1:5">
@@ -11180,16 +11327,16 @@
         <v>36</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>792</v>
+        <v>807</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>793</v>
+        <v>808</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>794</v>
+        <v>809</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>795</v>
+        <v>810</v>
       </c>
     </row>
     <row r="8" ht="17.4" spans="1:5">
@@ -11197,16 +11344,16 @@
         <v>43</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>811</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>796</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>781</v>
-      </c>
       <c r="D8" s="3" t="s">
-        <v>797</v>
+        <v>812</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>798</v>
+        <v>813</v>
       </c>
     </row>
     <row r="9" ht="17.4" spans="1:5">
@@ -11214,16 +11361,16 @@
         <v>46</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>799</v>
+        <v>814</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>785</v>
+        <v>800</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>800</v>
+        <v>815</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>801</v>
+        <v>816</v>
       </c>
     </row>
     <row r="10" ht="17.4" spans="1:5">
@@ -11231,16 +11378,16 @@
         <v>53</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>802</v>
+        <v>817</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>789</v>
+        <v>804</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>803</v>
+        <v>818</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>804</v>
+        <v>819</v>
       </c>
     </row>
     <row r="11" ht="17.4" spans="1:5">
@@ -11248,16 +11395,16 @@
         <v>56</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>805</v>
+        <v>820</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>793</v>
+        <v>808</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>806</v>
+        <v>821</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>807</v>
+        <v>822</v>
       </c>
     </row>
     <row r="12" ht="17.4" spans="1:5">
@@ -11265,16 +11412,16 @@
         <v>63</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>808</v>
+        <v>823</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>789</v>
+        <v>804</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>809</v>
+        <v>824</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>810</v>
+        <v>825</v>
       </c>
     </row>
     <row r="13" ht="17.4" spans="1:5">
@@ -11282,16 +11429,16 @@
         <v>66</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>811</v>
+        <v>826</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>793</v>
+        <v>808</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>812</v>
+        <v>827</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>813</v>
+        <v>828</v>
       </c>
     </row>
     <row r="14" ht="17.4" spans="1:5">
@@ -11299,16 +11446,16 @@
         <v>73</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>814</v>
+        <v>829</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>789</v>
+        <v>804</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>815</v>
+        <v>830</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>816</v>
+        <v>831</v>
       </c>
     </row>
     <row r="15" ht="17.4" spans="1:5">
@@ -11316,16 +11463,16 @@
         <v>76</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>817</v>
+        <v>832</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>793</v>
+        <v>808</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>818</v>
+        <v>833</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>819</v>
+        <v>834</v>
       </c>
     </row>
     <row r="16" ht="17.4" spans="1:5">
@@ -11333,16 +11480,16 @@
         <v>83</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>820</v>
+        <v>835</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>821</v>
+        <v>836</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>822</v>
+        <v>837</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>823</v>
+        <v>838</v>
       </c>
     </row>
     <row r="17" ht="17.4" spans="1:5">
@@ -11350,16 +11497,16 @@
         <v>86</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>824</v>
+        <v>839</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>821</v>
+        <v>836</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>825</v>
+        <v>840</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>826</v>
+        <v>841</v>
       </c>
     </row>
     <row r="18" ht="17.4" spans="1:5">
@@ -11367,16 +11514,16 @@
         <v>93</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>827</v>
+        <v>842</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>789</v>
+        <v>804</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>828</v>
+        <v>843</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>829</v>
+        <v>844</v>
       </c>
     </row>
     <row r="19" ht="17.4" spans="1:5">
@@ -11384,16 +11531,16 @@
         <v>96</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>830</v>
+        <v>845</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>793</v>
+        <v>808</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>831</v>
+        <v>846</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>832</v>
+        <v>847</v>
       </c>
     </row>
     <row r="20" ht="17.4" spans="1:2">
@@ -11599,19 +11746,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>833</v>
+        <v>848</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>834</v>
+        <v>849</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>835</v>
+        <v>850</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>836</v>
+        <v>851</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>837</v>
+        <v>852</v>
       </c>
     </row>
     <row r="2" ht="17.4" spans="1:6">
@@ -11619,19 +11766,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>838</v>
+        <v>853</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>839</v>
+        <v>854</v>
       </c>
       <c r="D2" s="4">
         <v>0</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>840</v>
+        <v>696</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>841</v>
+        <v>855</v>
       </c>
     </row>
     <row r="3" ht="17.4" spans="1:6">
@@ -11639,16 +11786,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>842</v>
+        <v>689</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>843</v>
+        <v>856</v>
       </c>
       <c r="D3" s="4">
         <v>0</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>844</v>
+        <v>690</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>192</v>
@@ -11662,13 +11809,13 @@
         <v>165</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>845</v>
+        <v>857</v>
       </c>
       <c r="D4" s="4">
         <v>0</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>846</v>
+        <v>693</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>193</v>
@@ -11682,16 +11829,16 @@
         <v>183</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>847</v>
+        <v>858</v>
       </c>
       <c r="D5" s="4">
         <v>10</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>848</v>
+        <v>859</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>849</v>
+        <v>860</v>
       </c>
     </row>
     <row r="6" ht="17.4" spans="1:6">
@@ -11702,16 +11849,16 @@
         <v>147</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>850</v>
+        <v>861</v>
       </c>
       <c r="D6" s="4">
         <v>20</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>851</v>
+        <v>862</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>852</v>
+        <v>863</v>
       </c>
     </row>
     <row r="7" ht="17.4" spans="1:6">
@@ -11719,19 +11866,19 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>853</v>
+        <v>864</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>854</v>
+        <v>865</v>
       </c>
       <c r="D7" s="4">
         <v>30</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>855</v>
+        <v>706</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>856</v>
+        <v>866</v>
       </c>
     </row>
     <row r="8" ht="17.4" spans="1:6">
@@ -11742,16 +11889,16 @@
         <v>75</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>857</v>
+        <v>867</v>
       </c>
       <c r="D8" s="4">
         <v>40</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>858</v>
+        <v>704</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>859</v>
+        <v>868</v>
       </c>
     </row>
     <row r="9" ht="17.4" spans="1:6">
@@ -11759,16 +11906,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>860</v>
+        <v>708</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>861</v>
+        <v>869</v>
       </c>
       <c r="D9" s="4">
         <v>50</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>862</v>
+        <v>702</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>199</v>
@@ -11782,16 +11929,16 @@
         <v>111</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>863</v>
+        <v>870</v>
       </c>
       <c r="D10" s="4">
         <v>60</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>864</v>
+        <v>871</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>865</v>
+        <v>872</v>
       </c>
     </row>
     <row r="11" ht="17.4" spans="1:6">
@@ -11802,16 +11949,16 @@
         <v>93</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>866</v>
+        <v>873</v>
       </c>
       <c r="D11" s="4">
         <v>70</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>867</v>
+        <v>874</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>868</v>
+        <v>875</v>
       </c>
     </row>
     <row r="12" ht="17.4" spans="1:6">
@@ -11819,19 +11966,19 @@
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>869</v>
+        <v>876</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>870</v>
+        <v>877</v>
       </c>
       <c r="D12" s="4">
         <v>80</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>871</v>
+        <v>878</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>869</v>
+        <v>876</v>
       </c>
     </row>
   </sheetData>
@@ -11846,8 +11993,8 @@
   <sheetPr/>
   <dimension ref="A1:S5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="4"/>
@@ -11863,58 +12010,58 @@
         <v>200</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>872</v>
+        <v>879</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>873</v>
+        <v>880</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>874</v>
+        <v>881</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>875</v>
+        <v>882</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>876</v>
+        <v>883</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>877</v>
+        <v>884</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>878</v>
+        <v>885</v>
       </c>
       <c r="I1" s="11" t="s">
-        <v>879</v>
+        <v>886</v>
       </c>
       <c r="J1" s="11" t="s">
-        <v>880</v>
+        <v>887</v>
       </c>
       <c r="K1" s="11" t="s">
-        <v>881</v>
+        <v>888</v>
       </c>
       <c r="L1" s="11" t="s">
-        <v>882</v>
+        <v>889</v>
       </c>
       <c r="M1" s="11" t="s">
-        <v>883</v>
+        <v>890</v>
       </c>
       <c r="N1" s="11" t="s">
-        <v>884</v>
+        <v>891</v>
       </c>
       <c r="O1" s="12" t="s">
-        <v>885</v>
+        <v>892</v>
       </c>
       <c r="P1" s="13" t="s">
-        <v>886</v>
+        <v>893</v>
       </c>
       <c r="Q1" s="13" t="s">
-        <v>887</v>
+        <v>894</v>
       </c>
       <c r="R1" s="13" t="s">
-        <v>888</v>
+        <v>895</v>
       </c>
       <c r="S1" s="13" t="s">
-        <v>889</v>
+        <v>896</v>
       </c>
     </row>
     <row r="2" ht="15.6" spans="1:19">
@@ -11922,7 +12069,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>890</v>
+        <v>897</v>
       </c>
       <c r="C2" s="1">
         <v>100</v>
@@ -11981,7 +12128,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>891</v>
+        <v>898</v>
       </c>
       <c r="C3" s="1">
         <v>100</v>
@@ -12040,7 +12187,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>892</v>
+        <v>899</v>
       </c>
       <c r="C4" s="1">
         <v>150</v>
@@ -12099,7 +12246,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>893</v>
+        <v>900</v>
       </c>
       <c r="C5" s="1">
         <v>200</v>
@@ -12185,19 +12332,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>894</v>
+        <v>901</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>895</v>
+        <v>902</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>896</v>
+        <v>903</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>897</v>
+        <v>904</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>898</v>
+        <v>905</v>
       </c>
     </row>
     <row r="2" ht="17.4" spans="1:6">
@@ -12211,7 +12358,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>899</v>
+        <v>906</v>
       </c>
       <c r="E2" s="5">
         <v>2</v>
@@ -12231,7 +12378,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>899</v>
+        <v>906</v>
       </c>
       <c r="E3" s="5">
         <v>3</v>
@@ -12251,7 +12398,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>900</v>
+        <v>907</v>
       </c>
       <c r="E4" s="5">
         <v>4</v>
@@ -12271,7 +12418,7 @@
         <v>6</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>900</v>
+        <v>907</v>
       </c>
       <c r="E5" s="5">
         <v>5</v>
@@ -12291,7 +12438,7 @@
         <v>12</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>901</v>
+        <v>908</v>
       </c>
       <c r="E6" s="5">
         <v>6</v>
@@ -12311,7 +12458,7 @@
         <v>20</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>902</v>
+        <v>909</v>
       </c>
       <c r="E7" s="5">
         <v>7</v>
@@ -12331,7 +12478,7 @@
         <v>30</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>903</v>
+        <v>910</v>
       </c>
       <c r="E8" s="5">
         <v>8</v>
@@ -12351,7 +12498,7 @@
         <v>40</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>904</v>
+        <v>911</v>
       </c>
       <c r="E9" s="5">
         <v>9</v>
@@ -12371,7 +12518,7 @@
         <v>50</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>905</v>
+        <v>912</v>
       </c>
       <c r="E10" s="5">
         <v>9</v>
@@ -12391,7 +12538,7 @@
         <v>80</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>906</v>
+        <v>913</v>
       </c>
       <c r="E11" s="5">
         <v>9</v>
@@ -12430,13 +12577,13 @@
         <v>200</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>907</v>
+        <v>914</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>908</v>
+        <v>915</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>909</v>
+        <v>916</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -12444,13 +12591,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>910</v>
+        <v>917</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>911</v>
+        <v>918</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>912</v>
+        <v>919</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -12461,10 +12608,10 @@
         <v>641</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>913</v>
+        <v>920</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>914</v>
+        <v>921</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -12472,13 +12619,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>915</v>
+        <v>922</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>916</v>
+        <v>923</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>917</v>
+        <v>924</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -12486,13 +12633,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>759</v>
+        <v>774</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>918</v>
+        <v>925</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>912</v>
+        <v>919</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -12500,13 +12647,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>919</v>
+        <v>926</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>920</v>
+        <v>927</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>917</v>
+        <v>924</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -12514,13 +12661,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>921</v>
+        <v>928</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>922</v>
+        <v>929</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>917</v>
+        <v>924</v>
       </c>
     </row>
   </sheetData>
@@ -12549,19 +12696,19 @@
         <v>200</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>923</v>
+        <v>930</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>924</v>
+        <v>931</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>925</v>
+        <v>932</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>926</v>
+        <v>933</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>927</v>
+        <v>934</v>
       </c>
     </row>
     <row r="2" ht="15.6" spans="1:6">
@@ -12569,19 +12716,19 @@
         <v>200</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>928</v>
+        <v>935</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>929</v>
+        <v>936</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>930</v>
+        <v>937</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>931</v>
+        <v>938</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>932</v>
+        <v>939</v>
       </c>
     </row>
     <row r="3" ht="15.6" spans="1:6">
@@ -12813,13 +12960,13 @@
         <v>200</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>933</v>
+        <v>940</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>934</v>
+        <v>941</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>935</v>
+        <v>942</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -12830,10 +12977,10 @@
         <v>353</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>936</v>
+        <v>943</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>937</v>
+        <v>944</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -12844,10 +12991,10 @@
         <v>354</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>938</v>
+        <v>945</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>939</v>
+        <v>946</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -12858,10 +13005,10 @@
         <v>355</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>940</v>
+        <v>947</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>941</v>
+        <v>948</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -12872,10 +13019,10 @@
         <v>356</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>942</v>
+        <v>949</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>943</v>
+        <v>950</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -12886,10 +13033,10 @@
         <v>357</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>944</v>
+        <v>951</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>945</v>
+        <v>952</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -12900,10 +13047,10 @@
         <v>358</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>946</v>
+        <v>953</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>947</v>
+        <v>954</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -12914,10 +13061,10 @@
         <v>359</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>948</v>
+        <v>955</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>949</v>
+        <v>956</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -12928,10 +13075,10 @@
         <v>360</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>950</v>
+        <v>957</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>951</v>
+        <v>958</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -12942,10 +13089,10 @@
         <v>361</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>952</v>
+        <v>959</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>953</v>
+        <v>960</v>
       </c>
     </row>
   </sheetData>
@@ -12976,10 +13123,10 @@
         <v>200</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>954</v>
+        <v>961</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>955</v>
+        <v>962</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -12987,10 +13134,10 @@
         <v>200</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>956</v>
+        <v>963</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>957</v>
+        <v>964</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -12998,7 +13145,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>958</v>
+        <v>965</v>
       </c>
       <c r="C3" s="1">
         <v>1</v>
@@ -13009,7 +13156,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>959</v>
+        <v>966</v>
       </c>
       <c r="C4" s="1">
         <v>3</v>
@@ -13020,7 +13167,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>960</v>
+        <v>967</v>
       </c>
       <c r="C5" s="1">
         <v>5</v>
@@ -13031,7 +13178,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>961</v>
+        <v>968</v>
       </c>
       <c r="C6" s="1">
         <v>7</v>
@@ -13042,7 +13189,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>962</v>
+        <v>969</v>
       </c>
       <c r="C7" s="1">
         <v>9</v>
@@ -13094,7 +13241,7 @@
         <v>654</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>963</v>
+        <v>970</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -13102,10 +13249,10 @@
         <v>200</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>964</v>
+        <v>971</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -13113,10 +13260,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>965</v>
+        <v>972</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>966</v>
+        <v>973</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -13124,10 +13271,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>967</v>
+        <v>974</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>968</v>
+        <v>975</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -13135,10 +13282,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>969</v>
+        <v>976</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>970</v>
+        <v>977</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -13146,10 +13293,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>971</v>
+        <v>978</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>972</v>
+        <v>979</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -13157,10 +13304,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>973</v>
+        <v>980</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>974</v>
+        <v>981</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -13168,10 +13315,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>975</v>
+        <v>982</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>976</v>
+        <v>983</v>
       </c>
     </row>
   </sheetData>

--- a/Conversion/AutoChangeJson/datasrc/111.xlsx
+++ b/Conversion/AutoChangeJson/datasrc/111.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" tabRatio="812" firstSheet="4" activeTab="9"/>
+    <workbookView windowWidth="22368" windowHeight="9420" tabRatio="812" firstSheet="6" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="RoleTable0" sheetId="2" r:id="rId1"/>
@@ -828,7 +828,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2759" uniqueCount="984">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2740" uniqueCount="984">
   <si>
     <t>index</t>
   </si>
@@ -2917,544 +2917,544 @@
     <t>黄帝</t>
   </si>
   <si>
+    <t>90,1</t>
+  </si>
+  <si>
+    <t>魔王</t>
+  </si>
+  <si>
+    <t>91,1</t>
+  </si>
+  <si>
+    <t>战神</t>
+  </si>
+  <si>
+    <t>92,1</t>
+  </si>
+  <si>
+    <t>水神</t>
+  </si>
+  <si>
+    <t>洪荒凶兽</t>
+  </si>
+  <si>
+    <t>93,1</t>
+  </si>
+  <si>
+    <t>洪荒</t>
+  </si>
+  <si>
+    <t>94,1</t>
+  </si>
+  <si>
+    <t>95,1</t>
+  </si>
+  <si>
+    <t>96,1</t>
+  </si>
+  <si>
+    <t>大荒</t>
+  </si>
+  <si>
+    <t>妖兽侵袭</t>
+  </si>
+  <si>
+    <t>1,1</t>
+  </si>
+  <si>
+    <t>2,1</t>
+  </si>
+  <si>
+    <t>3,1</t>
+  </si>
+  <si>
+    <t>4,1</t>
+  </si>
+  <si>
+    <t>5,1</t>
+  </si>
+  <si>
+    <t>6,1</t>
+  </si>
+  <si>
+    <t>妖兽</t>
+  </si>
+  <si>
+    <t>北方之敌</t>
+  </si>
+  <si>
+    <t>7,1</t>
+  </si>
+  <si>
+    <t>8,1</t>
+  </si>
+  <si>
+    <t>9,1</t>
+  </si>
+  <si>
+    <t>29,2</t>
+  </si>
+  <si>
+    <t>30,2</t>
+  </si>
+  <si>
+    <t>31,2</t>
+  </si>
+  <si>
+    <t>阪泉之战</t>
+  </si>
+  <si>
+    <t>26,2</t>
+  </si>
+  <si>
+    <t>28,1</t>
+  </si>
+  <si>
+    <t>27,2</t>
+  </si>
+  <si>
+    <t>24,2</t>
+  </si>
+  <si>
+    <t>80,2</t>
+  </si>
+  <si>
+    <t>25,2</t>
+  </si>
+  <si>
+    <t>纵火烧山</t>
+  </si>
+  <si>
+    <t>28,2</t>
+  </si>
+  <si>
+    <t>65,2</t>
+  </si>
+  <si>
+    <t>66,2</t>
+  </si>
+  <si>
+    <t>67,2</t>
+  </si>
+  <si>
+    <t>68,2</t>
+  </si>
+  <si>
+    <t>69,2</t>
+  </si>
+  <si>
+    <t>70,2</t>
+  </si>
+  <si>
+    <t>应龙出世</t>
+  </si>
+  <si>
+    <t>11,2</t>
+  </si>
+  <si>
+    <t>12,2</t>
+  </si>
+  <si>
+    <t>14,2</t>
+  </si>
+  <si>
+    <t>13,2</t>
+  </si>
+  <si>
+    <t>18,3</t>
+  </si>
+  <si>
+    <t>16,2</t>
+  </si>
+  <si>
+    <t>女魃降临</t>
+  </si>
+  <si>
+    <t>7,2</t>
+  </si>
+  <si>
+    <t>8,2</t>
+  </si>
+  <si>
+    <t>9,2</t>
+  </si>
+  <si>
+    <t>72,3</t>
+  </si>
+  <si>
+    <t>74,2</t>
+  </si>
+  <si>
+    <t>17,2</t>
+  </si>
+  <si>
+    <t>80,3</t>
+  </si>
+  <si>
+    <t>75,2</t>
+  </si>
+  <si>
+    <t>19,2</t>
+  </si>
+  <si>
+    <t>战神之战</t>
+  </si>
+  <si>
+    <t>7,3</t>
+  </si>
+  <si>
+    <t>8,3</t>
+  </si>
+  <si>
+    <t>9,3</t>
+  </si>
+  <si>
+    <t>70,3</t>
+  </si>
+  <si>
+    <t>71,3</t>
+  </si>
+  <si>
+    <t>69,3</t>
+  </si>
+  <si>
+    <t>62,3</t>
+  </si>
+  <si>
+    <t>57,1</t>
+  </si>
+  <si>
+    <t>63,3</t>
+  </si>
+  <si>
+    <t>13,3</t>
+  </si>
+  <si>
+    <t>16,3</t>
+  </si>
+  <si>
+    <t>17,3</t>
+  </si>
+  <si>
+    <t>19,3</t>
+  </si>
+  <si>
+    <t>15,3</t>
+  </si>
+  <si>
+    <t>74,3</t>
+  </si>
+  <si>
+    <t>82,3</t>
+  </si>
+  <si>
+    <t>75,3</t>
+  </si>
+  <si>
+    <t>怒触不周山</t>
+  </si>
+  <si>
+    <t>56,3</t>
+  </si>
+  <si>
+    <t>81,3</t>
+  </si>
+  <si>
+    <t>57,3</t>
+  </si>
+  <si>
+    <t>女娲补天</t>
+  </si>
+  <si>
+    <t>10,3</t>
+  </si>
+  <si>
+    <t>26,3</t>
+  </si>
+  <si>
+    <t>27,3</t>
+  </si>
+  <si>
+    <t>28,3</t>
+  </si>
+  <si>
+    <t>skillName技能名</t>
+  </si>
+  <si>
+    <t>skillStaticIntro静态技能描述</t>
+  </si>
+  <si>
+    <t>skillDynamicIntro动态技能描述</t>
+  </si>
+  <si>
+    <t>corresArms对应兵种</t>
+  </si>
+  <si>
+    <t>嗜血</t>
+  </si>
+  <si>
+    <t>防御提升10%。</t>
+  </si>
+  <si>
+    <t>将造成伤害的30%转化为自身血量。</t>
+  </si>
+  <si>
+    <t>山兽3</t>
+  </si>
+  <si>
+    <t>吞噬</t>
+  </si>
+  <si>
+    <t>防御提升20%。</t>
+  </si>
+  <si>
+    <t>将造成伤害的60%转化为自身血量。</t>
+  </si>
+  <si>
+    <t>山兽6</t>
+  </si>
+  <si>
+    <t>毒刺</t>
+  </si>
+  <si>
+    <t>血量提升10%。</t>
+  </si>
+  <si>
+    <t>每次受到伤害时反弹20%伤害。</t>
+  </si>
+  <si>
+    <t>海兽3</t>
+  </si>
+  <si>
+    <t>刃甲</t>
+  </si>
+  <si>
+    <t>血量提升20%。</t>
+  </si>
+  <si>
+    <t>每次受到伤害时反弹40%伤害。</t>
+  </si>
+  <si>
+    <t>海兽6</t>
+  </si>
+  <si>
+    <t>疾风</t>
+  </si>
+  <si>
+    <t>攻击提升10%。</t>
+  </si>
+  <si>
+    <t>战斗中每损失10%血量，提升5%闪避。</t>
+  </si>
+  <si>
+    <t>飞兽3</t>
+  </si>
+  <si>
+    <t>瞬闪</t>
+  </si>
+  <si>
+    <t>攻击提升20%。</t>
+  </si>
+  <si>
+    <t>战斗中每损失10%血量，提升8%闪避。</t>
+  </si>
+  <si>
+    <t>飞兽6</t>
+  </si>
+  <si>
+    <t>战意</t>
+  </si>
+  <si>
+    <t>每次攻击提升20%攻击，10%防御，可叠加3次。</t>
+  </si>
+  <si>
+    <t>人杰3</t>
+  </si>
+  <si>
+    <t>战魂</t>
+  </si>
+  <si>
+    <t>每次攻击提升30%攻击，15%防御，可叠加3次。</t>
+  </si>
+  <si>
+    <t>人杰6</t>
+  </si>
+  <si>
+    <t>穿刺</t>
+  </si>
+  <si>
+    <t>突刺敌方后排50%伤害。</t>
+  </si>
+  <si>
+    <t>祖巫3</t>
+  </si>
+  <si>
+    <t>突刺</t>
+  </si>
+  <si>
+    <t>突刺敌方后排75%伤害。</t>
+  </si>
+  <si>
+    <t>祖巫6</t>
+  </si>
+  <si>
+    <t>横扫</t>
+  </si>
+  <si>
+    <t>攻击同一排敌人，每个造成50%伤害。</t>
+  </si>
+  <si>
+    <t>散仙3</t>
+  </si>
+  <si>
+    <t>狂斩</t>
+  </si>
+  <si>
+    <t>攻击同一排敌人，每个造成75%伤害。</t>
+  </si>
+  <si>
+    <t>散仙6</t>
+  </si>
+  <si>
+    <t>雷震</t>
+  </si>
+  <si>
+    <t>随机攻击3个不同目标，每个造成20%伤害，20%几率击晕1回合。</t>
+  </si>
+  <si>
+    <t>辅神3</t>
+  </si>
+  <si>
+    <t>天怒</t>
+  </si>
+  <si>
+    <t>随机攻击3个不同目标，每个造成20%伤害，30%几率击晕1回合。</t>
+  </si>
+  <si>
+    <t>辅神6</t>
+  </si>
+  <si>
+    <t>荒火</t>
+  </si>
+  <si>
+    <t>暴击率提升10%。</t>
+  </si>
+  <si>
+    <t>随机攻击3个目标，每个造成45%伤害，对同一目标最多攻击2次。</t>
+  </si>
+  <si>
+    <t>魔神3</t>
+  </si>
+  <si>
+    <t>炎爆</t>
+  </si>
+  <si>
+    <t>随机攻击4个目标，每个造成40%伤害，对同一目标最多攻击2次。</t>
+  </si>
+  <si>
+    <t>魔神6</t>
+  </si>
+  <si>
+    <t>复生</t>
+  </si>
+  <si>
+    <t>治疗2个血量百分比最低的友方目标，治疗量为伤害的50%。</t>
+  </si>
+  <si>
+    <t>天神3</t>
+  </si>
+  <si>
+    <t>回天</t>
+  </si>
+  <si>
+    <t>治疗3个血量百分比最低的友方目标，治疗量为伤害的40%。</t>
+  </si>
+  <si>
+    <t>天神6</t>
+  </si>
+  <si>
+    <t>forcesChoose</t>
+  </si>
+  <si>
+    <t>forceIntro</t>
+  </si>
+  <si>
+    <t>Prestige</t>
+  </si>
+  <si>
+    <t>forcesSign</t>
+  </si>
+  <si>
+    <t>forcesName</t>
+  </si>
+  <si>
+    <t>炎帝</t>
+  </si>
+  <si>
+    <t>东洲有一富庶之国，炎帝神农率火正祝融、水正共工，战将刑天等统御一方。炎帝神农好德向善，众望所归，万千部落皆臣服。</t>
+  </si>
+  <si>
+    <t>炎</t>
+  </si>
+  <si>
+    <t>炎帝神农</t>
+  </si>
+  <si>
+    <t>九州之北穷山恶水，常有妖兽出没。至轩辕氏出一个奇人，天生不惧妖兽，纳常先、大鸿为臣，拜力牧、风后为将，又得九天玄女相助，一统北方部族，自号为黄帝。</t>
+  </si>
+  <si>
     <t>黄</t>
   </si>
   <si>
-    <t>90,1</t>
-  </si>
-  <si>
-    <t>魔王</t>
+    <t>南疆地势险要，数百部族各自称王。九黎部族长蚩尤率心腹81人，降服众族，于山岭之间筑起九黎城，屯兵聚强，一时名声大噪。</t>
   </si>
   <si>
     <t>蚩</t>
   </si>
   <si>
-    <t>91,1</t>
-  </si>
-  <si>
-    <t>战神</t>
-  </si>
-  <si>
-    <t>炎</t>
-  </si>
-  <si>
-    <t>92,1</t>
-  </si>
-  <si>
-    <t>水神</t>
-  </si>
-  <si>
-    <t>洪荒凶兽</t>
-  </si>
-  <si>
-    <t>93,1</t>
-  </si>
-  <si>
-    <t>洪荒</t>
+    <t>东海之外，甘水之间，有羲和之国。十日之母羲和，常憩于扶桑树下。天雷作响，羲和睁开双目，遥望九州之境。</t>
+  </si>
+  <si>
+    <t>御</t>
+  </si>
+  <si>
+    <t>御日羲和</t>
+  </si>
+  <si>
+    <t>南疆有一秘境，娥皇女娲携心腹归隐于此，已久千年之久。不周山倾塌，天地震荡，娥皇大人破荒而出。</t>
+  </si>
+  <si>
+    <t>娲</t>
+  </si>
+  <si>
+    <t>娥皇女娲</t>
+  </si>
+  <si>
+    <t>烛龙</t>
+  </si>
+  <si>
+    <t>钟山之境有一上古正神，名曰烛阴，为龙族之首。烛阴统领龙族，在此镇压万千海兽，成一方之主。</t>
+  </si>
+  <si>
+    <t>烛</t>
+  </si>
+  <si>
+    <t>钟山烛阴</t>
+  </si>
+  <si>
+    <t>九霄之外，乃飞兽之国。金翅鹏扇风起雾，九婴吞水吐火。金乌王统领万千飞兽，翱翔千里，俯瞰九州。</t>
+  </si>
+  <si>
+    <t>乌</t>
+  </si>
+  <si>
+    <t>太虚金乌</t>
+  </si>
+  <si>
+    <t>大荒之境有百兽沉眠，饕餮、穷奇、梼杌皆为鸿蒙凶兽。至天柱倾塌之时，凶兽之主混沌降世，大荒之国终于苏醒。</t>
   </si>
   <si>
     <t>荒</t>
-  </si>
-  <si>
-    <t>94,1</t>
-  </si>
-  <si>
-    <t>乌</t>
-  </si>
-  <si>
-    <t>95,1</t>
-  </si>
-  <si>
-    <t>烛</t>
-  </si>
-  <si>
-    <t>96,1</t>
-  </si>
-  <si>
-    <t>大荒</t>
-  </si>
-  <si>
-    <t>妖兽侵袭</t>
-  </si>
-  <si>
-    <t>1,1</t>
-  </si>
-  <si>
-    <t>2,1</t>
-  </si>
-  <si>
-    <t>3,1</t>
-  </si>
-  <si>
-    <t>4,1</t>
-  </si>
-  <si>
-    <t>5,1</t>
-  </si>
-  <si>
-    <t>6,1</t>
-  </si>
-  <si>
-    <t>妖兽</t>
-  </si>
-  <si>
-    <t>北方之敌</t>
-  </si>
-  <si>
-    <t>7,1</t>
-  </si>
-  <si>
-    <t>8,1</t>
-  </si>
-  <si>
-    <t>9,1</t>
-  </si>
-  <si>
-    <t>29,2</t>
-  </si>
-  <si>
-    <t>30,2</t>
-  </si>
-  <si>
-    <t>31,2</t>
-  </si>
-  <si>
-    <t>阪泉之战</t>
-  </si>
-  <si>
-    <t>26,2</t>
-  </si>
-  <si>
-    <t>28,1</t>
-  </si>
-  <si>
-    <t>27,2</t>
-  </si>
-  <si>
-    <t>24,2</t>
-  </si>
-  <si>
-    <t>80,2</t>
-  </si>
-  <si>
-    <t>25,2</t>
-  </si>
-  <si>
-    <t>纵火烧山</t>
-  </si>
-  <si>
-    <t>28,2</t>
-  </si>
-  <si>
-    <t>65,2</t>
-  </si>
-  <si>
-    <t>66,2</t>
-  </si>
-  <si>
-    <t>67,2</t>
-  </si>
-  <si>
-    <t>68,2</t>
-  </si>
-  <si>
-    <t>69,2</t>
-  </si>
-  <si>
-    <t>70,2</t>
-  </si>
-  <si>
-    <t>应龙出世</t>
-  </si>
-  <si>
-    <t>11,2</t>
-  </si>
-  <si>
-    <t>12,2</t>
-  </si>
-  <si>
-    <t>14,2</t>
-  </si>
-  <si>
-    <t>13,2</t>
-  </si>
-  <si>
-    <t>18,3</t>
-  </si>
-  <si>
-    <t>16,2</t>
-  </si>
-  <si>
-    <t>女魃降临</t>
-  </si>
-  <si>
-    <t>7,2</t>
-  </si>
-  <si>
-    <t>8,2</t>
-  </si>
-  <si>
-    <t>9,2</t>
-  </si>
-  <si>
-    <t>72,3</t>
-  </si>
-  <si>
-    <t>74,2</t>
-  </si>
-  <si>
-    <t>17,2</t>
-  </si>
-  <si>
-    <t>80,3</t>
-  </si>
-  <si>
-    <t>75,2</t>
-  </si>
-  <si>
-    <t>19,2</t>
-  </si>
-  <si>
-    <t>战神之战</t>
-  </si>
-  <si>
-    <t>7,3</t>
-  </si>
-  <si>
-    <t>8,3</t>
-  </si>
-  <si>
-    <t>9,3</t>
-  </si>
-  <si>
-    <t>70,3</t>
-  </si>
-  <si>
-    <t>71,3</t>
-  </si>
-  <si>
-    <t>69,3</t>
-  </si>
-  <si>
-    <t>62,3</t>
-  </si>
-  <si>
-    <t>57,1</t>
-  </si>
-  <si>
-    <t>63,3</t>
-  </si>
-  <si>
-    <t>13,3</t>
-  </si>
-  <si>
-    <t>16,3</t>
-  </si>
-  <si>
-    <t>17,3</t>
-  </si>
-  <si>
-    <t>19,3</t>
-  </si>
-  <si>
-    <t>15,3</t>
-  </si>
-  <si>
-    <t>74,3</t>
-  </si>
-  <si>
-    <t>82,3</t>
-  </si>
-  <si>
-    <t>75,3</t>
-  </si>
-  <si>
-    <t>怒触不周山</t>
-  </si>
-  <si>
-    <t>56,3</t>
-  </si>
-  <si>
-    <t>81,3</t>
-  </si>
-  <si>
-    <t>57,3</t>
-  </si>
-  <si>
-    <t>女娲补天</t>
-  </si>
-  <si>
-    <t>10,3</t>
-  </si>
-  <si>
-    <t>26,3</t>
-  </si>
-  <si>
-    <t>27,3</t>
-  </si>
-  <si>
-    <t>28,3</t>
-  </si>
-  <si>
-    <t>skillName技能名</t>
-  </si>
-  <si>
-    <t>skillStaticIntro静态技能描述</t>
-  </si>
-  <si>
-    <t>skillDynamicIntro动态技能描述</t>
-  </si>
-  <si>
-    <t>corresArms对应兵种</t>
-  </si>
-  <si>
-    <t>嗜血</t>
-  </si>
-  <si>
-    <t>防御提升10%。</t>
-  </si>
-  <si>
-    <t>将造成伤害的30%转化为自身血量。</t>
-  </si>
-  <si>
-    <t>山兽3</t>
-  </si>
-  <si>
-    <t>吞噬</t>
-  </si>
-  <si>
-    <t>防御提升20%。</t>
-  </si>
-  <si>
-    <t>将造成伤害的60%转化为自身血量。</t>
-  </si>
-  <si>
-    <t>山兽6</t>
-  </si>
-  <si>
-    <t>毒刺</t>
-  </si>
-  <si>
-    <t>血量提升10%。</t>
-  </si>
-  <si>
-    <t>每次受到伤害时反弹20%伤害。</t>
-  </si>
-  <si>
-    <t>海兽3</t>
-  </si>
-  <si>
-    <t>刃甲</t>
-  </si>
-  <si>
-    <t>血量提升20%。</t>
-  </si>
-  <si>
-    <t>每次受到伤害时反弹40%伤害。</t>
-  </si>
-  <si>
-    <t>海兽6</t>
-  </si>
-  <si>
-    <t>疾风</t>
-  </si>
-  <si>
-    <t>攻击提升10%。</t>
-  </si>
-  <si>
-    <t>战斗中每损失10%血量，提升5%闪避。</t>
-  </si>
-  <si>
-    <t>飞兽3</t>
-  </si>
-  <si>
-    <t>瞬闪</t>
-  </si>
-  <si>
-    <t>攻击提升20%。</t>
-  </si>
-  <si>
-    <t>战斗中每损失10%血量，提升8%闪避。</t>
-  </si>
-  <si>
-    <t>飞兽6</t>
-  </si>
-  <si>
-    <t>战意</t>
-  </si>
-  <si>
-    <t>每次攻击提升20%攻击，10%防御，可叠加3次。</t>
-  </si>
-  <si>
-    <t>人杰3</t>
-  </si>
-  <si>
-    <t>战魂</t>
-  </si>
-  <si>
-    <t>每次攻击提升30%攻击，15%防御，可叠加3次。</t>
-  </si>
-  <si>
-    <t>人杰6</t>
-  </si>
-  <si>
-    <t>穿刺</t>
-  </si>
-  <si>
-    <t>突刺敌方后排50%伤害。</t>
-  </si>
-  <si>
-    <t>祖巫3</t>
-  </si>
-  <si>
-    <t>突刺</t>
-  </si>
-  <si>
-    <t>突刺敌方后排75%伤害。</t>
-  </si>
-  <si>
-    <t>祖巫6</t>
-  </si>
-  <si>
-    <t>横扫</t>
-  </si>
-  <si>
-    <t>攻击同一排敌人，每个造成50%伤害。</t>
-  </si>
-  <si>
-    <t>散仙3</t>
-  </si>
-  <si>
-    <t>狂斩</t>
-  </si>
-  <si>
-    <t>攻击同一排敌人，每个造成75%伤害。</t>
-  </si>
-  <si>
-    <t>散仙6</t>
-  </si>
-  <si>
-    <t>雷震</t>
-  </si>
-  <si>
-    <t>随机攻击3个不同目标，每个造成20%伤害，20%几率击晕1回合。</t>
-  </si>
-  <si>
-    <t>辅神3</t>
-  </si>
-  <si>
-    <t>天怒</t>
-  </si>
-  <si>
-    <t>随机攻击3个不同目标，每个造成20%伤害，30%几率击晕1回合。</t>
-  </si>
-  <si>
-    <t>辅神6</t>
-  </si>
-  <si>
-    <t>荒火</t>
-  </si>
-  <si>
-    <t>暴击率提升10%。</t>
-  </si>
-  <si>
-    <t>随机攻击3个目标，每个造成45%伤害，对同一目标最多攻击2次。</t>
-  </si>
-  <si>
-    <t>魔神3</t>
-  </si>
-  <si>
-    <t>炎爆</t>
-  </si>
-  <si>
-    <t>随机攻击4个目标，每个造成40%伤害，对同一目标最多攻击2次。</t>
-  </si>
-  <si>
-    <t>魔神6</t>
-  </si>
-  <si>
-    <t>复生</t>
-  </si>
-  <si>
-    <t>治疗2个血量百分比最低的友方目标，治疗量为伤害的50%。</t>
-  </si>
-  <si>
-    <t>天神3</t>
-  </si>
-  <si>
-    <t>回天</t>
-  </si>
-  <si>
-    <t>治疗3个血量百分比最低的友方目标，治疗量为伤害的40%。</t>
-  </si>
-  <si>
-    <t>天神6</t>
-  </si>
-  <si>
-    <t>forcesChoose</t>
-  </si>
-  <si>
-    <t>forceIntro</t>
-  </si>
-  <si>
-    <t>Prestige</t>
-  </si>
-  <si>
-    <t>forcesSign</t>
-  </si>
-  <si>
-    <t>forcesName</t>
-  </si>
-  <si>
-    <t>炎帝</t>
-  </si>
-  <si>
-    <t>东洲有一富庶之国，炎帝神农率火正祝融、水正共工，战将刑天等统御一方。炎帝神农好德向善，众望所归，万千部落皆臣服。</t>
-  </si>
-  <si>
-    <t>炎帝神农</t>
-  </si>
-  <si>
-    <t>九州之北穷山恶水，常有妖兽出没。至轩辕氏出一个奇人，天生不惧妖兽，纳常先、大鸿为臣，拜力牧、风后为将，又得九天玄女相助，一统北方部族，自号为黄帝。</t>
-  </si>
-  <si>
-    <t>南疆地势险要，数百部族各自称王。九黎部族长蚩尤率心腹81人，降服众族，于山岭之间筑起九黎城，屯兵聚强，一时名声大噪。</t>
-  </si>
-  <si>
-    <t>东海之外，甘水之间，有羲和之国。十日之母羲和，常憩于扶桑树下。天雷作响，羲和睁开双目，遥望九州之境。</t>
-  </si>
-  <si>
-    <t>御</t>
-  </si>
-  <si>
-    <t>御日羲和</t>
-  </si>
-  <si>
-    <t>南疆有一秘境，娥皇女娲携心腹归隐于此，已久千年之久。不周山倾塌，天地震荡，娥皇大人破荒而出。</t>
-  </si>
-  <si>
-    <t>娲</t>
-  </si>
-  <si>
-    <t>娥皇女娲</t>
-  </si>
-  <si>
-    <t>烛龙</t>
-  </si>
-  <si>
-    <t>钟山之境有一上古正神，名曰烛阴，为龙族之首。烛阴统领龙族，在此镇压万千海兽，成一方之主。</t>
-  </si>
-  <si>
-    <t>钟山烛阴</t>
-  </si>
-  <si>
-    <t>九霄之外，乃飞兽之国。金翅鹏扇风起雾，九婴吞水吐火。金乌王统领万千飞兽，翱翔千里，俯瞰九州。</t>
-  </si>
-  <si>
-    <t>太虚金乌</t>
-  </si>
-  <si>
-    <t>大荒之境有百兽沉眠，饕餮、穷奇、梼杌皆为鸿蒙凶兽。至天柱倾塌之时，凶兽之主混沌降世，大荒之国终于苏醒。</t>
   </si>
   <si>
     <t>伏羲依万物生息规律演绎八卦，令十二祖巫掌管风水雷电，天地初定。伏羲携众神归隐于东海深处，休养生息。</t>
@@ -3873,8 +3873,83 @@
       <charset val="134"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -3898,6 +3973,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
@@ -3906,80 +3989,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4001,25 +4011,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
@@ -4054,7 +4054,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4066,7 +4120,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4084,25 +4186,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4114,121 +4222,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4338,8 +4338,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4359,17 +4374,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4388,36 +4408,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4426,136 +4426,136 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -10342,7 +10342,7 @@
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S7" sqref="S7"/>
+      <selection activeCell="T5" sqref="T5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
@@ -10489,8 +10489,8 @@
       <c r="P3" s="1" t="s">
         <v>689</v>
       </c>
-      <c r="Q3" s="1" t="s">
-        <v>690</v>
+      <c r="Q3" s="1">
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -10513,13 +10513,13 @@
         <v>-1</v>
       </c>
       <c r="K4" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="P4" s="1" t="s">
         <v>691</v>
       </c>
-      <c r="P4" s="1" t="s">
-        <v>692</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>693</v>
+      <c r="Q4" s="1">
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -10542,13 +10542,13 @@
         <v>-1</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>695</v>
-      </c>
-      <c r="Q5" s="1" t="s">
-        <v>696</v>
+        <v>693</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -10571,13 +10571,13 @@
         <v>-1</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>698</v>
-      </c>
-      <c r="Q6" s="1" t="s">
-        <v>696</v>
+        <v>695</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -10588,7 +10588,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>686</v>
@@ -10600,13 +10600,13 @@
         <v>-1</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>701</v>
-      </c>
-      <c r="Q7" s="1" t="s">
-        <v>702</v>
+        <v>698</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -10629,13 +10629,13 @@
         <v>-1</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="P8" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="Q8" s="1" t="s">
-        <v>704</v>
+      <c r="Q8" s="1">
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -10658,13 +10658,13 @@
         <v>-1</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
       <c r="P9" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="Q9" s="1" t="s">
-        <v>706</v>
+      <c r="Q9" s="1">
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -10687,13 +10687,13 @@
         <v>-1</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>707</v>
+        <v>701</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>708</v>
-      </c>
-      <c r="Q10" s="1" t="s">
         <v>702</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -10704,34 +10704,34 @@
         <v>1</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>709</v>
+        <v>703</v>
       </c>
       <c r="F11" s="1">
         <v>5</v>
       </c>
       <c r="G11" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>705</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="P11" s="1" t="s">
         <v>710</v>
       </c>
-      <c r="H11" s="1" t="s">
-        <v>711</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>712</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>713</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>714</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>715</v>
-      </c>
-      <c r="P11" s="1" t="s">
-        <v>716</v>
-      </c>
-      <c r="Q11" s="1" t="s">
-        <v>702</v>
+      <c r="Q11" s="1">
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -10742,34 +10742,34 @@
         <v>1</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>717</v>
+        <v>711</v>
       </c>
       <c r="F12" s="1">
         <v>10</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>719</v>
+        <v>713</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>721</v>
+        <v>715</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>722</v>
+        <v>716</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>723</v>
+        <v>717</v>
       </c>
       <c r="P12" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="Q12" s="1" t="s">
-        <v>690</v>
+      <c r="Q12" s="1">
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -10780,43 +10780,43 @@
         <v>1</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>724</v>
+        <v>718</v>
       </c>
       <c r="F13" s="1">
         <v>15</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>725</v>
+        <v>719</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>726</v>
+        <v>720</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>727</v>
+        <v>721</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>728</v>
+        <v>722</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>729</v>
+        <v>723</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>730</v>
+        <v>724</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>721</v>
+        <v>715</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>722</v>
+        <v>716</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>723</v>
+        <v>717</v>
       </c>
       <c r="P13" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="Q13" s="1" t="s">
-        <v>690</v>
+      <c r="Q13" s="1">
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -10827,43 +10827,43 @@
         <v>1</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>731</v>
+        <v>725</v>
       </c>
       <c r="F14" s="1">
         <v>20</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>725</v>
+        <v>719</v>
       </c>
       <c r="H14" s="1" t="s">
+        <v>726</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>727</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>729</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>731</v>
+      </c>
+      <c r="O14" s="1" t="s">
         <v>732</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>727</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>733</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>734</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="M14" s="1" t="s">
-        <v>736</v>
-      </c>
-      <c r="N14" s="1" t="s">
-        <v>737</v>
-      </c>
-      <c r="O14" s="1" t="s">
-        <v>738</v>
       </c>
       <c r="P14" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="Q14" s="1" t="s">
-        <v>690</v>
+      <c r="Q14" s="1">
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -10874,43 +10874,43 @@
         <v>1</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>739</v>
+        <v>733</v>
       </c>
       <c r="F15" s="1">
         <v>25</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>740</v>
+        <v>734</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>741</v>
+        <v>735</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>742</v>
+        <v>736</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>743</v>
+        <v>737</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>744</v>
+        <v>738</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>745</v>
+        <v>739</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>721</v>
+        <v>715</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>722</v>
+        <v>716</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>723</v>
+        <v>717</v>
       </c>
       <c r="P15" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="Q15" s="1" t="s">
-        <v>690</v>
+      <c r="Q15" s="1">
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -10921,43 +10921,43 @@
         <v>1</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>746</v>
+        <v>740</v>
       </c>
       <c r="F16" s="1">
         <v>30</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>747</v>
+        <v>741</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>748</v>
+        <v>742</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>749</v>
+        <v>743</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>733</v>
+        <v>727</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>750</v>
+        <v>744</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>734</v>
+        <v>728</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>735</v>
+        <v>729</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>736</v>
+        <v>730</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>737</v>
+        <v>731</v>
       </c>
       <c r="P16" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="Q16" s="1" t="s">
-        <v>690</v>
+      <c r="Q16" s="1">
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -10974,37 +10974,37 @@
         <v>35</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>737</v>
+        <v>731</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>751</v>
+        <v>745</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>750</v>
+        <v>744</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>753</v>
+        <v>747</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>744</v>
+        <v>738</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>738</v>
+        <v>732</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>754</v>
+        <v>748</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>755</v>
+        <v>749</v>
       </c>
       <c r="P17" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="Q17" s="1" t="s">
-        <v>690</v>
+      <c r="Q17" s="1">
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -11015,43 +11015,43 @@
         <v>1</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>756</v>
+        <v>750</v>
       </c>
       <c r="F18" s="1">
         <v>40</v>
       </c>
       <c r="G18" s="1" t="s">
+        <v>751</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>752</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>753</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="M18" s="1" t="s">
         <v>757</v>
       </c>
-      <c r="H18" s="1" t="s">
+      <c r="N18" s="1" t="s">
         <v>758</v>
       </c>
-      <c r="I18" s="1" t="s">
+      <c r="O18" s="1" t="s">
         <v>759</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>760</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>761</v>
-      </c>
-      <c r="L18" s="1" t="s">
-        <v>762</v>
-      </c>
-      <c r="M18" s="1" t="s">
-        <v>763</v>
-      </c>
-      <c r="N18" s="1" t="s">
-        <v>764</v>
-      </c>
-      <c r="O18" s="1" t="s">
-        <v>765</v>
       </c>
       <c r="P18" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="Q18" s="1" t="s">
-        <v>696</v>
+      <c r="Q18" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -11068,37 +11068,37 @@
         <v>45</v>
       </c>
       <c r="G19" s="1" t="s">
+        <v>760</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="N19" s="1" t="s">
         <v>766</v>
       </c>
-      <c r="H19" s="1" t="s">
-        <v>744</v>
-      </c>
-      <c r="I19" s="1" t="s">
+      <c r="O19" s="1" t="s">
         <v>767</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>768</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>769</v>
-      </c>
-      <c r="L19" s="1" t="s">
-        <v>770</v>
-      </c>
-      <c r="M19" s="1" t="s">
-        <v>771</v>
-      </c>
-      <c r="N19" s="1" t="s">
-        <v>772</v>
-      </c>
-      <c r="O19" s="1" t="s">
-        <v>773</v>
       </c>
       <c r="P19" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="Q19" s="1" t="s">
-        <v>706</v>
+      <c r="Q19" s="1">
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -11109,43 +11109,43 @@
         <v>1</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>774</v>
+        <v>768</v>
       </c>
       <c r="F20" s="1">
         <v>50</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>757</v>
+        <v>751</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>758</v>
+        <v>752</v>
       </c>
       <c r="I20" s="1" t="s">
+        <v>753</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="K20" s="1" t="s">
         <v>759</v>
       </c>
-      <c r="J20" s="1" t="s">
-        <v>767</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>765</v>
-      </c>
       <c r="L20" s="1" t="s">
-        <v>744</v>
+        <v>738</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>775</v>
+        <v>769</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>776</v>
+        <v>770</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>777</v>
+        <v>771</v>
       </c>
       <c r="P20" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="Q20" s="1" t="s">
-        <v>696</v>
+      <c r="Q20" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -11156,43 +11156,43 @@
         <v>1</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>778</v>
+        <v>772</v>
       </c>
       <c r="F21" s="1">
         <v>55</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>758</v>
+        <v>752</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>759</v>
+        <v>753</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>779</v>
+        <v>773</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>768</v>
+        <v>762</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>744</v>
+        <v>738</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>769</v>
+        <v>763</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>780</v>
+        <v>774</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>781</v>
+        <v>775</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>782</v>
+        <v>776</v>
       </c>
       <c r="P21" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="Q21" s="1" t="s">
-        <v>702</v>
+      <c r="Q21" s="1">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -11225,16 +11225,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>783</v>
+        <v>777</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>784</v>
+        <v>778</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>785</v>
+        <v>779</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>786</v>
+        <v>780</v>
       </c>
     </row>
     <row r="2" ht="17.4" spans="1:5">
@@ -11242,16 +11242,16 @@
         <v>13</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>787</v>
+        <v>781</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>789</v>
+        <v>783</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>790</v>
+        <v>784</v>
       </c>
     </row>
     <row r="3" ht="17.4" spans="1:5">
@@ -11259,16 +11259,16 @@
         <v>16</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>791</v>
+        <v>785</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>792</v>
+        <v>786</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>794</v>
+        <v>788</v>
       </c>
     </row>
     <row r="4" ht="17.4" spans="1:5">
@@ -11276,16 +11276,16 @@
         <v>23</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>795</v>
+        <v>789</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>796</v>
+        <v>790</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>797</v>
+        <v>791</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>798</v>
+        <v>792</v>
       </c>
     </row>
     <row r="5" ht="17.4" spans="1:5">
@@ -11293,16 +11293,16 @@
         <v>26</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>799</v>
+        <v>793</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>800</v>
+        <v>794</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>801</v>
+        <v>795</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>802</v>
+        <v>796</v>
       </c>
     </row>
     <row r="6" ht="17.4" spans="1:5">
@@ -11310,16 +11310,16 @@
         <v>33</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>803</v>
+        <v>797</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>804</v>
+        <v>798</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>805</v>
+        <v>799</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>806</v>
+        <v>800</v>
       </c>
     </row>
     <row r="7" ht="17.4" spans="1:5">
@@ -11327,16 +11327,16 @@
         <v>36</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>807</v>
+        <v>801</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>808</v>
+        <v>802</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>810</v>
+        <v>804</v>
       </c>
     </row>
     <row r="8" ht="17.4" spans="1:5">
@@ -11344,16 +11344,16 @@
         <v>43</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>811</v>
+        <v>805</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>796</v>
+        <v>790</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>812</v>
+        <v>806</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
     </row>
     <row r="9" ht="17.4" spans="1:5">
@@ -11361,16 +11361,16 @@
         <v>46</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>814</v>
+        <v>808</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>800</v>
+        <v>794</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>815</v>
+        <v>809</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>816</v>
+        <v>810</v>
       </c>
     </row>
     <row r="10" ht="17.4" spans="1:5">
@@ -11378,16 +11378,16 @@
         <v>53</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>817</v>
+        <v>811</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>804</v>
+        <v>798</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>818</v>
+        <v>812</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>819</v>
+        <v>813</v>
       </c>
     </row>
     <row r="11" ht="17.4" spans="1:5">
@@ -11395,16 +11395,16 @@
         <v>56</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>820</v>
+        <v>814</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>808</v>
+        <v>802</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>821</v>
+        <v>815</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>822</v>
+        <v>816</v>
       </c>
     </row>
     <row r="12" ht="17.4" spans="1:5">
@@ -11412,16 +11412,16 @@
         <v>63</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>823</v>
+        <v>817</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>804</v>
+        <v>798</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>824</v>
+        <v>818</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>825</v>
+        <v>819</v>
       </c>
     </row>
     <row r="13" ht="17.4" spans="1:5">
@@ -11429,16 +11429,16 @@
         <v>66</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>826</v>
+        <v>820</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>808</v>
+        <v>802</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>827</v>
+        <v>821</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>828</v>
+        <v>822</v>
       </c>
     </row>
     <row r="14" ht="17.4" spans="1:5">
@@ -11446,16 +11446,16 @@
         <v>73</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>829</v>
+        <v>823</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>804</v>
+        <v>798</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>830</v>
+        <v>824</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>831</v>
+        <v>825</v>
       </c>
     </row>
     <row r="15" ht="17.4" spans="1:5">
@@ -11463,16 +11463,16 @@
         <v>76</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>832</v>
+        <v>826</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>808</v>
+        <v>802</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>833</v>
+        <v>827</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>834</v>
+        <v>828</v>
       </c>
     </row>
     <row r="16" ht="17.4" spans="1:5">
@@ -11480,16 +11480,16 @@
         <v>83</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>835</v>
+        <v>829</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>836</v>
+        <v>830</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>837</v>
+        <v>831</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>838</v>
+        <v>832</v>
       </c>
     </row>
     <row r="17" ht="17.4" spans="1:5">
@@ -11497,16 +11497,16 @@
         <v>86</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>839</v>
+        <v>833</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>836</v>
+        <v>830</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>840</v>
+        <v>834</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>841</v>
+        <v>835</v>
       </c>
     </row>
     <row r="18" ht="17.4" spans="1:5">
@@ -11514,16 +11514,16 @@
         <v>93</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>842</v>
+        <v>836</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>804</v>
+        <v>798</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>843</v>
+        <v>837</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
     </row>
     <row r="19" ht="17.4" spans="1:5">
@@ -11531,16 +11531,16 @@
         <v>96</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>845</v>
+        <v>839</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>808</v>
+        <v>802</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>846</v>
+        <v>840</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>847</v>
+        <v>841</v>
       </c>
     </row>
     <row r="20" ht="17.4" spans="1:2">
@@ -11729,7 +11729,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="5"/>
@@ -11746,19 +11746,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>848</v>
+        <v>842</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>849</v>
+        <v>843</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>850</v>
+        <v>844</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>851</v>
+        <v>845</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
     </row>
     <row r="2" ht="17.4" spans="1:6">
@@ -11766,19 +11766,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="D2" s="4">
         <v>0</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>696</v>
+        <v>849</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>855</v>
+        <v>850</v>
       </c>
     </row>
     <row r="3" ht="17.4" spans="1:6">
@@ -11789,13 +11789,13 @@
         <v>689</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>856</v>
+        <v>851</v>
       </c>
       <c r="D3" s="4">
         <v>0</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>690</v>
+        <v>852</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>192</v>
@@ -11809,13 +11809,13 @@
         <v>165</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>857</v>
+        <v>853</v>
       </c>
       <c r="D4" s="4">
         <v>0</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>693</v>
+        <v>854</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>193</v>
@@ -11829,16 +11829,16 @@
         <v>183</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="D5" s="4">
         <v>10</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
     </row>
     <row r="6" ht="17.4" spans="1:6">
@@ -11849,16 +11849,16 @@
         <v>147</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="D6" s="4">
         <v>20</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
     </row>
     <row r="7" ht="17.4" spans="1:6">
@@ -11866,19 +11866,19 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="D7" s="4">
         <v>30</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>706</v>
+        <v>863</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
     </row>
     <row r="8" ht="17.4" spans="1:6">
@@ -11889,16 +11889,16 @@
         <v>75</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="D8" s="4">
         <v>40</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>704</v>
+        <v>866</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
     </row>
     <row r="9" ht="17.4" spans="1:6">
@@ -11906,16 +11906,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>708</v>
+        <v>702</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="D9" s="4">
         <v>50</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>702</v>
+        <v>869</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>199</v>
@@ -12633,7 +12633,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>774</v>
+        <v>768</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>925</v>

--- a/Conversion/AutoChangeJson/datasrc/111.xlsx
+++ b/Conversion/AutoChangeJson/datasrc/111.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" tabRatio="812" firstSheet="6" activeTab="9"/>
+    <workbookView windowWidth="20928" windowHeight="9960" tabRatio="812" firstSheet="11" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="RoleTable0" sheetId="2" r:id="rId1"/>
@@ -828,7 +828,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2740" uniqueCount="984">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2740" uniqueCount="980">
   <si>
     <t>index</t>
   </si>
@@ -2581,6 +2581,9 @@
     <t>轩辕,少昊,颛顼</t>
   </si>
   <si>
+    <t>羁绊</t>
+  </si>
+  <si>
     <t>[62,63]</t>
   </si>
   <si>
@@ -2983,13 +2986,13 @@
     <t>北方之敌</t>
   </si>
   <si>
-    <t>7,1</t>
-  </si>
-  <si>
-    <t>8,1</t>
-  </si>
-  <si>
-    <t>9,1</t>
+    <t>7,2</t>
+  </si>
+  <si>
+    <t>8,2</t>
+  </si>
+  <si>
+    <t>9,2</t>
   </si>
   <si>
     <t>29,2</t>
@@ -3049,13 +3052,13 @@
     <t>应龙出世</t>
   </si>
   <si>
-    <t>11,2</t>
-  </si>
-  <si>
-    <t>12,2</t>
-  </si>
-  <si>
-    <t>14,2</t>
+    <t>11,3</t>
+  </si>
+  <si>
+    <t>12,3</t>
+  </si>
+  <si>
+    <t>14,3</t>
   </si>
   <si>
     <t>13,2</t>
@@ -3070,22 +3073,25 @@
     <t>女魃降临</t>
   </si>
   <si>
-    <t>7,2</t>
-  </si>
-  <si>
-    <t>8,2</t>
-  </si>
-  <si>
-    <t>9,2</t>
+    <t>7,3</t>
+  </si>
+  <si>
+    <t>8,3</t>
+  </si>
+  <si>
+    <t>9,3</t>
   </si>
   <si>
     <t>72,3</t>
   </si>
   <si>
-    <t>74,2</t>
-  </si>
-  <si>
-    <t>17,2</t>
+    <t>69,3</t>
+  </si>
+  <si>
+    <t>74,3</t>
+  </si>
+  <si>
+    <t>17,3</t>
   </si>
   <si>
     <t>80,3</t>
@@ -3100,24 +3106,12 @@
     <t>战神之战</t>
   </si>
   <si>
-    <t>7,3</t>
-  </si>
-  <si>
-    <t>8,3</t>
-  </si>
-  <si>
-    <t>9,3</t>
-  </si>
-  <si>
     <t>70,3</t>
   </si>
   <si>
     <t>71,3</t>
   </si>
   <si>
-    <t>69,3</t>
-  </si>
-  <si>
     <t>62,3</t>
   </si>
   <si>
@@ -3133,18 +3127,12 @@
     <t>16,3</t>
   </si>
   <si>
-    <t>17,3</t>
-  </si>
-  <si>
     <t>19,3</t>
   </si>
   <si>
     <t>15,3</t>
   </si>
   <si>
-    <t>74,3</t>
-  </si>
-  <si>
     <t>82,3</t>
   </si>
   <si>
@@ -3565,9 +3553,27 @@
     <t>prepareNum</t>
   </si>
   <si>
+    <t>1,2</t>
+  </si>
+  <si>
+    <t>1,3</t>
+  </si>
+  <si>
+    <t>2,3</t>
+  </si>
+  <si>
+    <t>2,4</t>
+  </si>
+  <si>
+    <t>3,4</t>
+  </si>
+  <si>
     <t>3,5</t>
   </si>
   <si>
+    <t>4,5</t>
+  </si>
+  <si>
     <t>4,6</t>
   </si>
   <si>
@@ -3577,18 +3583,6 @@
     <t>6,8</t>
   </si>
   <si>
-    <t>7,9</t>
-  </si>
-  <si>
-    <t>8,10</t>
-  </si>
-  <si>
-    <t>9,11</t>
-  </si>
-  <si>
-    <t>10,12</t>
-  </si>
-  <si>
     <t>battle</t>
   </si>
   <si>
@@ -3604,13 +3598,7 @@
     <t>黄帝轩辕一统北方部族，日渐强盛。轩辕觊觎东境富饶土地，对炎帝发起突袭。炎帝部族战意觉醒，奋起反抗。名震华夏的炎黄之战，就此展开……</t>
   </si>
   <si>
-    <t>1,2</t>
-  </si>
-  <si>
     <t>黄帝击败炎帝，士气大作，一鼓作气吞并八荒九州，兵临南疆九黎城。九黎部族长蚩尤血祭苍天，修整兵甲，双方在逐鹿之野遭遇……</t>
-  </si>
-  <si>
-    <t>2,3</t>
   </si>
   <si>
     <t>刑天之舞</t>
@@ -3806,8 +3794,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="32">
     <font>
@@ -3873,25 +3861,23 @@
       <charset val="134"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3911,23 +3897,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3941,15 +3913,8 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -3972,12 +3937,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -3989,7 +3951,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4003,8 +3972,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4017,9 +4002,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
@@ -4048,7 +4036,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4060,180 +4216,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="16">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -4311,6 +4299,61 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -4326,11 +4369,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4358,66 +4407,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4426,7 +4425,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4435,131 +4434,131 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="9" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -4592,11 +4591,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -4604,7 +4612,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4960,7 +4967,7 @@
   <sheetPr/>
   <dimension ref="A1:U97"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="A79" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="A22" workbookViewId="0">
       <selection activeCell="N100" sqref="N100"/>
     </sheetView>
   </sheetViews>
@@ -4972,9 +4979,9 @@
     <col min="4" max="4" width="16.1111111111111" style="17" customWidth="1"/>
     <col min="5" max="5" width="12.8888888888889" style="17" customWidth="1"/>
     <col min="6" max="6" width="26.4444444444444" style="17" customWidth="1"/>
-    <col min="7" max="7" width="13" style="28" customWidth="1"/>
+    <col min="7" max="7" width="13" style="36" customWidth="1"/>
     <col min="8" max="8" width="13.6666666666667" style="17" customWidth="1"/>
-    <col min="9" max="9" width="17.1111111111111" style="29" customWidth="1"/>
+    <col min="9" max="9" width="17.1111111111111" style="37" customWidth="1"/>
     <col min="10" max="10" width="17.1111111111111" style="10" customWidth="1"/>
     <col min="11" max="11" width="13.7777777777778" style="1" customWidth="1"/>
     <col min="12" max="12" width="19" style="1" customWidth="1"/>
@@ -5008,13 +5015,13 @@
       <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="30" t="s">
+      <c r="G1" s="38" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="33" t="s">
+      <c r="I1" s="41" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="10" t="s">
@@ -5058,7 +5065,7 @@
       <c r="A2" s="17">
         <v>1</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="39" t="s">
         <v>21</v>
       </c>
       <c r="C2" s="17">
@@ -5073,16 +5080,16 @@
       <c r="F2" s="17">
         <v>2</v>
       </c>
-      <c r="G2" s="28">
+      <c r="G2" s="36">
         <v>43</v>
       </c>
       <c r="H2" s="17">
         <v>83</v>
       </c>
-      <c r="I2" s="29">
+      <c r="I2" s="37">
         <v>178</v>
       </c>
-      <c r="J2" s="34">
+      <c r="J2" s="42">
         <v>0</v>
       </c>
       <c r="K2" s="3">
@@ -5097,7 +5104,7 @@
       <c r="N2" s="3">
         <v>1.2</v>
       </c>
-      <c r="O2" s="35">
+      <c r="O2" s="43">
         <v>0</v>
       </c>
       <c r="P2" s="10"/>
@@ -5113,7 +5120,7 @@
       <c r="A3" s="17">
         <v>2</v>
       </c>
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="39" t="s">
         <v>23</v>
       </c>
       <c r="C3" s="17">
@@ -5128,16 +5135,16 @@
       <c r="F3" s="17">
         <v>2</v>
       </c>
-      <c r="G3" s="28">
+      <c r="G3" s="36">
         <v>44</v>
       </c>
       <c r="H3" s="17">
         <v>83</v>
       </c>
-      <c r="I3" s="29">
+      <c r="I3" s="37">
         <v>175</v>
       </c>
-      <c r="J3" s="34">
+      <c r="J3" s="42">
         <v>0</v>
       </c>
       <c r="K3" s="3">
@@ -5152,7 +5159,7 @@
       <c r="N3" s="3">
         <v>1.2</v>
       </c>
-      <c r="O3" s="35">
+      <c r="O3" s="43">
         <v>0</v>
       </c>
       <c r="P3" s="10"/>
@@ -5168,7 +5175,7 @@
       <c r="A4" s="17">
         <v>3</v>
       </c>
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="39" t="s">
         <v>25</v>
       </c>
       <c r="C4" s="17">
@@ -5183,16 +5190,16 @@
       <c r="F4" s="17">
         <v>2</v>
       </c>
-      <c r="G4" s="28">
+      <c r="G4" s="36">
         <v>44</v>
       </c>
       <c r="H4" s="17">
         <v>82</v>
       </c>
-      <c r="I4" s="29">
+      <c r="I4" s="37">
         <v>177</v>
       </c>
-      <c r="J4" s="34">
+      <c r="J4" s="42">
         <v>0</v>
       </c>
       <c r="K4" s="3">
@@ -5207,7 +5214,7 @@
       <c r="N4" s="3">
         <v>1.2</v>
       </c>
-      <c r="O4" s="35">
+      <c r="O4" s="43">
         <v>0</v>
       </c>
       <c r="P4" s="10"/>
@@ -5223,7 +5230,7 @@
       <c r="A5" s="17">
         <v>4</v>
       </c>
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="39" t="s">
         <v>27</v>
       </c>
       <c r="C5" s="17">
@@ -5238,16 +5245,16 @@
       <c r="F5" s="17">
         <v>3</v>
       </c>
-      <c r="G5" s="28">
+      <c r="G5" s="36">
         <v>62</v>
       </c>
       <c r="H5" s="17">
         <v>88</v>
       </c>
-      <c r="I5" s="29">
+      <c r="I5" s="37">
         <v>219</v>
       </c>
-      <c r="J5" s="34">
+      <c r="J5" s="42">
         <v>0</v>
       </c>
       <c r="K5" s="3">
@@ -5262,7 +5269,7 @@
       <c r="N5" s="3">
         <v>1.2</v>
       </c>
-      <c r="O5" s="35">
+      <c r="O5" s="43">
         <v>0</v>
       </c>
       <c r="P5" s="10"/>
@@ -5278,7 +5285,7 @@
       <c r="A6" s="17">
         <v>5</v>
       </c>
-      <c r="B6" s="31" t="s">
+      <c r="B6" s="39" t="s">
         <v>29</v>
       </c>
       <c r="C6" s="17">
@@ -5293,16 +5300,16 @@
       <c r="F6" s="17">
         <v>3</v>
       </c>
-      <c r="G6" s="28">
+      <c r="G6" s="36">
         <v>64</v>
       </c>
       <c r="H6" s="17">
         <v>87</v>
       </c>
-      <c r="I6" s="29">
+      <c r="I6" s="37">
         <v>218</v>
       </c>
-      <c r="J6" s="34">
+      <c r="J6" s="42">
         <v>0</v>
       </c>
       <c r="K6" s="3">
@@ -5317,7 +5324,7 @@
       <c r="N6" s="3">
         <v>1.2</v>
       </c>
-      <c r="O6" s="35">
+      <c r="O6" s="43">
         <v>0</v>
       </c>
       <c r="P6" s="10"/>
@@ -5333,7 +5340,7 @@
       <c r="A7" s="17">
         <v>6</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="32" t="s">
         <v>31</v>
       </c>
       <c r="C7" s="17">
@@ -5348,16 +5355,16 @@
       <c r="F7" s="17">
         <v>3</v>
       </c>
-      <c r="G7" s="28">
+      <c r="G7" s="36">
         <v>63</v>
       </c>
       <c r="H7" s="17">
         <v>86</v>
       </c>
-      <c r="I7" s="29">
+      <c r="I7" s="37">
         <v>220</v>
       </c>
-      <c r="J7" s="34">
+      <c r="J7" s="42">
         <v>0</v>
       </c>
       <c r="K7" s="3">
@@ -5372,7 +5379,7 @@
       <c r="N7" s="3">
         <v>1.2</v>
       </c>
-      <c r="O7" s="35">
+      <c r="O7" s="43">
         <v>0</v>
       </c>
       <c r="P7" s="10">
@@ -5390,7 +5397,7 @@
       <c r="A8" s="17">
         <v>7</v>
       </c>
-      <c r="B8" s="31" t="s">
+      <c r="B8" s="39" t="s">
         <v>33</v>
       </c>
       <c r="C8" s="17">
@@ -5405,16 +5412,16 @@
       <c r="F8" s="17">
         <v>4</v>
       </c>
-      <c r="G8" s="28">
+      <c r="G8" s="36">
         <v>98</v>
       </c>
       <c r="H8" s="17">
         <v>94</v>
       </c>
-      <c r="I8" s="29">
+      <c r="I8" s="37">
         <v>299</v>
       </c>
-      <c r="J8" s="34">
+      <c r="J8" s="42">
         <v>0</v>
       </c>
       <c r="K8" s="3">
@@ -5429,7 +5436,7 @@
       <c r="N8" s="3">
         <v>1.2</v>
       </c>
-      <c r="O8" s="35">
+      <c r="O8" s="43">
         <v>0</v>
       </c>
       <c r="P8" s="10">
@@ -5447,7 +5454,7 @@
       <c r="A9" s="17">
         <v>8</v>
       </c>
-      <c r="B9" s="31" t="s">
+      <c r="B9" s="39" t="s">
         <v>35</v>
       </c>
       <c r="C9" s="17">
@@ -5462,16 +5469,16 @@
       <c r="F9" s="17">
         <v>4</v>
       </c>
-      <c r="G9" s="28">
+      <c r="G9" s="36">
         <v>100</v>
       </c>
       <c r="H9" s="17">
         <v>92</v>
       </c>
-      <c r="I9" s="29">
+      <c r="I9" s="37">
         <v>300</v>
       </c>
-      <c r="J9" s="34">
+      <c r="J9" s="42">
         <v>0</v>
       </c>
       <c r="K9" s="3">
@@ -5486,7 +5493,7 @@
       <c r="N9" s="3">
         <v>1.2</v>
       </c>
-      <c r="O9" s="35">
+      <c r="O9" s="43">
         <v>0</v>
       </c>
       <c r="P9" s="10">
@@ -5504,7 +5511,7 @@
       <c r="A10" s="17">
         <v>9</v>
       </c>
-      <c r="B10" s="31" t="s">
+      <c r="B10" s="39" t="s">
         <v>37</v>
       </c>
       <c r="C10" s="17">
@@ -5519,16 +5526,16 @@
       <c r="F10" s="17">
         <v>4</v>
       </c>
-      <c r="G10" s="28">
+      <c r="G10" s="36">
         <v>98</v>
       </c>
       <c r="H10" s="17">
         <v>94</v>
       </c>
-      <c r="I10" s="29">
+      <c r="I10" s="37">
         <v>299</v>
       </c>
-      <c r="J10" s="34">
+      <c r="J10" s="42">
         <v>0</v>
       </c>
       <c r="K10" s="3">
@@ -5543,7 +5550,7 @@
       <c r="N10" s="3">
         <v>1.2</v>
       </c>
-      <c r="O10" s="35">
+      <c r="O10" s="43">
         <v>0</v>
       </c>
       <c r="P10" s="10">
@@ -5561,7 +5568,7 @@
       <c r="A11" s="17">
         <v>10</v>
       </c>
-      <c r="B11" s="32" t="s">
+      <c r="B11" s="40" t="s">
         <v>39</v>
       </c>
       <c r="C11" s="17">
@@ -5576,16 +5583,16 @@
       <c r="F11" s="17">
         <v>5</v>
       </c>
-      <c r="G11" s="28">
+      <c r="G11" s="36">
         <v>145</v>
       </c>
       <c r="H11" s="17">
         <v>94</v>
       </c>
-      <c r="I11" s="29">
+      <c r="I11" s="37">
         <v>358</v>
       </c>
-      <c r="J11" s="34">
+      <c r="J11" s="42">
         <v>0</v>
       </c>
       <c r="K11" s="3">
@@ -5600,7 +5607,7 @@
       <c r="N11" s="3">
         <v>1.2</v>
       </c>
-      <c r="O11" s="35">
+      <c r="O11" s="43">
         <v>0</v>
       </c>
       <c r="P11" s="10"/>
@@ -5616,7 +5623,7 @@
       <c r="A12" s="17">
         <v>11</v>
       </c>
-      <c r="B12" s="31" t="s">
+      <c r="B12" s="39" t="s">
         <v>41</v>
       </c>
       <c r="C12" s="17">
@@ -5631,16 +5638,16 @@
       <c r="F12" s="17">
         <v>2</v>
       </c>
-      <c r="G12" s="28">
+      <c r="G12" s="36">
         <v>43</v>
       </c>
       <c r="H12" s="17">
         <v>83</v>
       </c>
-      <c r="I12" s="29">
+      <c r="I12" s="37">
         <v>178</v>
       </c>
-      <c r="J12" s="34">
+      <c r="J12" s="42">
         <v>0</v>
       </c>
       <c r="K12" s="3">
@@ -5655,7 +5662,7 @@
       <c r="N12" s="3">
         <v>1.2</v>
       </c>
-      <c r="O12" s="35">
+      <c r="O12" s="43">
         <v>0</v>
       </c>
       <c r="P12" s="10"/>
@@ -5671,7 +5678,7 @@
       <c r="A13" s="17">
         <v>12</v>
       </c>
-      <c r="B13" s="31" t="s">
+      <c r="B13" s="39" t="s">
         <v>43</v>
       </c>
       <c r="C13" s="17">
@@ -5686,16 +5693,16 @@
       <c r="F13" s="17">
         <v>2</v>
       </c>
-      <c r="G13" s="28">
+      <c r="G13" s="36">
         <v>44</v>
       </c>
       <c r="H13" s="17">
         <v>83</v>
       </c>
-      <c r="I13" s="29">
+      <c r="I13" s="37">
         <v>175</v>
       </c>
-      <c r="J13" s="34">
+      <c r="J13" s="42">
         <v>0</v>
       </c>
       <c r="K13" s="3">
@@ -5710,7 +5717,7 @@
       <c r="N13" s="3">
         <v>1.2</v>
       </c>
-      <c r="O13" s="35">
+      <c r="O13" s="43">
         <v>0</v>
       </c>
       <c r="P13" s="10"/>
@@ -5726,7 +5733,7 @@
       <c r="A14" s="17">
         <v>13</v>
       </c>
-      <c r="B14" s="31" t="s">
+      <c r="B14" s="39" t="s">
         <v>45</v>
       </c>
       <c r="C14" s="17">
@@ -5741,16 +5748,16 @@
       <c r="F14" s="17">
         <v>2</v>
       </c>
-      <c r="G14" s="28">
+      <c r="G14" s="36">
         <v>44</v>
       </c>
       <c r="H14" s="17">
         <v>83</v>
       </c>
-      <c r="I14" s="29">
+      <c r="I14" s="37">
         <v>177</v>
       </c>
-      <c r="J14" s="34">
+      <c r="J14" s="42">
         <v>0</v>
       </c>
       <c r="K14" s="3">
@@ -5765,7 +5772,7 @@
       <c r="N14" s="3">
         <v>1.2</v>
       </c>
-      <c r="O14" s="35">
+      <c r="O14" s="43">
         <v>0</v>
       </c>
       <c r="P14" s="10"/>
@@ -5781,7 +5788,7 @@
       <c r="A15" s="17">
         <v>14</v>
       </c>
-      <c r="B15" s="31" t="s">
+      <c r="B15" s="39" t="s">
         <v>47</v>
       </c>
       <c r="C15" s="17">
@@ -5796,16 +5803,16 @@
       <c r="F15" s="17">
         <v>3</v>
       </c>
-      <c r="G15" s="28">
+      <c r="G15" s="36">
         <v>62</v>
       </c>
       <c r="H15" s="17">
         <v>88</v>
       </c>
-      <c r="I15" s="29">
+      <c r="I15" s="37">
         <v>219</v>
       </c>
-      <c r="J15" s="34">
+      <c r="J15" s="42">
         <v>0</v>
       </c>
       <c r="K15" s="3">
@@ -5820,7 +5827,7 @@
       <c r="N15" s="3">
         <v>1.2</v>
       </c>
-      <c r="O15" s="35">
+      <c r="O15" s="43">
         <v>0</v>
       </c>
       <c r="P15" s="10"/>
@@ -5836,7 +5843,7 @@
       <c r="A16" s="17">
         <v>15</v>
       </c>
-      <c r="B16" s="31" t="s">
+      <c r="B16" s="39" t="s">
         <v>49</v>
       </c>
       <c r="C16" s="17">
@@ -5851,16 +5858,16 @@
       <c r="F16" s="17">
         <v>3</v>
       </c>
-      <c r="G16" s="28">
+      <c r="G16" s="36">
         <v>63</v>
       </c>
       <c r="H16" s="17">
         <v>87</v>
       </c>
-      <c r="I16" s="29">
+      <c r="I16" s="37">
         <v>218</v>
       </c>
-      <c r="J16" s="34">
+      <c r="J16" s="42">
         <v>0</v>
       </c>
       <c r="K16" s="3">
@@ -5875,7 +5882,7 @@
       <c r="N16" s="3">
         <v>1.2</v>
       </c>
-      <c r="O16" s="35">
+      <c r="O16" s="43">
         <v>0</v>
       </c>
       <c r="P16" s="10"/>
@@ -5891,7 +5898,7 @@
       <c r="A17" s="17">
         <v>16</v>
       </c>
-      <c r="B17" s="31" t="s">
+      <c r="B17" s="39" t="s">
         <v>51</v>
       </c>
       <c r="C17" s="17">
@@ -5906,16 +5913,16 @@
       <c r="F17" s="17">
         <v>3</v>
       </c>
-      <c r="G17" s="28">
+      <c r="G17" s="36">
         <v>64</v>
       </c>
       <c r="H17" s="17">
         <v>87</v>
       </c>
-      <c r="I17" s="29">
+      <c r="I17" s="37">
         <v>218</v>
       </c>
-      <c r="J17" s="34">
+      <c r="J17" s="42">
         <v>0</v>
       </c>
       <c r="K17" s="3">
@@ -5930,7 +5937,7 @@
       <c r="N17" s="3">
         <v>1.2</v>
       </c>
-      <c r="O17" s="35">
+      <c r="O17" s="43">
         <v>0</v>
       </c>
       <c r="P17" s="10">
@@ -5948,7 +5955,7 @@
       <c r="A18" s="17">
         <v>17</v>
       </c>
-      <c r="B18" s="31" t="s">
+      <c r="B18" s="39" t="s">
         <v>53</v>
       </c>
       <c r="C18" s="17">
@@ -5963,16 +5970,16 @@
       <c r="F18" s="17">
         <v>4</v>
       </c>
-      <c r="G18" s="28">
+      <c r="G18" s="36">
         <v>100</v>
       </c>
       <c r="H18" s="17">
         <v>94</v>
       </c>
-      <c r="I18" s="29">
+      <c r="I18" s="37">
         <v>300</v>
       </c>
-      <c r="J18" s="34">
+      <c r="J18" s="42">
         <v>0</v>
       </c>
       <c r="K18" s="3">
@@ -5987,7 +5994,7 @@
       <c r="N18" s="3">
         <v>1.2</v>
       </c>
-      <c r="O18" s="35">
+      <c r="O18" s="43">
         <v>0</v>
       </c>
       <c r="P18" s="10">
@@ -6005,7 +6012,7 @@
       <c r="A19" s="17">
         <v>18</v>
       </c>
-      <c r="B19" s="31" t="s">
+      <c r="B19" s="39" t="s">
         <v>55</v>
       </c>
       <c r="C19" s="17">
@@ -6020,16 +6027,16 @@
       <c r="F19" s="17">
         <v>4</v>
       </c>
-      <c r="G19" s="28">
+      <c r="G19" s="36">
         <v>98</v>
       </c>
       <c r="H19" s="17">
         <v>94</v>
       </c>
-      <c r="I19" s="29">
+      <c r="I19" s="37">
         <v>299</v>
       </c>
-      <c r="J19" s="34">
+      <c r="J19" s="42">
         <v>0</v>
       </c>
       <c r="K19" s="3">
@@ -6044,7 +6051,7 @@
       <c r="N19" s="3">
         <v>1.2</v>
       </c>
-      <c r="O19" s="35">
+      <c r="O19" s="43">
         <v>0</v>
       </c>
       <c r="P19" s="10">
@@ -6062,7 +6069,7 @@
       <c r="A20" s="17">
         <v>19</v>
       </c>
-      <c r="B20" s="32" t="s">
+      <c r="B20" s="40" t="s">
         <v>57</v>
       </c>
       <c r="C20" s="17">
@@ -6077,16 +6084,16 @@
       <c r="F20" s="17">
         <v>5</v>
       </c>
-      <c r="G20" s="28">
+      <c r="G20" s="36">
         <v>145</v>
       </c>
       <c r="H20" s="17">
         <v>94</v>
       </c>
-      <c r="I20" s="29">
+      <c r="I20" s="37">
         <v>358</v>
       </c>
-      <c r="J20" s="34">
+      <c r="J20" s="42">
         <v>0</v>
       </c>
       <c r="K20" s="3">
@@ -6101,7 +6108,7 @@
       <c r="N20" s="3">
         <v>1.2</v>
       </c>
-      <c r="O20" s="35">
+      <c r="O20" s="43">
         <v>0</v>
       </c>
       <c r="P20" s="10"/>
@@ -6117,7 +6124,7 @@
       <c r="A21" s="17">
         <v>20</v>
       </c>
-      <c r="B21" s="31" t="s">
+      <c r="B21" s="39" t="s">
         <v>59</v>
       </c>
       <c r="C21" s="17">
@@ -6132,16 +6139,16 @@
       <c r="F21" s="17">
         <v>2</v>
       </c>
-      <c r="G21" s="28">
+      <c r="G21" s="36">
         <v>43</v>
       </c>
       <c r="H21" s="17">
         <v>83</v>
       </c>
-      <c r="I21" s="29">
+      <c r="I21" s="37">
         <v>178</v>
       </c>
-      <c r="J21" s="34">
+      <c r="J21" s="42">
         <v>0</v>
       </c>
       <c r="K21" s="3">
@@ -6156,7 +6163,7 @@
       <c r="N21" s="3">
         <v>1.2</v>
       </c>
-      <c r="O21" s="35">
+      <c r="O21" s="43">
         <v>0</v>
       </c>
       <c r="P21" s="10"/>
@@ -6172,7 +6179,7 @@
       <c r="A22" s="17">
         <v>21</v>
       </c>
-      <c r="B22" s="31" t="s">
+      <c r="B22" s="39" t="s">
         <v>61</v>
       </c>
       <c r="C22" s="17">
@@ -6187,16 +6194,16 @@
       <c r="F22" s="17">
         <v>2</v>
       </c>
-      <c r="G22" s="28">
+      <c r="G22" s="36">
         <v>44</v>
       </c>
       <c r="H22" s="17">
         <v>83</v>
       </c>
-      <c r="I22" s="29">
+      <c r="I22" s="37">
         <v>175</v>
       </c>
-      <c r="J22" s="34">
+      <c r="J22" s="42">
         <v>0</v>
       </c>
       <c r="K22" s="3">
@@ -6211,7 +6218,7 @@
       <c r="N22" s="3">
         <v>1.2</v>
       </c>
-      <c r="O22" s="35">
+      <c r="O22" s="43">
         <v>0</v>
       </c>
       <c r="P22" s="10"/>
@@ -6227,7 +6234,7 @@
       <c r="A23" s="17">
         <v>22</v>
       </c>
-      <c r="B23" s="31" t="s">
+      <c r="B23" s="39" t="s">
         <v>63</v>
       </c>
       <c r="C23" s="17">
@@ -6242,16 +6249,16 @@
       <c r="F23" s="17">
         <v>2</v>
       </c>
-      <c r="G23" s="28">
+      <c r="G23" s="36">
         <v>44</v>
       </c>
       <c r="H23" s="17">
         <v>81</v>
       </c>
-      <c r="I23" s="29">
+      <c r="I23" s="37">
         <v>177</v>
       </c>
-      <c r="J23" s="34">
+      <c r="J23" s="42">
         <v>0</v>
       </c>
       <c r="K23" s="3">
@@ -6266,7 +6273,7 @@
       <c r="N23" s="3">
         <v>1.2</v>
       </c>
-      <c r="O23" s="35">
+      <c r="O23" s="43">
         <v>0</v>
       </c>
       <c r="P23" s="10"/>
@@ -6282,7 +6289,7 @@
       <c r="A24" s="17">
         <v>23</v>
       </c>
-      <c r="B24" s="31" t="s">
+      <c r="B24" s="39" t="s">
         <v>65</v>
       </c>
       <c r="C24" s="17">
@@ -6297,16 +6304,16 @@
       <c r="F24" s="17">
         <v>3</v>
       </c>
-      <c r="G24" s="28">
+      <c r="G24" s="36">
         <v>62</v>
       </c>
       <c r="H24" s="17">
         <v>88</v>
       </c>
-      <c r="I24" s="29">
+      <c r="I24" s="37">
         <v>219</v>
       </c>
-      <c r="J24" s="34">
+      <c r="J24" s="42">
         <v>0</v>
       </c>
       <c r="K24" s="3">
@@ -6321,7 +6328,7 @@
       <c r="N24" s="3">
         <v>1.2</v>
       </c>
-      <c r="O24" s="35">
+      <c r="O24" s="43">
         <v>0</v>
       </c>
       <c r="P24" s="10"/>
@@ -6337,7 +6344,7 @@
       <c r="A25" s="17">
         <v>24</v>
       </c>
-      <c r="B25" s="31" t="s">
+      <c r="B25" s="39" t="s">
         <v>67</v>
       </c>
       <c r="C25" s="17">
@@ -6352,16 +6359,16 @@
       <c r="F25" s="17">
         <v>3</v>
       </c>
-      <c r="G25" s="28">
+      <c r="G25" s="36">
         <v>63</v>
       </c>
       <c r="H25" s="17">
         <v>87</v>
       </c>
-      <c r="I25" s="29">
+      <c r="I25" s="37">
         <v>220</v>
       </c>
-      <c r="J25" s="34">
+      <c r="J25" s="42">
         <v>0</v>
       </c>
       <c r="K25" s="3">
@@ -6376,7 +6383,7 @@
       <c r="N25" s="3">
         <v>1.2</v>
       </c>
-      <c r="O25" s="35">
+      <c r="O25" s="43">
         <v>0</v>
       </c>
       <c r="P25" s="10"/>
@@ -6392,7 +6399,7 @@
       <c r="A26" s="17">
         <v>25</v>
       </c>
-      <c r="B26" s="31" t="s">
+      <c r="B26" s="39" t="s">
         <v>69</v>
       </c>
       <c r="C26" s="17">
@@ -6407,16 +6414,16 @@
       <c r="F26" s="17">
         <v>3</v>
       </c>
-      <c r="G26" s="28">
+      <c r="G26" s="36">
         <v>64</v>
       </c>
       <c r="H26" s="17">
         <v>87</v>
       </c>
-      <c r="I26" s="29">
+      <c r="I26" s="37">
         <v>218</v>
       </c>
-      <c r="J26" s="34">
+      <c r="J26" s="42">
         <v>0</v>
       </c>
       <c r="K26" s="3">
@@ -6431,7 +6438,7 @@
       <c r="N26" s="3">
         <v>1.2</v>
       </c>
-      <c r="O26" s="35">
+      <c r="O26" s="43">
         <v>0</v>
       </c>
       <c r="P26" s="10">
@@ -6449,7 +6456,7 @@
       <c r="A27" s="17">
         <v>26</v>
       </c>
-      <c r="B27" s="31" t="s">
+      <c r="B27" s="39" t="s">
         <v>71</v>
       </c>
       <c r="C27" s="17">
@@ -6464,16 +6471,16 @@
       <c r="F27" s="17">
         <v>4</v>
       </c>
-      <c r="G27" s="28">
+      <c r="G27" s="36">
         <v>98</v>
       </c>
       <c r="H27" s="17">
         <v>94</v>
       </c>
-      <c r="I27" s="29">
+      <c r="I27" s="37">
         <v>300</v>
       </c>
-      <c r="J27" s="34">
+      <c r="J27" s="42">
         <v>0</v>
       </c>
       <c r="K27" s="3">
@@ -6488,7 +6495,7 @@
       <c r="N27" s="3">
         <v>1.2</v>
       </c>
-      <c r="O27" s="35">
+      <c r="O27" s="43">
         <v>0</v>
       </c>
       <c r="P27" s="10">
@@ -6506,7 +6513,7 @@
       <c r="A28" s="17">
         <v>27</v>
       </c>
-      <c r="B28" s="31" t="s">
+      <c r="B28" s="39" t="s">
         <v>73</v>
       </c>
       <c r="C28" s="17">
@@ -6521,16 +6528,16 @@
       <c r="F28" s="17">
         <v>4</v>
       </c>
-      <c r="G28" s="28">
+      <c r="G28" s="36">
         <v>100</v>
       </c>
       <c r="H28" s="17">
         <v>94</v>
       </c>
-      <c r="I28" s="29">
+      <c r="I28" s="37">
         <v>299</v>
       </c>
-      <c r="J28" s="34">
+      <c r="J28" s="42">
         <v>0</v>
       </c>
       <c r="K28" s="3">
@@ -6545,7 +6552,7 @@
       <c r="N28" s="3">
         <v>1.2</v>
       </c>
-      <c r="O28" s="35">
+      <c r="O28" s="43">
         <v>0</v>
       </c>
       <c r="P28" s="10">
@@ -6563,7 +6570,7 @@
       <c r="A29" s="17">
         <v>28</v>
       </c>
-      <c r="B29" s="32" t="s">
+      <c r="B29" s="40" t="s">
         <v>75</v>
       </c>
       <c r="C29" s="17">
@@ -6578,16 +6585,16 @@
       <c r="F29" s="17">
         <v>5</v>
       </c>
-      <c r="G29" s="28">
+      <c r="G29" s="36">
         <v>145</v>
       </c>
       <c r="H29" s="17">
         <v>94</v>
       </c>
-      <c r="I29" s="29">
+      <c r="I29" s="37">
         <v>358</v>
       </c>
-      <c r="J29" s="34">
+      <c r="J29" s="42">
         <v>0</v>
       </c>
       <c r="K29" s="3">
@@ -6602,7 +6609,7 @@
       <c r="N29" s="3">
         <v>1.2</v>
       </c>
-      <c r="O29" s="35">
+      <c r="O29" s="43">
         <v>0</v>
       </c>
       <c r="P29" s="10"/>
@@ -6618,7 +6625,7 @@
       <c r="A30" s="17">
         <v>29</v>
       </c>
-      <c r="B30" s="31" t="s">
+      <c r="B30" s="39" t="s">
         <v>77</v>
       </c>
       <c r="C30" s="17">
@@ -6633,16 +6640,16 @@
       <c r="F30" s="17">
         <v>2</v>
       </c>
-      <c r="G30" s="28">
+      <c r="G30" s="36">
         <v>67</v>
       </c>
       <c r="H30" s="17">
         <v>58</v>
       </c>
-      <c r="I30" s="29">
+      <c r="I30" s="37">
         <v>123</v>
       </c>
-      <c r="J30" s="34">
+      <c r="J30" s="42">
         <v>0</v>
       </c>
       <c r="K30" s="3">
@@ -6657,7 +6664,7 @@
       <c r="N30" s="3">
         <v>1.2</v>
       </c>
-      <c r="O30" s="35">
+      <c r="O30" s="43">
         <v>0</v>
       </c>
       <c r="P30" s="10"/>
@@ -6673,7 +6680,7 @@
       <c r="A31" s="17">
         <v>30</v>
       </c>
-      <c r="B31" s="31" t="s">
+      <c r="B31" s="39" t="s">
         <v>79</v>
       </c>
       <c r="C31" s="17">
@@ -6688,16 +6695,16 @@
       <c r="F31" s="17">
         <v>2</v>
       </c>
-      <c r="G31" s="28">
+      <c r="G31" s="36">
         <v>68</v>
       </c>
       <c r="H31" s="17">
         <v>57</v>
       </c>
-      <c r="I31" s="29">
+      <c r="I31" s="37">
         <v>125</v>
       </c>
-      <c r="J31" s="34">
+      <c r="J31" s="42">
         <v>0</v>
       </c>
       <c r="K31" s="3">
@@ -6712,7 +6719,7 @@
       <c r="N31" s="3">
         <v>1.2</v>
       </c>
-      <c r="O31" s="35">
+      <c r="O31" s="43">
         <v>0</v>
       </c>
       <c r="P31" s="10"/>
@@ -6728,7 +6735,7 @@
       <c r="A32" s="17">
         <v>31</v>
       </c>
-      <c r="B32" s="31" t="s">
+      <c r="B32" s="39" t="s">
         <v>81</v>
       </c>
       <c r="C32" s="17">
@@ -6743,16 +6750,16 @@
       <c r="F32" s="17">
         <v>2</v>
       </c>
-      <c r="G32" s="28">
+      <c r="G32" s="36">
         <v>68</v>
       </c>
       <c r="H32" s="17">
         <v>56</v>
       </c>
-      <c r="I32" s="29">
+      <c r="I32" s="37">
         <v>124</v>
       </c>
-      <c r="J32" s="34">
+      <c r="J32" s="42">
         <v>0</v>
       </c>
       <c r="K32" s="3">
@@ -6767,7 +6774,7 @@
       <c r="N32" s="3">
         <v>1.2</v>
       </c>
-      <c r="O32" s="35">
+      <c r="O32" s="43">
         <v>0</v>
       </c>
       <c r="P32" s="10"/>
@@ -6783,7 +6790,7 @@
       <c r="A33" s="17">
         <v>32</v>
       </c>
-      <c r="B33" s="31" t="s">
+      <c r="B33" s="39" t="s">
         <v>83</v>
       </c>
       <c r="C33" s="17">
@@ -6798,16 +6805,16 @@
       <c r="F33" s="17">
         <v>3</v>
       </c>
-      <c r="G33" s="28">
+      <c r="G33" s="36">
         <v>90</v>
       </c>
       <c r="H33" s="17">
         <v>60</v>
       </c>
-      <c r="I33" s="29">
+      <c r="I33" s="37">
         <v>160</v>
       </c>
-      <c r="J33" s="34">
+      <c r="J33" s="42">
         <v>0</v>
       </c>
       <c r="K33" s="3">
@@ -6822,7 +6829,7 @@
       <c r="N33" s="3">
         <v>1.2</v>
       </c>
-      <c r="O33" s="35">
+      <c r="O33" s="43">
         <v>0</v>
       </c>
       <c r="P33" s="10"/>
@@ -6838,7 +6845,7 @@
       <c r="A34" s="17">
         <v>33</v>
       </c>
-      <c r="B34" s="31" t="s">
+      <c r="B34" s="39" t="s">
         <v>85</v>
       </c>
       <c r="C34" s="17">
@@ -6853,16 +6860,16 @@
       <c r="F34" s="17">
         <v>3</v>
       </c>
-      <c r="G34" s="28">
+      <c r="G34" s="36">
         <v>89</v>
       </c>
       <c r="H34" s="17">
         <v>62</v>
       </c>
-      <c r="I34" s="29">
+      <c r="I34" s="37">
         <v>160</v>
       </c>
-      <c r="J34" s="34">
+      <c r="J34" s="42">
         <v>0</v>
       </c>
       <c r="K34" s="3">
@@ -6877,7 +6884,7 @@
       <c r="N34" s="3">
         <v>1.2</v>
       </c>
-      <c r="O34" s="35">
+      <c r="O34" s="43">
         <v>0</v>
       </c>
       <c r="P34" s="10"/>
@@ -6893,7 +6900,7 @@
       <c r="A35" s="17">
         <v>34</v>
       </c>
-      <c r="B35" s="31" t="s">
+      <c r="B35" s="39" t="s">
         <v>87</v>
       </c>
       <c r="C35" s="17">
@@ -6908,16 +6915,16 @@
       <c r="F35" s="17">
         <v>3</v>
       </c>
-      <c r="G35" s="28">
+      <c r="G35" s="36">
         <v>87</v>
       </c>
       <c r="H35" s="17">
         <v>63</v>
       </c>
-      <c r="I35" s="29">
+      <c r="I35" s="37">
         <v>161</v>
       </c>
-      <c r="J35" s="34">
+      <c r="J35" s="42">
         <v>0</v>
       </c>
       <c r="K35" s="3">
@@ -6932,7 +6939,7 @@
       <c r="N35" s="3">
         <v>1.2</v>
       </c>
-      <c r="O35" s="35">
+      <c r="O35" s="43">
         <v>0</v>
       </c>
       <c r="P35" s="10">
@@ -6950,7 +6957,7 @@
       <c r="A36" s="17">
         <v>35</v>
       </c>
-      <c r="B36" s="31" t="s">
+      <c r="B36" s="39" t="s">
         <v>89</v>
       </c>
       <c r="C36" s="17">
@@ -6965,16 +6972,16 @@
       <c r="F36" s="17">
         <v>4</v>
       </c>
-      <c r="G36" s="28">
+      <c r="G36" s="36">
         <v>129</v>
       </c>
       <c r="H36" s="17">
         <v>65</v>
       </c>
-      <c r="I36" s="29">
+      <c r="I36" s="37">
         <v>243</v>
       </c>
-      <c r="J36" s="34">
+      <c r="J36" s="42">
         <v>0</v>
       </c>
       <c r="K36" s="3">
@@ -6989,7 +6996,7 @@
       <c r="N36" s="3">
         <v>1.2</v>
       </c>
-      <c r="O36" s="35">
+      <c r="O36" s="43">
         <v>0</v>
       </c>
       <c r="P36" s="10">
@@ -7007,7 +7014,7 @@
       <c r="A37" s="17">
         <v>36</v>
       </c>
-      <c r="B37" s="31" t="s">
+      <c r="B37" s="39" t="s">
         <v>91</v>
       </c>
       <c r="C37" s="17">
@@ -7022,16 +7029,16 @@
       <c r="F37" s="17">
         <v>4</v>
       </c>
-      <c r="G37" s="28">
+      <c r="G37" s="36">
         <v>128</v>
       </c>
       <c r="H37" s="17">
         <v>66</v>
       </c>
-      <c r="I37" s="29">
+      <c r="I37" s="37">
         <v>242</v>
       </c>
-      <c r="J37" s="34">
+      <c r="J37" s="42">
         <v>0</v>
       </c>
       <c r="K37" s="3">
@@ -7046,7 +7053,7 @@
       <c r="N37" s="3">
         <v>1.2</v>
       </c>
-      <c r="O37" s="35">
+      <c r="O37" s="43">
         <v>0</v>
       </c>
       <c r="P37" s="10">
@@ -7064,7 +7071,7 @@
       <c r="A38" s="17">
         <v>37</v>
       </c>
-      <c r="B38" s="32" t="s">
+      <c r="B38" s="40" t="s">
         <v>93</v>
       </c>
       <c r="C38" s="17">
@@ -7079,16 +7086,16 @@
       <c r="F38" s="17">
         <v>5</v>
       </c>
-      <c r="G38" s="28">
+      <c r="G38" s="36">
         <v>169</v>
       </c>
       <c r="H38" s="17">
         <v>70</v>
       </c>
-      <c r="I38" s="29">
+      <c r="I38" s="37">
         <v>322</v>
       </c>
-      <c r="J38" s="34">
+      <c r="J38" s="42">
         <v>0</v>
       </c>
       <c r="K38" s="3">
@@ -7103,7 +7110,7 @@
       <c r="N38" s="3">
         <v>1.2</v>
       </c>
-      <c r="O38" s="35">
+      <c r="O38" s="43">
         <v>0</v>
       </c>
       <c r="P38" s="10"/>
@@ -7119,7 +7126,7 @@
       <c r="A39" s="17">
         <v>38</v>
       </c>
-      <c r="B39" s="31" t="s">
+      <c r="B39" s="39" t="s">
         <v>95</v>
       </c>
       <c r="C39" s="17">
@@ -7134,16 +7141,16 @@
       <c r="F39" s="17">
         <v>2</v>
       </c>
-      <c r="G39" s="28">
+      <c r="G39" s="36">
         <v>67</v>
       </c>
       <c r="H39" s="17">
         <v>58</v>
       </c>
-      <c r="I39" s="29">
+      <c r="I39" s="37">
         <v>123</v>
       </c>
-      <c r="J39" s="34">
+      <c r="J39" s="42">
         <v>0</v>
       </c>
       <c r="K39" s="3">
@@ -7158,7 +7165,7 @@
       <c r="N39" s="3">
         <v>1.2</v>
       </c>
-      <c r="O39" s="35">
+      <c r="O39" s="43">
         <v>0</v>
       </c>
       <c r="P39" s="10"/>
@@ -7174,7 +7181,7 @@
       <c r="A40" s="17">
         <v>39</v>
       </c>
-      <c r="B40" s="31" t="s">
+      <c r="B40" s="39" t="s">
         <v>97</v>
       </c>
       <c r="C40" s="17">
@@ -7189,16 +7196,16 @@
       <c r="F40" s="17">
         <v>2</v>
       </c>
-      <c r="G40" s="28">
+      <c r="G40" s="36">
         <v>68</v>
       </c>
       <c r="H40" s="17">
         <v>56</v>
       </c>
-      <c r="I40" s="29">
+      <c r="I40" s="37">
         <v>124</v>
       </c>
-      <c r="J40" s="34">
+      <c r="J40" s="42">
         <v>0</v>
       </c>
       <c r="K40" s="3">
@@ -7213,7 +7220,7 @@
       <c r="N40" s="3">
         <v>1.2</v>
       </c>
-      <c r="O40" s="35">
+      <c r="O40" s="43">
         <v>0</v>
       </c>
       <c r="P40" s="10"/>
@@ -7229,7 +7236,7 @@
       <c r="A41" s="17">
         <v>40</v>
       </c>
-      <c r="B41" s="31" t="s">
+      <c r="B41" s="39" t="s">
         <v>99</v>
       </c>
       <c r="C41" s="17">
@@ -7244,16 +7251,16 @@
       <c r="F41" s="17">
         <v>2</v>
       </c>
-      <c r="G41" s="28">
+      <c r="G41" s="36">
         <v>70</v>
       </c>
       <c r="H41" s="17">
         <v>55</v>
       </c>
-      <c r="I41" s="29">
+      <c r="I41" s="37">
         <v>124</v>
       </c>
-      <c r="J41" s="34">
+      <c r="J41" s="42">
         <v>0</v>
       </c>
       <c r="K41" s="3">
@@ -7268,7 +7275,7 @@
       <c r="N41" s="3">
         <v>1.2</v>
       </c>
-      <c r="O41" s="35">
+      <c r="O41" s="43">
         <v>0</v>
       </c>
       <c r="P41" s="10"/>
@@ -7284,7 +7291,7 @@
       <c r="A42" s="17">
         <v>41</v>
       </c>
-      <c r="B42" s="31" t="s">
+      <c r="B42" s="39" t="s">
         <v>101</v>
       </c>
       <c r="C42" s="17">
@@ -7299,16 +7306,16 @@
       <c r="F42" s="17">
         <v>3</v>
       </c>
-      <c r="G42" s="28">
+      <c r="G42" s="36">
         <v>90</v>
       </c>
       <c r="H42" s="17">
         <v>60</v>
       </c>
-      <c r="I42" s="29">
+      <c r="I42" s="37">
         <v>160</v>
       </c>
-      <c r="J42" s="34">
+      <c r="J42" s="42">
         <v>0</v>
       </c>
       <c r="K42" s="3">
@@ -7323,7 +7330,7 @@
       <c r="N42" s="3">
         <v>1.2</v>
       </c>
-      <c r="O42" s="35">
+      <c r="O42" s="43">
         <v>0</v>
       </c>
       <c r="P42" s="10"/>
@@ -7339,7 +7346,7 @@
       <c r="A43" s="17">
         <v>42</v>
       </c>
-      <c r="B43" s="31" t="s">
+      <c r="B43" s="39" t="s">
         <v>103</v>
       </c>
       <c r="C43" s="17">
@@ -7354,16 +7361,16 @@
       <c r="F43" s="17">
         <v>3</v>
       </c>
-      <c r="G43" s="28">
+      <c r="G43" s="36">
         <v>89</v>
       </c>
       <c r="H43" s="17">
         <v>62</v>
       </c>
-      <c r="I43" s="29">
+      <c r="I43" s="37">
         <v>160</v>
       </c>
-      <c r="J43" s="34">
+      <c r="J43" s="42">
         <v>0</v>
       </c>
       <c r="K43" s="3">
@@ -7378,7 +7385,7 @@
       <c r="N43" s="3">
         <v>1.2</v>
       </c>
-      <c r="O43" s="35">
+      <c r="O43" s="43">
         <v>0</v>
       </c>
       <c r="P43" s="10"/>
@@ -7394,7 +7401,7 @@
       <c r="A44" s="17">
         <v>43</v>
       </c>
-      <c r="B44" s="31" t="s">
+      <c r="B44" s="39" t="s">
         <v>105</v>
       </c>
       <c r="C44" s="17">
@@ -7409,16 +7416,16 @@
       <c r="F44" s="17">
         <v>3</v>
       </c>
-      <c r="G44" s="28">
+      <c r="G44" s="36">
         <v>87</v>
       </c>
       <c r="H44" s="17">
         <v>63</v>
       </c>
-      <c r="I44" s="29">
+      <c r="I44" s="37">
         <v>161</v>
       </c>
-      <c r="J44" s="34">
+      <c r="J44" s="42">
         <v>0</v>
       </c>
       <c r="K44" s="3">
@@ -7433,7 +7440,7 @@
       <c r="N44" s="3">
         <v>1.2</v>
       </c>
-      <c r="O44" s="35">
+      <c r="O44" s="43">
         <v>0</v>
       </c>
       <c r="P44" s="10">
@@ -7451,7 +7458,7 @@
       <c r="A45" s="17">
         <v>44</v>
       </c>
-      <c r="B45" s="31" t="s">
+      <c r="B45" s="39" t="s">
         <v>107</v>
       </c>
       <c r="C45" s="17">
@@ -7466,16 +7473,16 @@
       <c r="F45" s="17">
         <v>4</v>
       </c>
-      <c r="G45" s="28">
+      <c r="G45" s="36">
         <v>129</v>
       </c>
       <c r="H45" s="17">
         <v>65</v>
       </c>
-      <c r="I45" s="29">
+      <c r="I45" s="37">
         <v>243</v>
       </c>
-      <c r="J45" s="34">
+      <c r="J45" s="42">
         <v>0</v>
       </c>
       <c r="K45" s="3">
@@ -7490,7 +7497,7 @@
       <c r="N45" s="3">
         <v>1.2</v>
       </c>
-      <c r="O45" s="35">
+      <c r="O45" s="43">
         <v>0</v>
       </c>
       <c r="P45" s="10">
@@ -7508,7 +7515,7 @@
       <c r="A46" s="17">
         <v>45</v>
       </c>
-      <c r="B46" s="31" t="s">
+      <c r="B46" s="39" t="s">
         <v>109</v>
       </c>
       <c r="C46" s="17">
@@ -7523,16 +7530,16 @@
       <c r="F46" s="17">
         <v>4</v>
       </c>
-      <c r="G46" s="28">
+      <c r="G46" s="36">
         <v>128</v>
       </c>
       <c r="H46" s="17">
         <v>66</v>
       </c>
-      <c r="I46" s="29">
+      <c r="I46" s="37">
         <v>242</v>
       </c>
-      <c r="J46" s="34">
+      <c r="J46" s="42">
         <v>0</v>
       </c>
       <c r="K46" s="3">
@@ -7547,7 +7554,7 @@
       <c r="N46" s="3">
         <v>1.2</v>
       </c>
-      <c r="O46" s="35">
+      <c r="O46" s="43">
         <v>0</v>
       </c>
       <c r="P46" s="10">
@@ -7565,7 +7572,7 @@
       <c r="A47" s="17">
         <v>46</v>
       </c>
-      <c r="B47" s="32" t="s">
+      <c r="B47" s="40" t="s">
         <v>111</v>
       </c>
       <c r="C47" s="17">
@@ -7580,16 +7587,16 @@
       <c r="F47" s="17">
         <v>5</v>
       </c>
-      <c r="G47" s="28">
+      <c r="G47" s="36">
         <v>169</v>
       </c>
       <c r="H47" s="17">
         <v>70</v>
       </c>
-      <c r="I47" s="29">
+      <c r="I47" s="37">
         <v>322</v>
       </c>
-      <c r="J47" s="34">
+      <c r="J47" s="42">
         <v>0</v>
       </c>
       <c r="K47" s="3">
@@ -7604,7 +7611,7 @@
       <c r="N47" s="3">
         <v>1.2</v>
       </c>
-      <c r="O47" s="35">
+      <c r="O47" s="43">
         <v>0</v>
       </c>
       <c r="P47" s="10"/>
@@ -7620,7 +7627,7 @@
       <c r="A48" s="17">
         <v>47</v>
       </c>
-      <c r="B48" s="31" t="s">
+      <c r="B48" s="39" t="s">
         <v>113</v>
       </c>
       <c r="C48" s="17">
@@ -7635,16 +7642,16 @@
       <c r="F48" s="17">
         <v>2</v>
       </c>
-      <c r="G48" s="28">
+      <c r="G48" s="36">
         <v>67</v>
       </c>
       <c r="H48" s="17">
         <v>58</v>
       </c>
-      <c r="I48" s="29">
+      <c r="I48" s="37">
         <v>123</v>
       </c>
-      <c r="J48" s="34">
+      <c r="J48" s="42">
         <v>0</v>
       </c>
       <c r="K48" s="3">
@@ -7659,7 +7666,7 @@
       <c r="N48" s="3">
         <v>1.2</v>
       </c>
-      <c r="O48" s="35">
+      <c r="O48" s="43">
         <v>0</v>
       </c>
       <c r="P48" s="10"/>
@@ -7675,7 +7682,7 @@
       <c r="A49" s="17">
         <v>48</v>
       </c>
-      <c r="B49" s="31" t="s">
+      <c r="B49" s="39" t="s">
         <v>115</v>
       </c>
       <c r="C49" s="17">
@@ -7690,16 +7697,16 @@
       <c r="F49" s="17">
         <v>2</v>
       </c>
-      <c r="G49" s="28">
+      <c r="G49" s="36">
         <v>70</v>
       </c>
       <c r="H49" s="17">
         <v>55</v>
       </c>
-      <c r="I49" s="29">
+      <c r="I49" s="37">
         <v>124</v>
       </c>
-      <c r="J49" s="34">
+      <c r="J49" s="42">
         <v>0</v>
       </c>
       <c r="K49" s="3">
@@ -7714,7 +7721,7 @@
       <c r="N49" s="3">
         <v>1.2</v>
       </c>
-      <c r="O49" s="35">
+      <c r="O49" s="43">
         <v>0</v>
       </c>
       <c r="P49" s="10"/>
@@ -7730,7 +7737,7 @@
       <c r="A50" s="17">
         <v>49</v>
       </c>
-      <c r="B50" s="31" t="s">
+      <c r="B50" s="39" t="s">
         <v>117</v>
       </c>
       <c r="C50" s="17">
@@ -7745,16 +7752,16 @@
       <c r="F50" s="17">
         <v>2</v>
       </c>
-      <c r="G50" s="28">
+      <c r="G50" s="36">
         <v>68</v>
       </c>
       <c r="H50" s="17">
         <v>56</v>
       </c>
-      <c r="I50" s="29">
+      <c r="I50" s="37">
         <v>124</v>
       </c>
-      <c r="J50" s="34">
+      <c r="J50" s="42">
         <v>0</v>
       </c>
       <c r="K50" s="3">
@@ -7769,7 +7776,7 @@
       <c r="N50" s="3">
         <v>1.2</v>
       </c>
-      <c r="O50" s="35">
+      <c r="O50" s="43">
         <v>0</v>
       </c>
       <c r="P50" s="10"/>
@@ -7785,7 +7792,7 @@
       <c r="A51" s="17">
         <v>50</v>
       </c>
-      <c r="B51" s="31" t="s">
+      <c r="B51" s="39" t="s">
         <v>119</v>
       </c>
       <c r="C51" s="17">
@@ -7800,16 +7807,16 @@
       <c r="F51" s="17">
         <v>3</v>
       </c>
-      <c r="G51" s="28">
+      <c r="G51" s="36">
         <v>90</v>
       </c>
       <c r="H51" s="17">
         <v>61</v>
       </c>
-      <c r="I51" s="29">
+      <c r="I51" s="37">
         <v>160</v>
       </c>
-      <c r="J51" s="34">
+      <c r="J51" s="42">
         <v>0</v>
       </c>
       <c r="K51" s="3">
@@ -7824,7 +7831,7 @@
       <c r="N51" s="3">
         <v>1.2</v>
       </c>
-      <c r="O51" s="35">
+      <c r="O51" s="43">
         <v>0</v>
       </c>
       <c r="P51" s="10"/>
@@ -7840,7 +7847,7 @@
       <c r="A52" s="17">
         <v>51</v>
       </c>
-      <c r="B52" s="31" t="s">
+      <c r="B52" s="39" t="s">
         <v>121</v>
       </c>
       <c r="C52" s="17">
@@ -7855,16 +7862,16 @@
       <c r="F52" s="17">
         <v>3</v>
       </c>
-      <c r="G52" s="28">
+      <c r="G52" s="36">
         <v>89</v>
       </c>
       <c r="H52" s="17">
         <v>62</v>
       </c>
-      <c r="I52" s="29">
+      <c r="I52" s="37">
         <v>160</v>
       </c>
-      <c r="J52" s="34">
+      <c r="J52" s="42">
         <v>0</v>
       </c>
       <c r="K52" s="3">
@@ -7879,7 +7886,7 @@
       <c r="N52" s="3">
         <v>1.2</v>
       </c>
-      <c r="O52" s="35">
+      <c r="O52" s="43">
         <v>0</v>
       </c>
       <c r="P52" s="10"/>
@@ -7895,7 +7902,7 @@
       <c r="A53" s="17">
         <v>52</v>
       </c>
-      <c r="B53" s="31" t="s">
+      <c r="B53" s="39" t="s">
         <v>123</v>
       </c>
       <c r="C53" s="17">
@@ -7910,16 +7917,16 @@
       <c r="F53" s="17">
         <v>3</v>
       </c>
-      <c r="G53" s="28">
+      <c r="G53" s="36">
         <v>87</v>
       </c>
       <c r="H53" s="17">
         <v>63</v>
       </c>
-      <c r="I53" s="29">
+      <c r="I53" s="37">
         <v>161</v>
       </c>
-      <c r="J53" s="34">
+      <c r="J53" s="42">
         <v>0</v>
       </c>
       <c r="K53" s="3">
@@ -7934,7 +7941,7 @@
       <c r="N53" s="3">
         <v>1.2</v>
       </c>
-      <c r="O53" s="35">
+      <c r="O53" s="43">
         <v>0</v>
       </c>
       <c r="P53" s="10">
@@ -7952,7 +7959,7 @@
       <c r="A54" s="17">
         <v>53</v>
       </c>
-      <c r="B54" s="31" t="s">
+      <c r="B54" s="39" t="s">
         <v>125</v>
       </c>
       <c r="C54" s="17">
@@ -7967,16 +7974,16 @@
       <c r="F54" s="17">
         <v>4</v>
       </c>
-      <c r="G54" s="28">
+      <c r="G54" s="36">
         <v>129</v>
       </c>
       <c r="H54" s="17">
         <v>65</v>
       </c>
-      <c r="I54" s="29">
+      <c r="I54" s="37">
         <v>243</v>
       </c>
-      <c r="J54" s="34">
+      <c r="J54" s="42">
         <v>0</v>
       </c>
       <c r="K54" s="3">
@@ -7991,7 +7998,7 @@
       <c r="N54" s="3">
         <v>1.2</v>
       </c>
-      <c r="O54" s="35">
+      <c r="O54" s="43">
         <v>0</v>
       </c>
       <c r="P54" s="10">
@@ -8009,7 +8016,7 @@
       <c r="A55" s="17">
         <v>54</v>
       </c>
-      <c r="B55" s="31" t="s">
+      <c r="B55" s="39" t="s">
         <v>127</v>
       </c>
       <c r="C55" s="17">
@@ -8024,16 +8031,16 @@
       <c r="F55" s="17">
         <v>4</v>
       </c>
-      <c r="G55" s="28">
+      <c r="G55" s="36">
         <v>128</v>
       </c>
       <c r="H55" s="17">
         <v>66</v>
       </c>
-      <c r="I55" s="29">
+      <c r="I55" s="37">
         <v>242</v>
       </c>
-      <c r="J55" s="34">
+      <c r="J55" s="42">
         <v>0</v>
       </c>
       <c r="K55" s="3">
@@ -8048,7 +8055,7 @@
       <c r="N55" s="3">
         <v>1.2</v>
       </c>
-      <c r="O55" s="35">
+      <c r="O55" s="43">
         <v>0</v>
       </c>
       <c r="P55" s="10">
@@ -8066,7 +8073,7 @@
       <c r="A56" s="17">
         <v>55</v>
       </c>
-      <c r="B56" s="32" t="s">
+      <c r="B56" s="40" t="s">
         <v>129</v>
       </c>
       <c r="C56" s="17">
@@ -8081,16 +8088,16 @@
       <c r="F56" s="17">
         <v>5</v>
       </c>
-      <c r="G56" s="28">
+      <c r="G56" s="36">
         <v>169</v>
       </c>
       <c r="H56" s="17">
         <v>70</v>
       </c>
-      <c r="I56" s="29">
+      <c r="I56" s="37">
         <v>322</v>
       </c>
-      <c r="J56" s="34">
+      <c r="J56" s="42">
         <v>0</v>
       </c>
       <c r="K56" s="3">
@@ -8105,7 +8112,7 @@
       <c r="N56" s="3">
         <v>1.2</v>
       </c>
-      <c r="O56" s="35">
+      <c r="O56" s="43">
         <v>0</v>
       </c>
       <c r="P56" s="10"/>
@@ -8121,7 +8128,7 @@
       <c r="A57" s="17">
         <v>56</v>
       </c>
-      <c r="B57" s="31" t="s">
+      <c r="B57" s="39" t="s">
         <v>131</v>
       </c>
       <c r="C57" s="17">
@@ -8136,16 +8143,16 @@
       <c r="F57" s="17">
         <v>2</v>
       </c>
-      <c r="G57" s="28">
+      <c r="G57" s="36">
         <v>62</v>
       </c>
       <c r="H57" s="17">
         <v>49</v>
       </c>
-      <c r="I57" s="29">
+      <c r="I57" s="37">
         <v>117</v>
       </c>
-      <c r="J57" s="34">
+      <c r="J57" s="42">
         <v>0</v>
       </c>
       <c r="K57" s="3">
@@ -8160,7 +8167,7 @@
       <c r="N57" s="3">
         <v>1.2</v>
       </c>
-      <c r="O57" s="35">
+      <c r="O57" s="43">
         <v>0</v>
       </c>
       <c r="P57" s="10"/>
@@ -8178,7 +8185,7 @@
       <c r="A58" s="17">
         <v>57</v>
       </c>
-      <c r="B58" s="31" t="s">
+      <c r="B58" s="39" t="s">
         <v>133</v>
       </c>
       <c r="C58" s="17">
@@ -8193,16 +8200,16 @@
       <c r="F58" s="17">
         <v>2</v>
       </c>
-      <c r="G58" s="28">
+      <c r="G58" s="36">
         <v>58</v>
       </c>
       <c r="H58" s="17">
         <v>47</v>
       </c>
-      <c r="I58" s="29">
+      <c r="I58" s="37">
         <v>130</v>
       </c>
-      <c r="J58" s="34">
+      <c r="J58" s="42">
         <v>0</v>
       </c>
       <c r="K58" s="3">
@@ -8217,7 +8224,7 @@
       <c r="N58" s="3">
         <v>1.2</v>
       </c>
-      <c r="O58" s="35">
+      <c r="O58" s="43">
         <v>0</v>
       </c>
       <c r="P58" s="10"/>
@@ -8233,7 +8240,7 @@
       <c r="A59" s="17">
         <v>58</v>
       </c>
-      <c r="B59" s="31" t="s">
+      <c r="B59" s="39" t="s">
         <v>135</v>
       </c>
       <c r="C59" s="17">
@@ -8248,16 +8255,16 @@
       <c r="F59" s="17">
         <v>2</v>
       </c>
-      <c r="G59" s="28">
+      <c r="G59" s="36">
         <v>61</v>
       </c>
       <c r="H59" s="17">
         <v>47</v>
       </c>
-      <c r="I59" s="29">
+      <c r="I59" s="37">
         <v>119</v>
       </c>
-      <c r="J59" s="34">
+      <c r="J59" s="42">
         <v>0</v>
       </c>
       <c r="K59" s="3">
@@ -8272,7 +8279,7 @@
       <c r="N59" s="3">
         <v>1.2</v>
       </c>
-      <c r="O59" s="35">
+      <c r="O59" s="43">
         <v>0</v>
       </c>
       <c r="P59" s="10"/>
@@ -8288,7 +8295,7 @@
       <c r="A60" s="17">
         <v>59</v>
       </c>
-      <c r="B60" s="31" t="s">
+      <c r="B60" s="39" t="s">
         <v>137</v>
       </c>
       <c r="C60" s="17">
@@ -8303,16 +8310,16 @@
       <c r="F60" s="17">
         <v>3</v>
       </c>
-      <c r="G60" s="28">
+      <c r="G60" s="36">
         <v>80</v>
       </c>
       <c r="H60" s="17">
         <v>55</v>
       </c>
-      <c r="I60" s="29">
+      <c r="I60" s="37">
         <v>160</v>
       </c>
-      <c r="J60" s="34">
+      <c r="J60" s="42">
         <v>0</v>
       </c>
       <c r="K60" s="3">
@@ -8327,7 +8334,7 @@
       <c r="N60" s="3">
         <v>1.2</v>
       </c>
-      <c r="O60" s="35">
+      <c r="O60" s="43">
         <v>0</v>
       </c>
       <c r="P60" s="10"/>
@@ -8343,7 +8350,7 @@
       <c r="A61" s="17">
         <v>60</v>
       </c>
-      <c r="B61" s="31" t="s">
+      <c r="B61" s="39" t="s">
         <v>139</v>
       </c>
       <c r="C61" s="17">
@@ -8358,16 +8365,16 @@
       <c r="F61" s="17">
         <v>3</v>
       </c>
-      <c r="G61" s="28">
+      <c r="G61" s="36">
         <v>84</v>
       </c>
       <c r="H61" s="17">
         <v>52</v>
       </c>
-      <c r="I61" s="29">
+      <c r="I61" s="37">
         <v>157</v>
       </c>
-      <c r="J61" s="34">
+      <c r="J61" s="42">
         <v>0</v>
       </c>
       <c r="K61" s="3">
@@ -8382,7 +8389,7 @@
       <c r="N61" s="3">
         <v>1.2</v>
       </c>
-      <c r="O61" s="35">
+      <c r="O61" s="43">
         <v>0</v>
       </c>
       <c r="P61" s="10"/>
@@ -8398,7 +8405,7 @@
       <c r="A62" s="17">
         <v>61</v>
       </c>
-      <c r="B62" s="31" t="s">
+      <c r="B62" s="39" t="s">
         <v>141</v>
       </c>
       <c r="C62" s="17">
@@ -8413,16 +8420,16 @@
       <c r="F62" s="17">
         <v>3</v>
       </c>
-      <c r="G62" s="28">
+      <c r="G62" s="36">
         <v>83</v>
       </c>
       <c r="H62" s="17">
         <v>53</v>
       </c>
-      <c r="I62" s="29">
+      <c r="I62" s="37">
         <v>160</v>
       </c>
-      <c r="J62" s="34">
+      <c r="J62" s="42">
         <v>0</v>
       </c>
       <c r="K62" s="3">
@@ -8437,7 +8444,7 @@
       <c r="N62" s="3">
         <v>1.2</v>
       </c>
-      <c r="O62" s="35">
+      <c r="O62" s="43">
         <v>0</v>
       </c>
       <c r="P62" s="10">
@@ -8455,7 +8462,7 @@
       <c r="A63" s="17">
         <v>62</v>
       </c>
-      <c r="B63" s="31" t="s">
+      <c r="B63" s="39" t="s">
         <v>143</v>
       </c>
       <c r="C63" s="17">
@@ -8470,16 +8477,16 @@
       <c r="F63" s="17">
         <v>4</v>
       </c>
-      <c r="G63" s="28">
+      <c r="G63" s="36">
         <v>121</v>
       </c>
       <c r="H63" s="17">
         <v>59</v>
       </c>
-      <c r="I63" s="29">
+      <c r="I63" s="37">
         <v>236</v>
       </c>
-      <c r="J63" s="34">
+      <c r="J63" s="42">
         <v>0</v>
       </c>
       <c r="K63" s="3">
@@ -8494,7 +8501,7 @@
       <c r="N63" s="3">
         <v>1.2</v>
       </c>
-      <c r="O63" s="35">
+      <c r="O63" s="43">
         <v>0</v>
       </c>
       <c r="P63" s="10">
@@ -8512,7 +8519,7 @@
       <c r="A64" s="17">
         <v>63</v>
       </c>
-      <c r="B64" s="31" t="s">
+      <c r="B64" s="39" t="s">
         <v>145</v>
       </c>
       <c r="C64" s="17">
@@ -8527,16 +8534,16 @@
       <c r="F64" s="17">
         <v>4</v>
       </c>
-      <c r="G64" s="28">
+      <c r="G64" s="36">
         <v>124</v>
       </c>
       <c r="H64" s="17">
         <v>57</v>
       </c>
-      <c r="I64" s="29">
+      <c r="I64" s="37">
         <v>240</v>
       </c>
-      <c r="J64" s="34">
+      <c r="J64" s="42">
         <v>0</v>
       </c>
       <c r="K64" s="3">
@@ -8551,7 +8558,7 @@
       <c r="N64" s="3">
         <v>1.2</v>
       </c>
-      <c r="O64" s="35">
+      <c r="O64" s="43">
         <v>0</v>
       </c>
       <c r="P64" s="10">
@@ -8569,7 +8576,7 @@
       <c r="A65" s="17">
         <v>64</v>
       </c>
-      <c r="B65" s="32" t="s">
+      <c r="B65" s="40" t="s">
         <v>147</v>
       </c>
       <c r="C65" s="17">
@@ -8584,16 +8591,16 @@
       <c r="F65" s="17">
         <v>5</v>
       </c>
-      <c r="G65" s="28">
+      <c r="G65" s="36">
         <v>163</v>
       </c>
       <c r="H65" s="17">
         <v>65</v>
       </c>
-      <c r="I65" s="29">
+      <c r="I65" s="37">
         <v>317</v>
       </c>
-      <c r="J65" s="34">
+      <c r="J65" s="42">
         <v>0</v>
       </c>
       <c r="K65" s="3">
@@ -8608,7 +8615,7 @@
       <c r="N65" s="3">
         <v>1.2</v>
       </c>
-      <c r="O65" s="35">
+      <c r="O65" s="43">
         <v>0</v>
       </c>
       <c r="P65" s="10"/>
@@ -8624,7 +8631,7 @@
       <c r="A66" s="17">
         <v>65</v>
       </c>
-      <c r="B66" s="31" t="s">
+      <c r="B66" s="39" t="s">
         <v>149</v>
       </c>
       <c r="C66" s="17">
@@ -8639,16 +8646,16 @@
       <c r="F66" s="17">
         <v>2</v>
       </c>
-      <c r="G66" s="28">
+      <c r="G66" s="36">
         <v>62</v>
       </c>
       <c r="H66" s="17">
         <v>49</v>
       </c>
-      <c r="I66" s="29">
+      <c r="I66" s="37">
         <v>117</v>
       </c>
-      <c r="J66" s="34">
+      <c r="J66" s="42">
         <v>0</v>
       </c>
       <c r="K66" s="3">
@@ -8663,7 +8670,7 @@
       <c r="N66" s="3">
         <v>1.2</v>
       </c>
-      <c r="O66" s="35">
+      <c r="O66" s="43">
         <v>0</v>
       </c>
       <c r="P66" s="10"/>
@@ -8679,7 +8686,7 @@
       <c r="A67" s="17">
         <v>66</v>
       </c>
-      <c r="B67" s="31" t="s">
+      <c r="B67" s="39" t="s">
         <v>151</v>
       </c>
       <c r="C67" s="17">
@@ -8694,16 +8701,16 @@
       <c r="F67" s="17">
         <v>2</v>
       </c>
-      <c r="G67" s="28">
+      <c r="G67" s="36">
         <v>60</v>
       </c>
       <c r="H67" s="17">
         <v>50</v>
       </c>
-      <c r="I67" s="29">
+      <c r="I67" s="37">
         <v>119</v>
       </c>
-      <c r="J67" s="34">
+      <c r="J67" s="42">
         <v>0</v>
       </c>
       <c r="K67" s="3">
@@ -8718,7 +8725,7 @@
       <c r="N67" s="3">
         <v>1.2</v>
       </c>
-      <c r="O67" s="35">
+      <c r="O67" s="43">
         <v>0</v>
       </c>
       <c r="P67" s="10"/>
@@ -8734,7 +8741,7 @@
       <c r="A68" s="17">
         <v>67</v>
       </c>
-      <c r="B68" s="31" t="s">
+      <c r="B68" s="39" t="s">
         <v>153</v>
       </c>
       <c r="C68" s="17">
@@ -8749,16 +8756,16 @@
       <c r="F68" s="17">
         <v>2</v>
       </c>
-      <c r="G68" s="28">
+      <c r="G68" s="36">
         <v>61</v>
       </c>
       <c r="H68" s="17">
         <v>47</v>
       </c>
-      <c r="I68" s="29">
+      <c r="I68" s="37">
         <v>119</v>
       </c>
-      <c r="J68" s="34">
+      <c r="J68" s="42">
         <v>0</v>
       </c>
       <c r="K68" s="3">
@@ -8773,7 +8780,7 @@
       <c r="N68" s="3">
         <v>1.2</v>
       </c>
-      <c r="O68" s="35">
+      <c r="O68" s="43">
         <v>0</v>
       </c>
       <c r="P68" s="10"/>
@@ -8789,7 +8796,7 @@
       <c r="A69" s="17">
         <v>68</v>
       </c>
-      <c r="B69" s="31" t="s">
+      <c r="B69" s="39" t="s">
         <v>155</v>
       </c>
       <c r="C69" s="17">
@@ -8804,16 +8811,16 @@
       <c r="F69" s="17">
         <v>3</v>
       </c>
-      <c r="G69" s="28">
+      <c r="G69" s="36">
         <v>85</v>
       </c>
       <c r="H69" s="17">
         <v>50</v>
       </c>
-      <c r="I69" s="29">
+      <c r="I69" s="37">
         <v>165</v>
       </c>
-      <c r="J69" s="34">
+      <c r="J69" s="42">
         <v>0</v>
       </c>
       <c r="K69" s="3">
@@ -8828,7 +8835,7 @@
       <c r="N69" s="3">
         <v>1.2</v>
       </c>
-      <c r="O69" s="35">
+      <c r="O69" s="43">
         <v>0</v>
       </c>
       <c r="P69" s="10"/>
@@ -8844,7 +8851,7 @@
       <c r="A70" s="17">
         <v>69</v>
       </c>
-      <c r="B70" s="31" t="s">
+      <c r="B70" s="39" t="s">
         <v>157</v>
       </c>
       <c r="C70" s="17">
@@ -8859,16 +8866,16 @@
       <c r="F70" s="17">
         <v>3</v>
       </c>
-      <c r="G70" s="28">
+      <c r="G70" s="36">
         <v>84</v>
       </c>
       <c r="H70" s="17">
         <v>52</v>
       </c>
-      <c r="I70" s="29">
+      <c r="I70" s="37">
         <v>157</v>
       </c>
-      <c r="J70" s="34">
+      <c r="J70" s="42">
         <v>0</v>
       </c>
       <c r="K70" s="3">
@@ -8883,7 +8890,7 @@
       <c r="N70" s="3">
         <v>1.2</v>
       </c>
-      <c r="O70" s="35">
+      <c r="O70" s="43">
         <v>0</v>
       </c>
       <c r="P70" s="10"/>
@@ -8899,7 +8906,7 @@
       <c r="A71" s="17">
         <v>70</v>
       </c>
-      <c r="B71" s="31" t="s">
+      <c r="B71" s="39" t="s">
         <v>159</v>
       </c>
       <c r="C71" s="17">
@@ -8914,16 +8921,16 @@
       <c r="F71" s="17">
         <v>3</v>
       </c>
-      <c r="G71" s="28">
+      <c r="G71" s="36">
         <v>83</v>
       </c>
       <c r="H71" s="17">
         <v>53</v>
       </c>
-      <c r="I71" s="29">
+      <c r="I71" s="37">
         <v>160</v>
       </c>
-      <c r="J71" s="34">
+      <c r="J71" s="42">
         <v>0</v>
       </c>
       <c r="K71" s="3">
@@ -8938,7 +8945,7 @@
       <c r="N71" s="3">
         <v>1.2</v>
       </c>
-      <c r="O71" s="35">
+      <c r="O71" s="43">
         <v>0</v>
       </c>
       <c r="P71" s="10">
@@ -8956,7 +8963,7 @@
       <c r="A72" s="17">
         <v>71</v>
       </c>
-      <c r="B72" s="31" t="s">
+      <c r="B72" s="39" t="s">
         <v>161</v>
       </c>
       <c r="C72" s="17">
@@ -8971,16 +8978,16 @@
       <c r="F72" s="17">
         <v>4</v>
       </c>
-      <c r="G72" s="28">
+      <c r="G72" s="36">
         <v>121</v>
       </c>
       <c r="H72" s="17">
         <v>59</v>
       </c>
-      <c r="I72" s="29">
+      <c r="I72" s="37">
         <v>236</v>
       </c>
-      <c r="J72" s="34">
+      <c r="J72" s="42">
         <v>0</v>
       </c>
       <c r="K72" s="3">
@@ -8995,7 +9002,7 @@
       <c r="N72" s="3">
         <v>1.2</v>
       </c>
-      <c r="O72" s="35">
+      <c r="O72" s="43">
         <v>0</v>
       </c>
       <c r="P72" s="10">
@@ -9013,7 +9020,7 @@
       <c r="A73" s="17">
         <v>72</v>
       </c>
-      <c r="B73" s="31" t="s">
+      <c r="B73" s="39" t="s">
         <v>163</v>
       </c>
       <c r="C73" s="17">
@@ -9028,16 +9035,16 @@
       <c r="F73" s="17">
         <v>4</v>
       </c>
-      <c r="G73" s="28">
+      <c r="G73" s="36">
         <v>124</v>
       </c>
       <c r="H73" s="17">
         <v>57</v>
       </c>
-      <c r="I73" s="29">
+      <c r="I73" s="37">
         <v>240</v>
       </c>
-      <c r="J73" s="34">
+      <c r="J73" s="42">
         <v>0</v>
       </c>
       <c r="K73" s="3">
@@ -9052,7 +9059,7 @@
       <c r="N73" s="3">
         <v>1.2</v>
       </c>
-      <c r="O73" s="35">
+      <c r="O73" s="43">
         <v>0</v>
       </c>
       <c r="P73" s="10">
@@ -9070,7 +9077,7 @@
       <c r="A74" s="17">
         <v>73</v>
       </c>
-      <c r="B74" s="32" t="s">
+      <c r="B74" s="40" t="s">
         <v>165</v>
       </c>
       <c r="C74" s="17">
@@ -9085,16 +9092,16 @@
       <c r="F74" s="17">
         <v>5</v>
       </c>
-      <c r="G74" s="28">
+      <c r="G74" s="36">
         <v>163</v>
       </c>
       <c r="H74" s="17">
         <v>65</v>
       </c>
-      <c r="I74" s="29">
+      <c r="I74" s="37">
         <v>317</v>
       </c>
-      <c r="J74" s="34">
+      <c r="J74" s="42">
         <v>0</v>
       </c>
       <c r="K74" s="3">
@@ -9109,7 +9116,7 @@
       <c r="N74" s="3">
         <v>1.2</v>
       </c>
-      <c r="O74" s="35">
+      <c r="O74" s="43">
         <v>0</v>
       </c>
       <c r="P74" s="10"/>
@@ -9125,7 +9132,7 @@
       <c r="A75" s="17">
         <v>74</v>
       </c>
-      <c r="B75" s="31" t="s">
+      <c r="B75" s="39" t="s">
         <v>167</v>
       </c>
       <c r="C75" s="17">
@@ -9140,16 +9147,16 @@
       <c r="F75" s="17">
         <v>2</v>
       </c>
-      <c r="G75" s="28">
+      <c r="G75" s="36">
         <v>62</v>
       </c>
       <c r="H75" s="17">
         <v>49</v>
       </c>
-      <c r="I75" s="29">
+      <c r="I75" s="37">
         <v>117</v>
       </c>
-      <c r="J75" s="34">
+      <c r="J75" s="42">
         <v>0</v>
       </c>
       <c r="K75" s="3">
@@ -9164,7 +9171,7 @@
       <c r="N75" s="3">
         <v>1.2</v>
       </c>
-      <c r="O75" s="35">
+      <c r="O75" s="43">
         <v>0</v>
       </c>
       <c r="P75" s="10"/>
@@ -9180,7 +9187,7 @@
       <c r="A76" s="17">
         <v>75</v>
       </c>
-      <c r="B76" s="31" t="s">
+      <c r="B76" s="39" t="s">
         <v>169</v>
       </c>
       <c r="C76" s="17">
@@ -9195,16 +9202,16 @@
       <c r="F76" s="17">
         <v>2</v>
       </c>
-      <c r="G76" s="28">
+      <c r="G76" s="36">
         <v>60</v>
       </c>
       <c r="H76" s="17">
         <v>47</v>
       </c>
-      <c r="I76" s="29">
+      <c r="I76" s="37">
         <v>115</v>
       </c>
-      <c r="J76" s="34">
+      <c r="J76" s="42">
         <v>0</v>
       </c>
       <c r="K76" s="3">
@@ -9219,7 +9226,7 @@
       <c r="N76" s="3">
         <v>1.2</v>
       </c>
-      <c r="O76" s="35">
+      <c r="O76" s="43">
         <v>0</v>
       </c>
       <c r="P76" s="10"/>
@@ -9235,7 +9242,7 @@
       <c r="A77" s="17">
         <v>76</v>
       </c>
-      <c r="B77" s="31" t="s">
+      <c r="B77" s="39" t="s">
         <v>171</v>
       </c>
       <c r="C77" s="17">
@@ -9250,16 +9257,16 @@
       <c r="F77" s="17">
         <v>2</v>
       </c>
-      <c r="G77" s="28">
+      <c r="G77" s="36">
         <v>61</v>
       </c>
       <c r="H77" s="17">
         <v>47</v>
       </c>
-      <c r="I77" s="29">
+      <c r="I77" s="37">
         <v>119</v>
       </c>
-      <c r="J77" s="34">
+      <c r="J77" s="42">
         <v>0</v>
       </c>
       <c r="K77" s="3">
@@ -9274,7 +9281,7 @@
       <c r="N77" s="3">
         <v>1.2</v>
       </c>
-      <c r="O77" s="35">
+      <c r="O77" s="43">
         <v>0</v>
       </c>
       <c r="P77" s="10"/>
@@ -9290,7 +9297,7 @@
       <c r="A78" s="17">
         <v>77</v>
       </c>
-      <c r="B78" s="31" t="s">
+      <c r="B78" s="39" t="s">
         <v>173</v>
       </c>
       <c r="C78" s="17">
@@ -9305,16 +9312,16 @@
       <c r="F78" s="17">
         <v>3</v>
       </c>
-      <c r="G78" s="28">
+      <c r="G78" s="36">
         <v>90</v>
       </c>
       <c r="H78" s="17">
         <v>50</v>
       </c>
-      <c r="I78" s="29">
+      <c r="I78" s="37">
         <v>157</v>
       </c>
-      <c r="J78" s="34">
+      <c r="J78" s="42">
         <v>0</v>
       </c>
       <c r="K78" s="3">
@@ -9329,7 +9336,7 @@
       <c r="N78" s="3">
         <v>1.2</v>
       </c>
-      <c r="O78" s="35">
+      <c r="O78" s="43">
         <v>0</v>
       </c>
       <c r="P78" s="10"/>
@@ -9345,7 +9352,7 @@
       <c r="A79" s="17">
         <v>78</v>
       </c>
-      <c r="B79" s="31" t="s">
+      <c r="B79" s="39" t="s">
         <v>175</v>
       </c>
       <c r="C79" s="17">
@@ -9360,16 +9367,16 @@
       <c r="F79" s="17">
         <v>3</v>
       </c>
-      <c r="G79" s="28">
+      <c r="G79" s="36">
         <v>84</v>
       </c>
       <c r="H79" s="17">
         <v>52</v>
       </c>
-      <c r="I79" s="29">
+      <c r="I79" s="37">
         <v>157</v>
       </c>
-      <c r="J79" s="34">
+      <c r="J79" s="42">
         <v>0</v>
       </c>
       <c r="K79" s="3">
@@ -9384,7 +9391,7 @@
       <c r="N79" s="3">
         <v>1.2</v>
       </c>
-      <c r="O79" s="35">
+      <c r="O79" s="43">
         <v>0</v>
       </c>
       <c r="P79" s="10"/>
@@ -9400,7 +9407,7 @@
       <c r="A80" s="17">
         <v>79</v>
       </c>
-      <c r="B80" s="31" t="s">
+      <c r="B80" s="39" t="s">
         <v>177</v>
       </c>
       <c r="C80" s="17">
@@ -9415,16 +9422,16 @@
       <c r="F80" s="17">
         <v>3</v>
       </c>
-      <c r="G80" s="28">
+      <c r="G80" s="36">
         <v>83</v>
       </c>
       <c r="H80" s="17">
         <v>53</v>
       </c>
-      <c r="I80" s="29">
+      <c r="I80" s="37">
         <v>160</v>
       </c>
-      <c r="J80" s="34">
+      <c r="J80" s="42">
         <v>0</v>
       </c>
       <c r="K80" s="3">
@@ -9439,7 +9446,7 @@
       <c r="N80" s="3">
         <v>1.2</v>
       </c>
-      <c r="O80" s="35">
+      <c r="O80" s="43">
         <v>0</v>
       </c>
       <c r="P80" s="10">
@@ -9459,7 +9466,7 @@
       <c r="A81" s="17">
         <v>80</v>
       </c>
-      <c r="B81" s="31" t="s">
+      <c r="B81" s="39" t="s">
         <v>179</v>
       </c>
       <c r="C81" s="17">
@@ -9474,16 +9481,16 @@
       <c r="F81" s="17">
         <v>4</v>
       </c>
-      <c r="G81" s="28">
+      <c r="G81" s="36">
         <v>121</v>
       </c>
       <c r="H81" s="17">
         <v>59</v>
       </c>
-      <c r="I81" s="29">
+      <c r="I81" s="37">
         <v>236</v>
       </c>
-      <c r="J81" s="34">
+      <c r="J81" s="42">
         <v>0</v>
       </c>
       <c r="K81" s="3">
@@ -9498,7 +9505,7 @@
       <c r="N81" s="3">
         <v>1.2</v>
       </c>
-      <c r="O81" s="35">
+      <c r="O81" s="43">
         <v>0</v>
       </c>
       <c r="P81" s="10">
@@ -9516,7 +9523,7 @@
       <c r="A82" s="17">
         <v>81</v>
       </c>
-      <c r="B82" s="31" t="s">
+      <c r="B82" s="39" t="s">
         <v>181</v>
       </c>
       <c r="C82" s="17">
@@ -9531,16 +9538,16 @@
       <c r="F82" s="17">
         <v>4</v>
       </c>
-      <c r="G82" s="28">
+      <c r="G82" s="36">
         <v>124</v>
       </c>
       <c r="H82" s="17">
         <v>57</v>
       </c>
-      <c r="I82" s="29">
+      <c r="I82" s="37">
         <v>240</v>
       </c>
-      <c r="J82" s="34">
+      <c r="J82" s="42">
         <v>0</v>
       </c>
       <c r="K82" s="3">
@@ -9555,7 +9562,7 @@
       <c r="N82" s="3">
         <v>1.2</v>
       </c>
-      <c r="O82" s="35">
+      <c r="O82" s="43">
         <v>0</v>
       </c>
       <c r="P82" s="10">
@@ -9573,7 +9580,7 @@
       <c r="A83" s="17">
         <v>82</v>
       </c>
-      <c r="B83" s="32" t="s">
+      <c r="B83" s="40" t="s">
         <v>183</v>
       </c>
       <c r="C83" s="17">
@@ -9588,16 +9595,16 @@
       <c r="F83" s="17">
         <v>5</v>
       </c>
-      <c r="G83" s="28">
+      <c r="G83" s="36">
         <v>163</v>
       </c>
       <c r="H83" s="17">
         <v>65</v>
       </c>
-      <c r="I83" s="29">
+      <c r="I83" s="37">
         <v>317</v>
       </c>
-      <c r="J83" s="34">
+      <c r="J83" s="42">
         <v>0</v>
       </c>
       <c r="K83" s="3">
@@ -9612,7 +9619,7 @@
       <c r="N83" s="3">
         <v>1.2</v>
       </c>
-      <c r="O83" s="35">
+      <c r="O83" s="43">
         <v>0</v>
       </c>
       <c r="P83" s="10"/>
@@ -9628,7 +9635,7 @@
       <c r="A84" s="17">
         <v>83</v>
       </c>
-      <c r="B84" s="36" t="s">
+      <c r="B84" s="44" t="s">
         <v>185</v>
       </c>
       <c r="C84" s="17">
@@ -9643,13 +9650,13 @@
       <c r="F84" s="17">
         <v>6</v>
       </c>
-      <c r="G84" s="28">
+      <c r="G84" s="36">
         <v>50</v>
       </c>
       <c r="H84" s="17">
         <v>50</v>
       </c>
-      <c r="I84" s="29">
+      <c r="I84" s="37">
         <v>50</v>
       </c>
       <c r="J84" s="10">
@@ -9683,7 +9690,7 @@
       <c r="A85" s="17">
         <v>84</v>
       </c>
-      <c r="B85" s="36" t="s">
+      <c r="B85" s="44" t="s">
         <v>187</v>
       </c>
       <c r="C85" s="17">
@@ -9698,13 +9705,13 @@
       <c r="F85" s="17">
         <v>6</v>
       </c>
-      <c r="G85" s="28">
+      <c r="G85" s="36">
         <v>50</v>
       </c>
       <c r="H85" s="17">
         <v>50</v>
       </c>
-      <c r="I85" s="29">
+      <c r="I85" s="37">
         <v>50</v>
       </c>
       <c r="J85" s="10">
@@ -9738,7 +9745,7 @@
       <c r="A86" s="17">
         <v>85</v>
       </c>
-      <c r="B86" s="36" t="s">
+      <c r="B86" s="44" t="s">
         <v>188</v>
       </c>
       <c r="C86" s="17">
@@ -9753,13 +9760,13 @@
       <c r="F86" s="17">
         <v>6</v>
       </c>
-      <c r="G86" s="28">
+      <c r="G86" s="36">
         <v>50</v>
       </c>
       <c r="H86" s="17">
         <v>50</v>
       </c>
-      <c r="I86" s="29">
+      <c r="I86" s="37">
         <v>50</v>
       </c>
       <c r="J86" s="10">
@@ -9793,7 +9800,7 @@
       <c r="A87" s="17">
         <v>86</v>
       </c>
-      <c r="B87" s="36" t="s">
+      <c r="B87" s="44" t="s">
         <v>189</v>
       </c>
       <c r="C87" s="17">
@@ -9808,13 +9815,13 @@
       <c r="F87" s="17">
         <v>6</v>
       </c>
-      <c r="G87" s="28">
+      <c r="G87" s="36">
         <v>50</v>
       </c>
       <c r="H87" s="17">
         <v>50</v>
       </c>
-      <c r="I87" s="29">
+      <c r="I87" s="37">
         <v>50</v>
       </c>
       <c r="J87" s="10">
@@ -9848,7 +9855,7 @@
       <c r="A88" s="17">
         <v>87</v>
       </c>
-      <c r="B88" s="36" t="s">
+      <c r="B88" s="44" t="s">
         <v>190</v>
       </c>
       <c r="C88" s="17">
@@ -9863,13 +9870,13 @@
       <c r="F88" s="17">
         <v>6</v>
       </c>
-      <c r="G88" s="28">
+      <c r="G88" s="36">
         <v>50</v>
       </c>
       <c r="H88" s="17">
         <v>50</v>
       </c>
-      <c r="I88" s="29">
+      <c r="I88" s="37">
         <v>50</v>
       </c>
       <c r="J88" s="10">
@@ -9903,7 +9910,7 @@
       <c r="A89" s="17">
         <v>88</v>
       </c>
-      <c r="B89" s="36" t="s">
+      <c r="B89" s="44" t="s">
         <v>191</v>
       </c>
       <c r="C89" s="17">
@@ -9918,13 +9925,13 @@
       <c r="F89" s="17">
         <v>6</v>
       </c>
-      <c r="G89" s="28">
+      <c r="G89" s="36">
         <v>50</v>
       </c>
       <c r="H89" s="17">
         <v>50</v>
       </c>
-      <c r="I89" s="29">
+      <c r="I89" s="37">
         <v>50</v>
       </c>
       <c r="J89" s="10">
@@ -9968,13 +9975,13 @@
       <c r="F90" s="17">
         <v>6</v>
       </c>
-      <c r="G90" s="28">
+      <c r="G90" s="36">
         <v>100</v>
       </c>
       <c r="H90" s="17">
         <v>50</v>
       </c>
-      <c r="I90" s="29">
+      <c r="I90" s="37">
         <v>10000</v>
       </c>
       <c r="J90" s="10">
@@ -10015,13 +10022,13 @@
       <c r="F91" s="17">
         <v>6</v>
       </c>
-      <c r="G91" s="28">
+      <c r="G91" s="36">
         <v>100</v>
       </c>
       <c r="H91" s="17">
         <v>50</v>
       </c>
-      <c r="I91" s="29">
+      <c r="I91" s="37">
         <v>15000</v>
       </c>
       <c r="J91" s="10">
@@ -10062,13 +10069,13 @@
       <c r="F92" s="17">
         <v>6</v>
       </c>
-      <c r="G92" s="28">
+      <c r="G92" s="36">
         <v>150</v>
       </c>
       <c r="H92" s="17">
         <v>50</v>
       </c>
-      <c r="I92" s="29">
+      <c r="I92" s="37">
         <v>10000</v>
       </c>
       <c r="J92" s="10">
@@ -10109,13 +10116,13 @@
       <c r="F93" s="17">
         <v>6</v>
       </c>
-      <c r="G93" s="28">
+      <c r="G93" s="36">
         <v>100</v>
       </c>
       <c r="H93" s="17">
         <v>50</v>
       </c>
-      <c r="I93" s="29">
+      <c r="I93" s="37">
         <v>20000</v>
       </c>
       <c r="J93" s="10">
@@ -10156,13 +10163,13 @@
       <c r="F94" s="17">
         <v>6</v>
       </c>
-      <c r="G94" s="28">
+      <c r="G94" s="36">
         <v>100</v>
       </c>
       <c r="H94" s="17">
         <v>100</v>
       </c>
-      <c r="I94" s="29">
+      <c r="I94" s="37">
         <v>20000</v>
       </c>
       <c r="J94" s="10">
@@ -10203,13 +10210,13 @@
       <c r="F95" s="17">
         <v>6</v>
       </c>
-      <c r="G95" s="28">
+      <c r="G95" s="36">
         <v>100</v>
       </c>
       <c r="H95" s="17">
         <v>50</v>
       </c>
-      <c r="I95" s="29">
+      <c r="I95" s="37">
         <v>10000</v>
       </c>
       <c r="J95" s="10">
@@ -10250,13 +10257,13 @@
       <c r="F96" s="17">
         <v>6</v>
       </c>
-      <c r="G96" s="28">
+      <c r="G96" s="36">
         <v>100</v>
       </c>
       <c r="H96" s="17">
         <v>50</v>
       </c>
-      <c r="I96" s="29">
+      <c r="I96" s="37">
         <v>20000</v>
       </c>
       <c r="J96" s="10">
@@ -10297,13 +10304,13 @@
       <c r="F97" s="17">
         <v>6</v>
       </c>
-      <c r="G97" s="28">
+      <c r="G97" s="36">
         <v>100</v>
       </c>
       <c r="H97" s="17">
         <v>100</v>
       </c>
-      <c r="I97" s="29">
+      <c r="I97" s="37">
         <v>10000</v>
       </c>
       <c r="J97" s="10">
@@ -10341,8 +10348,8 @@
   <sheetPr/>
   <dimension ref="A1:Q21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T5" sqref="T5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
@@ -10360,52 +10367,52 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="1" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>2</v>
@@ -10413,55 +10420,55 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="1" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -10475,19 +10482,19 @@
         <v>192</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="F3" s="1">
         <v>-1</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="Q3" s="1">
         <v>2</v>
@@ -10504,19 +10511,19 @@
         <v>193</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="F4" s="1">
         <v>-1</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="Q4" s="1">
         <v>3</v>
@@ -10533,19 +10540,19 @@
         <v>194</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="F5" s="1">
         <v>-1</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="Q5" s="1">
         <v>1</v>
@@ -10562,19 +10569,19 @@
         <v>195</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="F6" s="1">
         <v>-1</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="Q6" s="1">
         <v>1</v>
@@ -10588,22 +10595,22 @@
         <v>2</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="F7" s="1">
         <v>-1</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="Q7" s="1">
         <v>8</v>
@@ -10620,16 +10627,16 @@
         <v>197</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="F8" s="1">
         <v>-1</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="P8" s="1" t="s">
         <v>75</v>
@@ -10649,16 +10656,16 @@
         <v>198</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="F9" s="1">
         <v>-1</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="P9" s="1" t="s">
         <v>57</v>
@@ -10678,19 +10685,19 @@
         <v>199</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="F10" s="1">
         <v>-1</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="Q10" s="1">
         <v>8</v>
@@ -10704,31 +10711,31 @@
         <v>1</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="F11" s="1">
         <v>5</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="Q11" s="1">
         <v>8</v>
@@ -10742,28 +10749,28 @@
         <v>1</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="F12" s="1">
         <v>10</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="P12" s="1" t="s">
         <v>77</v>
@@ -10780,37 +10787,37 @@
         <v>1</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="F13" s="1">
         <v>15</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="P13" s="1" t="s">
         <v>179</v>
@@ -10827,37 +10834,37 @@
         <v>1</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="F14" s="1">
         <v>20</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="P14" s="1" t="s">
         <v>159</v>
@@ -10874,37 +10881,37 @@
         <v>1</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="F15" s="1">
         <v>25</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="P15" s="1" t="s">
         <v>55</v>
@@ -10921,37 +10928,37 @@
         <v>1</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="F16" s="1">
         <v>30</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="P16" s="1" t="s">
         <v>163</v>
@@ -10968,37 +10975,37 @@
         <v>1</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="F17" s="1">
         <v>35</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>731</v>
+        <v>746</v>
       </c>
       <c r="H17" s="1" t="s">
+        <v>747</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>748</v>
+      </c>
+      <c r="J17" s="1" t="s">
         <v>745</v>
       </c>
-      <c r="I17" s="1" t="s">
-        <v>746</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>744</v>
-      </c>
       <c r="K17" s="1" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="P17" s="1" t="s">
         <v>179</v>
@@ -11015,37 +11022,37 @@
         <v>1</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="F18" s="1">
         <v>40</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>751</v>
+        <v>742</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>752</v>
+        <v>743</v>
       </c>
       <c r="I18" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="J18" s="1" t="s">
         <v>753</v>
       </c>
-      <c r="J18" s="1" t="s">
+      <c r="K18" s="1" t="s">
         <v>754</v>
       </c>
-      <c r="K18" s="1" t="s">
+      <c r="L18" s="1" t="s">
+        <v>746</v>
+      </c>
+      <c r="M18" s="1" t="s">
         <v>755</v>
       </c>
-      <c r="L18" s="1" t="s">
+      <c r="N18" s="1" t="s">
         <v>756</v>
       </c>
-      <c r="M18" s="1" t="s">
+      <c r="O18" s="1" t="s">
         <v>757</v>
-      </c>
-      <c r="N18" s="1" t="s">
-        <v>758</v>
-      </c>
-      <c r="O18" s="1" t="s">
-        <v>759</v>
       </c>
       <c r="P18" s="1" t="s">
         <v>161</v>
@@ -11062,37 +11069,37 @@
         <v>1</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="F19" s="1">
         <v>45</v>
       </c>
       <c r="G19" s="1" t="s">
+        <v>758</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>748</v>
+      </c>
+      <c r="K19" s="1" t="s">
         <v>760</v>
       </c>
-      <c r="H19" s="1" t="s">
-        <v>738</v>
-      </c>
-      <c r="I19" s="1" t="s">
+      <c r="L19" s="1" t="s">
         <v>761</v>
       </c>
-      <c r="J19" s="1" t="s">
+      <c r="M19" s="1" t="s">
+        <v>747</v>
+      </c>
+      <c r="N19" s="1" t="s">
         <v>762</v>
       </c>
-      <c r="K19" s="1" t="s">
+      <c r="O19" s="1" t="s">
         <v>763</v>
-      </c>
-      <c r="L19" s="1" t="s">
-        <v>764</v>
-      </c>
-      <c r="M19" s="1" t="s">
-        <v>765</v>
-      </c>
-      <c r="N19" s="1" t="s">
-        <v>766</v>
-      </c>
-      <c r="O19" s="1" t="s">
-        <v>767</v>
       </c>
       <c r="P19" s="1" t="s">
         <v>57</v>
@@ -11109,37 +11116,37 @@
         <v>1</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
       <c r="F20" s="1">
         <v>50</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>751</v>
+        <v>742</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>752</v>
+        <v>743</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>753</v>
+        <v>744</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
       <c r="P20" s="1" t="s">
         <v>145</v>
@@ -11156,37 +11163,37 @@
         <v>1</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
       <c r="F21" s="1">
         <v>55</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>752</v>
+        <v>743</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>753</v>
+        <v>744</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>762</v>
+        <v>748</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
       <c r="P21" s="1" t="s">
         <v>39</v>
@@ -11225,16 +11232,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>777</v>
+        <v>773</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
     </row>
     <row r="2" ht="17.4" spans="1:5">
@@ -11242,16 +11249,16 @@
         <v>13</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
     </row>
     <row r="3" ht="17.4" spans="1:5">
@@ -11259,16 +11266,16 @@
         <v>16</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
     </row>
     <row r="4" ht="17.4" spans="1:5">
@@ -11276,16 +11283,16 @@
         <v>23</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
     </row>
     <row r="5" ht="17.4" spans="1:5">
@@ -11293,16 +11300,16 @@
         <v>26</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>794</v>
+        <v>790</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
     </row>
     <row r="6" ht="17.4" spans="1:5">
@@ -11310,16 +11317,16 @@
         <v>33</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
     </row>
     <row r="7" ht="17.4" spans="1:5">
@@ -11327,16 +11334,16 @@
         <v>36</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>803</v>
+        <v>799</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>804</v>
+        <v>800</v>
       </c>
     </row>
     <row r="8" ht="17.4" spans="1:5">
@@ -11344,16 +11351,16 @@
         <v>43</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>805</v>
+        <v>801</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
     </row>
     <row r="9" ht="17.4" spans="1:5">
@@ -11361,16 +11368,16 @@
         <v>46</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>808</v>
+        <v>804</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>794</v>
+        <v>790</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>810</v>
+        <v>806</v>
       </c>
     </row>
     <row r="10" ht="17.4" spans="1:5">
@@ -11378,16 +11385,16 @@
         <v>53</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
     </row>
     <row r="11" ht="17.4" spans="1:5">
@@ -11395,16 +11402,16 @@
         <v>56</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>816</v>
+        <v>812</v>
       </c>
     </row>
     <row r="12" ht="17.4" spans="1:5">
@@ -11412,16 +11419,16 @@
         <v>63</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>818</v>
+        <v>814</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
     </row>
     <row r="13" ht="17.4" spans="1:5">
@@ -11429,16 +11436,16 @@
         <v>66</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>820</v>
+        <v>816</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
     </row>
     <row r="14" ht="17.4" spans="1:5">
@@ -11446,16 +11453,16 @@
         <v>73</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>824</v>
+        <v>820</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>825</v>
+        <v>821</v>
       </c>
     </row>
     <row r="15" ht="17.4" spans="1:5">
@@ -11463,16 +11470,16 @@
         <v>76</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>827</v>
+        <v>823</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>828</v>
+        <v>824</v>
       </c>
     </row>
     <row r="16" ht="17.4" spans="1:5">
@@ -11480,16 +11487,16 @@
         <v>83</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>829</v>
+        <v>825</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>830</v>
+        <v>826</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>831</v>
+        <v>827</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>832</v>
+        <v>828</v>
       </c>
     </row>
     <row r="17" ht="17.4" spans="1:5">
@@ -11497,16 +11504,16 @@
         <v>86</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>833</v>
+        <v>829</v>
       </c>
       <c r="C17" s="1" t="s">
+        <v>826</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>830</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>834</v>
-      </c>
       <c r="E17" s="1" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
     </row>
     <row r="18" ht="17.4" spans="1:5">
@@ -11514,16 +11521,16 @@
         <v>93</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>837</v>
+        <v>833</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>838</v>
+        <v>834</v>
       </c>
     </row>
     <row r="19" ht="17.4" spans="1:5">
@@ -11531,16 +11538,16 @@
         <v>96</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>839</v>
+        <v>835</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>840</v>
+        <v>836</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
     </row>
     <row r="20" ht="17.4" spans="1:2">
@@ -11746,19 +11753,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>838</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>839</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>840</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>841</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>842</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>843</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>844</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>845</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>846</v>
       </c>
     </row>
     <row r="2" ht="17.4" spans="1:6">
@@ -11766,19 +11773,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>847</v>
+        <v>843</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>848</v>
+        <v>844</v>
       </c>
       <c r="D2" s="4">
         <v>0</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>849</v>
+        <v>845</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
     </row>
     <row r="3" ht="17.4" spans="1:6">
@@ -11786,16 +11793,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
       <c r="D3" s="4">
         <v>0</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>852</v>
+        <v>848</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>192</v>
@@ -11809,13 +11816,13 @@
         <v>165</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>853</v>
+        <v>849</v>
       </c>
       <c r="D4" s="4">
         <v>0</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>854</v>
+        <v>850</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>193</v>
@@ -11829,16 +11836,16 @@
         <v>183</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>855</v>
+        <v>851</v>
       </c>
       <c r="D5" s="4">
         <v>10</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>856</v>
+        <v>852</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>857</v>
+        <v>853</v>
       </c>
     </row>
     <row r="6" ht="17.4" spans="1:6">
@@ -11849,16 +11856,16 @@
         <v>147</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>858</v>
+        <v>854</v>
       </c>
       <c r="D6" s="4">
         <v>20</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>859</v>
+        <v>855</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>860</v>
+        <v>856</v>
       </c>
     </row>
     <row r="7" ht="17.4" spans="1:6">
@@ -11866,19 +11873,19 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>861</v>
+        <v>857</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>862</v>
+        <v>858</v>
       </c>
       <c r="D7" s="4">
         <v>30</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>863</v>
+        <v>859</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>864</v>
+        <v>860</v>
       </c>
     </row>
     <row r="8" ht="17.4" spans="1:6">
@@ -11889,16 +11896,16 @@
         <v>75</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>865</v>
+        <v>861</v>
       </c>
       <c r="D8" s="4">
         <v>40</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>866</v>
+        <v>862</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>867</v>
+        <v>863</v>
       </c>
     </row>
     <row r="9" ht="17.4" spans="1:6">
@@ -11906,16 +11913,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>868</v>
+        <v>864</v>
       </c>
       <c r="D9" s="4">
         <v>50</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>869</v>
+        <v>865</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>199</v>
@@ -11929,16 +11936,16 @@
         <v>111</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>870</v>
+        <v>866</v>
       </c>
       <c r="D10" s="4">
         <v>60</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>871</v>
+        <v>867</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>872</v>
+        <v>868</v>
       </c>
     </row>
     <row r="11" ht="17.4" spans="1:6">
@@ -11949,16 +11956,16 @@
         <v>93</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>873</v>
+        <v>869</v>
       </c>
       <c r="D11" s="4">
         <v>70</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>874</v>
+        <v>870</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>875</v>
+        <v>871</v>
       </c>
     </row>
     <row r="12" ht="17.4" spans="1:6">
@@ -11966,19 +11973,19 @@
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>876</v>
+        <v>872</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>877</v>
+        <v>873</v>
       </c>
       <c r="D12" s="4">
         <v>80</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>878</v>
+        <v>874</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>876</v>
+        <v>872</v>
       </c>
     </row>
   </sheetData>
@@ -11993,8 +12000,8 @@
   <sheetPr/>
   <dimension ref="A1:S5"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="4"/>
@@ -12010,58 +12017,58 @@
         <v>200</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>875</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>876</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>877</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>878</v>
+      </c>
+      <c r="F1" s="7" t="s">
         <v>879</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="G1" s="6" t="s">
         <v>880</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="H1" s="8" t="s">
         <v>881</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="I1" s="11" t="s">
         <v>882</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="J1" s="11" t="s">
         <v>883</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="K1" s="11" t="s">
         <v>884</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="L1" s="11" t="s">
         <v>885</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="M1" s="11" t="s">
         <v>886</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="N1" s="11" t="s">
         <v>887</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="O1" s="12" t="s">
         <v>888</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="P1" s="13" t="s">
         <v>889</v>
       </c>
-      <c r="M1" s="11" t="s">
+      <c r="Q1" s="13" t="s">
         <v>890</v>
       </c>
-      <c r="N1" s="11" t="s">
+      <c r="R1" s="13" t="s">
         <v>891</v>
       </c>
-      <c r="O1" s="12" t="s">
+      <c r="S1" s="13" t="s">
         <v>892</v>
-      </c>
-      <c r="P1" s="13" t="s">
-        <v>893</v>
-      </c>
-      <c r="Q1" s="13" t="s">
-        <v>894</v>
-      </c>
-      <c r="R1" s="13" t="s">
-        <v>895</v>
-      </c>
-      <c r="S1" s="13" t="s">
-        <v>896</v>
       </c>
     </row>
     <row r="2" ht="15.6" spans="1:19">
@@ -12069,22 +12076,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>897</v>
+        <v>893</v>
       </c>
       <c r="C2" s="1">
         <v>100</v>
       </c>
       <c r="D2" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E2" s="1">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="F2" s="9">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="G2" s="1">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="H2" s="10">
         <v>7</v>
@@ -12128,19 +12135,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>898</v>
+        <v>894</v>
       </c>
       <c r="C3" s="1">
         <v>100</v>
       </c>
       <c r="D3" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E3" s="1">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="F3" s="9">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="G3" s="1">
         <v>150</v>
@@ -12187,19 +12194,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>899</v>
+        <v>895</v>
       </c>
       <c r="C4" s="1">
         <v>150</v>
       </c>
       <c r="D4" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E4" s="1">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F4" s="9">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="G4" s="1">
         <v>200</v>
@@ -12246,19 +12253,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>900</v>
+        <v>896</v>
       </c>
       <c r="C5" s="1">
         <v>200</v>
       </c>
       <c r="D5" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E5" s="1">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="F5" s="9">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="G5" s="1">
         <v>300</v>
@@ -12312,8 +12319,8 @@
   <sheetPr/>
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="5"/>
@@ -12332,19 +12339,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>897</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>898</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>899</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>900</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>901</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>902</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>903</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>904</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>905</v>
       </c>
     </row>
     <row r="2" ht="17.4" spans="1:6">
@@ -12358,10 +12365,10 @@
         <v>0</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>906</v>
+        <v>902</v>
       </c>
       <c r="E2" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2" s="5">
         <v>5</v>
@@ -12378,10 +12385,10 @@
         <v>2</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
       <c r="E3" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3" s="5">
         <v>5</v>
@@ -12398,10 +12405,10 @@
         <v>3</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
       <c r="E4" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F4" s="5">
         <v>5</v>
@@ -12418,10 +12425,10 @@
         <v>6</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="E5" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F5" s="5">
         <v>5</v>
@@ -12438,10 +12445,10 @@
         <v>12</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="E6" s="5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F6" s="5">
         <v>5</v>
@@ -12458,10 +12465,10 @@
         <v>20</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="E7" s="5">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F7" s="5">
         <v>6</v>
@@ -12478,10 +12485,10 @@
         <v>30</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="E8" s="5">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F8" s="5">
         <v>6</v>
@@ -12498,10 +12505,10 @@
         <v>40</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="E9" s="5">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F9" s="5">
         <v>6</v>
@@ -12518,7 +12525,7 @@
         <v>50</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="E10" s="5">
         <v>9</v>
@@ -12538,7 +12545,7 @@
         <v>80</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="E11" s="5">
         <v>9</v>
@@ -12577,13 +12584,13 @@
         <v>200</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>913</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>914</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>915</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>916</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -12591,13 +12598,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>919</v>
+        <v>902</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -12605,13 +12612,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>921</v>
+        <v>904</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -12619,13 +12626,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>922</v>
+        <v>918</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>923</v>
+        <v>919</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>924</v>
+        <v>920</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -12633,13 +12640,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>925</v>
+        <v>921</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>919</v>
+        <v>902</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -12647,13 +12654,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>926</v>
+        <v>922</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>927</v>
+        <v>923</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>924</v>
+        <v>920</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -12661,13 +12668,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>928</v>
+        <v>924</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>929</v>
+        <v>925</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>924</v>
+        <v>920</v>
       </c>
     </row>
   </sheetData>
@@ -12696,19 +12703,19 @@
         <v>200</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>926</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>927</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>928</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>929</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>930</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>931</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>932</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>933</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>934</v>
       </c>
     </row>
     <row r="2" ht="15.6" spans="1:6">
@@ -12716,19 +12723,19 @@
         <v>200</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>931</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>932</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>933</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>934</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>935</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>936</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>937</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>938</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>939</v>
       </c>
     </row>
     <row r="3" ht="15.6" spans="1:6">
@@ -12960,13 +12967,13 @@
         <v>200</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>940</v>
+        <v>936</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>941</v>
+        <v>937</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>942</v>
+        <v>938</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -12977,10 +12984,10 @@
         <v>353</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>943</v>
+        <v>939</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>944</v>
+        <v>940</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -12991,10 +12998,10 @@
         <v>354</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>945</v>
+        <v>941</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>946</v>
+        <v>942</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -13005,10 +13012,10 @@
         <v>355</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>947</v>
+        <v>943</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>948</v>
+        <v>944</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -13019,10 +13026,10 @@
         <v>356</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>949</v>
+        <v>945</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>950</v>
+        <v>946</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -13033,10 +13040,10 @@
         <v>357</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>951</v>
+        <v>947</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>952</v>
+        <v>948</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -13047,10 +13054,10 @@
         <v>358</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>953</v>
+        <v>949</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>954</v>
+        <v>950</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -13061,10 +13068,10 @@
         <v>359</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>955</v>
+        <v>951</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>956</v>
+        <v>952</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -13075,10 +13082,10 @@
         <v>360</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>957</v>
+        <v>953</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>958</v>
+        <v>954</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -13089,10 +13096,10 @@
         <v>361</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>959</v>
+        <v>955</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>960</v>
+        <v>956</v>
       </c>
     </row>
   </sheetData>
@@ -13123,10 +13130,10 @@
         <v>200</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>961</v>
+        <v>957</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>962</v>
+        <v>958</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -13134,10 +13141,10 @@
         <v>200</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>963</v>
+        <v>959</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>964</v>
+        <v>960</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -13145,7 +13152,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>965</v>
+        <v>961</v>
       </c>
       <c r="C3" s="1">
         <v>1</v>
@@ -13156,7 +13163,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>966</v>
+        <v>962</v>
       </c>
       <c r="C4" s="1">
         <v>3</v>
@@ -13167,7 +13174,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>967</v>
+        <v>963</v>
       </c>
       <c r="C5" s="1">
         <v>5</v>
@@ -13178,7 +13185,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>968</v>
+        <v>964</v>
       </c>
       <c r="C6" s="1">
         <v>7</v>
@@ -13189,7 +13196,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>969</v>
+        <v>965</v>
       </c>
       <c r="C7" s="1">
         <v>9</v>
@@ -13238,10 +13245,10 @@
         <v>200</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -13249,10 +13256,10 @@
         <v>200</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>971</v>
+        <v>967</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -13260,10 +13267,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>972</v>
+        <v>968</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>973</v>
+        <v>969</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -13271,10 +13278,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -13282,10 +13289,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>977</v>
+        <v>973</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -13293,10 +13300,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>978</v>
+        <v>974</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>979</v>
+        <v>975</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -13304,10 +13311,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>981</v>
+        <v>977</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -13315,10 +13322,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>982</v>
+        <v>978</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>983</v>
+        <v>979</v>
       </c>
     </row>
   </sheetData>
@@ -13332,7 +13339,7 @@
   <sheetPr/>
   <dimension ref="A1:B793"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="F794" sqref="F794"/>
     </sheetView>
   </sheetViews>
@@ -19707,7 +19714,7 @@
     <col min="2" max="2" width="10.8888888888889" style="1" customWidth="1"/>
     <col min="3" max="3" width="8.33333333333333" style="1" customWidth="1"/>
     <col min="4" max="4" width="23.8888888888889" style="1" customWidth="1"/>
-    <col min="5" max="5" width="19.1111111111111" style="21" customWidth="1"/>
+    <col min="5" max="5" width="19.1111111111111" style="31" customWidth="1"/>
     <col min="6" max="7" width="9.66666666666667" style="1" customWidth="1"/>
     <col min="8" max="8" width="20.7777777777778" style="1" customWidth="1"/>
     <col min="9" max="9" width="27.8888888888889" style="1" customWidth="1"/>
@@ -19733,7 +19740,7 @@
       <c r="E1" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="31" t="s">
         <v>207</v>
       </c>
       <c r="G1" s="1" t="s">
@@ -19762,7 +19769,7 @@
       <c r="B2" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="32" t="s">
         <v>185</v>
       </c>
       <c r="D2" s="6">
@@ -19771,7 +19778,7 @@
       <c r="E2" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="F2" s="24" t="s">
+      <c r="F2" s="33" t="s">
         <v>216</v>
       </c>
       <c r="G2" s="6" t="s">
@@ -19792,7 +19799,7 @@
       <c r="L2" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="M2" s="25">
+      <c r="M2" s="34">
         <v>83</v>
       </c>
     </row>
@@ -19803,7 +19810,7 @@
       <c r="B3" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="32" t="s">
         <v>187</v>
       </c>
       <c r="D3" s="1">
@@ -19812,7 +19819,7 @@
       <c r="E3" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F3" s="21" t="s">
+      <c r="F3" s="31" t="s">
         <v>216</v>
       </c>
       <c r="G3" s="1" t="s">
@@ -19833,7 +19840,7 @@
       <c r="L3" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="M3" s="25">
+      <c r="M3" s="34">
         <v>84</v>
       </c>
     </row>
@@ -19844,7 +19851,7 @@
       <c r="B4" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="32" t="s">
         <v>188</v>
       </c>
       <c r="D4" s="1">
@@ -19853,7 +19860,7 @@
       <c r="E4" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F4" s="21" t="s">
+      <c r="F4" s="31" t="s">
         <v>216</v>
       </c>
       <c r="G4" s="1" t="s">
@@ -19874,7 +19881,7 @@
       <c r="L4" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="M4" s="25">
+      <c r="M4" s="34">
         <v>85</v>
       </c>
     </row>
@@ -19885,7 +19892,7 @@
       <c r="B5" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="32" t="s">
         <v>189</v>
       </c>
       <c r="D5" s="1">
@@ -19894,7 +19901,7 @@
       <c r="E5" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F5" s="21" t="s">
+      <c r="F5" s="31" t="s">
         <v>216</v>
       </c>
       <c r="G5" s="1" t="s">
@@ -19915,7 +19922,7 @@
       <c r="L5" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="M5" s="25">
+      <c r="M5" s="34">
         <v>86</v>
       </c>
     </row>
@@ -19926,7 +19933,7 @@
       <c r="B6" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="32" t="s">
         <v>190</v>
       </c>
       <c r="D6" s="1">
@@ -19935,7 +19942,7 @@
       <c r="E6" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F6" s="21" t="s">
+      <c r="F6" s="31" t="s">
         <v>216</v>
       </c>
       <c r="G6" s="1" t="s">
@@ -19956,7 +19963,7 @@
       <c r="L6" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="M6" s="25">
+      <c r="M6" s="34">
         <v>87</v>
       </c>
     </row>
@@ -19967,7 +19974,7 @@
       <c r="B7" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="C7" s="23" t="s">
+      <c r="C7" s="32" t="s">
         <v>191</v>
       </c>
       <c r="D7" s="1">
@@ -19976,7 +19983,7 @@
       <c r="E7" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F7" s="21" t="s">
+      <c r="F7" s="31" t="s">
         <v>216</v>
       </c>
       <c r="G7" s="1" t="s">
@@ -19997,7 +20004,7 @@
       <c r="L7" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="M7" s="25">
+      <c r="M7" s="34">
         <v>88</v>
       </c>
     </row>
@@ -20017,7 +20024,7 @@
       <c r="E8" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F8" s="21" t="s">
+      <c r="F8" s="31" t="s">
         <v>216</v>
       </c>
       <c r="G8" s="1" t="s">
@@ -20058,7 +20065,7 @@
       <c r="E9" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F9" s="21" t="s">
+      <c r="F9" s="31" t="s">
         <v>216</v>
       </c>
       <c r="G9" s="1" t="s">
@@ -20099,7 +20106,7 @@
       <c r="E10" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F10" s="21" t="s">
+      <c r="F10" s="31" t="s">
         <v>216</v>
       </c>
       <c r="G10" s="1" t="s">
@@ -20140,7 +20147,7 @@
       <c r="E11" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F11" s="21" t="s">
+      <c r="F11" s="31" t="s">
         <v>216</v>
       </c>
       <c r="G11" s="1" t="s">
@@ -20181,7 +20188,7 @@
       <c r="E12" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F12" s="21" t="s">
+      <c r="F12" s="31" t="s">
         <v>216</v>
       </c>
       <c r="G12" s="1" t="s">
@@ -20222,7 +20229,7 @@
       <c r="E13" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F13" s="21" t="s">
+      <c r="F13" s="31" t="s">
         <v>216</v>
       </c>
       <c r="G13" s="1" t="s">
@@ -20263,7 +20270,7 @@
       <c r="E14" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F14" s="21" t="s">
+      <c r="F14" s="31" t="s">
         <v>216</v>
       </c>
       <c r="G14" s="1" t="s">
@@ -20304,7 +20311,7 @@
       <c r="E15" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F15" s="21" t="s">
+      <c r="F15" s="31" t="s">
         <v>216</v>
       </c>
       <c r="G15" s="1" t="s">
@@ -20345,7 +20352,7 @@
       <c r="E16" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F16" s="21" t="s">
+      <c r="F16" s="31" t="s">
         <v>216</v>
       </c>
       <c r="G16" s="1" t="s">
@@ -20383,7 +20390,7 @@
       <c r="E17" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F17" s="21" t="s">
+      <c r="F17" s="31" t="s">
         <v>229</v>
       </c>
       <c r="G17" s="1" t="s">
@@ -20421,7 +20428,7 @@
       <c r="E18" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F18" s="21" t="s">
+      <c r="F18" s="31" t="s">
         <v>229</v>
       </c>
       <c r="G18" s="1" t="s">
@@ -20459,7 +20466,7 @@
       <c r="E19" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F19" s="21" t="s">
+      <c r="F19" s="31" t="s">
         <v>229</v>
       </c>
       <c r="G19" s="1" t="s">
@@ -20497,7 +20504,7 @@
       <c r="E20" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F20" s="21" t="s">
+      <c r="F20" s="31" t="s">
         <v>229</v>
       </c>
       <c r="G20" s="1" t="s">
@@ -20535,7 +20542,7 @@
       <c r="E21" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F21" s="21" t="s">
+      <c r="F21" s="31" t="s">
         <v>229</v>
       </c>
       <c r="G21" s="1" t="s">
@@ -20573,7 +20580,7 @@
       <c r="E22" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F22" s="21" t="s">
+      <c r="F22" s="31" t="s">
         <v>229</v>
       </c>
       <c r="G22" s="1" t="s">
@@ -20611,7 +20618,7 @@
       <c r="E23" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F23" s="21" t="s">
+      <c r="F23" s="31" t="s">
         <v>229</v>
       </c>
       <c r="G23" s="1" t="s">
@@ -20649,7 +20656,7 @@
       <c r="E24" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F24" s="21" t="s">
+      <c r="F24" s="31" t="s">
         <v>229</v>
       </c>
       <c r="G24" s="1" t="s">
@@ -20687,7 +20694,7 @@
       <c r="E25" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F25" s="21" t="s">
+      <c r="F25" s="31" t="s">
         <v>229</v>
       </c>
       <c r="G25" s="1" t="s">
@@ -20725,7 +20732,7 @@
       <c r="E26" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F26" s="21" t="s">
+      <c r="F26" s="31" t="s">
         <v>229</v>
       </c>
       <c r="G26" s="1" t="s">
@@ -20763,7 +20770,7 @@
       <c r="E27" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F27" s="21" t="s">
+      <c r="F27" s="31" t="s">
         <v>229</v>
       </c>
       <c r="G27" s="1" t="s">
@@ -20801,7 +20808,7 @@
       <c r="E28" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F28" s="21" t="s">
+      <c r="F28" s="31" t="s">
         <v>229</v>
       </c>
       <c r="G28" s="1" t="s">
@@ -20839,7 +20846,7 @@
       <c r="E29" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F29" s="21" t="s">
+      <c r="F29" s="31" t="s">
         <v>229</v>
       </c>
       <c r="G29" s="1" t="s">
@@ -20877,7 +20884,7 @@
       <c r="E30" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F30" s="21" t="s">
+      <c r="F30" s="31" t="s">
         <v>229</v>
       </c>
       <c r="G30" s="1" t="s">
@@ -20915,7 +20922,7 @@
       <c r="E31" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F31" s="21" t="s">
+      <c r="F31" s="31" t="s">
         <v>229</v>
       </c>
       <c r="G31" s="1" t="s">
@@ -20953,7 +20960,7 @@
       <c r="E32" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F32" s="21" t="s">
+      <c r="F32" s="31" t="s">
         <v>229</v>
       </c>
       <c r="G32" s="1" t="s">
@@ -20991,7 +20998,7 @@
       <c r="E33" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F33" s="21" t="s">
+      <c r="F33" s="31" t="s">
         <v>229</v>
       </c>
       <c r="G33" s="1" t="s">
@@ -21029,7 +21036,7 @@
       <c r="E34" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F34" s="21" t="s">
+      <c r="F34" s="31" t="s">
         <v>229</v>
       </c>
       <c r="G34" s="1" t="s">
@@ -21067,7 +21074,7 @@
       <c r="E35" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F35" s="21" t="s">
+      <c r="F35" s="31" t="s">
         <v>229</v>
       </c>
       <c r="G35" s="1" t="s">
@@ -21105,7 +21112,7 @@
       <c r="E36" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F36" s="21" t="s">
+      <c r="F36" s="31" t="s">
         <v>229</v>
       </c>
       <c r="G36" s="1" t="s">
@@ -21143,7 +21150,7 @@
       <c r="E37" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F37" s="21" t="s">
+      <c r="F37" s="31" t="s">
         <v>229</v>
       </c>
       <c r="G37" s="1" t="s">
@@ -21181,7 +21188,7 @@
       <c r="E38" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F38" s="21" t="s">
+      <c r="F38" s="31" t="s">
         <v>229</v>
       </c>
       <c r="G38" s="1" t="s">
@@ -21219,7 +21226,7 @@
       <c r="E39" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F39" s="21" t="s">
+      <c r="F39" s="31" t="s">
         <v>229</v>
       </c>
       <c r="G39" s="1" t="s">
@@ -21257,7 +21264,7 @@
       <c r="E40" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F40" s="21" t="s">
+      <c r="F40" s="31" t="s">
         <v>229</v>
       </c>
       <c r="G40" s="1" t="s">
@@ -21295,7 +21302,7 @@
       <c r="E41" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F41" s="21" t="s">
+      <c r="F41" s="31" t="s">
         <v>229</v>
       </c>
       <c r="G41" s="1" t="s">
@@ -21333,7 +21340,7 @@
       <c r="E42" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F42" s="21" t="s">
+      <c r="F42" s="31" t="s">
         <v>229</v>
       </c>
       <c r="G42" s="1" t="s">
@@ -21371,7 +21378,7 @@
       <c r="E43" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F43" s="21" t="s">
+      <c r="F43" s="31" t="s">
         <v>229</v>
       </c>
       <c r="G43" s="1" t="s">
@@ -21409,7 +21416,7 @@
       <c r="E44" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F44" s="21" t="s">
+      <c r="F44" s="31" t="s">
         <v>229</v>
       </c>
       <c r="G44" s="1" t="s">
@@ -21450,7 +21457,7 @@
       <c r="E45" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F45" s="21" t="s">
+      <c r="F45" s="31" t="s">
         <v>260</v>
       </c>
       <c r="G45" s="1" t="s">
@@ -21491,7 +21498,7 @@
       <c r="E46" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F46" s="21" t="s">
+      <c r="F46" s="31" t="s">
         <v>260</v>
       </c>
       <c r="G46" s="1" t="s">
@@ -21532,7 +21539,7 @@
       <c r="E47" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F47" s="21" t="s">
+      <c r="F47" s="31" t="s">
         <v>260</v>
       </c>
       <c r="G47" s="1" t="s">
@@ -21573,7 +21580,7 @@
       <c r="E48" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F48" s="21" t="s">
+      <c r="F48" s="31" t="s">
         <v>260</v>
       </c>
       <c r="G48" s="1" t="s">
@@ -21614,7 +21621,7 @@
       <c r="E49" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F49" s="21" t="s">
+      <c r="F49" s="31" t="s">
         <v>260</v>
       </c>
       <c r="G49" s="1" t="s">
@@ -21655,7 +21662,7 @@
       <c r="E50" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F50" s="21" t="s">
+      <c r="F50" s="31" t="s">
         <v>260</v>
       </c>
       <c r="G50" s="1" t="s">
@@ -21696,7 +21703,7 @@
       <c r="E51" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F51" s="21" t="s">
+      <c r="F51" s="31" t="s">
         <v>260</v>
       </c>
       <c r="G51" s="1" t="s">
@@ -21721,7 +21728,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="52" s="19" customFormat="1" spans="1:13">
+    <row r="52" s="29" customFormat="1" spans="1:13">
       <c r="A52" s="10">
         <v>308</v>
       </c>
@@ -21737,7 +21744,7 @@
       <c r="E52" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F52" s="21" t="s">
+      <c r="F52" s="31" t="s">
         <v>260</v>
       </c>
       <c r="G52" s="1" t="s">
@@ -21778,7 +21785,7 @@
       <c r="E53" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F53" s="21" t="s">
+      <c r="F53" s="31" t="s">
         <v>260</v>
       </c>
       <c r="G53" s="1" t="s">
@@ -21819,7 +21826,7 @@
       <c r="E54" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F54" s="21" t="s">
+      <c r="F54" s="31" t="s">
         <v>260</v>
       </c>
       <c r="G54" s="1" t="s">
@@ -21860,7 +21867,7 @@
       <c r="E55" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F55" s="21" t="s">
+      <c r="F55" s="31" t="s">
         <v>260</v>
       </c>
       <c r="G55" s="1" t="s">
@@ -21901,7 +21908,7 @@
       <c r="E56" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F56" s="21" t="s">
+      <c r="F56" s="31" t="s">
         <v>260</v>
       </c>
       <c r="G56" s="1" t="s">
@@ -21942,7 +21949,7 @@
       <c r="E57" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F57" s="21" t="s">
+      <c r="F57" s="31" t="s">
         <v>260</v>
       </c>
       <c r="G57" s="1" t="s">
@@ -21983,7 +21990,7 @@
       <c r="E58" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F58" s="21" t="s">
+      <c r="F58" s="31" t="s">
         <v>260</v>
       </c>
       <c r="G58" s="1" t="s">
@@ -22024,7 +22031,7 @@
       <c r="E59" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F59" s="21" t="s">
+      <c r="F59" s="31" t="s">
         <v>260</v>
       </c>
       <c r="G59" s="1" t="s">
@@ -22065,7 +22072,7 @@
       <c r="E60" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F60" s="21" t="s">
+      <c r="F60" s="31" t="s">
         <v>260</v>
       </c>
       <c r="G60" s="1" t="s">
@@ -22106,7 +22113,7 @@
       <c r="E61" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F61" s="21" t="s">
+      <c r="F61" s="31" t="s">
         <v>260</v>
       </c>
       <c r="G61" s="1" t="s">
@@ -22147,7 +22154,7 @@
       <c r="E62" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F62" s="21" t="s">
+      <c r="F62" s="31" t="s">
         <v>260</v>
       </c>
       <c r="G62" s="1" t="s">
@@ -22188,7 +22195,7 @@
       <c r="E63" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F63" s="21" t="s">
+      <c r="F63" s="31" t="s">
         <v>260</v>
       </c>
       <c r="G63" s="1" t="s">
@@ -22229,7 +22236,7 @@
       <c r="E64" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F64" s="21" t="s">
+      <c r="F64" s="31" t="s">
         <v>260</v>
       </c>
       <c r="G64" s="1" t="s">
@@ -22270,7 +22277,7 @@
       <c r="E65" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F65" s="21" t="s">
+      <c r="F65" s="31" t="s">
         <v>260</v>
       </c>
       <c r="G65" s="1" t="s">
@@ -22311,7 +22318,7 @@
       <c r="E66" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F66" s="21" t="s">
+      <c r="F66" s="31" t="s">
         <v>260</v>
       </c>
       <c r="G66" s="1" t="s">
@@ -22352,7 +22359,7 @@
       <c r="E67" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F67" s="21" t="s">
+      <c r="F67" s="31" t="s">
         <v>260</v>
       </c>
       <c r="G67" s="1" t="s">
@@ -22393,7 +22400,7 @@
       <c r="E68" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F68" s="21" t="s">
+      <c r="F68" s="31" t="s">
         <v>260</v>
       </c>
       <c r="G68" s="1" t="s">
@@ -22434,7 +22441,7 @@
       <c r="E69" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F69" s="21" t="s">
+      <c r="F69" s="31" t="s">
         <v>260</v>
       </c>
       <c r="G69" s="1" t="s">
@@ -22475,7 +22482,7 @@
       <c r="E70" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F70" s="21" t="s">
+      <c r="F70" s="31" t="s">
         <v>260</v>
       </c>
       <c r="G70" s="1" t="s">
@@ -22516,7 +22523,7 @@
       <c r="E71" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F71" s="21" t="s">
+      <c r="F71" s="31" t="s">
         <v>260</v>
       </c>
       <c r="G71" s="1" t="s">
@@ -22557,7 +22564,7 @@
       <c r="E72" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F72" s="21" t="s">
+      <c r="F72" s="31" t="s">
         <v>260</v>
       </c>
       <c r="G72" s="1" t="s">
@@ -22598,7 +22605,7 @@
       <c r="E73" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F73" s="21" t="s">
+      <c r="F73" s="31" t="s">
         <v>260</v>
       </c>
       <c r="G73" s="1" t="s">
@@ -22639,7 +22646,7 @@
       <c r="E74" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F74" s="21" t="s">
+      <c r="F74" s="31" t="s">
         <v>260</v>
       </c>
       <c r="G74" s="1" t="s">
@@ -22680,7 +22687,7 @@
       <c r="E75" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F75" s="21" t="s">
+      <c r="F75" s="31" t="s">
         <v>260</v>
       </c>
       <c r="G75" s="1" t="s">
@@ -22721,7 +22728,7 @@
       <c r="E76" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F76" s="21" t="s">
+      <c r="F76" s="31" t="s">
         <v>260</v>
       </c>
       <c r="G76" s="1" t="s">
@@ -22762,7 +22769,7 @@
       <c r="E77" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F77" s="21" t="s">
+      <c r="F77" s="31" t="s">
         <v>260</v>
       </c>
       <c r="G77" s="1" t="s">
@@ -22803,7 +22810,7 @@
       <c r="E78" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F78" s="21" t="s">
+      <c r="F78" s="31" t="s">
         <v>260</v>
       </c>
       <c r="G78" s="1" t="s">
@@ -22844,7 +22851,7 @@
       <c r="E79" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F79" s="21" t="s">
+      <c r="F79" s="31" t="s">
         <v>260</v>
       </c>
       <c r="G79" s="1" t="s">
@@ -22885,7 +22892,7 @@
       <c r="E80" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F80" s="21" t="s">
+      <c r="F80" s="31" t="s">
         <v>260</v>
       </c>
       <c r="G80" s="1" t="s">
@@ -22926,7 +22933,7 @@
       <c r="E81" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F81" s="21" t="s">
+      <c r="F81" s="31" t="s">
         <v>260</v>
       </c>
       <c r="G81" s="1" t="s">
@@ -22951,7 +22958,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="82" s="19" customFormat="1" spans="1:13">
+    <row r="82" s="29" customFormat="1" spans="1:13">
       <c r="A82" s="10">
         <v>338</v>
       </c>
@@ -22967,7 +22974,7 @@
       <c r="E82" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F82" s="21" t="s">
+      <c r="F82" s="31" t="s">
         <v>260</v>
       </c>
       <c r="G82" s="1" t="s">
@@ -23008,7 +23015,7 @@
       <c r="E83" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F83" s="21" t="s">
+      <c r="F83" s="31" t="s">
         <v>260</v>
       </c>
       <c r="G83" s="1" t="s">
@@ -23049,7 +23056,7 @@
       <c r="E84" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F84" s="21" t="s">
+      <c r="F84" s="31" t="s">
         <v>260</v>
       </c>
       <c r="G84" s="1" t="s">
@@ -23090,7 +23097,7 @@
       <c r="E85" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F85" s="21" t="s">
+      <c r="F85" s="31" t="s">
         <v>260</v>
       </c>
       <c r="G85" s="1" t="s">
@@ -23131,7 +23138,7 @@
       <c r="E86" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F86" s="21" t="s">
+      <c r="F86" s="31" t="s">
         <v>260</v>
       </c>
       <c r="G86" s="1" t="s">
@@ -23156,7 +23163,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="87" s="20" customFormat="1" spans="1:13">
+    <row r="87" s="30" customFormat="1" spans="1:13">
       <c r="A87" s="10">
         <v>343</v>
       </c>
@@ -23172,7 +23179,7 @@
       <c r="E87" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F87" s="21" t="s">
+      <c r="F87" s="31" t="s">
         <v>260</v>
       </c>
       <c r="G87" s="1" t="s">
@@ -23197,7 +23204,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="88" s="20" customFormat="1" spans="1:13">
+    <row r="88" s="30" customFormat="1" spans="1:13">
       <c r="A88" s="10">
         <v>344</v>
       </c>
@@ -23213,7 +23220,7 @@
       <c r="E88" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F88" s="21" t="s">
+      <c r="F88" s="31" t="s">
         <v>260</v>
       </c>
       <c r="G88" s="1" t="s">
@@ -23254,7 +23261,7 @@
       <c r="E89" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F89" s="21" t="s">
+      <c r="F89" s="31" t="s">
         <v>260</v>
       </c>
       <c r="G89" s="1" t="s">
@@ -23295,7 +23302,7 @@
       <c r="E90" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F90" s="21" t="s">
+      <c r="F90" s="31" t="s">
         <v>260</v>
       </c>
       <c r="G90" s="1" t="s">
@@ -23336,7 +23343,7 @@
       <c r="E91" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F91" s="21" t="s">
+      <c r="F91" s="31" t="s">
         <v>260</v>
       </c>
       <c r="G91" s="1" t="s">
@@ -23377,7 +23384,7 @@
       <c r="E92" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F92" s="21" t="s">
+      <c r="F92" s="31" t="s">
         <v>260</v>
       </c>
       <c r="G92" s="1" t="s">
@@ -23418,7 +23425,7 @@
       <c r="E93" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F93" s="21" t="s">
+      <c r="F93" s="31" t="s">
         <v>260</v>
       </c>
       <c r="G93" s="1" t="s">
@@ -23459,7 +23466,7 @@
       <c r="E94" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F94" s="21" t="s">
+      <c r="F94" s="31" t="s">
         <v>260</v>
       </c>
       <c r="G94" s="1" t="s">
@@ -23500,7 +23507,7 @@
       <c r="E95" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F95" s="21" t="s">
+      <c r="F95" s="31" t="s">
         <v>260</v>
       </c>
       <c r="G95" s="1" t="s">
@@ -23541,7 +23548,7 @@
       <c r="E96" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F96" s="21" t="s">
+      <c r="F96" s="31" t="s">
         <v>260</v>
       </c>
       <c r="G96" s="1" t="s">
@@ -23582,7 +23589,7 @@
       <c r="E97" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F97" s="21" t="s">
+      <c r="F97" s="31" t="s">
         <v>260</v>
       </c>
       <c r="G97" s="1" t="s">
@@ -23623,7 +23630,7 @@
       <c r="E98" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F98" s="21" t="s">
+      <c r="F98" s="31" t="s">
         <v>260</v>
       </c>
       <c r="G98" s="1" t="s">
@@ -23664,7 +23671,7 @@
       <c r="E99" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F99" s="21" t="s">
+      <c r="F99" s="31" t="s">
         <v>260</v>
       </c>
       <c r="G99" s="1" t="s">
@@ -23705,7 +23712,7 @@
       <c r="E100" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F100" s="21" t="s">
+      <c r="F100" s="31" t="s">
         <v>260</v>
       </c>
       <c r="G100" s="1" t="s">
@@ -23746,7 +23753,7 @@
       <c r="E101" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F101" s="21" t="s">
+      <c r="F101" s="31" t="s">
         <v>260</v>
       </c>
       <c r="G101" s="1" t="s">
@@ -23787,7 +23794,7 @@
       <c r="E102" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F102" s="21" t="s">
+      <c r="F102" s="31" t="s">
         <v>260</v>
       </c>
       <c r="G102" s="1" t="s">
@@ -23828,7 +23835,7 @@
       <c r="E103" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F103" s="21" t="s">
+      <c r="F103" s="31" t="s">
         <v>260</v>
       </c>
       <c r="G103" s="1" t="s">
@@ -23869,7 +23876,7 @@
       <c r="E104" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F104" s="21" t="s">
+      <c r="F104" s="31" t="s">
         <v>260</v>
       </c>
       <c r="G104" s="1" t="s">
@@ -23910,7 +23917,7 @@
       <c r="E105" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F105" s="21" t="s">
+      <c r="F105" s="31" t="s">
         <v>260</v>
       </c>
       <c r="G105" s="1" t="s">
@@ -23951,7 +23958,7 @@
       <c r="E106" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F106" s="21" t="s">
+      <c r="F106" s="31" t="s">
         <v>260</v>
       </c>
       <c r="G106" s="1" t="s">
@@ -23992,7 +23999,7 @@
       <c r="E107" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F107" s="21" t="s">
+      <c r="F107" s="31" t="s">
         <v>260</v>
       </c>
       <c r="G107" s="1" t="s">
@@ -24033,7 +24040,7 @@
       <c r="E108" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F108" s="21" t="s">
+      <c r="F108" s="31" t="s">
         <v>260</v>
       </c>
       <c r="G108" s="1" t="s">
@@ -24074,7 +24081,7 @@
       <c r="E109" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F109" s="21" t="s">
+      <c r="F109" s="31" t="s">
         <v>260</v>
       </c>
       <c r="G109" s="1" t="s">
@@ -24115,7 +24122,7 @@
       <c r="E110" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F110" s="21" t="s">
+      <c r="F110" s="31" t="s">
         <v>260</v>
       </c>
       <c r="G110" s="1" t="s">
@@ -24156,7 +24163,7 @@
       <c r="E111" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F111" s="21" t="s">
+      <c r="F111" s="31" t="s">
         <v>260</v>
       </c>
       <c r="G111" s="1" t="s">
@@ -24197,7 +24204,7 @@
       <c r="E112" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F112" s="21" t="s">
+      <c r="F112" s="31" t="s">
         <v>260</v>
       </c>
       <c r="G112" s="1" t="s">
@@ -24238,7 +24245,7 @@
       <c r="E113" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F113" s="21" t="s">
+      <c r="F113" s="31" t="s">
         <v>260</v>
       </c>
       <c r="G113" s="1" t="s">
@@ -24279,7 +24286,7 @@
       <c r="E114" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F114" s="21" t="s">
+      <c r="F114" s="31" t="s">
         <v>260</v>
       </c>
       <c r="G114" s="1" t="s">
@@ -24320,7 +24327,7 @@
       <c r="E115" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F115" s="21" t="s">
+      <c r="F115" s="31" t="s">
         <v>260</v>
       </c>
       <c r="G115" s="1" t="s">
@@ -24361,7 +24368,7 @@
       <c r="E116" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F116" s="21" t="s">
+      <c r="F116" s="31" t="s">
         <v>260</v>
       </c>
       <c r="G116" s="1" t="s">
@@ -24402,7 +24409,7 @@
       <c r="E117" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F117" s="21" t="s">
+      <c r="F117" s="31" t="s">
         <v>260</v>
       </c>
       <c r="G117" s="1" t="s">
@@ -24443,7 +24450,7 @@
       <c r="E118" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F118" s="21" t="s">
+      <c r="F118" s="31" t="s">
         <v>260</v>
       </c>
       <c r="G118" s="1" t="s">
@@ -24484,7 +24491,7 @@
       <c r="E119" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F119" s="21" t="s">
+      <c r="F119" s="31" t="s">
         <v>260</v>
       </c>
       <c r="G119" s="1" t="s">
@@ -24525,7 +24532,7 @@
       <c r="E120" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F120" s="21" t="s">
+      <c r="F120" s="31" t="s">
         <v>260</v>
       </c>
       <c r="G120" s="1" t="s">
@@ -24566,7 +24573,7 @@
       <c r="E121" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F121" s="21" t="s">
+      <c r="F121" s="31" t="s">
         <v>260</v>
       </c>
       <c r="G121" s="1" t="s">
@@ -24607,7 +24614,7 @@
       <c r="E122" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F122" s="21" t="s">
+      <c r="F122" s="31" t="s">
         <v>260</v>
       </c>
       <c r="G122" s="1" t="s">
@@ -24648,7 +24655,7 @@
       <c r="E123" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F123" s="21" t="s">
+      <c r="F123" s="31" t="s">
         <v>260</v>
       </c>
       <c r="G123" s="1" t="s">
@@ -24689,7 +24696,7 @@
       <c r="E124" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F124" s="21" t="s">
+      <c r="F124" s="31" t="s">
         <v>260</v>
       </c>
       <c r="G124" s="1" t="s">
@@ -24730,7 +24737,7 @@
       <c r="E125" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F125" s="21" t="s">
+      <c r="F125" s="31" t="s">
         <v>260</v>
       </c>
       <c r="G125" s="1" t="s">
@@ -24771,7 +24778,7 @@
       <c r="E126" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F126" s="21" t="s">
+      <c r="F126" s="31" t="s">
         <v>260</v>
       </c>
       <c r="G126" s="1" t="s">
@@ -24809,7 +24816,7 @@
       <c r="E127" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F127" s="21" t="s">
+      <c r="F127" s="31" t="s">
         <v>346</v>
       </c>
       <c r="G127" s="1" t="s">
@@ -24847,7 +24854,7 @@
       <c r="E128" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F128" s="21" t="s">
+      <c r="F128" s="31" t="s">
         <v>346</v>
       </c>
       <c r="G128" s="1" t="s">
@@ -24885,7 +24892,7 @@
       <c r="E129" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F129" s="21" t="s">
+      <c r="F129" s="31" t="s">
         <v>346</v>
       </c>
       <c r="G129" s="1" t="s">
@@ -24923,7 +24930,7 @@
       <c r="E130" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F130" s="21" t="s">
+      <c r="F130" s="31" t="s">
         <v>346</v>
       </c>
       <c r="G130" s="1" t="s">
@@ -24961,7 +24968,7 @@
       <c r="E131" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F131" s="21" t="s">
+      <c r="F131" s="31" t="s">
         <v>346</v>
       </c>
       <c r="G131" s="1" t="s">
@@ -24999,7 +25006,7 @@
       <c r="E132" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F132" s="21" t="s">
+      <c r="F132" s="31" t="s">
         <v>346</v>
       </c>
       <c r="G132" s="1" t="s">
@@ -25037,7 +25044,7 @@
       <c r="E133" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F133" s="21" t="s">
+      <c r="F133" s="31" t="s">
         <v>346</v>
       </c>
       <c r="G133" s="1" t="s">
@@ -25075,7 +25082,7 @@
       <c r="E134" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F134" s="21" t="s">
+      <c r="F134" s="31" t="s">
         <v>346</v>
       </c>
       <c r="G134" s="1" t="s">
@@ -25113,7 +25120,7 @@
       <c r="E135" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F135" s="21" t="s">
+      <c r="F135" s="31" t="s">
         <v>346</v>
       </c>
       <c r="G135" s="1" t="s">
@@ -25151,7 +25158,7 @@
       <c r="E136" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F136" s="21" t="s">
+      <c r="F136" s="31" t="s">
         <v>346</v>
       </c>
       <c r="G136" s="1" t="s">
@@ -25189,7 +25196,7 @@
       <c r="E137" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F137" s="21" t="s">
+      <c r="F137" s="31" t="s">
         <v>346</v>
       </c>
       <c r="G137" s="1" t="s">
@@ -25227,7 +25234,7 @@
       <c r="E138" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F138" s="21" t="s">
+      <c r="F138" s="31" t="s">
         <v>346</v>
       </c>
       <c r="G138" s="1" t="s">
@@ -25265,7 +25272,7 @@
       <c r="E139" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F139" s="21" t="s">
+      <c r="F139" s="31" t="s">
         <v>346</v>
       </c>
       <c r="G139" s="1" t="s">
@@ -25303,7 +25310,7 @@
       <c r="E140" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F140" s="21" t="s">
+      <c r="F140" s="31" t="s">
         <v>346</v>
       </c>
       <c r="G140" s="1" t="s">
@@ -25341,7 +25348,7 @@
       <c r="E141" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F141" s="21" t="s">
+      <c r="F141" s="31" t="s">
         <v>346</v>
       </c>
       <c r="G141" s="1" t="s">
@@ -25379,7 +25386,7 @@
       <c r="E142" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F142" s="21" t="s">
+      <c r="F142" s="31" t="s">
         <v>346</v>
       </c>
       <c r="G142" s="1" t="s">
@@ -25417,7 +25424,7 @@
       <c r="E143" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F143" s="21" t="s">
+      <c r="F143" s="31" t="s">
         <v>346</v>
       </c>
       <c r="G143" s="1" t="s">
@@ -25455,7 +25462,7 @@
       <c r="E144" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F144" s="21" t="s">
+      <c r="F144" s="31" t="s">
         <v>346</v>
       </c>
       <c r="G144" s="1" t="s">
@@ -25493,7 +25500,7 @@
       <c r="E145" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F145" s="21" t="s">
+      <c r="F145" s="31" t="s">
         <v>346</v>
       </c>
       <c r="G145" s="1" t="s">
@@ -25531,7 +25538,7 @@
       <c r="E146" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F146" s="21" t="s">
+      <c r="F146" s="31" t="s">
         <v>346</v>
       </c>
       <c r="G146" s="1" t="s">
@@ -25569,7 +25576,7 @@
       <c r="E147" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F147" s="21" t="s">
+      <c r="F147" s="31" t="s">
         <v>346</v>
       </c>
       <c r="G147" s="1" t="s">
@@ -25607,7 +25614,7 @@
       <c r="E148" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F148" s="21" t="s">
+      <c r="F148" s="31" t="s">
         <v>346</v>
       </c>
       <c r="G148" s="1" t="s">
@@ -25645,7 +25652,7 @@
       <c r="E149" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F149" s="21" t="s">
+      <c r="F149" s="31" t="s">
         <v>346</v>
       </c>
       <c r="G149" s="1" t="s">
@@ -25683,7 +25690,7 @@
       <c r="E150" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F150" s="21" t="s">
+      <c r="F150" s="31" t="s">
         <v>346</v>
       </c>
       <c r="G150" s="1" t="s">
@@ -25721,7 +25728,7 @@
       <c r="E151" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F151" s="21" t="s">
+      <c r="F151" s="31" t="s">
         <v>346</v>
       </c>
       <c r="G151" s="1" t="s">
@@ -25759,7 +25766,7 @@
       <c r="E152" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F152" s="21" t="s">
+      <c r="F152" s="31" t="s">
         <v>346</v>
       </c>
       <c r="G152" s="1" t="s">
@@ -25797,7 +25804,7 @@
       <c r="E153" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F153" s="21" t="s">
+      <c r="F153" s="31" t="s">
         <v>346</v>
       </c>
       <c r="G153" s="1" t="s">
@@ -25835,7 +25842,7 @@
       <c r="E154" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F154" s="21" t="s">
+      <c r="F154" s="31" t="s">
         <v>346</v>
       </c>
       <c r="G154" s="1" t="s">
@@ -25873,7 +25880,7 @@
       <c r="E155" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F155" s="21" t="s">
+      <c r="F155" s="31" t="s">
         <v>346</v>
       </c>
       <c r="G155" s="1" t="s">
@@ -25911,7 +25918,7 @@
       <c r="E156" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F156" s="21" t="s">
+      <c r="F156" s="31" t="s">
         <v>346</v>
       </c>
       <c r="G156" s="1" t="s">
@@ -25949,7 +25956,7 @@
       <c r="E157" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F157" s="21" t="s">
+      <c r="F157" s="31" t="s">
         <v>346</v>
       </c>
       <c r="G157" s="1" t="s">
@@ -25987,7 +25994,7 @@
       <c r="E158" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F158" s="21" t="s">
+      <c r="F158" s="31" t="s">
         <v>346</v>
       </c>
       <c r="G158" s="1" t="s">
@@ -26025,7 +26032,7 @@
       <c r="E159" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F159" s="21" t="s">
+      <c r="F159" s="31" t="s">
         <v>346</v>
       </c>
       <c r="G159" s="1" t="s">
@@ -26063,7 +26070,7 @@
       <c r="E160" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F160" s="21" t="s">
+      <c r="F160" s="31" t="s">
         <v>346</v>
       </c>
       <c r="G160" s="1" t="s">
@@ -26101,7 +26108,7 @@
       <c r="E161" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F161" s="21" t="s">
+      <c r="F161" s="31" t="s">
         <v>346</v>
       </c>
       <c r="G161" s="1" t="s">
@@ -26139,7 +26146,7 @@
       <c r="E162" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F162" s="21" t="s">
+      <c r="F162" s="31" t="s">
         <v>346</v>
       </c>
       <c r="G162" s="1" t="s">
@@ -26177,7 +26184,7 @@
       <c r="E163" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F163" s="21" t="s">
+      <c r="F163" s="31" t="s">
         <v>346</v>
       </c>
       <c r="G163" s="1" t="s">
@@ -26215,7 +26222,7 @@
       <c r="E164" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F164" s="21" t="s">
+      <c r="F164" s="31" t="s">
         <v>346</v>
       </c>
       <c r="G164" s="1" t="s">
@@ -26253,7 +26260,7 @@
       <c r="E165" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F165" s="21" t="s">
+      <c r="F165" s="31" t="s">
         <v>346</v>
       </c>
       <c r="G165" s="1" t="s">
@@ -26291,7 +26298,7 @@
       <c r="E166" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F166" s="21" t="s">
+      <c r="F166" s="31" t="s">
         <v>346</v>
       </c>
       <c r="G166" s="1" t="s">
@@ -26329,7 +26336,7 @@
       <c r="E167" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F167" s="21" t="s">
+      <c r="F167" s="31" t="s">
         <v>346</v>
       </c>
       <c r="G167" s="1" t="s">
@@ -26367,7 +26374,7 @@
       <c r="E168" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F168" s="21" t="s">
+      <c r="F168" s="31" t="s">
         <v>346</v>
       </c>
       <c r="G168" s="1" t="s">
@@ -26405,7 +26412,7 @@
       <c r="E169" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F169" s="21" t="s">
+      <c r="F169" s="31" t="s">
         <v>346</v>
       </c>
       <c r="G169" s="1" t="s">
@@ -26443,7 +26450,7 @@
       <c r="E170" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F170" s="21" t="s">
+      <c r="F170" s="31" t="s">
         <v>346</v>
       </c>
       <c r="G170" s="1" t="s">
@@ -26481,7 +26488,7 @@
       <c r="E171" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F171" s="21" t="s">
+      <c r="F171" s="31" t="s">
         <v>346</v>
       </c>
       <c r="G171" s="1" t="s">
@@ -26519,7 +26526,7 @@
       <c r="E172" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F172" s="21" t="s">
+      <c r="F172" s="31" t="s">
         <v>346</v>
       </c>
       <c r="G172" s="1" t="s">
@@ -26558,7 +26565,7 @@
       <c r="E173" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="F173" s="24" t="s">
+      <c r="F173" s="33" t="s">
         <v>394</v>
       </c>
       <c r="G173" s="6" t="s">
@@ -26597,7 +26604,7 @@
       <c r="E174" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F174" s="21" t="s">
+      <c r="F174" s="31" t="s">
         <v>394</v>
       </c>
       <c r="G174" s="1" t="s">
@@ -26636,7 +26643,7 @@
       <c r="E175" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F175" s="21" t="s">
+      <c r="F175" s="31" t="s">
         <v>394</v>
       </c>
       <c r="G175" s="1" t="s">
@@ -26675,7 +26682,7 @@
       <c r="E176" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F176" s="21" t="s">
+      <c r="F176" s="31" t="s">
         <v>394</v>
       </c>
       <c r="G176" s="1" t="s">
@@ -26714,7 +26721,7 @@
       <c r="E177" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F177" s="21" t="s">
+      <c r="F177" s="31" t="s">
         <v>394</v>
       </c>
       <c r="G177" s="1" t="s">
@@ -26753,7 +26760,7 @@
       <c r="E178" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F178" s="21" t="s">
+      <c r="F178" s="31" t="s">
         <v>394</v>
       </c>
       <c r="G178" s="1" t="s">
@@ -26792,7 +26799,7 @@
       <c r="E179" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F179" s="21" t="s">
+      <c r="F179" s="31" t="s">
         <v>394</v>
       </c>
       <c r="G179" s="1" t="s">
@@ -26831,7 +26838,7 @@
       <c r="E180" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F180" s="21" t="s">
+      <c r="F180" s="31" t="s">
         <v>394</v>
       </c>
       <c r="G180" s="1" t="s">
@@ -26870,7 +26877,7 @@
       <c r="E181" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F181" s="21" t="s">
+      <c r="F181" s="31" t="s">
         <v>394</v>
       </c>
       <c r="G181" s="1" t="s">
@@ -26909,7 +26916,7 @@
       <c r="E182" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F182" s="21" t="s">
+      <c r="F182" s="31" t="s">
         <v>394</v>
       </c>
       <c r="G182" s="1" t="s">
@@ -26948,7 +26955,7 @@
       <c r="E183" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F183" s="21" t="s">
+      <c r="F183" s="31" t="s">
         <v>394</v>
       </c>
       <c r="G183" s="1" t="s">
@@ -26986,7 +26993,7 @@
       <c r="E184" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F184" s="21" t="s">
+      <c r="F184" s="31" t="s">
         <v>394</v>
       </c>
       <c r="G184" s="1" t="s">
@@ -27024,7 +27031,7 @@
       <c r="E185" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F185" s="21" t="s">
+      <c r="F185" s="31" t="s">
         <v>394</v>
       </c>
       <c r="G185" s="1" t="s">
@@ -27062,7 +27069,7 @@
       <c r="E186" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F186" s="21" t="s">
+      <c r="F186" s="31" t="s">
         <v>394</v>
       </c>
       <c r="G186" s="1" t="s">
@@ -27100,7 +27107,7 @@
       <c r="E187" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F187" s="21" t="s">
+      <c r="F187" s="31" t="s">
         <v>394</v>
       </c>
       <c r="G187" s="1" t="s">
@@ -27138,7 +27145,7 @@
       <c r="E188" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F188" s="21" t="s">
+      <c r="F188" s="31" t="s">
         <v>394</v>
       </c>
       <c r="G188" s="1" t="s">
@@ -27176,7 +27183,7 @@
       <c r="E189" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F189" s="21" t="s">
+      <c r="F189" s="31" t="s">
         <v>394</v>
       </c>
       <c r="G189" s="1" t="s">
@@ -27214,7 +27221,7 @@
       <c r="E190" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F190" s="21" t="s">
+      <c r="F190" s="31" t="s">
         <v>394</v>
       </c>
       <c r="G190" s="1" t="s">
@@ -27252,7 +27259,7 @@
       <c r="E191" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F191" s="21" t="s">
+      <c r="F191" s="31" t="s">
         <v>394</v>
       </c>
       <c r="G191" s="1" t="s">
@@ -27290,7 +27297,7 @@
       <c r="E192" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F192" s="21" t="s">
+      <c r="F192" s="31" t="s">
         <v>394</v>
       </c>
       <c r="G192" s="1" t="s">
@@ -27328,7 +27335,7 @@
       <c r="E193" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F193" s="21" t="s">
+      <c r="F193" s="31" t="s">
         <v>394</v>
       </c>
       <c r="G193" s="1" t="s">
@@ -27357,38 +27364,38 @@
       <c r="A194" s="26">
         <v>622</v>
       </c>
-      <c r="B194" s="19" t="s">
+      <c r="B194" s="29" t="s">
         <v>446</v>
       </c>
-      <c r="C194" s="19"/>
-      <c r="D194" s="19">
+      <c r="C194" s="29"/>
+      <c r="D194" s="29">
         <v>30</v>
       </c>
-      <c r="E194" s="19" t="s">
+      <c r="E194" s="29" t="s">
         <v>215</v>
       </c>
-      <c r="F194" s="27" t="s">
+      <c r="F194" s="35" t="s">
         <v>394</v>
       </c>
-      <c r="G194" s="19" t="s">
+      <c r="G194" s="29" t="s">
         <v>407</v>
       </c>
-      <c r="H194" s="19" t="s">
+      <c r="H194" s="29" t="s">
         <v>407</v>
       </c>
-      <c r="I194" s="19" t="s">
+      <c r="I194" s="29" t="s">
         <v>426</v>
       </c>
-      <c r="J194" s="19" t="s">
+      <c r="J194" s="29" t="s">
         <v>447</v>
       </c>
-      <c r="K194" s="19" t="s">
+      <c r="K194" s="29" t="s">
         <v>448</v>
       </c>
-      <c r="L194" s="19" t="s">
+      <c r="L194" s="29" t="s">
         <v>395</v>
       </c>
-      <c r="M194" s="19" t="s">
+      <c r="M194" s="29" t="s">
         <v>449</v>
       </c>
     </row>
@@ -27405,7 +27412,7 @@
       <c r="E195" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F195" s="21" t="s">
+      <c r="F195" s="31" t="s">
         <v>451</v>
       </c>
       <c r="G195" s="1" t="s">
@@ -27443,7 +27450,7 @@
       <c r="E196" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F196" s="21" t="s">
+      <c r="F196" s="31" t="s">
         <v>451</v>
       </c>
       <c r="G196" s="1" t="s">
@@ -27481,7 +27488,7 @@
       <c r="E197" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F197" s="21" t="s">
+      <c r="F197" s="31" t="s">
         <v>451</v>
       </c>
       <c r="G197" s="1" t="s">
@@ -27519,7 +27526,7 @@
       <c r="E198" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F198" s="21" t="s">
+      <c r="F198" s="31" t="s">
         <v>451</v>
       </c>
       <c r="G198" s="1" t="s">
@@ -27557,7 +27564,7 @@
       <c r="E199" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F199" s="21" t="s">
+      <c r="F199" s="31" t="s">
         <v>451</v>
       </c>
       <c r="G199" s="1" t="s">
@@ -27595,7 +27602,7 @@
       <c r="E200" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F200" s="21" t="s">
+      <c r="F200" s="31" t="s">
         <v>451</v>
       </c>
       <c r="G200" s="1" t="s">
@@ -29066,7 +29073,7 @@
       <c r="B1" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="28" t="s">
         <v>538</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -29651,7 +29658,7 @@
   <dimension ref="A1:P47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+      <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -30473,65 +30480,65 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" ht="15.6" spans="1:16">
-      <c r="A17" s="1">
+    <row r="17" s="18" customFormat="1" ht="15.6" spans="1:16">
+      <c r="A17" s="20">
         <v>16</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="C17" s="1" t="s">
+      <c r="B17" s="21" t="s">
         <v>578</v>
       </c>
-      <c r="D17" s="10">
+      <c r="C17" s="21" t="s">
+        <v>579</v>
+      </c>
+      <c r="D17" s="22">
         <v>20</v>
       </c>
-      <c r="E17" s="1">
-        <v>0</v>
-      </c>
-      <c r="F17" s="9">
+      <c r="E17" s="21">
+        <v>0</v>
+      </c>
+      <c r="F17" s="7">
         <v>20</v>
       </c>
-      <c r="G17" s="1">
+      <c r="G17" s="21">
         <v>5</v>
       </c>
-      <c r="H17" s="1">
-        <v>0</v>
-      </c>
-      <c r="I17" s="1">
+      <c r="H17" s="21">
+        <v>0</v>
+      </c>
+      <c r="I17" s="21">
         <v>10</v>
       </c>
-      <c r="J17" t="s">
-        <v>579</v>
-      </c>
-      <c r="K17" s="1">
-        <v>0</v>
-      </c>
-      <c r="L17" s="1">
-        <v>0</v>
-      </c>
-      <c r="M17" s="1">
-        <v>0</v>
-      </c>
-      <c r="N17" s="1">
-        <v>0</v>
-      </c>
-      <c r="O17" s="1">
-        <v>0</v>
-      </c>
-      <c r="P17" s="1">
+      <c r="J17" s="18" t="s">
+        <v>580</v>
+      </c>
+      <c r="K17" s="21">
+        <v>0</v>
+      </c>
+      <c r="L17" s="21">
+        <v>0</v>
+      </c>
+      <c r="M17" s="21">
+        <v>0</v>
+      </c>
+      <c r="N17" s="21">
+        <v>0</v>
+      </c>
+      <c r="O17" s="21">
+        <v>0</v>
+      </c>
+      <c r="P17" s="21">
         <v>0</v>
       </c>
     </row>
     <row r="18" ht="15.6" spans="1:16">
-      <c r="A18" s="1">
+      <c r="A18" s="23">
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>363</v>
+        <v>578</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="D18" s="10">
         <v>20</v>
@@ -30552,7 +30559,7 @@
         <v>10</v>
       </c>
       <c r="J18" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="K18" s="1">
         <v>0</v>
@@ -30574,14 +30581,14 @@
       </c>
     </row>
     <row r="19" ht="15.6" spans="1:16">
-      <c r="A19" s="1">
+      <c r="A19" s="23">
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>364</v>
+        <v>578</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="D19" s="10">
         <v>20</v>
@@ -30602,7 +30609,7 @@
         <v>10</v>
       </c>
       <c r="J19" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="K19" s="1">
         <v>0</v>
@@ -30624,14 +30631,14 @@
       </c>
     </row>
     <row r="20" ht="15.6" spans="1:16">
-      <c r="A20" s="1">
+      <c r="A20" s="23">
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>365</v>
+        <v>578</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="D20" s="10">
         <v>20</v>
@@ -30652,7 +30659,7 @@
         <v>10</v>
       </c>
       <c r="J20" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="K20" s="1">
         <v>0</v>
@@ -30674,14 +30681,14 @@
       </c>
     </row>
     <row r="21" ht="15.6" spans="1:16">
-      <c r="A21" s="1">
+      <c r="A21" s="23">
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>366</v>
+        <v>578</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="D21" s="10">
         <v>20</v>
@@ -30702,7 +30709,7 @@
         <v>10</v>
       </c>
       <c r="J21" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="K21" s="1">
         <v>0</v>
@@ -30724,14 +30731,14 @@
       </c>
     </row>
     <row r="22" ht="15.6" spans="1:16">
-      <c r="A22" s="1">
+      <c r="A22" s="23">
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>367</v>
+        <v>578</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="D22" s="10">
         <v>30</v>
@@ -30752,7 +30759,7 @@
         <v>10</v>
       </c>
       <c r="J22" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="K22" s="1">
         <v>0</v>
@@ -30774,14 +30781,14 @@
       </c>
     </row>
     <row r="23" ht="15.6" spans="1:16">
-      <c r="A23" s="1">
+      <c r="A23" s="23">
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>368</v>
+        <v>578</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="D23" s="10">
         <v>20</v>
@@ -30802,7 +30809,7 @@
         <v>10</v>
       </c>
       <c r="J23" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="K23" s="1">
         <v>0</v>
@@ -30824,14 +30831,14 @@
       </c>
     </row>
     <row r="24" ht="15.6" spans="1:16">
-      <c r="A24" s="1">
+      <c r="A24" s="23">
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>369</v>
+        <v>578</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="D24" s="10">
         <v>20</v>
@@ -30852,7 +30859,7 @@
         <v>10</v>
       </c>
       <c r="J24" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="K24" s="1">
         <v>0</v>
@@ -30874,14 +30881,14 @@
       </c>
     </row>
     <row r="25" ht="15.6" spans="1:16">
-      <c r="A25" s="1">
+      <c r="A25" s="23">
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>370</v>
+        <v>578</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="D25" s="10">
         <v>20</v>
@@ -30902,7 +30909,7 @@
         <v>10</v>
       </c>
       <c r="J25" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="K25" s="1">
         <v>0</v>
@@ -30924,14 +30931,14 @@
       </c>
     </row>
     <row r="26" ht="15.6" spans="1:16">
-      <c r="A26" s="1">
+      <c r="A26" s="23">
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>371</v>
+        <v>578</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="D26" s="10">
         <v>20</v>
@@ -30952,7 +30959,7 @@
         <v>10</v>
       </c>
       <c r="J26" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="K26" s="1">
         <v>0</v>
@@ -30974,14 +30981,14 @@
       </c>
     </row>
     <row r="27" ht="15.6" spans="1:16">
-      <c r="A27" s="1">
+      <c r="A27" s="23">
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>372</v>
+        <v>578</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="D27" s="10">
         <v>20</v>
@@ -31002,7 +31009,7 @@
         <v>10</v>
       </c>
       <c r="J27" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="K27" s="1">
         <v>0</v>
@@ -31024,14 +31031,14 @@
       </c>
     </row>
     <row r="28" ht="15.6" spans="1:16">
-      <c r="A28" s="1">
+      <c r="A28" s="23">
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>373</v>
+        <v>578</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="D28" s="10">
         <v>20</v>
@@ -31052,7 +31059,7 @@
         <v>10</v>
       </c>
       <c r="J28" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="K28" s="1">
         <v>0</v>
@@ -31074,14 +31081,14 @@
       </c>
     </row>
     <row r="29" ht="15.6" spans="1:16">
-      <c r="A29" s="1">
+      <c r="A29" s="23">
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>374</v>
+        <v>578</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="D29" s="10">
         <v>20</v>
@@ -31102,7 +31109,7 @@
         <v>10</v>
       </c>
       <c r="J29" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="K29" s="1">
         <v>0</v>
@@ -31124,14 +31131,14 @@
       </c>
     </row>
     <row r="30" ht="15.6" spans="1:16">
-      <c r="A30" s="1">
+      <c r="A30" s="23">
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>375</v>
+        <v>578</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="D30" s="10">
         <v>20</v>
@@ -31152,7 +31159,7 @@
         <v>10</v>
       </c>
       <c r="J30" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="K30" s="1">
         <v>0</v>
@@ -31174,14 +31181,14 @@
       </c>
     </row>
     <row r="31" ht="15.6" spans="1:16">
-      <c r="A31" s="1">
+      <c r="A31" s="23">
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>376</v>
+        <v>578</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="D31" s="10">
         <v>20</v>
@@ -31202,7 +31209,7 @@
         <v>10</v>
       </c>
       <c r="J31" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="K31" s="1">
         <v>0</v>
@@ -31223,53 +31230,53 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" ht="15.6" spans="1:16">
-      <c r="A32" s="1">
+    <row r="32" s="19" customFormat="1" ht="15.6" spans="1:16">
+      <c r="A32" s="24">
         <v>31</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>608</v>
-      </c>
-      <c r="D32" s="10">
+      <c r="B32" s="25" t="s">
+        <v>578</v>
+      </c>
+      <c r="C32" s="25" t="s">
+        <v>609</v>
+      </c>
+      <c r="D32" s="26">
         <v>20</v>
       </c>
-      <c r="E32" s="1">
-        <v>0</v>
-      </c>
-      <c r="F32" s="9">
+      <c r="E32" s="25">
+        <v>0</v>
+      </c>
+      <c r="F32" s="27">
         <v>20</v>
       </c>
-      <c r="G32" s="1">
+      <c r="G32" s="25">
         <v>5</v>
       </c>
-      <c r="H32" s="1">
-        <v>0</v>
-      </c>
-      <c r="I32" s="1">
+      <c r="H32" s="25">
+        <v>0</v>
+      </c>
+      <c r="I32" s="25">
         <v>10</v>
       </c>
-      <c r="J32" t="s">
-        <v>609</v>
-      </c>
-      <c r="K32" s="1">
-        <v>0</v>
-      </c>
-      <c r="L32" s="1">
-        <v>0</v>
-      </c>
-      <c r="M32" s="1">
-        <v>0</v>
-      </c>
-      <c r="N32" s="1">
-        <v>0</v>
-      </c>
-      <c r="O32" s="1">
-        <v>0</v>
-      </c>
-      <c r="P32" s="1">
+      <c r="J32" s="19" t="s">
+        <v>610</v>
+      </c>
+      <c r="K32" s="25">
+        <v>0</v>
+      </c>
+      <c r="L32" s="25">
+        <v>0</v>
+      </c>
+      <c r="M32" s="25">
+        <v>0</v>
+      </c>
+      <c r="N32" s="25">
+        <v>0</v>
+      </c>
+      <c r="O32" s="25">
+        <v>0</v>
+      </c>
+      <c r="P32" s="25">
         <v>0</v>
       </c>
     </row>
@@ -31278,10 +31285,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>378</v>
+        <v>578</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="D33" s="10">
         <v>15</v>
@@ -31302,7 +31309,7 @@
         <v>10</v>
       </c>
       <c r="J33" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="K33" s="1">
         <v>0</v>
@@ -31328,10 +31335,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>379</v>
+        <v>578</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="D34" s="10">
         <v>10</v>
@@ -31352,7 +31359,7 @@
         <v>10</v>
       </c>
       <c r="J34" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="K34" s="1">
         <v>0</v>
@@ -31378,10 +31385,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>380</v>
+        <v>578</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="D35" s="10">
         <v>15</v>
@@ -31402,7 +31409,7 @@
         <v>10</v>
       </c>
       <c r="J35" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="K35" s="1">
         <v>0</v>
@@ -31428,10 +31435,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>381</v>
+        <v>578</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="D36" s="10">
         <v>10</v>
@@ -31452,7 +31459,7 @@
         <v>10</v>
       </c>
       <c r="J36" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="K36" s="1">
         <v>0</v>
@@ -31478,10 +31485,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>382</v>
+        <v>578</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="D37" s="10">
         <v>10</v>
@@ -31502,7 +31509,7 @@
         <v>10</v>
       </c>
       <c r="J37" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="K37" s="1">
         <v>0</v>
@@ -31528,10 +31535,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>383</v>
+        <v>578</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="D38" s="10">
         <v>10</v>
@@ -31552,7 +31559,7 @@
         <v>10</v>
       </c>
       <c r="J38" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="K38" s="1">
         <v>0</v>
@@ -31578,10 +31585,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>384</v>
+        <v>578</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="D39" s="10">
         <v>10</v>
@@ -31602,7 +31609,7 @@
         <v>10</v>
       </c>
       <c r="J39" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="K39" s="1">
         <v>0</v>
@@ -31628,10 +31635,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>385</v>
+        <v>578</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="D40" s="10">
         <v>10</v>
@@ -31652,7 +31659,7 @@
         <v>10</v>
       </c>
       <c r="J40" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="K40" s="1">
         <v>0</v>
@@ -31678,10 +31685,10 @@
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>386</v>
+        <v>578</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="D41" s="10">
         <v>10</v>
@@ -31702,7 +31709,7 @@
         <v>10</v>
       </c>
       <c r="J41" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="K41" s="1">
         <v>0</v>
@@ -31728,10 +31735,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>387</v>
+        <v>578</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="D42" s="10">
         <v>15</v>
@@ -31752,7 +31759,7 @@
         <v>10</v>
       </c>
       <c r="J42" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="K42" s="1">
         <v>0</v>
@@ -31778,10 +31785,10 @@
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>388</v>
+        <v>578</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="D43" s="10">
         <v>10</v>
@@ -31802,7 +31809,7 @@
         <v>10</v>
       </c>
       <c r="J43" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="K43" s="1">
         <v>0</v>
@@ -31828,10 +31835,10 @@
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>389</v>
+        <v>578</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="D44" s="10">
         <v>15</v>
@@ -31852,7 +31859,7 @@
         <v>10</v>
       </c>
       <c r="J44" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="K44" s="1">
         <v>0</v>
@@ -31878,10 +31885,10 @@
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>390</v>
+        <v>578</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="D45" s="10">
         <v>10</v>
@@ -31902,7 +31909,7 @@
         <v>10</v>
       </c>
       <c r="J45" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="K45" s="1">
         <v>0</v>
@@ -31928,10 +31935,10 @@
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>391</v>
+        <v>578</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="D46" s="10">
         <v>10</v>
@@ -31952,7 +31959,7 @@
         <v>10</v>
       </c>
       <c r="J46" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="K46" s="1">
         <v>0</v>
@@ -31978,10 +31985,10 @@
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>392</v>
+        <v>578</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="D47" s="10">
         <v>15</v>
@@ -32002,7 +32009,7 @@
         <v>10</v>
       </c>
       <c r="J47" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="K47" s="1">
         <v>0</v>
@@ -32047,7 +32054,7 @@
         <v>200</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>514</v>
@@ -32064,7 +32071,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="C2" s="1">
         <v>10</v>
@@ -32081,7 +32088,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="C3" s="1">
         <v>20</v>
@@ -32105,7 +32112,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="D2" sqref="D2:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="6" outlineLevelCol="4"/>
@@ -32121,16 +32128,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="C1" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="D1" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="E1" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -32138,7 +32145,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -32155,13 +32162,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="C3">
         <v>0.75</v>
       </c>
       <c r="D3">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -32172,13 +32179,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="C4">
         <v>0.5</v>
       </c>
       <c r="D4">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -32189,13 +32196,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="C5">
         <v>0.25</v>
       </c>
       <c r="D5">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -32206,13 +32213,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -32223,7 +32230,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="C7">
         <v>2</v>

--- a/Conversion/AutoChangeJson/datasrc/111.xlsx
+++ b/Conversion/AutoChangeJson/datasrc/111.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20928" windowHeight="9960" tabRatio="812" firstSheet="11" activeTab="13"/>
+    <workbookView windowWidth="20928" windowHeight="9960" tabRatio="812" firstSheet="11" activeTab="18"/>
   </bookViews>
   <sheets>
     <sheet name="RoleTable0" sheetId="2" r:id="rId1"/>
@@ -828,7 +828,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2740" uniqueCount="980">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2746" uniqueCount="986">
   <si>
     <t>index</t>
   </si>
@@ -3786,16 +3786,34 @@
   <si>
     <t>备战位已达当前等级上限！</t>
   </si>
+  <si>
+    <t>声望不足</t>
+  </si>
+  <si>
+    <t>声望不足！</t>
+  </si>
+  <si>
+    <t>敬请期待</t>
+  </si>
+  <si>
+    <t>敬请期待！</t>
+  </si>
+  <si>
+    <t>已满级</t>
+  </si>
+  <si>
+    <t>已满级！</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="32">
     <font>
@@ -3861,23 +3879,63 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3891,47 +3949,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3943,38 +3968,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3989,13 +3984,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -4003,8 +3991,38 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4036,7 +4054,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4048,13 +4156,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4066,19 +4192,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4090,19 +4210,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4114,109 +4228,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4314,17 +4332,15 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -4341,30 +4357,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4407,16 +4399,42 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4425,140 +4443,140 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="9" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -4594,15 +4612,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -4979,9 +4992,9 @@
     <col min="4" max="4" width="16.1111111111111" style="17" customWidth="1"/>
     <col min="5" max="5" width="12.8888888888889" style="17" customWidth="1"/>
     <col min="6" max="6" width="26.4444444444444" style="17" customWidth="1"/>
-    <col min="7" max="7" width="13" style="36" customWidth="1"/>
+    <col min="7" max="7" width="13" style="31" customWidth="1"/>
     <col min="8" max="8" width="13.6666666666667" style="17" customWidth="1"/>
-    <col min="9" max="9" width="17.1111111111111" style="37" customWidth="1"/>
+    <col min="9" max="9" width="17.1111111111111" style="32" customWidth="1"/>
     <col min="10" max="10" width="17.1111111111111" style="10" customWidth="1"/>
     <col min="11" max="11" width="13.7777777777778" style="1" customWidth="1"/>
     <col min="12" max="12" width="19" style="1" customWidth="1"/>
@@ -5015,13 +5028,13 @@
       <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="38" t="s">
+      <c r="G1" s="33" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="41" t="s">
+      <c r="I1" s="36" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="10" t="s">
@@ -5065,7 +5078,7 @@
       <c r="A2" s="17">
         <v>1</v>
       </c>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="34" t="s">
         <v>21</v>
       </c>
       <c r="C2" s="17">
@@ -5080,16 +5093,16 @@
       <c r="F2" s="17">
         <v>2</v>
       </c>
-      <c r="G2" s="36">
+      <c r="G2" s="31">
         <v>43</v>
       </c>
       <c r="H2" s="17">
         <v>83</v>
       </c>
-      <c r="I2" s="37">
+      <c r="I2" s="32">
         <v>178</v>
       </c>
-      <c r="J2" s="42">
+      <c r="J2" s="37">
         <v>0</v>
       </c>
       <c r="K2" s="3">
@@ -5104,7 +5117,7 @@
       <c r="N2" s="3">
         <v>1.2</v>
       </c>
-      <c r="O2" s="43">
+      <c r="O2" s="38">
         <v>0</v>
       </c>
       <c r="P2" s="10"/>
@@ -5120,7 +5133,7 @@
       <c r="A3" s="17">
         <v>2</v>
       </c>
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="34" t="s">
         <v>23</v>
       </c>
       <c r="C3" s="17">
@@ -5135,16 +5148,16 @@
       <c r="F3" s="17">
         <v>2</v>
       </c>
-      <c r="G3" s="36">
+      <c r="G3" s="31">
         <v>44</v>
       </c>
       <c r="H3" s="17">
         <v>83</v>
       </c>
-      <c r="I3" s="37">
+      <c r="I3" s="32">
         <v>175</v>
       </c>
-      <c r="J3" s="42">
+      <c r="J3" s="37">
         <v>0</v>
       </c>
       <c r="K3" s="3">
@@ -5159,7 +5172,7 @@
       <c r="N3" s="3">
         <v>1.2</v>
       </c>
-      <c r="O3" s="43">
+      <c r="O3" s="38">
         <v>0</v>
       </c>
       <c r="P3" s="10"/>
@@ -5175,7 +5188,7 @@
       <c r="A4" s="17">
         <v>3</v>
       </c>
-      <c r="B4" s="39" t="s">
+      <c r="B4" s="34" t="s">
         <v>25</v>
       </c>
       <c r="C4" s="17">
@@ -5190,16 +5203,16 @@
       <c r="F4" s="17">
         <v>2</v>
       </c>
-      <c r="G4" s="36">
+      <c r="G4" s="31">
         <v>44</v>
       </c>
       <c r="H4" s="17">
         <v>82</v>
       </c>
-      <c r="I4" s="37">
+      <c r="I4" s="32">
         <v>177</v>
       </c>
-      <c r="J4" s="42">
+      <c r="J4" s="37">
         <v>0</v>
       </c>
       <c r="K4" s="3">
@@ -5214,7 +5227,7 @@
       <c r="N4" s="3">
         <v>1.2</v>
       </c>
-      <c r="O4" s="43">
+      <c r="O4" s="38">
         <v>0</v>
       </c>
       <c r="P4" s="10"/>
@@ -5230,7 +5243,7 @@
       <c r="A5" s="17">
         <v>4</v>
       </c>
-      <c r="B5" s="39" t="s">
+      <c r="B5" s="34" t="s">
         <v>27</v>
       </c>
       <c r="C5" s="17">
@@ -5245,16 +5258,16 @@
       <c r="F5" s="17">
         <v>3</v>
       </c>
-      <c r="G5" s="36">
+      <c r="G5" s="31">
         <v>62</v>
       </c>
       <c r="H5" s="17">
         <v>88</v>
       </c>
-      <c r="I5" s="37">
+      <c r="I5" s="32">
         <v>219</v>
       </c>
-      <c r="J5" s="42">
+      <c r="J5" s="37">
         <v>0</v>
       </c>
       <c r="K5" s="3">
@@ -5269,7 +5282,7 @@
       <c r="N5" s="3">
         <v>1.2</v>
       </c>
-      <c r="O5" s="43">
+      <c r="O5" s="38">
         <v>0</v>
       </c>
       <c r="P5" s="10"/>
@@ -5285,7 +5298,7 @@
       <c r="A6" s="17">
         <v>5</v>
       </c>
-      <c r="B6" s="39" t="s">
+      <c r="B6" s="34" t="s">
         <v>29</v>
       </c>
       <c r="C6" s="17">
@@ -5300,16 +5313,16 @@
       <c r="F6" s="17">
         <v>3</v>
       </c>
-      <c r="G6" s="36">
+      <c r="G6" s="31">
         <v>64</v>
       </c>
       <c r="H6" s="17">
         <v>87</v>
       </c>
-      <c r="I6" s="37">
+      <c r="I6" s="32">
         <v>218</v>
       </c>
-      <c r="J6" s="42">
+      <c r="J6" s="37">
         <v>0</v>
       </c>
       <c r="K6" s="3">
@@ -5324,7 +5337,7 @@
       <c r="N6" s="3">
         <v>1.2</v>
       </c>
-      <c r="O6" s="43">
+      <c r="O6" s="38">
         <v>0</v>
       </c>
       <c r="P6" s="10"/>
@@ -5340,7 +5353,7 @@
       <c r="A7" s="17">
         <v>6</v>
       </c>
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="27" t="s">
         <v>31</v>
       </c>
       <c r="C7" s="17">
@@ -5355,16 +5368,16 @@
       <c r="F7" s="17">
         <v>3</v>
       </c>
-      <c r="G7" s="36">
+      <c r="G7" s="31">
         <v>63</v>
       </c>
       <c r="H7" s="17">
         <v>86</v>
       </c>
-      <c r="I7" s="37">
+      <c r="I7" s="32">
         <v>220</v>
       </c>
-      <c r="J7" s="42">
+      <c r="J7" s="37">
         <v>0</v>
       </c>
       <c r="K7" s="3">
@@ -5379,7 +5392,7 @@
       <c r="N7" s="3">
         <v>1.2</v>
       </c>
-      <c r="O7" s="43">
+      <c r="O7" s="38">
         <v>0</v>
       </c>
       <c r="P7" s="10">
@@ -5397,7 +5410,7 @@
       <c r="A8" s="17">
         <v>7</v>
       </c>
-      <c r="B8" s="39" t="s">
+      <c r="B8" s="34" t="s">
         <v>33</v>
       </c>
       <c r="C8" s="17">
@@ -5412,16 +5425,16 @@
       <c r="F8" s="17">
         <v>4</v>
       </c>
-      <c r="G8" s="36">
+      <c r="G8" s="31">
         <v>98</v>
       </c>
       <c r="H8" s="17">
         <v>94</v>
       </c>
-      <c r="I8" s="37">
+      <c r="I8" s="32">
         <v>299</v>
       </c>
-      <c r="J8" s="42">
+      <c r="J8" s="37">
         <v>0</v>
       </c>
       <c r="K8" s="3">
@@ -5436,7 +5449,7 @@
       <c r="N8" s="3">
         <v>1.2</v>
       </c>
-      <c r="O8" s="43">
+      <c r="O8" s="38">
         <v>0</v>
       </c>
       <c r="P8" s="10">
@@ -5454,7 +5467,7 @@
       <c r="A9" s="17">
         <v>8</v>
       </c>
-      <c r="B9" s="39" t="s">
+      <c r="B9" s="34" t="s">
         <v>35</v>
       </c>
       <c r="C9" s="17">
@@ -5469,16 +5482,16 @@
       <c r="F9" s="17">
         <v>4</v>
       </c>
-      <c r="G9" s="36">
+      <c r="G9" s="31">
         <v>100</v>
       </c>
       <c r="H9" s="17">
         <v>92</v>
       </c>
-      <c r="I9" s="37">
+      <c r="I9" s="32">
         <v>300</v>
       </c>
-      <c r="J9" s="42">
+      <c r="J9" s="37">
         <v>0</v>
       </c>
       <c r="K9" s="3">
@@ -5493,7 +5506,7 @@
       <c r="N9" s="3">
         <v>1.2</v>
       </c>
-      <c r="O9" s="43">
+      <c r="O9" s="38">
         <v>0</v>
       </c>
       <c r="P9" s="10">
@@ -5511,7 +5524,7 @@
       <c r="A10" s="17">
         <v>9</v>
       </c>
-      <c r="B10" s="39" t="s">
+      <c r="B10" s="34" t="s">
         <v>37</v>
       </c>
       <c r="C10" s="17">
@@ -5526,16 +5539,16 @@
       <c r="F10" s="17">
         <v>4</v>
       </c>
-      <c r="G10" s="36">
+      <c r="G10" s="31">
         <v>98</v>
       </c>
       <c r="H10" s="17">
         <v>94</v>
       </c>
-      <c r="I10" s="37">
+      <c r="I10" s="32">
         <v>299</v>
       </c>
-      <c r="J10" s="42">
+      <c r="J10" s="37">
         <v>0</v>
       </c>
       <c r="K10" s="3">
@@ -5550,7 +5563,7 @@
       <c r="N10" s="3">
         <v>1.2</v>
       </c>
-      <c r="O10" s="43">
+      <c r="O10" s="38">
         <v>0</v>
       </c>
       <c r="P10" s="10">
@@ -5568,7 +5581,7 @@
       <c r="A11" s="17">
         <v>10</v>
       </c>
-      <c r="B11" s="40" t="s">
+      <c r="B11" s="35" t="s">
         <v>39</v>
       </c>
       <c r="C11" s="17">
@@ -5583,16 +5596,16 @@
       <c r="F11" s="17">
         <v>5</v>
       </c>
-      <c r="G11" s="36">
+      <c r="G11" s="31">
         <v>145</v>
       </c>
       <c r="H11" s="17">
         <v>94</v>
       </c>
-      <c r="I11" s="37">
+      <c r="I11" s="32">
         <v>358</v>
       </c>
-      <c r="J11" s="42">
+      <c r="J11" s="37">
         <v>0</v>
       </c>
       <c r="K11" s="3">
@@ -5607,7 +5620,7 @@
       <c r="N11" s="3">
         <v>1.2</v>
       </c>
-      <c r="O11" s="43">
+      <c r="O11" s="38">
         <v>0</v>
       </c>
       <c r="P11" s="10"/>
@@ -5623,7 +5636,7 @@
       <c r="A12" s="17">
         <v>11</v>
       </c>
-      <c r="B12" s="39" t="s">
+      <c r="B12" s="34" t="s">
         <v>41</v>
       </c>
       <c r="C12" s="17">
@@ -5638,16 +5651,16 @@
       <c r="F12" s="17">
         <v>2</v>
       </c>
-      <c r="G12" s="36">
+      <c r="G12" s="31">
         <v>43</v>
       </c>
       <c r="H12" s="17">
         <v>83</v>
       </c>
-      <c r="I12" s="37">
+      <c r="I12" s="32">
         <v>178</v>
       </c>
-      <c r="J12" s="42">
+      <c r="J12" s="37">
         <v>0</v>
       </c>
       <c r="K12" s="3">
@@ -5662,7 +5675,7 @@
       <c r="N12" s="3">
         <v>1.2</v>
       </c>
-      <c r="O12" s="43">
+      <c r="O12" s="38">
         <v>0</v>
       </c>
       <c r="P12" s="10"/>
@@ -5678,7 +5691,7 @@
       <c r="A13" s="17">
         <v>12</v>
       </c>
-      <c r="B13" s="39" t="s">
+      <c r="B13" s="34" t="s">
         <v>43</v>
       </c>
       <c r="C13" s="17">
@@ -5693,16 +5706,16 @@
       <c r="F13" s="17">
         <v>2</v>
       </c>
-      <c r="G13" s="36">
+      <c r="G13" s="31">
         <v>44</v>
       </c>
       <c r="H13" s="17">
         <v>83</v>
       </c>
-      <c r="I13" s="37">
+      <c r="I13" s="32">
         <v>175</v>
       </c>
-      <c r="J13" s="42">
+      <c r="J13" s="37">
         <v>0</v>
       </c>
       <c r="K13" s="3">
@@ -5717,7 +5730,7 @@
       <c r="N13" s="3">
         <v>1.2</v>
       </c>
-      <c r="O13" s="43">
+      <c r="O13" s="38">
         <v>0</v>
       </c>
       <c r="P13" s="10"/>
@@ -5733,7 +5746,7 @@
       <c r="A14" s="17">
         <v>13</v>
       </c>
-      <c r="B14" s="39" t="s">
+      <c r="B14" s="34" t="s">
         <v>45</v>
       </c>
       <c r="C14" s="17">
@@ -5748,16 +5761,16 @@
       <c r="F14" s="17">
         <v>2</v>
       </c>
-      <c r="G14" s="36">
+      <c r="G14" s="31">
         <v>44</v>
       </c>
       <c r="H14" s="17">
         <v>83</v>
       </c>
-      <c r="I14" s="37">
+      <c r="I14" s="32">
         <v>177</v>
       </c>
-      <c r="J14" s="42">
+      <c r="J14" s="37">
         <v>0</v>
       </c>
       <c r="K14" s="3">
@@ -5772,7 +5785,7 @@
       <c r="N14" s="3">
         <v>1.2</v>
       </c>
-      <c r="O14" s="43">
+      <c r="O14" s="38">
         <v>0</v>
       </c>
       <c r="P14" s="10"/>
@@ -5788,7 +5801,7 @@
       <c r="A15" s="17">
         <v>14</v>
       </c>
-      <c r="B15" s="39" t="s">
+      <c r="B15" s="34" t="s">
         <v>47</v>
       </c>
       <c r="C15" s="17">
@@ -5803,16 +5816,16 @@
       <c r="F15" s="17">
         <v>3</v>
       </c>
-      <c r="G15" s="36">
+      <c r="G15" s="31">
         <v>62</v>
       </c>
       <c r="H15" s="17">
         <v>88</v>
       </c>
-      <c r="I15" s="37">
+      <c r="I15" s="32">
         <v>219</v>
       </c>
-      <c r="J15" s="42">
+      <c r="J15" s="37">
         <v>0</v>
       </c>
       <c r="K15" s="3">
@@ -5827,7 +5840,7 @@
       <c r="N15" s="3">
         <v>1.2</v>
       </c>
-      <c r="O15" s="43">
+      <c r="O15" s="38">
         <v>0</v>
       </c>
       <c r="P15" s="10"/>
@@ -5843,7 +5856,7 @@
       <c r="A16" s="17">
         <v>15</v>
       </c>
-      <c r="B16" s="39" t="s">
+      <c r="B16" s="34" t="s">
         <v>49</v>
       </c>
       <c r="C16" s="17">
@@ -5858,16 +5871,16 @@
       <c r="F16" s="17">
         <v>3</v>
       </c>
-      <c r="G16" s="36">
+      <c r="G16" s="31">
         <v>63</v>
       </c>
       <c r="H16" s="17">
         <v>87</v>
       </c>
-      <c r="I16" s="37">
+      <c r="I16" s="32">
         <v>218</v>
       </c>
-      <c r="J16" s="42">
+      <c r="J16" s="37">
         <v>0</v>
       </c>
       <c r="K16" s="3">
@@ -5882,7 +5895,7 @@
       <c r="N16" s="3">
         <v>1.2</v>
       </c>
-      <c r="O16" s="43">
+      <c r="O16" s="38">
         <v>0</v>
       </c>
       <c r="P16" s="10"/>
@@ -5898,7 +5911,7 @@
       <c r="A17" s="17">
         <v>16</v>
       </c>
-      <c r="B17" s="39" t="s">
+      <c r="B17" s="34" t="s">
         <v>51</v>
       </c>
       <c r="C17" s="17">
@@ -5913,16 +5926,16 @@
       <c r="F17" s="17">
         <v>3</v>
       </c>
-      <c r="G17" s="36">
+      <c r="G17" s="31">
         <v>64</v>
       </c>
       <c r="H17" s="17">
         <v>87</v>
       </c>
-      <c r="I17" s="37">
+      <c r="I17" s="32">
         <v>218</v>
       </c>
-      <c r="J17" s="42">
+      <c r="J17" s="37">
         <v>0</v>
       </c>
       <c r="K17" s="3">
@@ -5937,7 +5950,7 @@
       <c r="N17" s="3">
         <v>1.2</v>
       </c>
-      <c r="O17" s="43">
+      <c r="O17" s="38">
         <v>0</v>
       </c>
       <c r="P17" s="10">
@@ -5955,7 +5968,7 @@
       <c r="A18" s="17">
         <v>17</v>
       </c>
-      <c r="B18" s="39" t="s">
+      <c r="B18" s="34" t="s">
         <v>53</v>
       </c>
       <c r="C18" s="17">
@@ -5970,16 +5983,16 @@
       <c r="F18" s="17">
         <v>4</v>
       </c>
-      <c r="G18" s="36">
+      <c r="G18" s="31">
         <v>100</v>
       </c>
       <c r="H18" s="17">
         <v>94</v>
       </c>
-      <c r="I18" s="37">
+      <c r="I18" s="32">
         <v>300</v>
       </c>
-      <c r="J18" s="42">
+      <c r="J18" s="37">
         <v>0</v>
       </c>
       <c r="K18" s="3">
@@ -5994,7 +6007,7 @@
       <c r="N18" s="3">
         <v>1.2</v>
       </c>
-      <c r="O18" s="43">
+      <c r="O18" s="38">
         <v>0</v>
       </c>
       <c r="P18" s="10">
@@ -6012,7 +6025,7 @@
       <c r="A19" s="17">
         <v>18</v>
       </c>
-      <c r="B19" s="39" t="s">
+      <c r="B19" s="34" t="s">
         <v>55</v>
       </c>
       <c r="C19" s="17">
@@ -6027,16 +6040,16 @@
       <c r="F19" s="17">
         <v>4</v>
       </c>
-      <c r="G19" s="36">
+      <c r="G19" s="31">
         <v>98</v>
       </c>
       <c r="H19" s="17">
         <v>94</v>
       </c>
-      <c r="I19" s="37">
+      <c r="I19" s="32">
         <v>299</v>
       </c>
-      <c r="J19" s="42">
+      <c r="J19" s="37">
         <v>0</v>
       </c>
       <c r="K19" s="3">
@@ -6051,7 +6064,7 @@
       <c r="N19" s="3">
         <v>1.2</v>
       </c>
-      <c r="O19" s="43">
+      <c r="O19" s="38">
         <v>0</v>
       </c>
       <c r="P19" s="10">
@@ -6069,7 +6082,7 @@
       <c r="A20" s="17">
         <v>19</v>
       </c>
-      <c r="B20" s="40" t="s">
+      <c r="B20" s="35" t="s">
         <v>57</v>
       </c>
       <c r="C20" s="17">
@@ -6084,16 +6097,16 @@
       <c r="F20" s="17">
         <v>5</v>
       </c>
-      <c r="G20" s="36">
+      <c r="G20" s="31">
         <v>145</v>
       </c>
       <c r="H20" s="17">
         <v>94</v>
       </c>
-      <c r="I20" s="37">
+      <c r="I20" s="32">
         <v>358</v>
       </c>
-      <c r="J20" s="42">
+      <c r="J20" s="37">
         <v>0</v>
       </c>
       <c r="K20" s="3">
@@ -6108,7 +6121,7 @@
       <c r="N20" s="3">
         <v>1.2</v>
       </c>
-      <c r="O20" s="43">
+      <c r="O20" s="38">
         <v>0</v>
       </c>
       <c r="P20" s="10"/>
@@ -6124,7 +6137,7 @@
       <c r="A21" s="17">
         <v>20</v>
       </c>
-      <c r="B21" s="39" t="s">
+      <c r="B21" s="34" t="s">
         <v>59</v>
       </c>
       <c r="C21" s="17">
@@ -6139,16 +6152,16 @@
       <c r="F21" s="17">
         <v>2</v>
       </c>
-      <c r="G21" s="36">
+      <c r="G21" s="31">
         <v>43</v>
       </c>
       <c r="H21" s="17">
         <v>83</v>
       </c>
-      <c r="I21" s="37">
+      <c r="I21" s="32">
         <v>178</v>
       </c>
-      <c r="J21" s="42">
+      <c r="J21" s="37">
         <v>0</v>
       </c>
       <c r="K21" s="3">
@@ -6163,7 +6176,7 @@
       <c r="N21" s="3">
         <v>1.2</v>
       </c>
-      <c r="O21" s="43">
+      <c r="O21" s="38">
         <v>0</v>
       </c>
       <c r="P21" s="10"/>
@@ -6179,7 +6192,7 @@
       <c r="A22" s="17">
         <v>21</v>
       </c>
-      <c r="B22" s="39" t="s">
+      <c r="B22" s="34" t="s">
         <v>61</v>
       </c>
       <c r="C22" s="17">
@@ -6194,16 +6207,16 @@
       <c r="F22" s="17">
         <v>2</v>
       </c>
-      <c r="G22" s="36">
+      <c r="G22" s="31">
         <v>44</v>
       </c>
       <c r="H22" s="17">
         <v>83</v>
       </c>
-      <c r="I22" s="37">
+      <c r="I22" s="32">
         <v>175</v>
       </c>
-      <c r="J22" s="42">
+      <c r="J22" s="37">
         <v>0</v>
       </c>
       <c r="K22" s="3">
@@ -6218,7 +6231,7 @@
       <c r="N22" s="3">
         <v>1.2</v>
       </c>
-      <c r="O22" s="43">
+      <c r="O22" s="38">
         <v>0</v>
       </c>
       <c r="P22" s="10"/>
@@ -6234,7 +6247,7 @@
       <c r="A23" s="17">
         <v>22</v>
       </c>
-      <c r="B23" s="39" t="s">
+      <c r="B23" s="34" t="s">
         <v>63</v>
       </c>
       <c r="C23" s="17">
@@ -6249,16 +6262,16 @@
       <c r="F23" s="17">
         <v>2</v>
       </c>
-      <c r="G23" s="36">
+      <c r="G23" s="31">
         <v>44</v>
       </c>
       <c r="H23" s="17">
         <v>81</v>
       </c>
-      <c r="I23" s="37">
+      <c r="I23" s="32">
         <v>177</v>
       </c>
-      <c r="J23" s="42">
+      <c r="J23" s="37">
         <v>0</v>
       </c>
       <c r="K23" s="3">
@@ -6273,7 +6286,7 @@
       <c r="N23" s="3">
         <v>1.2</v>
       </c>
-      <c r="O23" s="43">
+      <c r="O23" s="38">
         <v>0</v>
       </c>
       <c r="P23" s="10"/>
@@ -6289,7 +6302,7 @@
       <c r="A24" s="17">
         <v>23</v>
       </c>
-      <c r="B24" s="39" t="s">
+      <c r="B24" s="34" t="s">
         <v>65</v>
       </c>
       <c r="C24" s="17">
@@ -6304,16 +6317,16 @@
       <c r="F24" s="17">
         <v>3</v>
       </c>
-      <c r="G24" s="36">
+      <c r="G24" s="31">
         <v>62</v>
       </c>
       <c r="H24" s="17">
         <v>88</v>
       </c>
-      <c r="I24" s="37">
+      <c r="I24" s="32">
         <v>219</v>
       </c>
-      <c r="J24" s="42">
+      <c r="J24" s="37">
         <v>0</v>
       </c>
       <c r="K24" s="3">
@@ -6328,7 +6341,7 @@
       <c r="N24" s="3">
         <v>1.2</v>
       </c>
-      <c r="O24" s="43">
+      <c r="O24" s="38">
         <v>0</v>
       </c>
       <c r="P24" s="10"/>
@@ -6344,7 +6357,7 @@
       <c r="A25" s="17">
         <v>24</v>
       </c>
-      <c r="B25" s="39" t="s">
+      <c r="B25" s="34" t="s">
         <v>67</v>
       </c>
       <c r="C25" s="17">
@@ -6359,16 +6372,16 @@
       <c r="F25" s="17">
         <v>3</v>
       </c>
-      <c r="G25" s="36">
+      <c r="G25" s="31">
         <v>63</v>
       </c>
       <c r="H25" s="17">
         <v>87</v>
       </c>
-      <c r="I25" s="37">
+      <c r="I25" s="32">
         <v>220</v>
       </c>
-      <c r="J25" s="42">
+      <c r="J25" s="37">
         <v>0</v>
       </c>
       <c r="K25" s="3">
@@ -6383,7 +6396,7 @@
       <c r="N25" s="3">
         <v>1.2</v>
       </c>
-      <c r="O25" s="43">
+      <c r="O25" s="38">
         <v>0</v>
       </c>
       <c r="P25" s="10"/>
@@ -6399,7 +6412,7 @@
       <c r="A26" s="17">
         <v>25</v>
       </c>
-      <c r="B26" s="39" t="s">
+      <c r="B26" s="34" t="s">
         <v>69</v>
       </c>
       <c r="C26" s="17">
@@ -6414,16 +6427,16 @@
       <c r="F26" s="17">
         <v>3</v>
       </c>
-      <c r="G26" s="36">
+      <c r="G26" s="31">
         <v>64</v>
       </c>
       <c r="H26" s="17">
         <v>87</v>
       </c>
-      <c r="I26" s="37">
+      <c r="I26" s="32">
         <v>218</v>
       </c>
-      <c r="J26" s="42">
+      <c r="J26" s="37">
         <v>0</v>
       </c>
       <c r="K26" s="3">
@@ -6438,7 +6451,7 @@
       <c r="N26" s="3">
         <v>1.2</v>
       </c>
-      <c r="O26" s="43">
+      <c r="O26" s="38">
         <v>0</v>
       </c>
       <c r="P26" s="10">
@@ -6456,7 +6469,7 @@
       <c r="A27" s="17">
         <v>26</v>
       </c>
-      <c r="B27" s="39" t="s">
+      <c r="B27" s="34" t="s">
         <v>71</v>
       </c>
       <c r="C27" s="17">
@@ -6471,16 +6484,16 @@
       <c r="F27" s="17">
         <v>4</v>
       </c>
-      <c r="G27" s="36">
+      <c r="G27" s="31">
         <v>98</v>
       </c>
       <c r="H27" s="17">
         <v>94</v>
       </c>
-      <c r="I27" s="37">
+      <c r="I27" s="32">
         <v>300</v>
       </c>
-      <c r="J27" s="42">
+      <c r="J27" s="37">
         <v>0</v>
       </c>
       <c r="K27" s="3">
@@ -6495,7 +6508,7 @@
       <c r="N27" s="3">
         <v>1.2</v>
       </c>
-      <c r="O27" s="43">
+      <c r="O27" s="38">
         <v>0</v>
       </c>
       <c r="P27" s="10">
@@ -6513,7 +6526,7 @@
       <c r="A28" s="17">
         <v>27</v>
       </c>
-      <c r="B28" s="39" t="s">
+      <c r="B28" s="34" t="s">
         <v>73</v>
       </c>
       <c r="C28" s="17">
@@ -6528,16 +6541,16 @@
       <c r="F28" s="17">
         <v>4</v>
       </c>
-      <c r="G28" s="36">
+      <c r="G28" s="31">
         <v>100</v>
       </c>
       <c r="H28" s="17">
         <v>94</v>
       </c>
-      <c r="I28" s="37">
+      <c r="I28" s="32">
         <v>299</v>
       </c>
-      <c r="J28" s="42">
+      <c r="J28" s="37">
         <v>0</v>
       </c>
       <c r="K28" s="3">
@@ -6552,7 +6565,7 @@
       <c r="N28" s="3">
         <v>1.2</v>
       </c>
-      <c r="O28" s="43">
+      <c r="O28" s="38">
         <v>0</v>
       </c>
       <c r="P28" s="10">
@@ -6570,7 +6583,7 @@
       <c r="A29" s="17">
         <v>28</v>
       </c>
-      <c r="B29" s="40" t="s">
+      <c r="B29" s="35" t="s">
         <v>75</v>
       </c>
       <c r="C29" s="17">
@@ -6585,16 +6598,16 @@
       <c r="F29" s="17">
         <v>5</v>
       </c>
-      <c r="G29" s="36">
+      <c r="G29" s="31">
         <v>145</v>
       </c>
       <c r="H29" s="17">
         <v>94</v>
       </c>
-      <c r="I29" s="37">
+      <c r="I29" s="32">
         <v>358</v>
       </c>
-      <c r="J29" s="42">
+      <c r="J29" s="37">
         <v>0</v>
       </c>
       <c r="K29" s="3">
@@ -6609,7 +6622,7 @@
       <c r="N29" s="3">
         <v>1.2</v>
       </c>
-      <c r="O29" s="43">
+      <c r="O29" s="38">
         <v>0</v>
       </c>
       <c r="P29" s="10"/>
@@ -6625,7 +6638,7 @@
       <c r="A30" s="17">
         <v>29</v>
       </c>
-      <c r="B30" s="39" t="s">
+      <c r="B30" s="34" t="s">
         <v>77</v>
       </c>
       <c r="C30" s="17">
@@ -6640,16 +6653,16 @@
       <c r="F30" s="17">
         <v>2</v>
       </c>
-      <c r="G30" s="36">
+      <c r="G30" s="31">
         <v>67</v>
       </c>
       <c r="H30" s="17">
         <v>58</v>
       </c>
-      <c r="I30" s="37">
+      <c r="I30" s="32">
         <v>123</v>
       </c>
-      <c r="J30" s="42">
+      <c r="J30" s="37">
         <v>0</v>
       </c>
       <c r="K30" s="3">
@@ -6664,7 +6677,7 @@
       <c r="N30" s="3">
         <v>1.2</v>
       </c>
-      <c r="O30" s="43">
+      <c r="O30" s="38">
         <v>0</v>
       </c>
       <c r="P30" s="10"/>
@@ -6680,7 +6693,7 @@
       <c r="A31" s="17">
         <v>30</v>
       </c>
-      <c r="B31" s="39" t="s">
+      <c r="B31" s="34" t="s">
         <v>79</v>
       </c>
       <c r="C31" s="17">
@@ -6695,16 +6708,16 @@
       <c r="F31" s="17">
         <v>2</v>
       </c>
-      <c r="G31" s="36">
+      <c r="G31" s="31">
         <v>68</v>
       </c>
       <c r="H31" s="17">
         <v>57</v>
       </c>
-      <c r="I31" s="37">
+      <c r="I31" s="32">
         <v>125</v>
       </c>
-      <c r="J31" s="42">
+      <c r="J31" s="37">
         <v>0</v>
       </c>
       <c r="K31" s="3">
@@ -6719,7 +6732,7 @@
       <c r="N31" s="3">
         <v>1.2</v>
       </c>
-      <c r="O31" s="43">
+      <c r="O31" s="38">
         <v>0</v>
       </c>
       <c r="P31" s="10"/>
@@ -6735,7 +6748,7 @@
       <c r="A32" s="17">
         <v>31</v>
       </c>
-      <c r="B32" s="39" t="s">
+      <c r="B32" s="34" t="s">
         <v>81</v>
       </c>
       <c r="C32" s="17">
@@ -6750,16 +6763,16 @@
       <c r="F32" s="17">
         <v>2</v>
       </c>
-      <c r="G32" s="36">
+      <c r="G32" s="31">
         <v>68</v>
       </c>
       <c r="H32" s="17">
         <v>56</v>
       </c>
-      <c r="I32" s="37">
+      <c r="I32" s="32">
         <v>124</v>
       </c>
-      <c r="J32" s="42">
+      <c r="J32" s="37">
         <v>0</v>
       </c>
       <c r="K32" s="3">
@@ -6774,7 +6787,7 @@
       <c r="N32" s="3">
         <v>1.2</v>
       </c>
-      <c r="O32" s="43">
+      <c r="O32" s="38">
         <v>0</v>
       </c>
       <c r="P32" s="10"/>
@@ -6790,7 +6803,7 @@
       <c r="A33" s="17">
         <v>32</v>
       </c>
-      <c r="B33" s="39" t="s">
+      <c r="B33" s="34" t="s">
         <v>83</v>
       </c>
       <c r="C33" s="17">
@@ -6805,16 +6818,16 @@
       <c r="F33" s="17">
         <v>3</v>
       </c>
-      <c r="G33" s="36">
+      <c r="G33" s="31">
         <v>90</v>
       </c>
       <c r="H33" s="17">
         <v>60</v>
       </c>
-      <c r="I33" s="37">
+      <c r="I33" s="32">
         <v>160</v>
       </c>
-      <c r="J33" s="42">
+      <c r="J33" s="37">
         <v>0</v>
       </c>
       <c r="K33" s="3">
@@ -6829,7 +6842,7 @@
       <c r="N33" s="3">
         <v>1.2</v>
       </c>
-      <c r="O33" s="43">
+      <c r="O33" s="38">
         <v>0</v>
       </c>
       <c r="P33" s="10"/>
@@ -6845,7 +6858,7 @@
       <c r="A34" s="17">
         <v>33</v>
       </c>
-      <c r="B34" s="39" t="s">
+      <c r="B34" s="34" t="s">
         <v>85</v>
       </c>
       <c r="C34" s="17">
@@ -6860,16 +6873,16 @@
       <c r="F34" s="17">
         <v>3</v>
       </c>
-      <c r="G34" s="36">
+      <c r="G34" s="31">
         <v>89</v>
       </c>
       <c r="H34" s="17">
         <v>62</v>
       </c>
-      <c r="I34" s="37">
+      <c r="I34" s="32">
         <v>160</v>
       </c>
-      <c r="J34" s="42">
+      <c r="J34" s="37">
         <v>0</v>
       </c>
       <c r="K34" s="3">
@@ -6884,7 +6897,7 @@
       <c r="N34" s="3">
         <v>1.2</v>
       </c>
-      <c r="O34" s="43">
+      <c r="O34" s="38">
         <v>0</v>
       </c>
       <c r="P34" s="10"/>
@@ -6900,7 +6913,7 @@
       <c r="A35" s="17">
         <v>34</v>
       </c>
-      <c r="B35" s="39" t="s">
+      <c r="B35" s="34" t="s">
         <v>87</v>
       </c>
       <c r="C35" s="17">
@@ -6915,16 +6928,16 @@
       <c r="F35" s="17">
         <v>3</v>
       </c>
-      <c r="G35" s="36">
+      <c r="G35" s="31">
         <v>87</v>
       </c>
       <c r="H35" s="17">
         <v>63</v>
       </c>
-      <c r="I35" s="37">
+      <c r="I35" s="32">
         <v>161</v>
       </c>
-      <c r="J35" s="42">
+      <c r="J35" s="37">
         <v>0</v>
       </c>
       <c r="K35" s="3">
@@ -6939,7 +6952,7 @@
       <c r="N35" s="3">
         <v>1.2</v>
       </c>
-      <c r="O35" s="43">
+      <c r="O35" s="38">
         <v>0</v>
       </c>
       <c r="P35" s="10">
@@ -6957,7 +6970,7 @@
       <c r="A36" s="17">
         <v>35</v>
       </c>
-      <c r="B36" s="39" t="s">
+      <c r="B36" s="34" t="s">
         <v>89</v>
       </c>
       <c r="C36" s="17">
@@ -6972,16 +6985,16 @@
       <c r="F36" s="17">
         <v>4</v>
       </c>
-      <c r="G36" s="36">
+      <c r="G36" s="31">
         <v>129</v>
       </c>
       <c r="H36" s="17">
         <v>65</v>
       </c>
-      <c r="I36" s="37">
+      <c r="I36" s="32">
         <v>243</v>
       </c>
-      <c r="J36" s="42">
+      <c r="J36" s="37">
         <v>0</v>
       </c>
       <c r="K36" s="3">
@@ -6996,7 +7009,7 @@
       <c r="N36" s="3">
         <v>1.2</v>
       </c>
-      <c r="O36" s="43">
+      <c r="O36" s="38">
         <v>0</v>
       </c>
       <c r="P36" s="10">
@@ -7014,7 +7027,7 @@
       <c r="A37" s="17">
         <v>36</v>
       </c>
-      <c r="B37" s="39" t="s">
+      <c r="B37" s="34" t="s">
         <v>91</v>
       </c>
       <c r="C37" s="17">
@@ -7029,16 +7042,16 @@
       <c r="F37" s="17">
         <v>4</v>
       </c>
-      <c r="G37" s="36">
+      <c r="G37" s="31">
         <v>128</v>
       </c>
       <c r="H37" s="17">
         <v>66</v>
       </c>
-      <c r="I37" s="37">
+      <c r="I37" s="32">
         <v>242</v>
       </c>
-      <c r="J37" s="42">
+      <c r="J37" s="37">
         <v>0</v>
       </c>
       <c r="K37" s="3">
@@ -7053,7 +7066,7 @@
       <c r="N37" s="3">
         <v>1.2</v>
       </c>
-      <c r="O37" s="43">
+      <c r="O37" s="38">
         <v>0</v>
       </c>
       <c r="P37" s="10">
@@ -7071,7 +7084,7 @@
       <c r="A38" s="17">
         <v>37</v>
       </c>
-      <c r="B38" s="40" t="s">
+      <c r="B38" s="35" t="s">
         <v>93</v>
       </c>
       <c r="C38" s="17">
@@ -7086,16 +7099,16 @@
       <c r="F38" s="17">
         <v>5</v>
       </c>
-      <c r="G38" s="36">
+      <c r="G38" s="31">
         <v>169</v>
       </c>
       <c r="H38" s="17">
         <v>70</v>
       </c>
-      <c r="I38" s="37">
+      <c r="I38" s="32">
         <v>322</v>
       </c>
-      <c r="J38" s="42">
+      <c r="J38" s="37">
         <v>0</v>
       </c>
       <c r="K38" s="3">
@@ -7110,7 +7123,7 @@
       <c r="N38" s="3">
         <v>1.2</v>
       </c>
-      <c r="O38" s="43">
+      <c r="O38" s="38">
         <v>0</v>
       </c>
       <c r="P38" s="10"/>
@@ -7126,7 +7139,7 @@
       <c r="A39" s="17">
         <v>38</v>
       </c>
-      <c r="B39" s="39" t="s">
+      <c r="B39" s="34" t="s">
         <v>95</v>
       </c>
       <c r="C39" s="17">
@@ -7141,16 +7154,16 @@
       <c r="F39" s="17">
         <v>2</v>
       </c>
-      <c r="G39" s="36">
+      <c r="G39" s="31">
         <v>67</v>
       </c>
       <c r="H39" s="17">
         <v>58</v>
       </c>
-      <c r="I39" s="37">
+      <c r="I39" s="32">
         <v>123</v>
       </c>
-      <c r="J39" s="42">
+      <c r="J39" s="37">
         <v>0</v>
       </c>
       <c r="K39" s="3">
@@ -7165,7 +7178,7 @@
       <c r="N39" s="3">
         <v>1.2</v>
       </c>
-      <c r="O39" s="43">
+      <c r="O39" s="38">
         <v>0</v>
       </c>
       <c r="P39" s="10"/>
@@ -7181,7 +7194,7 @@
       <c r="A40" s="17">
         <v>39</v>
       </c>
-      <c r="B40" s="39" t="s">
+      <c r="B40" s="34" t="s">
         <v>97</v>
       </c>
       <c r="C40" s="17">
@@ -7196,16 +7209,16 @@
       <c r="F40" s="17">
         <v>2</v>
       </c>
-      <c r="G40" s="36">
+      <c r="G40" s="31">
         <v>68</v>
       </c>
       <c r="H40" s="17">
         <v>56</v>
       </c>
-      <c r="I40" s="37">
+      <c r="I40" s="32">
         <v>124</v>
       </c>
-      <c r="J40" s="42">
+      <c r="J40" s="37">
         <v>0</v>
       </c>
       <c r="K40" s="3">
@@ -7220,7 +7233,7 @@
       <c r="N40" s="3">
         <v>1.2</v>
       </c>
-      <c r="O40" s="43">
+      <c r="O40" s="38">
         <v>0</v>
       </c>
       <c r="P40" s="10"/>
@@ -7236,7 +7249,7 @@
       <c r="A41" s="17">
         <v>40</v>
       </c>
-      <c r="B41" s="39" t="s">
+      <c r="B41" s="34" t="s">
         <v>99</v>
       </c>
       <c r="C41" s="17">
@@ -7251,16 +7264,16 @@
       <c r="F41" s="17">
         <v>2</v>
       </c>
-      <c r="G41" s="36">
+      <c r="G41" s="31">
         <v>70</v>
       </c>
       <c r="H41" s="17">
         <v>55</v>
       </c>
-      <c r="I41" s="37">
+      <c r="I41" s="32">
         <v>124</v>
       </c>
-      <c r="J41" s="42">
+      <c r="J41" s="37">
         <v>0</v>
       </c>
       <c r="K41" s="3">
@@ -7275,7 +7288,7 @@
       <c r="N41" s="3">
         <v>1.2</v>
       </c>
-      <c r="O41" s="43">
+      <c r="O41" s="38">
         <v>0</v>
       </c>
       <c r="P41" s="10"/>
@@ -7291,7 +7304,7 @@
       <c r="A42" s="17">
         <v>41</v>
       </c>
-      <c r="B42" s="39" t="s">
+      <c r="B42" s="34" t="s">
         <v>101</v>
       </c>
       <c r="C42" s="17">
@@ -7306,16 +7319,16 @@
       <c r="F42" s="17">
         <v>3</v>
       </c>
-      <c r="G42" s="36">
+      <c r="G42" s="31">
         <v>90</v>
       </c>
       <c r="H42" s="17">
         <v>60</v>
       </c>
-      <c r="I42" s="37">
+      <c r="I42" s="32">
         <v>160</v>
       </c>
-      <c r="J42" s="42">
+      <c r="J42" s="37">
         <v>0</v>
       </c>
       <c r="K42" s="3">
@@ -7330,7 +7343,7 @@
       <c r="N42" s="3">
         <v>1.2</v>
       </c>
-      <c r="O42" s="43">
+      <c r="O42" s="38">
         <v>0</v>
       </c>
       <c r="P42" s="10"/>
@@ -7346,7 +7359,7 @@
       <c r="A43" s="17">
         <v>42</v>
       </c>
-      <c r="B43" s="39" t="s">
+      <c r="B43" s="34" t="s">
         <v>103</v>
       </c>
       <c r="C43" s="17">
@@ -7361,16 +7374,16 @@
       <c r="F43" s="17">
         <v>3</v>
       </c>
-      <c r="G43" s="36">
+      <c r="G43" s="31">
         <v>89</v>
       </c>
       <c r="H43" s="17">
         <v>62</v>
       </c>
-      <c r="I43" s="37">
+      <c r="I43" s="32">
         <v>160</v>
       </c>
-      <c r="J43" s="42">
+      <c r="J43" s="37">
         <v>0</v>
       </c>
       <c r="K43" s="3">
@@ -7385,7 +7398,7 @@
       <c r="N43" s="3">
         <v>1.2</v>
       </c>
-      <c r="O43" s="43">
+      <c r="O43" s="38">
         <v>0</v>
       </c>
       <c r="P43" s="10"/>
@@ -7401,7 +7414,7 @@
       <c r="A44" s="17">
         <v>43</v>
       </c>
-      <c r="B44" s="39" t="s">
+      <c r="B44" s="34" t="s">
         <v>105</v>
       </c>
       <c r="C44" s="17">
@@ -7416,16 +7429,16 @@
       <c r="F44" s="17">
         <v>3</v>
       </c>
-      <c r="G44" s="36">
+      <c r="G44" s="31">
         <v>87</v>
       </c>
       <c r="H44" s="17">
         <v>63</v>
       </c>
-      <c r="I44" s="37">
+      <c r="I44" s="32">
         <v>161</v>
       </c>
-      <c r="J44" s="42">
+      <c r="J44" s="37">
         <v>0</v>
       </c>
       <c r="K44" s="3">
@@ -7440,7 +7453,7 @@
       <c r="N44" s="3">
         <v>1.2</v>
       </c>
-      <c r="O44" s="43">
+      <c r="O44" s="38">
         <v>0</v>
       </c>
       <c r="P44" s="10">
@@ -7458,7 +7471,7 @@
       <c r="A45" s="17">
         <v>44</v>
       </c>
-      <c r="B45" s="39" t="s">
+      <c r="B45" s="34" t="s">
         <v>107</v>
       </c>
       <c r="C45" s="17">
@@ -7473,16 +7486,16 @@
       <c r="F45" s="17">
         <v>4</v>
       </c>
-      <c r="G45" s="36">
+      <c r="G45" s="31">
         <v>129</v>
       </c>
       <c r="H45" s="17">
         <v>65</v>
       </c>
-      <c r="I45" s="37">
+      <c r="I45" s="32">
         <v>243</v>
       </c>
-      <c r="J45" s="42">
+      <c r="J45" s="37">
         <v>0</v>
       </c>
       <c r="K45" s="3">
@@ -7497,7 +7510,7 @@
       <c r="N45" s="3">
         <v>1.2</v>
       </c>
-      <c r="O45" s="43">
+      <c r="O45" s="38">
         <v>0</v>
       </c>
       <c r="P45" s="10">
@@ -7515,7 +7528,7 @@
       <c r="A46" s="17">
         <v>45</v>
       </c>
-      <c r="B46" s="39" t="s">
+      <c r="B46" s="34" t="s">
         <v>109</v>
       </c>
       <c r="C46" s="17">
@@ -7530,16 +7543,16 @@
       <c r="F46" s="17">
         <v>4</v>
       </c>
-      <c r="G46" s="36">
+      <c r="G46" s="31">
         <v>128</v>
       </c>
       <c r="H46" s="17">
         <v>66</v>
       </c>
-      <c r="I46" s="37">
+      <c r="I46" s="32">
         <v>242</v>
       </c>
-      <c r="J46" s="42">
+      <c r="J46" s="37">
         <v>0</v>
       </c>
       <c r="K46" s="3">
@@ -7554,7 +7567,7 @@
       <c r="N46" s="3">
         <v>1.2</v>
       </c>
-      <c r="O46" s="43">
+      <c r="O46" s="38">
         <v>0</v>
       </c>
       <c r="P46" s="10">
@@ -7572,7 +7585,7 @@
       <c r="A47" s="17">
         <v>46</v>
       </c>
-      <c r="B47" s="40" t="s">
+      <c r="B47" s="35" t="s">
         <v>111</v>
       </c>
       <c r="C47" s="17">
@@ -7587,16 +7600,16 @@
       <c r="F47" s="17">
         <v>5</v>
       </c>
-      <c r="G47" s="36">
+      <c r="G47" s="31">
         <v>169</v>
       </c>
       <c r="H47" s="17">
         <v>70</v>
       </c>
-      <c r="I47" s="37">
+      <c r="I47" s="32">
         <v>322</v>
       </c>
-      <c r="J47" s="42">
+      <c r="J47" s="37">
         <v>0</v>
       </c>
       <c r="K47" s="3">
@@ -7611,7 +7624,7 @@
       <c r="N47" s="3">
         <v>1.2</v>
       </c>
-      <c r="O47" s="43">
+      <c r="O47" s="38">
         <v>0</v>
       </c>
       <c r="P47" s="10"/>
@@ -7627,7 +7640,7 @@
       <c r="A48" s="17">
         <v>47</v>
       </c>
-      <c r="B48" s="39" t="s">
+      <c r="B48" s="34" t="s">
         <v>113</v>
       </c>
       <c r="C48" s="17">
@@ -7642,16 +7655,16 @@
       <c r="F48" s="17">
         <v>2</v>
       </c>
-      <c r="G48" s="36">
+      <c r="G48" s="31">
         <v>67</v>
       </c>
       <c r="H48" s="17">
         <v>58</v>
       </c>
-      <c r="I48" s="37">
+      <c r="I48" s="32">
         <v>123</v>
       </c>
-      <c r="J48" s="42">
+      <c r="J48" s="37">
         <v>0</v>
       </c>
       <c r="K48" s="3">
@@ -7666,7 +7679,7 @@
       <c r="N48" s="3">
         <v>1.2</v>
       </c>
-      <c r="O48" s="43">
+      <c r="O48" s="38">
         <v>0</v>
       </c>
       <c r="P48" s="10"/>
@@ -7682,7 +7695,7 @@
       <c r="A49" s="17">
         <v>48</v>
       </c>
-      <c r="B49" s="39" t="s">
+      <c r="B49" s="34" t="s">
         <v>115</v>
       </c>
       <c r="C49" s="17">
@@ -7697,16 +7710,16 @@
       <c r="F49" s="17">
         <v>2</v>
       </c>
-      <c r="G49" s="36">
+      <c r="G49" s="31">
         <v>70</v>
       </c>
       <c r="H49" s="17">
         <v>55</v>
       </c>
-      <c r="I49" s="37">
+      <c r="I49" s="32">
         <v>124</v>
       </c>
-      <c r="J49" s="42">
+      <c r="J49" s="37">
         <v>0</v>
       </c>
       <c r="K49" s="3">
@@ -7721,7 +7734,7 @@
       <c r="N49" s="3">
         <v>1.2</v>
       </c>
-      <c r="O49" s="43">
+      <c r="O49" s="38">
         <v>0</v>
       </c>
       <c r="P49" s="10"/>
@@ -7737,7 +7750,7 @@
       <c r="A50" s="17">
         <v>49</v>
       </c>
-      <c r="B50" s="39" t="s">
+      <c r="B50" s="34" t="s">
         <v>117</v>
       </c>
       <c r="C50" s="17">
@@ -7752,16 +7765,16 @@
       <c r="F50" s="17">
         <v>2</v>
       </c>
-      <c r="G50" s="36">
+      <c r="G50" s="31">
         <v>68</v>
       </c>
       <c r="H50" s="17">
         <v>56</v>
       </c>
-      <c r="I50" s="37">
+      <c r="I50" s="32">
         <v>124</v>
       </c>
-      <c r="J50" s="42">
+      <c r="J50" s="37">
         <v>0</v>
       </c>
       <c r="K50" s="3">
@@ -7776,7 +7789,7 @@
       <c r="N50" s="3">
         <v>1.2</v>
       </c>
-      <c r="O50" s="43">
+      <c r="O50" s="38">
         <v>0</v>
       </c>
       <c r="P50" s="10"/>
@@ -7792,7 +7805,7 @@
       <c r="A51" s="17">
         <v>50</v>
       </c>
-      <c r="B51" s="39" t="s">
+      <c r="B51" s="34" t="s">
         <v>119</v>
       </c>
       <c r="C51" s="17">
@@ -7807,16 +7820,16 @@
       <c r="F51" s="17">
         <v>3</v>
       </c>
-      <c r="G51" s="36">
+      <c r="G51" s="31">
         <v>90</v>
       </c>
       <c r="H51" s="17">
         <v>61</v>
       </c>
-      <c r="I51" s="37">
+      <c r="I51" s="32">
         <v>160</v>
       </c>
-      <c r="J51" s="42">
+      <c r="J51" s="37">
         <v>0</v>
       </c>
       <c r="K51" s="3">
@@ -7831,7 +7844,7 @@
       <c r="N51" s="3">
         <v>1.2</v>
       </c>
-      <c r="O51" s="43">
+      <c r="O51" s="38">
         <v>0</v>
       </c>
       <c r="P51" s="10"/>
@@ -7847,7 +7860,7 @@
       <c r="A52" s="17">
         <v>51</v>
       </c>
-      <c r="B52" s="39" t="s">
+      <c r="B52" s="34" t="s">
         <v>121</v>
       </c>
       <c r="C52" s="17">
@@ -7862,16 +7875,16 @@
       <c r="F52" s="17">
         <v>3</v>
       </c>
-      <c r="G52" s="36">
+      <c r="G52" s="31">
         <v>89</v>
       </c>
       <c r="H52" s="17">
         <v>62</v>
       </c>
-      <c r="I52" s="37">
+      <c r="I52" s="32">
         <v>160</v>
       </c>
-      <c r="J52" s="42">
+      <c r="J52" s="37">
         <v>0</v>
       </c>
       <c r="K52" s="3">
@@ -7886,7 +7899,7 @@
       <c r="N52" s="3">
         <v>1.2</v>
       </c>
-      <c r="O52" s="43">
+      <c r="O52" s="38">
         <v>0</v>
       </c>
       <c r="P52" s="10"/>
@@ -7902,7 +7915,7 @@
       <c r="A53" s="17">
         <v>52</v>
       </c>
-      <c r="B53" s="39" t="s">
+      <c r="B53" s="34" t="s">
         <v>123</v>
       </c>
       <c r="C53" s="17">
@@ -7917,16 +7930,16 @@
       <c r="F53" s="17">
         <v>3</v>
       </c>
-      <c r="G53" s="36">
+      <c r="G53" s="31">
         <v>87</v>
       </c>
       <c r="H53" s="17">
         <v>63</v>
       </c>
-      <c r="I53" s="37">
+      <c r="I53" s="32">
         <v>161</v>
       </c>
-      <c r="J53" s="42">
+      <c r="J53" s="37">
         <v>0</v>
       </c>
       <c r="K53" s="3">
@@ -7941,7 +7954,7 @@
       <c r="N53" s="3">
         <v>1.2</v>
       </c>
-      <c r="O53" s="43">
+      <c r="O53" s="38">
         <v>0</v>
       </c>
       <c r="P53" s="10">
@@ -7959,7 +7972,7 @@
       <c r="A54" s="17">
         <v>53</v>
       </c>
-      <c r="B54" s="39" t="s">
+      <c r="B54" s="34" t="s">
         <v>125</v>
       </c>
       <c r="C54" s="17">
@@ -7974,16 +7987,16 @@
       <c r="F54" s="17">
         <v>4</v>
       </c>
-      <c r="G54" s="36">
+      <c r="G54" s="31">
         <v>129</v>
       </c>
       <c r="H54" s="17">
         <v>65</v>
       </c>
-      <c r="I54" s="37">
+      <c r="I54" s="32">
         <v>243</v>
       </c>
-      <c r="J54" s="42">
+      <c r="J54" s="37">
         <v>0</v>
       </c>
       <c r="K54" s="3">
@@ -7998,7 +8011,7 @@
       <c r="N54" s="3">
         <v>1.2</v>
       </c>
-      <c r="O54" s="43">
+      <c r="O54" s="38">
         <v>0</v>
       </c>
       <c r="P54" s="10">
@@ -8016,7 +8029,7 @@
       <c r="A55" s="17">
         <v>54</v>
       </c>
-      <c r="B55" s="39" t="s">
+      <c r="B55" s="34" t="s">
         <v>127</v>
       </c>
       <c r="C55" s="17">
@@ -8031,16 +8044,16 @@
       <c r="F55" s="17">
         <v>4</v>
       </c>
-      <c r="G55" s="36">
+      <c r="G55" s="31">
         <v>128</v>
       </c>
       <c r="H55" s="17">
         <v>66</v>
       </c>
-      <c r="I55" s="37">
+      <c r="I55" s="32">
         <v>242</v>
       </c>
-      <c r="J55" s="42">
+      <c r="J55" s="37">
         <v>0</v>
       </c>
       <c r="K55" s="3">
@@ -8055,7 +8068,7 @@
       <c r="N55" s="3">
         <v>1.2</v>
       </c>
-      <c r="O55" s="43">
+      <c r="O55" s="38">
         <v>0</v>
       </c>
       <c r="P55" s="10">
@@ -8073,7 +8086,7 @@
       <c r="A56" s="17">
         <v>55</v>
       </c>
-      <c r="B56" s="40" t="s">
+      <c r="B56" s="35" t="s">
         <v>129</v>
       </c>
       <c r="C56" s="17">
@@ -8088,16 +8101,16 @@
       <c r="F56" s="17">
         <v>5</v>
       </c>
-      <c r="G56" s="36">
+      <c r="G56" s="31">
         <v>169</v>
       </c>
       <c r="H56" s="17">
         <v>70</v>
       </c>
-      <c r="I56" s="37">
+      <c r="I56" s="32">
         <v>322</v>
       </c>
-      <c r="J56" s="42">
+      <c r="J56" s="37">
         <v>0</v>
       </c>
       <c r="K56" s="3">
@@ -8112,7 +8125,7 @@
       <c r="N56" s="3">
         <v>1.2</v>
       </c>
-      <c r="O56" s="43">
+      <c r="O56" s="38">
         <v>0</v>
       </c>
       <c r="P56" s="10"/>
@@ -8128,7 +8141,7 @@
       <c r="A57" s="17">
         <v>56</v>
       </c>
-      <c r="B57" s="39" t="s">
+      <c r="B57" s="34" t="s">
         <v>131</v>
       </c>
       <c r="C57" s="17">
@@ -8143,16 +8156,16 @@
       <c r="F57" s="17">
         <v>2</v>
       </c>
-      <c r="G57" s="36">
+      <c r="G57" s="31">
         <v>62</v>
       </c>
       <c r="H57" s="17">
         <v>49</v>
       </c>
-      <c r="I57" s="37">
+      <c r="I57" s="32">
         <v>117</v>
       </c>
-      <c r="J57" s="42">
+      <c r="J57" s="37">
         <v>0</v>
       </c>
       <c r="K57" s="3">
@@ -8167,7 +8180,7 @@
       <c r="N57" s="3">
         <v>1.2</v>
       </c>
-      <c r="O57" s="43">
+      <c r="O57" s="38">
         <v>0</v>
       </c>
       <c r="P57" s="10"/>
@@ -8185,7 +8198,7 @@
       <c r="A58" s="17">
         <v>57</v>
       </c>
-      <c r="B58" s="39" t="s">
+      <c r="B58" s="34" t="s">
         <v>133</v>
       </c>
       <c r="C58" s="17">
@@ -8200,16 +8213,16 @@
       <c r="F58" s="17">
         <v>2</v>
       </c>
-      <c r="G58" s="36">
+      <c r="G58" s="31">
         <v>58</v>
       </c>
       <c r="H58" s="17">
         <v>47</v>
       </c>
-      <c r="I58" s="37">
+      <c r="I58" s="32">
         <v>130</v>
       </c>
-      <c r="J58" s="42">
+      <c r="J58" s="37">
         <v>0</v>
       </c>
       <c r="K58" s="3">
@@ -8224,7 +8237,7 @@
       <c r="N58" s="3">
         <v>1.2</v>
       </c>
-      <c r="O58" s="43">
+      <c r="O58" s="38">
         <v>0</v>
       </c>
       <c r="P58" s="10"/>
@@ -8240,7 +8253,7 @@
       <c r="A59" s="17">
         <v>58</v>
       </c>
-      <c r="B59" s="39" t="s">
+      <c r="B59" s="34" t="s">
         <v>135</v>
       </c>
       <c r="C59" s="17">
@@ -8255,16 +8268,16 @@
       <c r="F59" s="17">
         <v>2</v>
       </c>
-      <c r="G59" s="36">
+      <c r="G59" s="31">
         <v>61</v>
       </c>
       <c r="H59" s="17">
         <v>47</v>
       </c>
-      <c r="I59" s="37">
+      <c r="I59" s="32">
         <v>119</v>
       </c>
-      <c r="J59" s="42">
+      <c r="J59" s="37">
         <v>0</v>
       </c>
       <c r="K59" s="3">
@@ -8279,7 +8292,7 @@
       <c r="N59" s="3">
         <v>1.2</v>
       </c>
-      <c r="O59" s="43">
+      <c r="O59" s="38">
         <v>0</v>
       </c>
       <c r="P59" s="10"/>
@@ -8295,7 +8308,7 @@
       <c r="A60" s="17">
         <v>59</v>
       </c>
-      <c r="B60" s="39" t="s">
+      <c r="B60" s="34" t="s">
         <v>137</v>
       </c>
       <c r="C60" s="17">
@@ -8310,16 +8323,16 @@
       <c r="F60" s="17">
         <v>3</v>
       </c>
-      <c r="G60" s="36">
+      <c r="G60" s="31">
         <v>80</v>
       </c>
       <c r="H60" s="17">
         <v>55</v>
       </c>
-      <c r="I60" s="37">
+      <c r="I60" s="32">
         <v>160</v>
       </c>
-      <c r="J60" s="42">
+      <c r="J60" s="37">
         <v>0</v>
       </c>
       <c r="K60" s="3">
@@ -8334,7 +8347,7 @@
       <c r="N60" s="3">
         <v>1.2</v>
       </c>
-      <c r="O60" s="43">
+      <c r="O60" s="38">
         <v>0</v>
       </c>
       <c r="P60" s="10"/>
@@ -8350,7 +8363,7 @@
       <c r="A61" s="17">
         <v>60</v>
       </c>
-      <c r="B61" s="39" t="s">
+      <c r="B61" s="34" t="s">
         <v>139</v>
       </c>
       <c r="C61" s="17">
@@ -8365,16 +8378,16 @@
       <c r="F61" s="17">
         <v>3</v>
       </c>
-      <c r="G61" s="36">
+      <c r="G61" s="31">
         <v>84</v>
       </c>
       <c r="H61" s="17">
         <v>52</v>
       </c>
-      <c r="I61" s="37">
+      <c r="I61" s="32">
         <v>157</v>
       </c>
-      <c r="J61" s="42">
+      <c r="J61" s="37">
         <v>0</v>
       </c>
       <c r="K61" s="3">
@@ -8389,7 +8402,7 @@
       <c r="N61" s="3">
         <v>1.2</v>
       </c>
-      <c r="O61" s="43">
+      <c r="O61" s="38">
         <v>0</v>
       </c>
       <c r="P61" s="10"/>
@@ -8405,7 +8418,7 @@
       <c r="A62" s="17">
         <v>61</v>
       </c>
-      <c r="B62" s="39" t="s">
+      <c r="B62" s="34" t="s">
         <v>141</v>
       </c>
       <c r="C62" s="17">
@@ -8420,16 +8433,16 @@
       <c r="F62" s="17">
         <v>3</v>
       </c>
-      <c r="G62" s="36">
+      <c r="G62" s="31">
         <v>83</v>
       </c>
       <c r="H62" s="17">
         <v>53</v>
       </c>
-      <c r="I62" s="37">
+      <c r="I62" s="32">
         <v>160</v>
       </c>
-      <c r="J62" s="42">
+      <c r="J62" s="37">
         <v>0</v>
       </c>
       <c r="K62" s="3">
@@ -8444,7 +8457,7 @@
       <c r="N62" s="3">
         <v>1.2</v>
       </c>
-      <c r="O62" s="43">
+      <c r="O62" s="38">
         <v>0</v>
       </c>
       <c r="P62" s="10">
@@ -8462,7 +8475,7 @@
       <c r="A63" s="17">
         <v>62</v>
       </c>
-      <c r="B63" s="39" t="s">
+      <c r="B63" s="34" t="s">
         <v>143</v>
       </c>
       <c r="C63" s="17">
@@ -8477,16 +8490,16 @@
       <c r="F63" s="17">
         <v>4</v>
       </c>
-      <c r="G63" s="36">
+      <c r="G63" s="31">
         <v>121</v>
       </c>
       <c r="H63" s="17">
         <v>59</v>
       </c>
-      <c r="I63" s="37">
+      <c r="I63" s="32">
         <v>236</v>
       </c>
-      <c r="J63" s="42">
+      <c r="J63" s="37">
         <v>0</v>
       </c>
       <c r="K63" s="3">
@@ -8501,7 +8514,7 @@
       <c r="N63" s="3">
         <v>1.2</v>
       </c>
-      <c r="O63" s="43">
+      <c r="O63" s="38">
         <v>0</v>
       </c>
       <c r="P63" s="10">
@@ -8519,7 +8532,7 @@
       <c r="A64" s="17">
         <v>63</v>
       </c>
-      <c r="B64" s="39" t="s">
+      <c r="B64" s="34" t="s">
         <v>145</v>
       </c>
       <c r="C64" s="17">
@@ -8534,16 +8547,16 @@
       <c r="F64" s="17">
         <v>4</v>
       </c>
-      <c r="G64" s="36">
+      <c r="G64" s="31">
         <v>124</v>
       </c>
       <c r="H64" s="17">
         <v>57</v>
       </c>
-      <c r="I64" s="37">
+      <c r="I64" s="32">
         <v>240</v>
       </c>
-      <c r="J64" s="42">
+      <c r="J64" s="37">
         <v>0</v>
       </c>
       <c r="K64" s="3">
@@ -8558,7 +8571,7 @@
       <c r="N64" s="3">
         <v>1.2</v>
       </c>
-      <c r="O64" s="43">
+      <c r="O64" s="38">
         <v>0</v>
       </c>
       <c r="P64" s="10">
@@ -8576,7 +8589,7 @@
       <c r="A65" s="17">
         <v>64</v>
       </c>
-      <c r="B65" s="40" t="s">
+      <c r="B65" s="35" t="s">
         <v>147</v>
       </c>
       <c r="C65" s="17">
@@ -8591,16 +8604,16 @@
       <c r="F65" s="17">
         <v>5</v>
       </c>
-      <c r="G65" s="36">
+      <c r="G65" s="31">
         <v>163</v>
       </c>
       <c r="H65" s="17">
         <v>65</v>
       </c>
-      <c r="I65" s="37">
+      <c r="I65" s="32">
         <v>317</v>
       </c>
-      <c r="J65" s="42">
+      <c r="J65" s="37">
         <v>0</v>
       </c>
       <c r="K65" s="3">
@@ -8615,7 +8628,7 @@
       <c r="N65" s="3">
         <v>1.2</v>
       </c>
-      <c r="O65" s="43">
+      <c r="O65" s="38">
         <v>0</v>
       </c>
       <c r="P65" s="10"/>
@@ -8631,7 +8644,7 @@
       <c r="A66" s="17">
         <v>65</v>
       </c>
-      <c r="B66" s="39" t="s">
+      <c r="B66" s="34" t="s">
         <v>149</v>
       </c>
       <c r="C66" s="17">
@@ -8646,16 +8659,16 @@
       <c r="F66" s="17">
         <v>2</v>
       </c>
-      <c r="G66" s="36">
+      <c r="G66" s="31">
         <v>62</v>
       </c>
       <c r="H66" s="17">
         <v>49</v>
       </c>
-      <c r="I66" s="37">
+      <c r="I66" s="32">
         <v>117</v>
       </c>
-      <c r="J66" s="42">
+      <c r="J66" s="37">
         <v>0</v>
       </c>
       <c r="K66" s="3">
@@ -8670,7 +8683,7 @@
       <c r="N66" s="3">
         <v>1.2</v>
       </c>
-      <c r="O66" s="43">
+      <c r="O66" s="38">
         <v>0</v>
       </c>
       <c r="P66" s="10"/>
@@ -8686,7 +8699,7 @@
       <c r="A67" s="17">
         <v>66</v>
       </c>
-      <c r="B67" s="39" t="s">
+      <c r="B67" s="34" t="s">
         <v>151</v>
       </c>
       <c r="C67" s="17">
@@ -8701,16 +8714,16 @@
       <c r="F67" s="17">
         <v>2</v>
       </c>
-      <c r="G67" s="36">
+      <c r="G67" s="31">
         <v>60</v>
       </c>
       <c r="H67" s="17">
         <v>50</v>
       </c>
-      <c r="I67" s="37">
+      <c r="I67" s="32">
         <v>119</v>
       </c>
-      <c r="J67" s="42">
+      <c r="J67" s="37">
         <v>0</v>
       </c>
       <c r="K67" s="3">
@@ -8725,7 +8738,7 @@
       <c r="N67" s="3">
         <v>1.2</v>
       </c>
-      <c r="O67" s="43">
+      <c r="O67" s="38">
         <v>0</v>
       </c>
       <c r="P67" s="10"/>
@@ -8741,7 +8754,7 @@
       <c r="A68" s="17">
         <v>67</v>
       </c>
-      <c r="B68" s="39" t="s">
+      <c r="B68" s="34" t="s">
         <v>153</v>
       </c>
       <c r="C68" s="17">
@@ -8756,16 +8769,16 @@
       <c r="F68" s="17">
         <v>2</v>
       </c>
-      <c r="G68" s="36">
+      <c r="G68" s="31">
         <v>61</v>
       </c>
       <c r="H68" s="17">
         <v>47</v>
       </c>
-      <c r="I68" s="37">
+      <c r="I68" s="32">
         <v>119</v>
       </c>
-      <c r="J68" s="42">
+      <c r="J68" s="37">
         <v>0</v>
       </c>
       <c r="K68" s="3">
@@ -8780,7 +8793,7 @@
       <c r="N68" s="3">
         <v>1.2</v>
       </c>
-      <c r="O68" s="43">
+      <c r="O68" s="38">
         <v>0</v>
       </c>
       <c r="P68" s="10"/>
@@ -8796,7 +8809,7 @@
       <c r="A69" s="17">
         <v>68</v>
       </c>
-      <c r="B69" s="39" t="s">
+      <c r="B69" s="34" t="s">
         <v>155</v>
       </c>
       <c r="C69" s="17">
@@ -8811,16 +8824,16 @@
       <c r="F69" s="17">
         <v>3</v>
       </c>
-      <c r="G69" s="36">
+      <c r="G69" s="31">
         <v>85</v>
       </c>
       <c r="H69" s="17">
         <v>50</v>
       </c>
-      <c r="I69" s="37">
+      <c r="I69" s="32">
         <v>165</v>
       </c>
-      <c r="J69" s="42">
+      <c r="J69" s="37">
         <v>0</v>
       </c>
       <c r="K69" s="3">
@@ -8835,7 +8848,7 @@
       <c r="N69" s="3">
         <v>1.2</v>
       </c>
-      <c r="O69" s="43">
+      <c r="O69" s="38">
         <v>0</v>
       </c>
       <c r="P69" s="10"/>
@@ -8851,7 +8864,7 @@
       <c r="A70" s="17">
         <v>69</v>
       </c>
-      <c r="B70" s="39" t="s">
+      <c r="B70" s="34" t="s">
         <v>157</v>
       </c>
       <c r="C70" s="17">
@@ -8866,16 +8879,16 @@
       <c r="F70" s="17">
         <v>3</v>
       </c>
-      <c r="G70" s="36">
+      <c r="G70" s="31">
         <v>84</v>
       </c>
       <c r="H70" s="17">
         <v>52</v>
       </c>
-      <c r="I70" s="37">
+      <c r="I70" s="32">
         <v>157</v>
       </c>
-      <c r="J70" s="42">
+      <c r="J70" s="37">
         <v>0</v>
       </c>
       <c r="K70" s="3">
@@ -8890,7 +8903,7 @@
       <c r="N70" s="3">
         <v>1.2</v>
       </c>
-      <c r="O70" s="43">
+      <c r="O70" s="38">
         <v>0</v>
       </c>
       <c r="P70" s="10"/>
@@ -8906,7 +8919,7 @@
       <c r="A71" s="17">
         <v>70</v>
       </c>
-      <c r="B71" s="39" t="s">
+      <c r="B71" s="34" t="s">
         <v>159</v>
       </c>
       <c r="C71" s="17">
@@ -8921,16 +8934,16 @@
       <c r="F71" s="17">
         <v>3</v>
       </c>
-      <c r="G71" s="36">
+      <c r="G71" s="31">
         <v>83</v>
       </c>
       <c r="H71" s="17">
         <v>53</v>
       </c>
-      <c r="I71" s="37">
+      <c r="I71" s="32">
         <v>160</v>
       </c>
-      <c r="J71" s="42">
+      <c r="J71" s="37">
         <v>0</v>
       </c>
       <c r="K71" s="3">
@@ -8945,7 +8958,7 @@
       <c r="N71" s="3">
         <v>1.2</v>
       </c>
-      <c r="O71" s="43">
+      <c r="O71" s="38">
         <v>0</v>
       </c>
       <c r="P71" s="10">
@@ -8963,7 +8976,7 @@
       <c r="A72" s="17">
         <v>71</v>
       </c>
-      <c r="B72" s="39" t="s">
+      <c r="B72" s="34" t="s">
         <v>161</v>
       </c>
       <c r="C72" s="17">
@@ -8978,16 +8991,16 @@
       <c r="F72" s="17">
         <v>4</v>
       </c>
-      <c r="G72" s="36">
+      <c r="G72" s="31">
         <v>121</v>
       </c>
       <c r="H72" s="17">
         <v>59</v>
       </c>
-      <c r="I72" s="37">
+      <c r="I72" s="32">
         <v>236</v>
       </c>
-      <c r="J72" s="42">
+      <c r="J72" s="37">
         <v>0</v>
       </c>
       <c r="K72" s="3">
@@ -9002,7 +9015,7 @@
       <c r="N72" s="3">
         <v>1.2</v>
       </c>
-      <c r="O72" s="43">
+      <c r="O72" s="38">
         <v>0</v>
       </c>
       <c r="P72" s="10">
@@ -9020,7 +9033,7 @@
       <c r="A73" s="17">
         <v>72</v>
       </c>
-      <c r="B73" s="39" t="s">
+      <c r="B73" s="34" t="s">
         <v>163</v>
       </c>
       <c r="C73" s="17">
@@ -9035,16 +9048,16 @@
       <c r="F73" s="17">
         <v>4</v>
       </c>
-      <c r="G73" s="36">
+      <c r="G73" s="31">
         <v>124</v>
       </c>
       <c r="H73" s="17">
         <v>57</v>
       </c>
-      <c r="I73" s="37">
+      <c r="I73" s="32">
         <v>240</v>
       </c>
-      <c r="J73" s="42">
+      <c r="J73" s="37">
         <v>0</v>
       </c>
       <c r="K73" s="3">
@@ -9059,7 +9072,7 @@
       <c r="N73" s="3">
         <v>1.2</v>
       </c>
-      <c r="O73" s="43">
+      <c r="O73" s="38">
         <v>0</v>
       </c>
       <c r="P73" s="10">
@@ -9077,7 +9090,7 @@
       <c r="A74" s="17">
         <v>73</v>
       </c>
-      <c r="B74" s="40" t="s">
+      <c r="B74" s="35" t="s">
         <v>165</v>
       </c>
       <c r="C74" s="17">
@@ -9092,16 +9105,16 @@
       <c r="F74" s="17">
         <v>5</v>
       </c>
-      <c r="G74" s="36">
+      <c r="G74" s="31">
         <v>163</v>
       </c>
       <c r="H74" s="17">
         <v>65</v>
       </c>
-      <c r="I74" s="37">
+      <c r="I74" s="32">
         <v>317</v>
       </c>
-      <c r="J74" s="42">
+      <c r="J74" s="37">
         <v>0</v>
       </c>
       <c r="K74" s="3">
@@ -9116,7 +9129,7 @@
       <c r="N74" s="3">
         <v>1.2</v>
       </c>
-      <c r="O74" s="43">
+      <c r="O74" s="38">
         <v>0</v>
       </c>
       <c r="P74" s="10"/>
@@ -9132,7 +9145,7 @@
       <c r="A75" s="17">
         <v>74</v>
       </c>
-      <c r="B75" s="39" t="s">
+      <c r="B75" s="34" t="s">
         <v>167</v>
       </c>
       <c r="C75" s="17">
@@ -9147,16 +9160,16 @@
       <c r="F75" s="17">
         <v>2</v>
       </c>
-      <c r="G75" s="36">
+      <c r="G75" s="31">
         <v>62</v>
       </c>
       <c r="H75" s="17">
         <v>49</v>
       </c>
-      <c r="I75" s="37">
+      <c r="I75" s="32">
         <v>117</v>
       </c>
-      <c r="J75" s="42">
+      <c r="J75" s="37">
         <v>0</v>
       </c>
       <c r="K75" s="3">
@@ -9171,7 +9184,7 @@
       <c r="N75" s="3">
         <v>1.2</v>
       </c>
-      <c r="O75" s="43">
+      <c r="O75" s="38">
         <v>0</v>
       </c>
       <c r="P75" s="10"/>
@@ -9187,7 +9200,7 @@
       <c r="A76" s="17">
         <v>75</v>
       </c>
-      <c r="B76" s="39" t="s">
+      <c r="B76" s="34" t="s">
         <v>169</v>
       </c>
       <c r="C76" s="17">
@@ -9202,16 +9215,16 @@
       <c r="F76" s="17">
         <v>2</v>
       </c>
-      <c r="G76" s="36">
+      <c r="G76" s="31">
         <v>60</v>
       </c>
       <c r="H76" s="17">
         <v>47</v>
       </c>
-      <c r="I76" s="37">
+      <c r="I76" s="32">
         <v>115</v>
       </c>
-      <c r="J76" s="42">
+      <c r="J76" s="37">
         <v>0</v>
       </c>
       <c r="K76" s="3">
@@ -9226,7 +9239,7 @@
       <c r="N76" s="3">
         <v>1.2</v>
       </c>
-      <c r="O76" s="43">
+      <c r="O76" s="38">
         <v>0</v>
       </c>
       <c r="P76" s="10"/>
@@ -9242,7 +9255,7 @@
       <c r="A77" s="17">
         <v>76</v>
       </c>
-      <c r="B77" s="39" t="s">
+      <c r="B77" s="34" t="s">
         <v>171</v>
       </c>
       <c r="C77" s="17">
@@ -9257,16 +9270,16 @@
       <c r="F77" s="17">
         <v>2</v>
       </c>
-      <c r="G77" s="36">
+      <c r="G77" s="31">
         <v>61</v>
       </c>
       <c r="H77" s="17">
         <v>47</v>
       </c>
-      <c r="I77" s="37">
+      <c r="I77" s="32">
         <v>119</v>
       </c>
-      <c r="J77" s="42">
+      <c r="J77" s="37">
         <v>0</v>
       </c>
       <c r="K77" s="3">
@@ -9281,7 +9294,7 @@
       <c r="N77" s="3">
         <v>1.2</v>
       </c>
-      <c r="O77" s="43">
+      <c r="O77" s="38">
         <v>0</v>
       </c>
       <c r="P77" s="10"/>
@@ -9297,7 +9310,7 @@
       <c r="A78" s="17">
         <v>77</v>
       </c>
-      <c r="B78" s="39" t="s">
+      <c r="B78" s="34" t="s">
         <v>173</v>
       </c>
       <c r="C78" s="17">
@@ -9312,16 +9325,16 @@
       <c r="F78" s="17">
         <v>3</v>
       </c>
-      <c r="G78" s="36">
+      <c r="G78" s="31">
         <v>90</v>
       </c>
       <c r="H78" s="17">
         <v>50</v>
       </c>
-      <c r="I78" s="37">
+      <c r="I78" s="32">
         <v>157</v>
       </c>
-      <c r="J78" s="42">
+      <c r="J78" s="37">
         <v>0</v>
       </c>
       <c r="K78" s="3">
@@ -9336,7 +9349,7 @@
       <c r="N78" s="3">
         <v>1.2</v>
       </c>
-      <c r="O78" s="43">
+      <c r="O78" s="38">
         <v>0</v>
       </c>
       <c r="P78" s="10"/>
@@ -9352,7 +9365,7 @@
       <c r="A79" s="17">
         <v>78</v>
       </c>
-      <c r="B79" s="39" t="s">
+      <c r="B79" s="34" t="s">
         <v>175</v>
       </c>
       <c r="C79" s="17">
@@ -9367,16 +9380,16 @@
       <c r="F79" s="17">
         <v>3</v>
       </c>
-      <c r="G79" s="36">
+      <c r="G79" s="31">
         <v>84</v>
       </c>
       <c r="H79" s="17">
         <v>52</v>
       </c>
-      <c r="I79" s="37">
+      <c r="I79" s="32">
         <v>157</v>
       </c>
-      <c r="J79" s="42">
+      <c r="J79" s="37">
         <v>0</v>
       </c>
       <c r="K79" s="3">
@@ -9391,7 +9404,7 @@
       <c r="N79" s="3">
         <v>1.2</v>
       </c>
-      <c r="O79" s="43">
+      <c r="O79" s="38">
         <v>0</v>
       </c>
       <c r="P79" s="10"/>
@@ -9407,7 +9420,7 @@
       <c r="A80" s="17">
         <v>79</v>
       </c>
-      <c r="B80" s="39" t="s">
+      <c r="B80" s="34" t="s">
         <v>177</v>
       </c>
       <c r="C80" s="17">
@@ -9422,16 +9435,16 @@
       <c r="F80" s="17">
         <v>3</v>
       </c>
-      <c r="G80" s="36">
+      <c r="G80" s="31">
         <v>83</v>
       </c>
       <c r="H80" s="17">
         <v>53</v>
       </c>
-      <c r="I80" s="37">
+      <c r="I80" s="32">
         <v>160</v>
       </c>
-      <c r="J80" s="42">
+      <c r="J80" s="37">
         <v>0</v>
       </c>
       <c r="K80" s="3">
@@ -9446,7 +9459,7 @@
       <c r="N80" s="3">
         <v>1.2</v>
       </c>
-      <c r="O80" s="43">
+      <c r="O80" s="38">
         <v>0</v>
       </c>
       <c r="P80" s="10">
@@ -9466,7 +9479,7 @@
       <c r="A81" s="17">
         <v>80</v>
       </c>
-      <c r="B81" s="39" t="s">
+      <c r="B81" s="34" t="s">
         <v>179</v>
       </c>
       <c r="C81" s="17">
@@ -9481,16 +9494,16 @@
       <c r="F81" s="17">
         <v>4</v>
       </c>
-      <c r="G81" s="36">
+      <c r="G81" s="31">
         <v>121</v>
       </c>
       <c r="H81" s="17">
         <v>59</v>
       </c>
-      <c r="I81" s="37">
+      <c r="I81" s="32">
         <v>236</v>
       </c>
-      <c r="J81" s="42">
+      <c r="J81" s="37">
         <v>0</v>
       </c>
       <c r="K81" s="3">
@@ -9505,7 +9518,7 @@
       <c r="N81" s="3">
         <v>1.2</v>
       </c>
-      <c r="O81" s="43">
+      <c r="O81" s="38">
         <v>0</v>
       </c>
       <c r="P81" s="10">
@@ -9523,7 +9536,7 @@
       <c r="A82" s="17">
         <v>81</v>
       </c>
-      <c r="B82" s="39" t="s">
+      <c r="B82" s="34" t="s">
         <v>181</v>
       </c>
       <c r="C82" s="17">
@@ -9538,16 +9551,16 @@
       <c r="F82" s="17">
         <v>4</v>
       </c>
-      <c r="G82" s="36">
+      <c r="G82" s="31">
         <v>124</v>
       </c>
       <c r="H82" s="17">
         <v>57</v>
       </c>
-      <c r="I82" s="37">
+      <c r="I82" s="32">
         <v>240</v>
       </c>
-      <c r="J82" s="42">
+      <c r="J82" s="37">
         <v>0</v>
       </c>
       <c r="K82" s="3">
@@ -9562,7 +9575,7 @@
       <c r="N82" s="3">
         <v>1.2</v>
       </c>
-      <c r="O82" s="43">
+      <c r="O82" s="38">
         <v>0</v>
       </c>
       <c r="P82" s="10">
@@ -9580,7 +9593,7 @@
       <c r="A83" s="17">
         <v>82</v>
       </c>
-      <c r="B83" s="40" t="s">
+      <c r="B83" s="35" t="s">
         <v>183</v>
       </c>
       <c r="C83" s="17">
@@ -9595,16 +9608,16 @@
       <c r="F83" s="17">
         <v>5</v>
       </c>
-      <c r="G83" s="36">
+      <c r="G83" s="31">
         <v>163</v>
       </c>
       <c r="H83" s="17">
         <v>65</v>
       </c>
-      <c r="I83" s="37">
+      <c r="I83" s="32">
         <v>317</v>
       </c>
-      <c r="J83" s="42">
+      <c r="J83" s="37">
         <v>0</v>
       </c>
       <c r="K83" s="3">
@@ -9619,7 +9632,7 @@
       <c r="N83" s="3">
         <v>1.2</v>
       </c>
-      <c r="O83" s="43">
+      <c r="O83" s="38">
         <v>0</v>
       </c>
       <c r="P83" s="10"/>
@@ -9635,7 +9648,7 @@
       <c r="A84" s="17">
         <v>83</v>
       </c>
-      <c r="B84" s="44" t="s">
+      <c r="B84" s="39" t="s">
         <v>185</v>
       </c>
       <c r="C84" s="17">
@@ -9650,13 +9663,13 @@
       <c r="F84" s="17">
         <v>6</v>
       </c>
-      <c r="G84" s="36">
+      <c r="G84" s="31">
         <v>50</v>
       </c>
       <c r="H84" s="17">
         <v>50</v>
       </c>
-      <c r="I84" s="37">
+      <c r="I84" s="32">
         <v>50</v>
       </c>
       <c r="J84" s="10">
@@ -9690,7 +9703,7 @@
       <c r="A85" s="17">
         <v>84</v>
       </c>
-      <c r="B85" s="44" t="s">
+      <c r="B85" s="39" t="s">
         <v>187</v>
       </c>
       <c r="C85" s="17">
@@ -9705,13 +9718,13 @@
       <c r="F85" s="17">
         <v>6</v>
       </c>
-      <c r="G85" s="36">
+      <c r="G85" s="31">
         <v>50</v>
       </c>
       <c r="H85" s="17">
         <v>50</v>
       </c>
-      <c r="I85" s="37">
+      <c r="I85" s="32">
         <v>50</v>
       </c>
       <c r="J85" s="10">
@@ -9745,7 +9758,7 @@
       <c r="A86" s="17">
         <v>85</v>
       </c>
-      <c r="B86" s="44" t="s">
+      <c r="B86" s="39" t="s">
         <v>188</v>
       </c>
       <c r="C86" s="17">
@@ -9760,13 +9773,13 @@
       <c r="F86" s="17">
         <v>6</v>
       </c>
-      <c r="G86" s="36">
+      <c r="G86" s="31">
         <v>50</v>
       </c>
       <c r="H86" s="17">
         <v>50</v>
       </c>
-      <c r="I86" s="37">
+      <c r="I86" s="32">
         <v>50</v>
       </c>
       <c r="J86" s="10">
@@ -9800,7 +9813,7 @@
       <c r="A87" s="17">
         <v>86</v>
       </c>
-      <c r="B87" s="44" t="s">
+      <c r="B87" s="39" t="s">
         <v>189</v>
       </c>
       <c r="C87" s="17">
@@ -9815,13 +9828,13 @@
       <c r="F87" s="17">
         <v>6</v>
       </c>
-      <c r="G87" s="36">
+      <c r="G87" s="31">
         <v>50</v>
       </c>
       <c r="H87" s="17">
         <v>50</v>
       </c>
-      <c r="I87" s="37">
+      <c r="I87" s="32">
         <v>50</v>
       </c>
       <c r="J87" s="10">
@@ -9855,7 +9868,7 @@
       <c r="A88" s="17">
         <v>87</v>
       </c>
-      <c r="B88" s="44" t="s">
+      <c r="B88" s="39" t="s">
         <v>190</v>
       </c>
       <c r="C88" s="17">
@@ -9870,13 +9883,13 @@
       <c r="F88" s="17">
         <v>6</v>
       </c>
-      <c r="G88" s="36">
+      <c r="G88" s="31">
         <v>50</v>
       </c>
       <c r="H88" s="17">
         <v>50</v>
       </c>
-      <c r="I88" s="37">
+      <c r="I88" s="32">
         <v>50</v>
       </c>
       <c r="J88" s="10">
@@ -9910,7 +9923,7 @@
       <c r="A89" s="17">
         <v>88</v>
       </c>
-      <c r="B89" s="44" t="s">
+      <c r="B89" s="39" t="s">
         <v>191</v>
       </c>
       <c r="C89" s="17">
@@ -9925,13 +9938,13 @@
       <c r="F89" s="17">
         <v>6</v>
       </c>
-      <c r="G89" s="36">
+      <c r="G89" s="31">
         <v>50</v>
       </c>
       <c r="H89" s="17">
         <v>50</v>
       </c>
-      <c r="I89" s="37">
+      <c r="I89" s="32">
         <v>50</v>
       </c>
       <c r="J89" s="10">
@@ -9975,13 +9988,13 @@
       <c r="F90" s="17">
         <v>6</v>
       </c>
-      <c r="G90" s="36">
+      <c r="G90" s="31">
         <v>100</v>
       </c>
       <c r="H90" s="17">
         <v>50</v>
       </c>
-      <c r="I90" s="37">
+      <c r="I90" s="32">
         <v>10000</v>
       </c>
       <c r="J90" s="10">
@@ -10022,13 +10035,13 @@
       <c r="F91" s="17">
         <v>6</v>
       </c>
-      <c r="G91" s="36">
+      <c r="G91" s="31">
         <v>100</v>
       </c>
       <c r="H91" s="17">
         <v>50</v>
       </c>
-      <c r="I91" s="37">
+      <c r="I91" s="32">
         <v>15000</v>
       </c>
       <c r="J91" s="10">
@@ -10069,13 +10082,13 @@
       <c r="F92" s="17">
         <v>6</v>
       </c>
-      <c r="G92" s="36">
+      <c r="G92" s="31">
         <v>150</v>
       </c>
       <c r="H92" s="17">
         <v>50</v>
       </c>
-      <c r="I92" s="37">
+      <c r="I92" s="32">
         <v>10000</v>
       </c>
       <c r="J92" s="10">
@@ -10116,13 +10129,13 @@
       <c r="F93" s="17">
         <v>6</v>
       </c>
-      <c r="G93" s="36">
+      <c r="G93" s="31">
         <v>100</v>
       </c>
       <c r="H93" s="17">
         <v>50</v>
       </c>
-      <c r="I93" s="37">
+      <c r="I93" s="32">
         <v>20000</v>
       </c>
       <c r="J93" s="10">
@@ -10163,13 +10176,13 @@
       <c r="F94" s="17">
         <v>6</v>
       </c>
-      <c r="G94" s="36">
+      <c r="G94" s="31">
         <v>100</v>
       </c>
       <c r="H94" s="17">
         <v>100</v>
       </c>
-      <c r="I94" s="37">
+      <c r="I94" s="32">
         <v>20000</v>
       </c>
       <c r="J94" s="10">
@@ -10210,13 +10223,13 @@
       <c r="F95" s="17">
         <v>6</v>
       </c>
-      <c r="G95" s="36">
+      <c r="G95" s="31">
         <v>100</v>
       </c>
       <c r="H95" s="17">
         <v>50</v>
       </c>
-      <c r="I95" s="37">
+      <c r="I95" s="32">
         <v>10000</v>
       </c>
       <c r="J95" s="10">
@@ -10257,13 +10270,13 @@
       <c r="F96" s="17">
         <v>6</v>
       </c>
-      <c r="G96" s="36">
+      <c r="G96" s="31">
         <v>100</v>
       </c>
       <c r="H96" s="17">
         <v>50</v>
       </c>
-      <c r="I96" s="37">
+      <c r="I96" s="32">
         <v>20000</v>
       </c>
       <c r="J96" s="10">
@@ -10304,13 +10317,13 @@
       <c r="F97" s="17">
         <v>6</v>
       </c>
-      <c r="G97" s="36">
+      <c r="G97" s="31">
         <v>100</v>
       </c>
       <c r="H97" s="17">
         <v>100</v>
       </c>
-      <c r="I97" s="37">
+      <c r="I97" s="32">
         <v>10000</v>
       </c>
       <c r="J97" s="10">
@@ -12319,7 +12332,7 @@
   <sheetPr/>
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
@@ -13226,13 +13239,13 @@
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15.6" outlineLevelRow="7" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15.6" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="8.88888888888889" style="1"/>
     <col min="2" max="2" width="9.66666666666667" style="1" customWidth="1"/>
@@ -13326,6 +13339,39 @@
       </c>
       <c r="C8" s="1" t="s">
         <v>979</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>980</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>982</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>984</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>985</v>
       </c>
     </row>
   </sheetData>
@@ -19714,7 +19760,7 @@
     <col min="2" max="2" width="10.8888888888889" style="1" customWidth="1"/>
     <col min="3" max="3" width="8.33333333333333" style="1" customWidth="1"/>
     <col min="4" max="4" width="23.8888888888889" style="1" customWidth="1"/>
-    <col min="5" max="5" width="19.1111111111111" style="31" customWidth="1"/>
+    <col min="5" max="5" width="19.1111111111111" style="26" customWidth="1"/>
     <col min="6" max="7" width="9.66666666666667" style="1" customWidth="1"/>
     <col min="8" max="8" width="20.7777777777778" style="1" customWidth="1"/>
     <col min="9" max="9" width="27.8888888888889" style="1" customWidth="1"/>
@@ -19740,7 +19786,7 @@
       <c r="E1" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="F1" s="31" t="s">
+      <c r="F1" s="26" t="s">
         <v>207</v>
       </c>
       <c r="G1" s="1" t="s">
@@ -19763,13 +19809,13 @@
       </c>
     </row>
     <row r="2" s="6" customFormat="1" ht="17.4" spans="1:13">
-      <c r="A2" s="22">
+      <c r="A2" s="20">
         <v>101</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="27" t="s">
         <v>185</v>
       </c>
       <c r="D2" s="6">
@@ -19778,7 +19824,7 @@
       <c r="E2" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="F2" s="33" t="s">
+      <c r="F2" s="28" t="s">
         <v>216</v>
       </c>
       <c r="G2" s="6" t="s">
@@ -19799,7 +19845,7 @@
       <c r="L2" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="M2" s="34">
+      <c r="M2" s="29">
         <v>83</v>
       </c>
     </row>
@@ -19810,7 +19856,7 @@
       <c r="B3" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="C3" s="32" t="s">
+      <c r="C3" s="27" t="s">
         <v>187</v>
       </c>
       <c r="D3" s="1">
@@ -19819,7 +19865,7 @@
       <c r="E3" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F3" s="31" t="s">
+      <c r="F3" s="26" t="s">
         <v>216</v>
       </c>
       <c r="G3" s="1" t="s">
@@ -19840,7 +19886,7 @@
       <c r="L3" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="M3" s="34">
+      <c r="M3" s="29">
         <v>84</v>
       </c>
     </row>
@@ -19851,7 +19897,7 @@
       <c r="B4" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="C4" s="32" t="s">
+      <c r="C4" s="27" t="s">
         <v>188</v>
       </c>
       <c r="D4" s="1">
@@ -19860,7 +19906,7 @@
       <c r="E4" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F4" s="31" t="s">
+      <c r="F4" s="26" t="s">
         <v>216</v>
       </c>
       <c r="G4" s="1" t="s">
@@ -19881,7 +19927,7 @@
       <c r="L4" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="M4" s="34">
+      <c r="M4" s="29">
         <v>85</v>
       </c>
     </row>
@@ -19892,7 +19938,7 @@
       <c r="B5" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="C5" s="32" t="s">
+      <c r="C5" s="27" t="s">
         <v>189</v>
       </c>
       <c r="D5" s="1">
@@ -19901,7 +19947,7 @@
       <c r="E5" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F5" s="31" t="s">
+      <c r="F5" s="26" t="s">
         <v>216</v>
       </c>
       <c r="G5" s="1" t="s">
@@ -19922,7 +19968,7 @@
       <c r="L5" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="M5" s="34">
+      <c r="M5" s="29">
         <v>86</v>
       </c>
     </row>
@@ -19933,7 +19979,7 @@
       <c r="B6" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="C6" s="32" t="s">
+      <c r="C6" s="27" t="s">
         <v>190</v>
       </c>
       <c r="D6" s="1">
@@ -19942,7 +19988,7 @@
       <c r="E6" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F6" s="31" t="s">
+      <c r="F6" s="26" t="s">
         <v>216</v>
       </c>
       <c r="G6" s="1" t="s">
@@ -19963,7 +20009,7 @@
       <c r="L6" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="M6" s="34">
+      <c r="M6" s="29">
         <v>87</v>
       </c>
     </row>
@@ -19974,7 +20020,7 @@
       <c r="B7" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="C7" s="32" t="s">
+      <c r="C7" s="27" t="s">
         <v>191</v>
       </c>
       <c r="D7" s="1">
@@ -19983,7 +20029,7 @@
       <c r="E7" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F7" s="31" t="s">
+      <c r="F7" s="26" t="s">
         <v>216</v>
       </c>
       <c r="G7" s="1" t="s">
@@ -20004,7 +20050,7 @@
       <c r="L7" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="M7" s="34">
+      <c r="M7" s="29">
         <v>88</v>
       </c>
     </row>
@@ -20024,7 +20070,7 @@
       <c r="E8" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F8" s="31" t="s">
+      <c r="F8" s="26" t="s">
         <v>216</v>
       </c>
       <c r="G8" s="1" t="s">
@@ -20065,7 +20111,7 @@
       <c r="E9" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F9" s="31" t="s">
+      <c r="F9" s="26" t="s">
         <v>216</v>
       </c>
       <c r="G9" s="1" t="s">
@@ -20106,7 +20152,7 @@
       <c r="E10" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F10" s="31" t="s">
+      <c r="F10" s="26" t="s">
         <v>216</v>
       </c>
       <c r="G10" s="1" t="s">
@@ -20147,7 +20193,7 @@
       <c r="E11" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F11" s="31" t="s">
+      <c r="F11" s="26" t="s">
         <v>216</v>
       </c>
       <c r="G11" s="1" t="s">
@@ -20188,7 +20234,7 @@
       <c r="E12" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F12" s="31" t="s">
+      <c r="F12" s="26" t="s">
         <v>216</v>
       </c>
       <c r="G12" s="1" t="s">
@@ -20229,7 +20275,7 @@
       <c r="E13" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F13" s="31" t="s">
+      <c r="F13" s="26" t="s">
         <v>216</v>
       </c>
       <c r="G13" s="1" t="s">
@@ -20270,7 +20316,7 @@
       <c r="E14" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F14" s="31" t="s">
+      <c r="F14" s="26" t="s">
         <v>216</v>
       </c>
       <c r="G14" s="1" t="s">
@@ -20311,7 +20357,7 @@
       <c r="E15" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F15" s="31" t="s">
+      <c r="F15" s="26" t="s">
         <v>216</v>
       </c>
       <c r="G15" s="1" t="s">
@@ -20352,7 +20398,7 @@
       <c r="E16" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F16" s="31" t="s">
+      <c r="F16" s="26" t="s">
         <v>216</v>
       </c>
       <c r="G16" s="1" t="s">
@@ -20390,7 +20436,7 @@
       <c r="E17" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F17" s="31" t="s">
+      <c r="F17" s="26" t="s">
         <v>229</v>
       </c>
       <c r="G17" s="1" t="s">
@@ -20428,7 +20474,7 @@
       <c r="E18" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F18" s="31" t="s">
+      <c r="F18" s="26" t="s">
         <v>229</v>
       </c>
       <c r="G18" s="1" t="s">
@@ -20466,7 +20512,7 @@
       <c r="E19" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F19" s="31" t="s">
+      <c r="F19" s="26" t="s">
         <v>229</v>
       </c>
       <c r="G19" s="1" t="s">
@@ -20504,7 +20550,7 @@
       <c r="E20" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F20" s="31" t="s">
+      <c r="F20" s="26" t="s">
         <v>229</v>
       </c>
       <c r="G20" s="1" t="s">
@@ -20542,7 +20588,7 @@
       <c r="E21" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F21" s="31" t="s">
+      <c r="F21" s="26" t="s">
         <v>229</v>
       </c>
       <c r="G21" s="1" t="s">
@@ -20580,7 +20626,7 @@
       <c r="E22" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F22" s="31" t="s">
+      <c r="F22" s="26" t="s">
         <v>229</v>
       </c>
       <c r="G22" s="1" t="s">
@@ -20618,7 +20664,7 @@
       <c r="E23" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F23" s="31" t="s">
+      <c r="F23" s="26" t="s">
         <v>229</v>
       </c>
       <c r="G23" s="1" t="s">
@@ -20656,7 +20702,7 @@
       <c r="E24" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F24" s="31" t="s">
+      <c r="F24" s="26" t="s">
         <v>229</v>
       </c>
       <c r="G24" s="1" t="s">
@@ -20694,7 +20740,7 @@
       <c r="E25" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F25" s="31" t="s">
+      <c r="F25" s="26" t="s">
         <v>229</v>
       </c>
       <c r="G25" s="1" t="s">
@@ -20732,7 +20778,7 @@
       <c r="E26" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F26" s="31" t="s">
+      <c r="F26" s="26" t="s">
         <v>229</v>
       </c>
       <c r="G26" s="1" t="s">
@@ -20770,7 +20816,7 @@
       <c r="E27" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F27" s="31" t="s">
+      <c r="F27" s="26" t="s">
         <v>229</v>
       </c>
       <c r="G27" s="1" t="s">
@@ -20808,7 +20854,7 @@
       <c r="E28" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F28" s="31" t="s">
+      <c r="F28" s="26" t="s">
         <v>229</v>
       </c>
       <c r="G28" s="1" t="s">
@@ -20846,7 +20892,7 @@
       <c r="E29" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F29" s="31" t="s">
+      <c r="F29" s="26" t="s">
         <v>229</v>
       </c>
       <c r="G29" s="1" t="s">
@@ -20884,7 +20930,7 @@
       <c r="E30" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F30" s="31" t="s">
+      <c r="F30" s="26" t="s">
         <v>229</v>
       </c>
       <c r="G30" s="1" t="s">
@@ -20922,7 +20968,7 @@
       <c r="E31" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F31" s="31" t="s">
+      <c r="F31" s="26" t="s">
         <v>229</v>
       </c>
       <c r="G31" s="1" t="s">
@@ -20960,7 +21006,7 @@
       <c r="E32" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F32" s="31" t="s">
+      <c r="F32" s="26" t="s">
         <v>229</v>
       </c>
       <c r="G32" s="1" t="s">
@@ -20998,7 +21044,7 @@
       <c r="E33" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F33" s="31" t="s">
+      <c r="F33" s="26" t="s">
         <v>229</v>
       </c>
       <c r="G33" s="1" t="s">
@@ -21036,7 +21082,7 @@
       <c r="E34" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F34" s="31" t="s">
+      <c r="F34" s="26" t="s">
         <v>229</v>
       </c>
       <c r="G34" s="1" t="s">
@@ -21074,7 +21120,7 @@
       <c r="E35" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F35" s="31" t="s">
+      <c r="F35" s="26" t="s">
         <v>229</v>
       </c>
       <c r="G35" s="1" t="s">
@@ -21112,7 +21158,7 @@
       <c r="E36" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F36" s="31" t="s">
+      <c r="F36" s="26" t="s">
         <v>229</v>
       </c>
       <c r="G36" s="1" t="s">
@@ -21150,7 +21196,7 @@
       <c r="E37" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F37" s="31" t="s">
+      <c r="F37" s="26" t="s">
         <v>229</v>
       </c>
       <c r="G37" s="1" t="s">
@@ -21188,7 +21234,7 @@
       <c r="E38" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F38" s="31" t="s">
+      <c r="F38" s="26" t="s">
         <v>229</v>
       </c>
       <c r="G38" s="1" t="s">
@@ -21226,7 +21272,7 @@
       <c r="E39" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F39" s="31" t="s">
+      <c r="F39" s="26" t="s">
         <v>229</v>
       </c>
       <c r="G39" s="1" t="s">
@@ -21264,7 +21310,7 @@
       <c r="E40" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F40" s="31" t="s">
+      <c r="F40" s="26" t="s">
         <v>229</v>
       </c>
       <c r="G40" s="1" t="s">
@@ -21302,7 +21348,7 @@
       <c r="E41" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F41" s="31" t="s">
+      <c r="F41" s="26" t="s">
         <v>229</v>
       </c>
       <c r="G41" s="1" t="s">
@@ -21340,7 +21386,7 @@
       <c r="E42" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F42" s="31" t="s">
+      <c r="F42" s="26" t="s">
         <v>229</v>
       </c>
       <c r="G42" s="1" t="s">
@@ -21378,7 +21424,7 @@
       <c r="E43" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F43" s="31" t="s">
+      <c r="F43" s="26" t="s">
         <v>229</v>
       </c>
       <c r="G43" s="1" t="s">
@@ -21416,7 +21462,7 @@
       <c r="E44" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F44" s="31" t="s">
+      <c r="F44" s="26" t="s">
         <v>229</v>
       </c>
       <c r="G44" s="1" t="s">
@@ -21457,7 +21503,7 @@
       <c r="E45" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F45" s="31" t="s">
+      <c r="F45" s="26" t="s">
         <v>260</v>
       </c>
       <c r="G45" s="1" t="s">
@@ -21498,7 +21544,7 @@
       <c r="E46" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F46" s="31" t="s">
+      <c r="F46" s="26" t="s">
         <v>260</v>
       </c>
       <c r="G46" s="1" t="s">
@@ -21539,7 +21585,7 @@
       <c r="E47" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F47" s="31" t="s">
+      <c r="F47" s="26" t="s">
         <v>260</v>
       </c>
       <c r="G47" s="1" t="s">
@@ -21580,7 +21626,7 @@
       <c r="E48" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F48" s="31" t="s">
+      <c r="F48" s="26" t="s">
         <v>260</v>
       </c>
       <c r="G48" s="1" t="s">
@@ -21621,7 +21667,7 @@
       <c r="E49" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F49" s="31" t="s">
+      <c r="F49" s="26" t="s">
         <v>260</v>
       </c>
       <c r="G49" s="1" t="s">
@@ -21662,7 +21708,7 @@
       <c r="E50" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F50" s="31" t="s">
+      <c r="F50" s="26" t="s">
         <v>260</v>
       </c>
       <c r="G50" s="1" t="s">
@@ -21703,7 +21749,7 @@
       <c r="E51" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F51" s="31" t="s">
+      <c r="F51" s="26" t="s">
         <v>260</v>
       </c>
       <c r="G51" s="1" t="s">
@@ -21728,7 +21774,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="52" s="29" customFormat="1" spans="1:13">
+    <row r="52" s="22" customFormat="1" spans="1:13">
       <c r="A52" s="10">
         <v>308</v>
       </c>
@@ -21744,7 +21790,7 @@
       <c r="E52" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F52" s="31" t="s">
+      <c r="F52" s="26" t="s">
         <v>260</v>
       </c>
       <c r="G52" s="1" t="s">
@@ -21785,7 +21831,7 @@
       <c r="E53" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F53" s="31" t="s">
+      <c r="F53" s="26" t="s">
         <v>260</v>
       </c>
       <c r="G53" s="1" t="s">
@@ -21826,7 +21872,7 @@
       <c r="E54" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F54" s="31" t="s">
+      <c r="F54" s="26" t="s">
         <v>260</v>
       </c>
       <c r="G54" s="1" t="s">
@@ -21867,7 +21913,7 @@
       <c r="E55" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F55" s="31" t="s">
+      <c r="F55" s="26" t="s">
         <v>260</v>
       </c>
       <c r="G55" s="1" t="s">
@@ -21908,7 +21954,7 @@
       <c r="E56" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F56" s="31" t="s">
+      <c r="F56" s="26" t="s">
         <v>260</v>
       </c>
       <c r="G56" s="1" t="s">
@@ -21949,7 +21995,7 @@
       <c r="E57" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F57" s="31" t="s">
+      <c r="F57" s="26" t="s">
         <v>260</v>
       </c>
       <c r="G57" s="1" t="s">
@@ -21990,7 +22036,7 @@
       <c r="E58" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F58" s="31" t="s">
+      <c r="F58" s="26" t="s">
         <v>260</v>
       </c>
       <c r="G58" s="1" t="s">
@@ -22031,7 +22077,7 @@
       <c r="E59" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F59" s="31" t="s">
+      <c r="F59" s="26" t="s">
         <v>260</v>
       </c>
       <c r="G59" s="1" t="s">
@@ -22072,7 +22118,7 @@
       <c r="E60" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F60" s="31" t="s">
+      <c r="F60" s="26" t="s">
         <v>260</v>
       </c>
       <c r="G60" s="1" t="s">
@@ -22113,7 +22159,7 @@
       <c r="E61" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F61" s="31" t="s">
+      <c r="F61" s="26" t="s">
         <v>260</v>
       </c>
       <c r="G61" s="1" t="s">
@@ -22154,7 +22200,7 @@
       <c r="E62" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F62" s="31" t="s">
+      <c r="F62" s="26" t="s">
         <v>260</v>
       </c>
       <c r="G62" s="1" t="s">
@@ -22195,7 +22241,7 @@
       <c r="E63" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F63" s="31" t="s">
+      <c r="F63" s="26" t="s">
         <v>260</v>
       </c>
       <c r="G63" s="1" t="s">
@@ -22236,7 +22282,7 @@
       <c r="E64" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F64" s="31" t="s">
+      <c r="F64" s="26" t="s">
         <v>260</v>
       </c>
       <c r="G64" s="1" t="s">
@@ -22277,7 +22323,7 @@
       <c r="E65" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F65" s="31" t="s">
+      <c r="F65" s="26" t="s">
         <v>260</v>
       </c>
       <c r="G65" s="1" t="s">
@@ -22318,7 +22364,7 @@
       <c r="E66" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F66" s="31" t="s">
+      <c r="F66" s="26" t="s">
         <v>260</v>
       </c>
       <c r="G66" s="1" t="s">
@@ -22359,7 +22405,7 @@
       <c r="E67" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F67" s="31" t="s">
+      <c r="F67" s="26" t="s">
         <v>260</v>
       </c>
       <c r="G67" s="1" t="s">
@@ -22400,7 +22446,7 @@
       <c r="E68" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F68" s="31" t="s">
+      <c r="F68" s="26" t="s">
         <v>260</v>
       </c>
       <c r="G68" s="1" t="s">
@@ -22441,7 +22487,7 @@
       <c r="E69" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F69" s="31" t="s">
+      <c r="F69" s="26" t="s">
         <v>260</v>
       </c>
       <c r="G69" s="1" t="s">
@@ -22482,7 +22528,7 @@
       <c r="E70" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F70" s="31" t="s">
+      <c r="F70" s="26" t="s">
         <v>260</v>
       </c>
       <c r="G70" s="1" t="s">
@@ -22523,7 +22569,7 @@
       <c r="E71" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F71" s="31" t="s">
+      <c r="F71" s="26" t="s">
         <v>260</v>
       </c>
       <c r="G71" s="1" t="s">
@@ -22564,7 +22610,7 @@
       <c r="E72" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F72" s="31" t="s">
+      <c r="F72" s="26" t="s">
         <v>260</v>
       </c>
       <c r="G72" s="1" t="s">
@@ -22605,7 +22651,7 @@
       <c r="E73" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F73" s="31" t="s">
+      <c r="F73" s="26" t="s">
         <v>260</v>
       </c>
       <c r="G73" s="1" t="s">
@@ -22646,7 +22692,7 @@
       <c r="E74" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F74" s="31" t="s">
+      <c r="F74" s="26" t="s">
         <v>260</v>
       </c>
       <c r="G74" s="1" t="s">
@@ -22687,7 +22733,7 @@
       <c r="E75" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F75" s="31" t="s">
+      <c r="F75" s="26" t="s">
         <v>260</v>
       </c>
       <c r="G75" s="1" t="s">
@@ -22728,7 +22774,7 @@
       <c r="E76" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F76" s="31" t="s">
+      <c r="F76" s="26" t="s">
         <v>260</v>
       </c>
       <c r="G76" s="1" t="s">
@@ -22769,7 +22815,7 @@
       <c r="E77" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F77" s="31" t="s">
+      <c r="F77" s="26" t="s">
         <v>260</v>
       </c>
       <c r="G77" s="1" t="s">
@@ -22810,7 +22856,7 @@
       <c r="E78" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F78" s="31" t="s">
+      <c r="F78" s="26" t="s">
         <v>260</v>
       </c>
       <c r="G78" s="1" t="s">
@@ -22851,7 +22897,7 @@
       <c r="E79" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F79" s="31" t="s">
+      <c r="F79" s="26" t="s">
         <v>260</v>
       </c>
       <c r="G79" s="1" t="s">
@@ -22892,7 +22938,7 @@
       <c r="E80" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F80" s="31" t="s">
+      <c r="F80" s="26" t="s">
         <v>260</v>
       </c>
       <c r="G80" s="1" t="s">
@@ -22933,7 +22979,7 @@
       <c r="E81" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F81" s="31" t="s">
+      <c r="F81" s="26" t="s">
         <v>260</v>
       </c>
       <c r="G81" s="1" t="s">
@@ -22958,7 +23004,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="82" s="29" customFormat="1" spans="1:13">
+    <row r="82" s="22" customFormat="1" spans="1:13">
       <c r="A82" s="10">
         <v>338</v>
       </c>
@@ -22974,7 +23020,7 @@
       <c r="E82" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F82" s="31" t="s">
+      <c r="F82" s="26" t="s">
         <v>260</v>
       </c>
       <c r="G82" s="1" t="s">
@@ -23015,7 +23061,7 @@
       <c r="E83" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F83" s="31" t="s">
+      <c r="F83" s="26" t="s">
         <v>260</v>
       </c>
       <c r="G83" s="1" t="s">
@@ -23056,7 +23102,7 @@
       <c r="E84" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F84" s="31" t="s">
+      <c r="F84" s="26" t="s">
         <v>260</v>
       </c>
       <c r="G84" s="1" t="s">
@@ -23097,7 +23143,7 @@
       <c r="E85" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F85" s="31" t="s">
+      <c r="F85" s="26" t="s">
         <v>260</v>
       </c>
       <c r="G85" s="1" t="s">
@@ -23138,7 +23184,7 @@
       <c r="E86" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F86" s="31" t="s">
+      <c r="F86" s="26" t="s">
         <v>260</v>
       </c>
       <c r="G86" s="1" t="s">
@@ -23163,7 +23209,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="87" s="30" customFormat="1" spans="1:13">
+    <row r="87" s="25" customFormat="1" spans="1:13">
       <c r="A87" s="10">
         <v>343</v>
       </c>
@@ -23179,7 +23225,7 @@
       <c r="E87" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F87" s="31" t="s">
+      <c r="F87" s="26" t="s">
         <v>260</v>
       </c>
       <c r="G87" s="1" t="s">
@@ -23204,7 +23250,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="88" s="30" customFormat="1" spans="1:13">
+    <row r="88" s="25" customFormat="1" spans="1:13">
       <c r="A88" s="10">
         <v>344</v>
       </c>
@@ -23220,7 +23266,7 @@
       <c r="E88" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F88" s="31" t="s">
+      <c r="F88" s="26" t="s">
         <v>260</v>
       </c>
       <c r="G88" s="1" t="s">
@@ -23261,7 +23307,7 @@
       <c r="E89" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F89" s="31" t="s">
+      <c r="F89" s="26" t="s">
         <v>260</v>
       </c>
       <c r="G89" s="1" t="s">
@@ -23302,7 +23348,7 @@
       <c r="E90" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F90" s="31" t="s">
+      <c r="F90" s="26" t="s">
         <v>260</v>
       </c>
       <c r="G90" s="1" t="s">
@@ -23343,7 +23389,7 @@
       <c r="E91" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F91" s="31" t="s">
+      <c r="F91" s="26" t="s">
         <v>260</v>
       </c>
       <c r="G91" s="1" t="s">
@@ -23384,7 +23430,7 @@
       <c r="E92" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F92" s="31" t="s">
+      <c r="F92" s="26" t="s">
         <v>260</v>
       </c>
       <c r="G92" s="1" t="s">
@@ -23425,7 +23471,7 @@
       <c r="E93" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F93" s="31" t="s">
+      <c r="F93" s="26" t="s">
         <v>260</v>
       </c>
       <c r="G93" s="1" t="s">
@@ -23466,7 +23512,7 @@
       <c r="E94" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F94" s="31" t="s">
+      <c r="F94" s="26" t="s">
         <v>260</v>
       </c>
       <c r="G94" s="1" t="s">
@@ -23507,7 +23553,7 @@
       <c r="E95" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F95" s="31" t="s">
+      <c r="F95" s="26" t="s">
         <v>260</v>
       </c>
       <c r="G95" s="1" t="s">
@@ -23548,7 +23594,7 @@
       <c r="E96" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F96" s="31" t="s">
+      <c r="F96" s="26" t="s">
         <v>260</v>
       </c>
       <c r="G96" s="1" t="s">
@@ -23589,7 +23635,7 @@
       <c r="E97" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F97" s="31" t="s">
+      <c r="F97" s="26" t="s">
         <v>260</v>
       </c>
       <c r="G97" s="1" t="s">
@@ -23630,7 +23676,7 @@
       <c r="E98" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F98" s="31" t="s">
+      <c r="F98" s="26" t="s">
         <v>260</v>
       </c>
       <c r="G98" s="1" t="s">
@@ -23671,7 +23717,7 @@
       <c r="E99" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F99" s="31" t="s">
+      <c r="F99" s="26" t="s">
         <v>260</v>
       </c>
       <c r="G99" s="1" t="s">
@@ -23712,7 +23758,7 @@
       <c r="E100" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F100" s="31" t="s">
+      <c r="F100" s="26" t="s">
         <v>260</v>
       </c>
       <c r="G100" s="1" t="s">
@@ -23753,7 +23799,7 @@
       <c r="E101" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F101" s="31" t="s">
+      <c r="F101" s="26" t="s">
         <v>260</v>
       </c>
       <c r="G101" s="1" t="s">
@@ -23794,7 +23840,7 @@
       <c r="E102" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F102" s="31" t="s">
+      <c r="F102" s="26" t="s">
         <v>260</v>
       </c>
       <c r="G102" s="1" t="s">
@@ -23835,7 +23881,7 @@
       <c r="E103" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F103" s="31" t="s">
+      <c r="F103" s="26" t="s">
         <v>260</v>
       </c>
       <c r="G103" s="1" t="s">
@@ -23876,7 +23922,7 @@
       <c r="E104" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F104" s="31" t="s">
+      <c r="F104" s="26" t="s">
         <v>260</v>
       </c>
       <c r="G104" s="1" t="s">
@@ -23917,7 +23963,7 @@
       <c r="E105" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F105" s="31" t="s">
+      <c r="F105" s="26" t="s">
         <v>260</v>
       </c>
       <c r="G105" s="1" t="s">
@@ -23958,7 +24004,7 @@
       <c r="E106" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F106" s="31" t="s">
+      <c r="F106" s="26" t="s">
         <v>260</v>
       </c>
       <c r="G106" s="1" t="s">
@@ -23999,7 +24045,7 @@
       <c r="E107" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F107" s="31" t="s">
+      <c r="F107" s="26" t="s">
         <v>260</v>
       </c>
       <c r="G107" s="1" t="s">
@@ -24040,7 +24086,7 @@
       <c r="E108" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F108" s="31" t="s">
+      <c r="F108" s="26" t="s">
         <v>260</v>
       </c>
       <c r="G108" s="1" t="s">
@@ -24081,7 +24127,7 @@
       <c r="E109" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F109" s="31" t="s">
+      <c r="F109" s="26" t="s">
         <v>260</v>
       </c>
       <c r="G109" s="1" t="s">
@@ -24122,7 +24168,7 @@
       <c r="E110" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F110" s="31" t="s">
+      <c r="F110" s="26" t="s">
         <v>260</v>
       </c>
       <c r="G110" s="1" t="s">
@@ -24163,7 +24209,7 @@
       <c r="E111" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F111" s="31" t="s">
+      <c r="F111" s="26" t="s">
         <v>260</v>
       </c>
       <c r="G111" s="1" t="s">
@@ -24204,7 +24250,7 @@
       <c r="E112" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F112" s="31" t="s">
+      <c r="F112" s="26" t="s">
         <v>260</v>
       </c>
       <c r="G112" s="1" t="s">
@@ -24245,7 +24291,7 @@
       <c r="E113" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F113" s="31" t="s">
+      <c r="F113" s="26" t="s">
         <v>260</v>
       </c>
       <c r="G113" s="1" t="s">
@@ -24286,7 +24332,7 @@
       <c r="E114" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F114" s="31" t="s">
+      <c r="F114" s="26" t="s">
         <v>260</v>
       </c>
       <c r="G114" s="1" t="s">
@@ -24327,7 +24373,7 @@
       <c r="E115" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F115" s="31" t="s">
+      <c r="F115" s="26" t="s">
         <v>260</v>
       </c>
       <c r="G115" s="1" t="s">
@@ -24368,7 +24414,7 @@
       <c r="E116" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F116" s="31" t="s">
+      <c r="F116" s="26" t="s">
         <v>260</v>
       </c>
       <c r="G116" s="1" t="s">
@@ -24409,7 +24455,7 @@
       <c r="E117" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F117" s="31" t="s">
+      <c r="F117" s="26" t="s">
         <v>260</v>
       </c>
       <c r="G117" s="1" t="s">
@@ -24450,7 +24496,7 @@
       <c r="E118" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F118" s="31" t="s">
+      <c r="F118" s="26" t="s">
         <v>260</v>
       </c>
       <c r="G118" s="1" t="s">
@@ -24491,7 +24537,7 @@
       <c r="E119" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F119" s="31" t="s">
+      <c r="F119" s="26" t="s">
         <v>260</v>
       </c>
       <c r="G119" s="1" t="s">
@@ -24532,7 +24578,7 @@
       <c r="E120" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F120" s="31" t="s">
+      <c r="F120" s="26" t="s">
         <v>260</v>
       </c>
       <c r="G120" s="1" t="s">
@@ -24573,7 +24619,7 @@
       <c r="E121" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F121" s="31" t="s">
+      <c r="F121" s="26" t="s">
         <v>260</v>
       </c>
       <c r="G121" s="1" t="s">
@@ -24614,7 +24660,7 @@
       <c r="E122" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F122" s="31" t="s">
+      <c r="F122" s="26" t="s">
         <v>260</v>
       </c>
       <c r="G122" s="1" t="s">
@@ -24655,7 +24701,7 @@
       <c r="E123" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F123" s="31" t="s">
+      <c r="F123" s="26" t="s">
         <v>260</v>
       </c>
       <c r="G123" s="1" t="s">
@@ -24696,7 +24742,7 @@
       <c r="E124" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F124" s="31" t="s">
+      <c r="F124" s="26" t="s">
         <v>260</v>
       </c>
       <c r="G124" s="1" t="s">
@@ -24737,7 +24783,7 @@
       <c r="E125" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F125" s="31" t="s">
+      <c r="F125" s="26" t="s">
         <v>260</v>
       </c>
       <c r="G125" s="1" t="s">
@@ -24778,7 +24824,7 @@
       <c r="E126" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F126" s="31" t="s">
+      <c r="F126" s="26" t="s">
         <v>260</v>
       </c>
       <c r="G126" s="1" t="s">
@@ -24816,7 +24862,7 @@
       <c r="E127" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F127" s="31" t="s">
+      <c r="F127" s="26" t="s">
         <v>346</v>
       </c>
       <c r="G127" s="1" t="s">
@@ -24854,7 +24900,7 @@
       <c r="E128" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F128" s="31" t="s">
+      <c r="F128" s="26" t="s">
         <v>346</v>
       </c>
       <c r="G128" s="1" t="s">
@@ -24892,7 +24938,7 @@
       <c r="E129" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F129" s="31" t="s">
+      <c r="F129" s="26" t="s">
         <v>346</v>
       </c>
       <c r="G129" s="1" t="s">
@@ -24930,7 +24976,7 @@
       <c r="E130" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F130" s="31" t="s">
+      <c r="F130" s="26" t="s">
         <v>346</v>
       </c>
       <c r="G130" s="1" t="s">
@@ -24968,7 +25014,7 @@
       <c r="E131" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F131" s="31" t="s">
+      <c r="F131" s="26" t="s">
         <v>346</v>
       </c>
       <c r="G131" s="1" t="s">
@@ -25006,7 +25052,7 @@
       <c r="E132" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F132" s="31" t="s">
+      <c r="F132" s="26" t="s">
         <v>346</v>
       </c>
       <c r="G132" s="1" t="s">
@@ -25044,7 +25090,7 @@
       <c r="E133" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F133" s="31" t="s">
+      <c r="F133" s="26" t="s">
         <v>346</v>
       </c>
       <c r="G133" s="1" t="s">
@@ -25082,7 +25128,7 @@
       <c r="E134" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F134" s="31" t="s">
+      <c r="F134" s="26" t="s">
         <v>346</v>
       </c>
       <c r="G134" s="1" t="s">
@@ -25120,7 +25166,7 @@
       <c r="E135" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F135" s="31" t="s">
+      <c r="F135" s="26" t="s">
         <v>346</v>
       </c>
       <c r="G135" s="1" t="s">
@@ -25158,7 +25204,7 @@
       <c r="E136" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F136" s="31" t="s">
+      <c r="F136" s="26" t="s">
         <v>346</v>
       </c>
       <c r="G136" s="1" t="s">
@@ -25196,7 +25242,7 @@
       <c r="E137" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F137" s="31" t="s">
+      <c r="F137" s="26" t="s">
         <v>346</v>
       </c>
       <c r="G137" s="1" t="s">
@@ -25234,7 +25280,7 @@
       <c r="E138" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F138" s="31" t="s">
+      <c r="F138" s="26" t="s">
         <v>346</v>
       </c>
       <c r="G138" s="1" t="s">
@@ -25272,7 +25318,7 @@
       <c r="E139" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F139" s="31" t="s">
+      <c r="F139" s="26" t="s">
         <v>346</v>
       </c>
       <c r="G139" s="1" t="s">
@@ -25310,7 +25356,7 @@
       <c r="E140" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F140" s="31" t="s">
+      <c r="F140" s="26" t="s">
         <v>346</v>
       </c>
       <c r="G140" s="1" t="s">
@@ -25348,7 +25394,7 @@
       <c r="E141" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F141" s="31" t="s">
+      <c r="F141" s="26" t="s">
         <v>346</v>
       </c>
       <c r="G141" s="1" t="s">
@@ -25386,7 +25432,7 @@
       <c r="E142" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F142" s="31" t="s">
+      <c r="F142" s="26" t="s">
         <v>346</v>
       </c>
       <c r="G142" s="1" t="s">
@@ -25424,7 +25470,7 @@
       <c r="E143" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F143" s="31" t="s">
+      <c r="F143" s="26" t="s">
         <v>346</v>
       </c>
       <c r="G143" s="1" t="s">
@@ -25462,7 +25508,7 @@
       <c r="E144" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F144" s="31" t="s">
+      <c r="F144" s="26" t="s">
         <v>346</v>
       </c>
       <c r="G144" s="1" t="s">
@@ -25500,7 +25546,7 @@
       <c r="E145" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F145" s="31" t="s">
+      <c r="F145" s="26" t="s">
         <v>346</v>
       </c>
       <c r="G145" s="1" t="s">
@@ -25538,7 +25584,7 @@
       <c r="E146" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F146" s="31" t="s">
+      <c r="F146" s="26" t="s">
         <v>346</v>
       </c>
       <c r="G146" s="1" t="s">
@@ -25576,7 +25622,7 @@
       <c r="E147" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F147" s="31" t="s">
+      <c r="F147" s="26" t="s">
         <v>346</v>
       </c>
       <c r="G147" s="1" t="s">
@@ -25614,7 +25660,7 @@
       <c r="E148" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F148" s="31" t="s">
+      <c r="F148" s="26" t="s">
         <v>346</v>
       </c>
       <c r="G148" s="1" t="s">
@@ -25652,7 +25698,7 @@
       <c r="E149" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F149" s="31" t="s">
+      <c r="F149" s="26" t="s">
         <v>346</v>
       </c>
       <c r="G149" s="1" t="s">
@@ -25690,7 +25736,7 @@
       <c r="E150" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F150" s="31" t="s">
+      <c r="F150" s="26" t="s">
         <v>346</v>
       </c>
       <c r="G150" s="1" t="s">
@@ -25728,7 +25774,7 @@
       <c r="E151" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F151" s="31" t="s">
+      <c r="F151" s="26" t="s">
         <v>346</v>
       </c>
       <c r="G151" s="1" t="s">
@@ -25766,7 +25812,7 @@
       <c r="E152" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F152" s="31" t="s">
+      <c r="F152" s="26" t="s">
         <v>346</v>
       </c>
       <c r="G152" s="1" t="s">
@@ -25804,7 +25850,7 @@
       <c r="E153" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F153" s="31" t="s">
+      <c r="F153" s="26" t="s">
         <v>346</v>
       </c>
       <c r="G153" s="1" t="s">
@@ -25842,7 +25888,7 @@
       <c r="E154" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F154" s="31" t="s">
+      <c r="F154" s="26" t="s">
         <v>346</v>
       </c>
       <c r="G154" s="1" t="s">
@@ -25880,7 +25926,7 @@
       <c r="E155" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F155" s="31" t="s">
+      <c r="F155" s="26" t="s">
         <v>346</v>
       </c>
       <c r="G155" s="1" t="s">
@@ -25918,7 +25964,7 @@
       <c r="E156" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F156" s="31" t="s">
+      <c r="F156" s="26" t="s">
         <v>346</v>
       </c>
       <c r="G156" s="1" t="s">
@@ -25956,7 +26002,7 @@
       <c r="E157" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F157" s="31" t="s">
+      <c r="F157" s="26" t="s">
         <v>346</v>
       </c>
       <c r="G157" s="1" t="s">
@@ -25994,7 +26040,7 @@
       <c r="E158" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F158" s="31" t="s">
+      <c r="F158" s="26" t="s">
         <v>346</v>
       </c>
       <c r="G158" s="1" t="s">
@@ -26032,7 +26078,7 @@
       <c r="E159" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F159" s="31" t="s">
+      <c r="F159" s="26" t="s">
         <v>346</v>
       </c>
       <c r="G159" s="1" t="s">
@@ -26070,7 +26116,7 @@
       <c r="E160" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F160" s="31" t="s">
+      <c r="F160" s="26" t="s">
         <v>346</v>
       </c>
       <c r="G160" s="1" t="s">
@@ -26108,7 +26154,7 @@
       <c r="E161" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F161" s="31" t="s">
+      <c r="F161" s="26" t="s">
         <v>346</v>
       </c>
       <c r="G161" s="1" t="s">
@@ -26146,7 +26192,7 @@
       <c r="E162" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F162" s="31" t="s">
+      <c r="F162" s="26" t="s">
         <v>346</v>
       </c>
       <c r="G162" s="1" t="s">
@@ -26184,7 +26230,7 @@
       <c r="E163" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F163" s="31" t="s">
+      <c r="F163" s="26" t="s">
         <v>346</v>
       </c>
       <c r="G163" s="1" t="s">
@@ -26222,7 +26268,7 @@
       <c r="E164" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F164" s="31" t="s">
+      <c r="F164" s="26" t="s">
         <v>346</v>
       </c>
       <c r="G164" s="1" t="s">
@@ -26260,7 +26306,7 @@
       <c r="E165" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F165" s="31" t="s">
+      <c r="F165" s="26" t="s">
         <v>346</v>
       </c>
       <c r="G165" s="1" t="s">
@@ -26298,7 +26344,7 @@
       <c r="E166" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F166" s="31" t="s">
+      <c r="F166" s="26" t="s">
         <v>346</v>
       </c>
       <c r="G166" s="1" t="s">
@@ -26336,7 +26382,7 @@
       <c r="E167" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F167" s="31" t="s">
+      <c r="F167" s="26" t="s">
         <v>346</v>
       </c>
       <c r="G167" s="1" t="s">
@@ -26374,7 +26420,7 @@
       <c r="E168" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F168" s="31" t="s">
+      <c r="F168" s="26" t="s">
         <v>346</v>
       </c>
       <c r="G168" s="1" t="s">
@@ -26412,7 +26458,7 @@
       <c r="E169" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F169" s="31" t="s">
+      <c r="F169" s="26" t="s">
         <v>346</v>
       </c>
       <c r="G169" s="1" t="s">
@@ -26450,7 +26496,7 @@
       <c r="E170" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F170" s="31" t="s">
+      <c r="F170" s="26" t="s">
         <v>346</v>
       </c>
       <c r="G170" s="1" t="s">
@@ -26488,7 +26534,7 @@
       <c r="E171" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F171" s="31" t="s">
+      <c r="F171" s="26" t="s">
         <v>346</v>
       </c>
       <c r="G171" s="1" t="s">
@@ -26526,7 +26572,7 @@
       <c r="E172" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F172" s="31" t="s">
+      <c r="F172" s="26" t="s">
         <v>346</v>
       </c>
       <c r="G172" s="1" t="s">
@@ -26552,7 +26598,7 @@
       </c>
     </row>
     <row r="173" spans="1:13">
-      <c r="A173" s="22">
+      <c r="A173" s="20">
         <v>601</v>
       </c>
       <c r="B173" s="6" t="s">
@@ -26565,7 +26611,7 @@
       <c r="E173" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="F173" s="33" t="s">
+      <c r="F173" s="28" t="s">
         <v>394</v>
       </c>
       <c r="G173" s="6" t="s">
@@ -26604,7 +26650,7 @@
       <c r="E174" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F174" s="31" t="s">
+      <c r="F174" s="26" t="s">
         <v>394</v>
       </c>
       <c r="G174" s="1" t="s">
@@ -26643,7 +26689,7 @@
       <c r="E175" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F175" s="31" t="s">
+      <c r="F175" s="26" t="s">
         <v>394</v>
       </c>
       <c r="G175" s="1" t="s">
@@ -26682,7 +26728,7 @@
       <c r="E176" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F176" s="31" t="s">
+      <c r="F176" s="26" t="s">
         <v>394</v>
       </c>
       <c r="G176" s="1" t="s">
@@ -26721,7 +26767,7 @@
       <c r="E177" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F177" s="31" t="s">
+      <c r="F177" s="26" t="s">
         <v>394</v>
       </c>
       <c r="G177" s="1" t="s">
@@ -26760,7 +26806,7 @@
       <c r="E178" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F178" s="31" t="s">
+      <c r="F178" s="26" t="s">
         <v>394</v>
       </c>
       <c r="G178" s="1" t="s">
@@ -26799,7 +26845,7 @@
       <c r="E179" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F179" s="31" t="s">
+      <c r="F179" s="26" t="s">
         <v>394</v>
       </c>
       <c r="G179" s="1" t="s">
@@ -26838,7 +26884,7 @@
       <c r="E180" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F180" s="31" t="s">
+      <c r="F180" s="26" t="s">
         <v>394</v>
       </c>
       <c r="G180" s="1" t="s">
@@ -26877,7 +26923,7 @@
       <c r="E181" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F181" s="31" t="s">
+      <c r="F181" s="26" t="s">
         <v>394</v>
       </c>
       <c r="G181" s="1" t="s">
@@ -26916,7 +26962,7 @@
       <c r="E182" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F182" s="31" t="s">
+      <c r="F182" s="26" t="s">
         <v>394</v>
       </c>
       <c r="G182" s="1" t="s">
@@ -26955,7 +27001,7 @@
       <c r="E183" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F183" s="31" t="s">
+      <c r="F183" s="26" t="s">
         <v>394</v>
       </c>
       <c r="G183" s="1" t="s">
@@ -26993,7 +27039,7 @@
       <c r="E184" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F184" s="31" t="s">
+      <c r="F184" s="26" t="s">
         <v>394</v>
       </c>
       <c r="G184" s="1" t="s">
@@ -27031,7 +27077,7 @@
       <c r="E185" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F185" s="31" t="s">
+      <c r="F185" s="26" t="s">
         <v>394</v>
       </c>
       <c r="G185" s="1" t="s">
@@ -27069,7 +27115,7 @@
       <c r="E186" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F186" s="31" t="s">
+      <c r="F186" s="26" t="s">
         <v>394</v>
       </c>
       <c r="G186" s="1" t="s">
@@ -27107,7 +27153,7 @@
       <c r="E187" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F187" s="31" t="s">
+      <c r="F187" s="26" t="s">
         <v>394</v>
       </c>
       <c r="G187" s="1" t="s">
@@ -27145,7 +27191,7 @@
       <c r="E188" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F188" s="31" t="s">
+      <c r="F188" s="26" t="s">
         <v>394</v>
       </c>
       <c r="G188" s="1" t="s">
@@ -27183,7 +27229,7 @@
       <c r="E189" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F189" s="31" t="s">
+      <c r="F189" s="26" t="s">
         <v>394</v>
       </c>
       <c r="G189" s="1" t="s">
@@ -27221,7 +27267,7 @@
       <c r="E190" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F190" s="31" t="s">
+      <c r="F190" s="26" t="s">
         <v>394</v>
       </c>
       <c r="G190" s="1" t="s">
@@ -27259,7 +27305,7 @@
       <c r="E191" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F191" s="31" t="s">
+      <c r="F191" s="26" t="s">
         <v>394</v>
       </c>
       <c r="G191" s="1" t="s">
@@ -27297,7 +27343,7 @@
       <c r="E192" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F192" s="31" t="s">
+      <c r="F192" s="26" t="s">
         <v>394</v>
       </c>
       <c r="G192" s="1" t="s">
@@ -27335,7 +27381,7 @@
       <c r="E193" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F193" s="31" t="s">
+      <c r="F193" s="26" t="s">
         <v>394</v>
       </c>
       <c r="G193" s="1" t="s">
@@ -27361,41 +27407,41 @@
       </c>
     </row>
     <row r="194" spans="1:13">
-      <c r="A194" s="26">
+      <c r="A194" s="21">
         <v>622</v>
       </c>
-      <c r="B194" s="29" t="s">
+      <c r="B194" s="22" t="s">
         <v>446</v>
       </c>
-      <c r="C194" s="29"/>
-      <c r="D194" s="29">
+      <c r="C194" s="22"/>
+      <c r="D194" s="22">
         <v>30</v>
       </c>
-      <c r="E194" s="29" t="s">
+      <c r="E194" s="22" t="s">
         <v>215</v>
       </c>
-      <c r="F194" s="35" t="s">
+      <c r="F194" s="30" t="s">
         <v>394</v>
       </c>
-      <c r="G194" s="29" t="s">
+      <c r="G194" s="22" t="s">
         <v>407</v>
       </c>
-      <c r="H194" s="29" t="s">
+      <c r="H194" s="22" t="s">
         <v>407</v>
       </c>
-      <c r="I194" s="29" t="s">
+      <c r="I194" s="22" t="s">
         <v>426</v>
       </c>
-      <c r="J194" s="29" t="s">
+      <c r="J194" s="22" t="s">
         <v>447</v>
       </c>
-      <c r="K194" s="29" t="s">
+      <c r="K194" s="22" t="s">
         <v>448</v>
       </c>
-      <c r="L194" s="29" t="s">
+      <c r="L194" s="22" t="s">
         <v>395</v>
       </c>
-      <c r="M194" s="29" t="s">
+      <c r="M194" s="22" t="s">
         <v>449</v>
       </c>
     </row>
@@ -27412,7 +27458,7 @@
       <c r="E195" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F195" s="31" t="s">
+      <c r="F195" s="26" t="s">
         <v>451</v>
       </c>
       <c r="G195" s="1" t="s">
@@ -27450,7 +27496,7 @@
       <c r="E196" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F196" s="31" t="s">
+      <c r="F196" s="26" t="s">
         <v>451</v>
       </c>
       <c r="G196" s="1" t="s">
@@ -27488,7 +27534,7 @@
       <c r="E197" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F197" s="31" t="s">
+      <c r="F197" s="26" t="s">
         <v>451</v>
       </c>
       <c r="G197" s="1" t="s">
@@ -27526,7 +27572,7 @@
       <c r="E198" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F198" s="31" t="s">
+      <c r="F198" s="26" t="s">
         <v>451</v>
       </c>
       <c r="G198" s="1" t="s">
@@ -27564,7 +27610,7 @@
       <c r="E199" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F199" s="31" t="s">
+      <c r="F199" s="26" t="s">
         <v>451</v>
       </c>
       <c r="G199" s="1" t="s">
@@ -27602,7 +27648,7 @@
       <c r="E200" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F200" s="31" t="s">
+      <c r="F200" s="26" t="s">
         <v>451</v>
       </c>
       <c r="G200" s="1" t="s">
@@ -29073,7 +29119,7 @@
       <c r="B1" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="24" t="s">
         <v>538</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -30484,54 +30530,54 @@
       <c r="A17" s="20">
         <v>16</v>
       </c>
-      <c r="B17" s="21" t="s">
+      <c r="B17" s="6" t="s">
         <v>578</v>
       </c>
-      <c r="C17" s="21" t="s">
+      <c r="C17" s="6" t="s">
         <v>579</v>
       </c>
-      <c r="D17" s="22">
+      <c r="D17" s="20">
         <v>20</v>
       </c>
-      <c r="E17" s="21">
+      <c r="E17" s="6">
         <v>0</v>
       </c>
       <c r="F17" s="7">
         <v>20</v>
       </c>
-      <c r="G17" s="21">
+      <c r="G17" s="6">
         <v>5</v>
       </c>
-      <c r="H17" s="21">
-        <v>0</v>
-      </c>
-      <c r="I17" s="21">
+      <c r="H17" s="6">
+        <v>0</v>
+      </c>
+      <c r="I17" s="6">
         <v>10</v>
       </c>
       <c r="J17" s="18" t="s">
         <v>580</v>
       </c>
-      <c r="K17" s="21">
-        <v>0</v>
-      </c>
-      <c r="L17" s="21">
-        <v>0</v>
-      </c>
-      <c r="M17" s="21">
-        <v>0</v>
-      </c>
-      <c r="N17" s="21">
-        <v>0</v>
-      </c>
-      <c r="O17" s="21">
-        <v>0</v>
-      </c>
-      <c r="P17" s="21">
+      <c r="K17" s="6">
+        <v>0</v>
+      </c>
+      <c r="L17" s="6">
+        <v>0</v>
+      </c>
+      <c r="M17" s="6">
+        <v>0</v>
+      </c>
+      <c r="N17" s="6">
+        <v>0</v>
+      </c>
+      <c r="O17" s="6">
+        <v>0</v>
+      </c>
+      <c r="P17" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="18" ht="15.6" spans="1:16">
-      <c r="A18" s="23">
+      <c r="A18" s="10">
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -30581,7 +30627,7 @@
       </c>
     </row>
     <row r="19" ht="15.6" spans="1:16">
-      <c r="A19" s="23">
+      <c r="A19" s="10">
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -30631,7 +30677,7 @@
       </c>
     </row>
     <row r="20" ht="15.6" spans="1:16">
-      <c r="A20" s="23">
+      <c r="A20" s="10">
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -30681,7 +30727,7 @@
       </c>
     </row>
     <row r="21" ht="15.6" spans="1:16">
-      <c r="A21" s="23">
+      <c r="A21" s="10">
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -30731,7 +30777,7 @@
       </c>
     </row>
     <row r="22" ht="15.6" spans="1:16">
-      <c r="A22" s="23">
+      <c r="A22" s="10">
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
@@ -30781,7 +30827,7 @@
       </c>
     </row>
     <row r="23" ht="15.6" spans="1:16">
-      <c r="A23" s="23">
+      <c r="A23" s="10">
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
@@ -30831,7 +30877,7 @@
       </c>
     </row>
     <row r="24" ht="15.6" spans="1:16">
-      <c r="A24" s="23">
+      <c r="A24" s="10">
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -30881,7 +30927,7 @@
       </c>
     </row>
     <row r="25" ht="15.6" spans="1:16">
-      <c r="A25" s="23">
+      <c r="A25" s="10">
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
@@ -30931,7 +30977,7 @@
       </c>
     </row>
     <row r="26" ht="15.6" spans="1:16">
-      <c r="A26" s="23">
+      <c r="A26" s="10">
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
@@ -30981,7 +31027,7 @@
       </c>
     </row>
     <row r="27" ht="15.6" spans="1:16">
-      <c r="A27" s="23">
+      <c r="A27" s="10">
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -31031,7 +31077,7 @@
       </c>
     </row>
     <row r="28" ht="15.6" spans="1:16">
-      <c r="A28" s="23">
+      <c r="A28" s="10">
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
@@ -31081,7 +31127,7 @@
       </c>
     </row>
     <row r="29" ht="15.6" spans="1:16">
-      <c r="A29" s="23">
+      <c r="A29" s="10">
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
@@ -31131,7 +31177,7 @@
       </c>
     </row>
     <row r="30" ht="15.6" spans="1:16">
-      <c r="A30" s="23">
+      <c r="A30" s="10">
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
@@ -31181,7 +31227,7 @@
       </c>
     </row>
     <row r="31" ht="15.6" spans="1:16">
-      <c r="A31" s="23">
+      <c r="A31" s="10">
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
@@ -31231,52 +31277,52 @@
       </c>
     </row>
     <row r="32" s="19" customFormat="1" ht="15.6" spans="1:16">
-      <c r="A32" s="24">
+      <c r="A32" s="21">
         <v>31</v>
       </c>
-      <c r="B32" s="25" t="s">
+      <c r="B32" s="22" t="s">
         <v>578</v>
       </c>
-      <c r="C32" s="25" t="s">
+      <c r="C32" s="22" t="s">
         <v>609</v>
       </c>
-      <c r="D32" s="26">
+      <c r="D32" s="21">
         <v>20</v>
       </c>
-      <c r="E32" s="25">
-        <v>0</v>
-      </c>
-      <c r="F32" s="27">
+      <c r="E32" s="22">
+        <v>0</v>
+      </c>
+      <c r="F32" s="23">
         <v>20</v>
       </c>
-      <c r="G32" s="25">
+      <c r="G32" s="22">
         <v>5</v>
       </c>
-      <c r="H32" s="25">
-        <v>0</v>
-      </c>
-      <c r="I32" s="25">
+      <c r="H32" s="22">
+        <v>0</v>
+      </c>
+      <c r="I32" s="22">
         <v>10</v>
       </c>
       <c r="J32" s="19" t="s">
         <v>610</v>
       </c>
-      <c r="K32" s="25">
-        <v>0</v>
-      </c>
-      <c r="L32" s="25">
-        <v>0</v>
-      </c>
-      <c r="M32" s="25">
-        <v>0</v>
-      </c>
-      <c r="N32" s="25">
-        <v>0</v>
-      </c>
-      <c r="O32" s="25">
-        <v>0</v>
-      </c>
-      <c r="P32" s="25">
+      <c r="K32" s="22">
+        <v>0</v>
+      </c>
+      <c r="L32" s="22">
+        <v>0</v>
+      </c>
+      <c r="M32" s="22">
+        <v>0</v>
+      </c>
+      <c r="N32" s="22">
+        <v>0</v>
+      </c>
+      <c r="O32" s="22">
+        <v>0</v>
+      </c>
+      <c r="P32" s="22">
         <v>0</v>
       </c>
     </row>

--- a/Conversion/AutoChangeJson/datasrc/111.xlsx
+++ b/Conversion/AutoChangeJson/datasrc/111.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" tabRatio="812" firstSheet="5" activeTab="11"/>
+    <workbookView windowWidth="22368" windowHeight="9420" tabRatio="812" firstSheet="8" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="RoleTable0" sheetId="2" r:id="rId1"/>
@@ -1865,7 +1865,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2791" uniqueCount="1104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2796" uniqueCount="1108">
   <si>
     <t>index</t>
   </si>
@@ -4938,7 +4938,7 @@
     <t>1,2,3,4,5,6</t>
   </si>
   <si>
-    <t>1,2,4</t>
+    <t>0,1,2,3,4,5</t>
   </si>
   <si>
     <t>讨伐董卓</t>
@@ -4950,6 +4950,9 @@
     <t>3,4,5,6,7,8,9</t>
   </si>
   <si>
+    <t>2,3,4,5,6,7,8</t>
+  </si>
+  <si>
     <t>群雄割据</t>
   </si>
   <si>
@@ -4965,6 +4968,9 @@
     <t>3,4,5,7,8,9,10</t>
   </si>
   <si>
+    <t>2,3,4,6,7,8,9</t>
+  </si>
+  <si>
     <t>官渡之战</t>
   </si>
   <si>
@@ -4974,6 +4980,9 @@
     <t>3,4,5,8,11</t>
   </si>
   <si>
+    <t>2,3,4,7,10</t>
+  </si>
+  <si>
     <t>赤壁之战</t>
   </si>
   <si>
@@ -4981,6 +4990,9 @@
   </si>
   <si>
     <t>3,4,5</t>
+  </si>
+  <si>
+    <t>2,3,4</t>
   </si>
   <si>
     <t>enemyTotal</t>
@@ -5283,16 +5295,18 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -5313,21 +5327,44 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5341,17 +5378,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -5371,7 +5413,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -5380,45 +5421,16 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5450,6 +5462,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -5462,13 +5492,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5480,115 +5618,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5600,31 +5630,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5713,11 +5725,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5747,26 +5765,24 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -5796,17 +5812,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5816,10 +5828,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5828,16 +5840,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5846,118 +5858,118 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="20" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="23" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -12775,7 +12787,7 @@
   <sheetPr/>
   <dimension ref="A1:M12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
@@ -13834,8 +13846,8 @@
   <sheetPr/>
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.87962962962963" defaultRowHeight="15.6" outlineLevelRow="6" outlineLevelCol="5"/>
@@ -13844,7 +13856,9 @@
     <col min="2" max="2" width="11.8796296296296" style="1" customWidth="1"/>
     <col min="3" max="3" width="45.6296296296296" style="1" customWidth="1"/>
     <col min="4" max="4" width="14.6296296296296" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.87962962962963" style="1"/>
+    <col min="5" max="5" width="8.87962962962963" style="1"/>
+    <col min="6" max="6" width="29.2222222222222" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.87962962962963" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -13887,7 +13901,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -13903,16 +13917,19 @@
       <c r="E3" s="5">
         <v>190</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3" s="1" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>1021</v>
@@ -13920,56 +13937,68 @@
       <c r="E4" s="5">
         <v>194</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="F4" s="1" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="E5" s="5">
         <v>196</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5" s="1" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>1027</v>
+        <v>1029</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>1028</v>
+        <v>1030</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>1029</v>
+        <v>1031</v>
       </c>
       <c r="E6" s="5">
         <v>200</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="F6" s="1" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>1030</v>
+        <v>1033</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>1031</v>
+        <v>1034</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>1032</v>
+        <v>1035</v>
       </c>
       <c r="E7" s="5">
         <v>208</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>1036</v>
       </c>
     </row>
   </sheetData>
@@ -13999,19 +14028,19 @@
         <v>185</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>1033</v>
+        <v>1037</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>1034</v>
+        <v>1038</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>1035</v>
+        <v>1039</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>1036</v>
+        <v>1040</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>1037</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="2" ht="15.6" spans="1:6">
@@ -14019,19 +14048,19 @@
         <v>185</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>1038</v>
+        <v>1042</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>1039</v>
+        <v>1043</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>1040</v>
+        <v>1044</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>1041</v>
+        <v>1045</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>1042</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="3" ht="15.6" spans="1:6">
@@ -14263,13 +14292,13 @@
         <v>185</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>1043</v>
+        <v>1047</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>1044</v>
+        <v>1048</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1045</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -14277,13 +14306,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>1046</v>
+        <v>1050</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>1047</v>
+        <v>1051</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>1048</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -14291,13 +14320,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>1049</v>
+        <v>1053</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>1050</v>
+        <v>1054</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>1051</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -14305,13 +14334,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>1052</v>
+        <v>1056</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>1053</v>
+        <v>1057</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>1054</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -14319,13 +14348,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>1055</v>
+        <v>1059</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>1056</v>
+        <v>1060</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>1057</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -14333,13 +14362,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>1058</v>
+        <v>1062</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>1059</v>
+        <v>1063</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>1060</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -14347,13 +14376,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>1061</v>
+        <v>1065</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>1062</v>
+        <v>1066</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>1063</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -14361,13 +14390,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>1064</v>
+        <v>1068</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>1065</v>
+        <v>1069</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>1066</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -14375,13 +14404,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>1067</v>
+        <v>1071</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>1068</v>
+        <v>1072</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>1069</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -14389,13 +14418,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>1070</v>
+        <v>1074</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>612</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>1071</v>
+        <v>1075</v>
       </c>
     </row>
   </sheetData>
@@ -14427,10 +14456,10 @@
         <v>185</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1072</v>
+        <v>1076</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1073</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -14438,10 +14467,10 @@
         <v>185</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1074</v>
+        <v>1078</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1075</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -14449,7 +14478,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>1076</v>
+        <v>1080</v>
       </c>
       <c r="C3" s="1">
         <v>1</v>
@@ -14460,7 +14489,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>1077</v>
+        <v>1081</v>
       </c>
       <c r="C4" s="1">
         <v>3</v>
@@ -14471,7 +14500,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>1078</v>
+        <v>1082</v>
       </c>
       <c r="C5" s="1">
         <v>5</v>
@@ -14482,7 +14511,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>1079</v>
+        <v>1083</v>
       </c>
       <c r="C6" s="1">
         <v>7</v>
@@ -14493,7 +14522,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>1080</v>
+        <v>1084</v>
       </c>
       <c r="C7" s="1">
         <v>9</v>
@@ -14545,7 +14574,7 @@
         <v>734</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1081</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -14556,7 +14585,7 @@
         <v>749</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1082</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -14564,10 +14593,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1083</v>
+        <v>1087</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>1084</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -14575,10 +14604,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1085</v>
+        <v>1089</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>1086</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -14586,10 +14615,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1087</v>
+        <v>1091</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>1088</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -14597,10 +14626,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>1089</v>
+        <v>1093</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>1090</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -14608,10 +14637,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>1091</v>
+        <v>1095</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>1092</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -14619,10 +14648,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>1093</v>
+        <v>1097</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>1094</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -14630,10 +14659,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>1095</v>
+        <v>1099</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>1096</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -14641,10 +14670,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>1097</v>
+        <v>1101</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>1098</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -14652,10 +14681,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>1099</v>
+        <v>1103</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>1100</v>
+        <v>1104</v>
       </c>
     </row>
   </sheetData>
@@ -21045,10 +21074,10 @@
         <v>931</v>
       </c>
       <c r="B1" t="s">
-        <v>1101</v>
+        <v>1105</v>
       </c>
       <c r="C1" t="s">
-        <v>1102</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -21059,7 +21088,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>1103</v>
+        <v>1107</v>
       </c>
     </row>
   </sheetData>

--- a/Conversion/AutoChangeJson/datasrc/111.xlsx
+++ b/Conversion/AutoChangeJson/datasrc/111.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" tabRatio="812" firstSheet="11" activeTab="18"/>
+    <workbookView windowWidth="22368" windowHeight="9420" tabRatio="812" firstSheet="11" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="RoleTable0" sheetId="2" r:id="rId1"/>
@@ -5205,9 +5205,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="33">
     <font>
@@ -5300,11 +5300,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -5318,88 +5325,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5425,6 +5350,81 @@
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
@@ -5453,37 +5453,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5501,7 +5477,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5513,55 +5615,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5573,67 +5633,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5717,21 +5717,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -5748,18 +5733,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5769,21 +5762,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5805,11 +5783,33 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5819,10 +5819,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5831,16 +5831,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5849,118 +5849,118 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="21" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -6377,11 +6377,11 @@
   <dimension ref="A1:W82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="N2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="U2" sqref="U2:U82"/>
+      <selection pane="bottomRight" activeCell="G2" sqref="G2:J82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
@@ -6501,13 +6501,13 @@
         <v>2</v>
       </c>
       <c r="G2" s="22">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H2" s="19">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I2" s="23">
-        <v>178</v>
+        <v>200</v>
       </c>
       <c r="J2" s="26">
         <v>0</v>
@@ -6560,13 +6560,13 @@
         <v>2</v>
       </c>
       <c r="G3" s="22">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H3" s="19">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I3" s="23">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="J3" s="26">
         <v>0</v>
@@ -6619,13 +6619,13 @@
         <v>2</v>
       </c>
       <c r="G4" s="22">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H4" s="19">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="I4" s="23">
-        <v>177</v>
+        <v>200</v>
       </c>
       <c r="J4" s="26">
         <v>0</v>
@@ -6678,13 +6678,13 @@
         <v>3</v>
       </c>
       <c r="G5" s="22">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H5" s="19">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="I5" s="23">
-        <v>219</v>
+        <v>300</v>
       </c>
       <c r="J5" s="26">
         <v>0</v>
@@ -6737,13 +6737,13 @@
         <v>3</v>
       </c>
       <c r="G6" s="22">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="H6" s="19">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="I6" s="23">
-        <v>218</v>
+        <v>300</v>
       </c>
       <c r="J6" s="26">
         <v>0</v>
@@ -6796,13 +6796,13 @@
         <v>3</v>
       </c>
       <c r="G7" s="22">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="H7" s="19">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="I7" s="23">
-        <v>220</v>
+        <v>300</v>
       </c>
       <c r="J7" s="26">
         <v>0</v>
@@ -6855,13 +6855,13 @@
         <v>4</v>
       </c>
       <c r="G8" s="22">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="H8" s="19">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="I8" s="23">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="J8" s="26">
         <v>0</v>
@@ -6918,13 +6918,13 @@
         <v>4</v>
       </c>
       <c r="G9" s="22">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="H9" s="19">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I9" s="23">
-        <v>299</v>
+        <v>450</v>
       </c>
       <c r="J9" s="26">
         <v>0</v>
@@ -6981,13 +6981,13 @@
         <v>5</v>
       </c>
       <c r="G10" s="22">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="H10" s="19">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="I10" s="23">
-        <v>358</v>
+        <v>675</v>
       </c>
       <c r="J10" s="26">
         <v>0</v>
@@ -7044,13 +7044,13 @@
         <v>2</v>
       </c>
       <c r="G11" s="22">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H11" s="19">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I11" s="23">
-        <v>178</v>
+        <v>200</v>
       </c>
       <c r="J11" s="26">
         <v>0</v>
@@ -7103,13 +7103,13 @@
         <v>2</v>
       </c>
       <c r="G12" s="22">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H12" s="19">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I12" s="23">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="J12" s="26">
         <v>0</v>
@@ -7162,13 +7162,13 @@
         <v>2</v>
       </c>
       <c r="G13" s="22">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H13" s="19">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I13" s="23">
-        <v>177</v>
+        <v>200</v>
       </c>
       <c r="J13" s="26">
         <v>0</v>
@@ -7221,13 +7221,13 @@
         <v>3</v>
       </c>
       <c r="G14" s="22">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H14" s="19">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="I14" s="23">
-        <v>219</v>
+        <v>300</v>
       </c>
       <c r="J14" s="26">
         <v>0</v>
@@ -7280,13 +7280,13 @@
         <v>3</v>
       </c>
       <c r="G15" s="22">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="H15" s="19">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="I15" s="23">
-        <v>218</v>
+        <v>300</v>
       </c>
       <c r="J15" s="26">
         <v>0</v>
@@ -7339,13 +7339,13 @@
         <v>3</v>
       </c>
       <c r="G16" s="22">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="H16" s="19">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="I16" s="23">
-        <v>218</v>
+        <v>300</v>
       </c>
       <c r="J16" s="26">
         <v>0</v>
@@ -7398,13 +7398,13 @@
         <v>4</v>
       </c>
       <c r="G17" s="22">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="H17" s="19">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I17" s="23">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="J17" s="26">
         <v>0</v>
@@ -7461,13 +7461,13 @@
         <v>4</v>
       </c>
       <c r="G18" s="22">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="H18" s="19">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I18" s="23">
-        <v>299</v>
+        <v>450</v>
       </c>
       <c r="J18" s="26">
         <v>0</v>
@@ -7524,13 +7524,13 @@
         <v>5</v>
       </c>
       <c r="G19" s="22">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="H19" s="19">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="I19" s="23">
-        <v>358</v>
+        <v>675</v>
       </c>
       <c r="J19" s="26">
         <v>0</v>
@@ -7587,13 +7587,13 @@
         <v>2</v>
       </c>
       <c r="G20" s="22">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H20" s="19">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I20" s="23">
-        <v>178</v>
+        <v>200</v>
       </c>
       <c r="J20" s="26">
         <v>0</v>
@@ -7646,13 +7646,13 @@
         <v>2</v>
       </c>
       <c r="G21" s="22">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H21" s="19">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I21" s="23">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="J21" s="26">
         <v>0</v>
@@ -7705,13 +7705,13 @@
         <v>2</v>
       </c>
       <c r="G22" s="22">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H22" s="19">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="I22" s="23">
-        <v>177</v>
+        <v>200</v>
       </c>
       <c r="J22" s="26">
         <v>0</v>
@@ -7764,13 +7764,13 @@
         <v>3</v>
       </c>
       <c r="G23" s="22">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H23" s="19">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="I23" s="23">
-        <v>219</v>
+        <v>300</v>
       </c>
       <c r="J23" s="26">
         <v>0</v>
@@ -7823,13 +7823,13 @@
         <v>3</v>
       </c>
       <c r="G24" s="22">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="H24" s="19">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="I24" s="23">
-        <v>220</v>
+        <v>300</v>
       </c>
       <c r="J24" s="26">
         <v>0</v>
@@ -7882,13 +7882,13 @@
         <v>3</v>
       </c>
       <c r="G25" s="22">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="H25" s="19">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="I25" s="23">
-        <v>218</v>
+        <v>300</v>
       </c>
       <c r="J25" s="26">
         <v>0</v>
@@ -7941,13 +7941,13 @@
         <v>4</v>
       </c>
       <c r="G26" s="22">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="H26" s="19">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I26" s="23">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="J26" s="26">
         <v>0</v>
@@ -8004,13 +8004,13 @@
         <v>4</v>
       </c>
       <c r="G27" s="22">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="H27" s="19">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I27" s="23">
-        <v>299</v>
+        <v>450</v>
       </c>
       <c r="J27" s="26">
         <v>0</v>
@@ -8067,16 +8067,16 @@
         <v>5</v>
       </c>
       <c r="G28" s="22">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="H28" s="19">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="I28" s="23">
-        <v>358</v>
+        <v>675</v>
       </c>
       <c r="J28" s="26">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="K28" s="3">
         <v>0.2</v>
@@ -8130,13 +8130,13 @@
         <v>2</v>
       </c>
       <c r="G29" s="22">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="H29" s="19">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="I29" s="23">
-        <v>123</v>
+        <v>180</v>
       </c>
       <c r="J29" s="26">
         <v>0</v>
@@ -8189,13 +8189,13 @@
         <v>2</v>
       </c>
       <c r="G30" s="22">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="H30" s="19">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="I30" s="23">
-        <v>125</v>
+        <v>180</v>
       </c>
       <c r="J30" s="26">
         <v>0</v>
@@ -8248,13 +8248,13 @@
         <v>2</v>
       </c>
       <c r="G31" s="22">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="H31" s="19">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="I31" s="23">
-        <v>124</v>
+        <v>180</v>
       </c>
       <c r="J31" s="26">
         <v>0</v>
@@ -8310,10 +8310,10 @@
         <v>90</v>
       </c>
       <c r="H32" s="19">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="I32" s="23">
-        <v>160</v>
+        <v>270</v>
       </c>
       <c r="J32" s="26">
         <v>0</v>
@@ -8366,13 +8366,13 @@
         <v>3</v>
       </c>
       <c r="G33" s="22">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H33" s="19">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="I33" s="23">
-        <v>160</v>
+        <v>270</v>
       </c>
       <c r="J33" s="26">
         <v>0</v>
@@ -8425,13 +8425,13 @@
         <v>3</v>
       </c>
       <c r="G34" s="22">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="H34" s="19">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="I34" s="23">
-        <v>161</v>
+        <v>270</v>
       </c>
       <c r="J34" s="26">
         <v>0</v>
@@ -8484,13 +8484,13 @@
         <v>4</v>
       </c>
       <c r="G35" s="22">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="H35" s="19">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="I35" s="23">
-        <v>243</v>
+        <v>405</v>
       </c>
       <c r="J35" s="26">
         <v>0</v>
@@ -8547,13 +8547,13 @@
         <v>4</v>
       </c>
       <c r="G36" s="22">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="H36" s="19">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="I36" s="23">
-        <v>242</v>
+        <v>405</v>
       </c>
       <c r="J36" s="26">
         <v>0</v>
@@ -8610,13 +8610,13 @@
         <v>5</v>
       </c>
       <c r="G37" s="22">
-        <v>169</v>
+        <v>200</v>
       </c>
       <c r="H37" s="19">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="I37" s="23">
-        <v>322</v>
+        <v>600</v>
       </c>
       <c r="J37" s="26">
         <v>0</v>
@@ -8673,13 +8673,13 @@
         <v>2</v>
       </c>
       <c r="G38" s="22">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="H38" s="19">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="I38" s="23">
-        <v>123</v>
+        <v>180</v>
       </c>
       <c r="J38" s="26">
         <v>0</v>
@@ -8732,13 +8732,13 @@
         <v>2</v>
       </c>
       <c r="G39" s="22">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="H39" s="19">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="I39" s="23">
-        <v>124</v>
+        <v>180</v>
       </c>
       <c r="J39" s="26">
         <v>0</v>
@@ -8791,13 +8791,13 @@
         <v>2</v>
       </c>
       <c r="G40" s="22">
+        <v>60</v>
+      </c>
+      <c r="H40" s="19">
         <v>70</v>
       </c>
-      <c r="H40" s="19">
-        <v>55</v>
-      </c>
       <c r="I40" s="23">
-        <v>124</v>
+        <v>180</v>
       </c>
       <c r="J40" s="26">
         <v>0</v>
@@ -8853,10 +8853,10 @@
         <v>90</v>
       </c>
       <c r="H41" s="19">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="I41" s="23">
-        <v>160</v>
+        <v>270</v>
       </c>
       <c r="J41" s="26">
         <v>0</v>
@@ -8909,13 +8909,13 @@
         <v>3</v>
       </c>
       <c r="G42" s="22">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H42" s="19">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="I42" s="23">
-        <v>160</v>
+        <v>270</v>
       </c>
       <c r="J42" s="26">
         <v>0</v>
@@ -8968,13 +8968,13 @@
         <v>3</v>
       </c>
       <c r="G43" s="22">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="H43" s="19">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="I43" s="23">
-        <v>161</v>
+        <v>270</v>
       </c>
       <c r="J43" s="26">
         <v>0</v>
@@ -9027,13 +9027,13 @@
         <v>4</v>
       </c>
       <c r="G44" s="22">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="H44" s="19">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="I44" s="23">
-        <v>243</v>
+        <v>405</v>
       </c>
       <c r="J44" s="26">
         <v>0</v>
@@ -9090,13 +9090,13 @@
         <v>4</v>
       </c>
       <c r="G45" s="22">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="H45" s="19">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="I45" s="23">
-        <v>242</v>
+        <v>405</v>
       </c>
       <c r="J45" s="26">
         <v>0</v>
@@ -9153,13 +9153,13 @@
         <v>5</v>
       </c>
       <c r="G46" s="22">
-        <v>169</v>
+        <v>200</v>
       </c>
       <c r="H46" s="19">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="I46" s="23">
-        <v>322</v>
+        <v>600</v>
       </c>
       <c r="J46" s="26">
         <v>0</v>
@@ -9216,13 +9216,13 @@
         <v>2</v>
       </c>
       <c r="G47" s="22">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="H47" s="19">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="I47" s="23">
-        <v>123</v>
+        <v>180</v>
       </c>
       <c r="J47" s="26">
         <v>0</v>
@@ -9275,13 +9275,13 @@
         <v>2</v>
       </c>
       <c r="G48" s="22">
+        <v>60</v>
+      </c>
+      <c r="H48" s="19">
         <v>70</v>
       </c>
-      <c r="H48" s="19">
-        <v>55</v>
-      </c>
       <c r="I48" s="23">
-        <v>124</v>
+        <v>180</v>
       </c>
       <c r="J48" s="26">
         <v>0</v>
@@ -9334,13 +9334,13 @@
         <v>2</v>
       </c>
       <c r="G49" s="22">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="H49" s="19">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="I49" s="23">
-        <v>124</v>
+        <v>180</v>
       </c>
       <c r="J49" s="26">
         <v>0</v>
@@ -9396,10 +9396,10 @@
         <v>90</v>
       </c>
       <c r="H50" s="19">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="I50" s="23">
-        <v>160</v>
+        <v>270</v>
       </c>
       <c r="J50" s="26">
         <v>0</v>
@@ -9452,13 +9452,13 @@
         <v>3</v>
       </c>
       <c r="G51" s="22">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H51" s="19">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="I51" s="23">
-        <v>160</v>
+        <v>270</v>
       </c>
       <c r="J51" s="26">
         <v>0</v>
@@ -9511,13 +9511,13 @@
         <v>3</v>
       </c>
       <c r="G52" s="22">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="H52" s="19">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="I52" s="23">
-        <v>161</v>
+        <v>270</v>
       </c>
       <c r="J52" s="26">
         <v>0</v>
@@ -9570,13 +9570,13 @@
         <v>4</v>
       </c>
       <c r="G53" s="22">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="H53" s="19">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="I53" s="23">
-        <v>243</v>
+        <v>405</v>
       </c>
       <c r="J53" s="26">
         <v>0</v>
@@ -9633,13 +9633,13 @@
         <v>4</v>
       </c>
       <c r="G54" s="22">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="H54" s="19">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="I54" s="23">
-        <v>242</v>
+        <v>405</v>
       </c>
       <c r="J54" s="26">
         <v>0</v>
@@ -9696,13 +9696,13 @@
         <v>5</v>
       </c>
       <c r="G55" s="22">
-        <v>169</v>
+        <v>200</v>
       </c>
       <c r="H55" s="19">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="I55" s="23">
-        <v>322</v>
+        <v>600</v>
       </c>
       <c r="J55" s="26">
         <v>0</v>
@@ -9759,13 +9759,13 @@
         <v>2</v>
       </c>
       <c r="G56" s="22">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H56" s="19">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I56" s="23">
-        <v>117</v>
+        <v>180</v>
       </c>
       <c r="J56" s="26">
         <v>0</v>
@@ -9820,13 +9820,13 @@
         <v>2</v>
       </c>
       <c r="G57" s="22">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H57" s="19">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="I57" s="23">
-        <v>130</v>
+        <v>180</v>
       </c>
       <c r="J57" s="26">
         <v>0</v>
@@ -9879,13 +9879,13 @@
         <v>2</v>
       </c>
       <c r="G58" s="22">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H58" s="19">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="I58" s="23">
-        <v>119</v>
+        <v>180</v>
       </c>
       <c r="J58" s="26">
         <v>0</v>
@@ -9938,13 +9938,13 @@
         <v>3</v>
       </c>
       <c r="G59" s="22">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H59" s="19">
         <v>55</v>
       </c>
       <c r="I59" s="23">
-        <v>160</v>
+        <v>270</v>
       </c>
       <c r="J59" s="26">
         <v>0</v>
@@ -9997,13 +9997,13 @@
         <v>3</v>
       </c>
       <c r="G60" s="22">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="H60" s="19">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="I60" s="23">
-        <v>157</v>
+        <v>270</v>
       </c>
       <c r="J60" s="26">
         <v>0</v>
@@ -10056,13 +10056,13 @@
         <v>3</v>
       </c>
       <c r="G61" s="22">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="H61" s="19">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I61" s="23">
-        <v>160</v>
+        <v>270</v>
       </c>
       <c r="J61" s="26">
         <v>0</v>
@@ -10115,13 +10115,13 @@
         <v>4</v>
       </c>
       <c r="G62" s="22">
-        <v>121</v>
+        <v>135</v>
       </c>
       <c r="H62" s="19">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I62" s="23">
-        <v>236</v>
+        <v>405</v>
       </c>
       <c r="J62" s="26">
         <v>0</v>
@@ -10178,13 +10178,13 @@
         <v>4</v>
       </c>
       <c r="G63" s="22">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="H63" s="19">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="I63" s="23">
-        <v>240</v>
+        <v>405</v>
       </c>
       <c r="J63" s="26">
         <v>0</v>
@@ -10241,13 +10241,13 @@
         <v>5</v>
       </c>
       <c r="G64" s="22">
-        <v>163</v>
+        <v>200</v>
       </c>
       <c r="H64" s="19">
         <v>65</v>
       </c>
       <c r="I64" s="23">
-        <v>317</v>
+        <v>600</v>
       </c>
       <c r="J64" s="26">
         <v>0</v>
@@ -10304,13 +10304,13 @@
         <v>2</v>
       </c>
       <c r="G65" s="22">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H65" s="19">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I65" s="23">
-        <v>117</v>
+        <v>180</v>
       </c>
       <c r="J65" s="26">
         <v>0</v>
@@ -10369,7 +10369,7 @@
         <v>50</v>
       </c>
       <c r="I66" s="23">
-        <v>119</v>
+        <v>180</v>
       </c>
       <c r="J66" s="26">
         <v>0</v>
@@ -10422,13 +10422,13 @@
         <v>2</v>
       </c>
       <c r="G67" s="22">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H67" s="19">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="I67" s="23">
-        <v>119</v>
+        <v>180</v>
       </c>
       <c r="J67" s="26">
         <v>0</v>
@@ -10481,13 +10481,13 @@
         <v>3</v>
       </c>
       <c r="G68" s="22">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="H68" s="19">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="I68" s="23">
-        <v>165</v>
+        <v>270</v>
       </c>
       <c r="J68" s="26">
         <v>0</v>
@@ -10540,13 +10540,13 @@
         <v>3</v>
       </c>
       <c r="G69" s="22">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="H69" s="19">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="I69" s="23">
-        <v>157</v>
+        <v>270</v>
       </c>
       <c r="J69" s="26">
         <v>0</v>
@@ -10599,13 +10599,13 @@
         <v>3</v>
       </c>
       <c r="G70" s="22">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="H70" s="19">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I70" s="23">
-        <v>160</v>
+        <v>270</v>
       </c>
       <c r="J70" s="26">
         <v>0</v>
@@ -10658,13 +10658,13 @@
         <v>4</v>
       </c>
       <c r="G71" s="22">
-        <v>121</v>
+        <v>135</v>
       </c>
       <c r="H71" s="19">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I71" s="23">
-        <v>236</v>
+        <v>405</v>
       </c>
       <c r="J71" s="26">
         <v>0</v>
@@ -10721,13 +10721,13 @@
         <v>4</v>
       </c>
       <c r="G72" s="22">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="H72" s="19">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="I72" s="23">
-        <v>240</v>
+        <v>405</v>
       </c>
       <c r="J72" s="26">
         <v>0</v>
@@ -10784,13 +10784,13 @@
         <v>5</v>
       </c>
       <c r="G73" s="22">
-        <v>163</v>
+        <v>200</v>
       </c>
       <c r="H73" s="19">
         <v>65</v>
       </c>
       <c r="I73" s="23">
-        <v>317</v>
+        <v>600</v>
       </c>
       <c r="J73" s="26">
         <v>0</v>
@@ -10847,13 +10847,13 @@
         <v>2</v>
       </c>
       <c r="G74" s="22">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H74" s="19">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I74" s="23">
-        <v>117</v>
+        <v>180</v>
       </c>
       <c r="J74" s="26">
         <v>0</v>
@@ -10909,10 +10909,10 @@
         <v>60</v>
       </c>
       <c r="H75" s="19">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="I75" s="23">
-        <v>115</v>
+        <v>180</v>
       </c>
       <c r="J75" s="26">
         <v>0</v>
@@ -10965,13 +10965,13 @@
         <v>2</v>
       </c>
       <c r="G76" s="22">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H76" s="19">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="I76" s="23">
-        <v>119</v>
+        <v>180</v>
       </c>
       <c r="J76" s="26">
         <v>0</v>
@@ -11027,10 +11027,10 @@
         <v>90</v>
       </c>
       <c r="H77" s="19">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="I77" s="23">
-        <v>157</v>
+        <v>270</v>
       </c>
       <c r="J77" s="26">
         <v>0</v>
@@ -11083,13 +11083,13 @@
         <v>3</v>
       </c>
       <c r="G78" s="22">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="H78" s="19">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="I78" s="23">
-        <v>157</v>
+        <v>270</v>
       </c>
       <c r="J78" s="26">
         <v>0</v>
@@ -11142,13 +11142,13 @@
         <v>3</v>
       </c>
       <c r="G79" s="22">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="H79" s="19">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I79" s="23">
-        <v>160</v>
+        <v>270</v>
       </c>
       <c r="J79" s="26">
         <v>0</v>
@@ -11203,13 +11203,13 @@
         <v>4</v>
       </c>
       <c r="G80" s="22">
-        <v>121</v>
+        <v>135</v>
       </c>
       <c r="H80" s="19">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I80" s="23">
-        <v>236</v>
+        <v>405</v>
       </c>
       <c r="J80" s="26">
         <v>0</v>
@@ -11266,13 +11266,13 @@
         <v>4</v>
       </c>
       <c r="G81" s="22">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="H81" s="19">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="I81" s="23">
-        <v>240</v>
+        <v>405</v>
       </c>
       <c r="J81" s="26">
         <v>0</v>
@@ -11329,13 +11329,13 @@
         <v>5</v>
       </c>
       <c r="G82" s="22">
-        <v>163</v>
+        <v>200</v>
       </c>
       <c r="H82" s="19">
         <v>65</v>
       </c>
       <c r="I82" s="23">
-        <v>317</v>
+        <v>600</v>
       </c>
       <c r="J82" s="26">
         <v>0</v>
@@ -12779,7 +12779,7 @@
   <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+      <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
@@ -13271,8 +13271,8 @@
   <sheetPr/>
   <dimension ref="A1:S5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="4"/>
@@ -13350,7 +13350,7 @@
         <v>984</v>
       </c>
       <c r="C2" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" s="1">
         <v>3</v>
@@ -13362,31 +13362,31 @@
         <v>50</v>
       </c>
       <c r="G2" s="1">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="H2" s="12">
+        <v>5</v>
+      </c>
+      <c r="I2" s="1">
+        <v>5</v>
+      </c>
+      <c r="J2" s="1">
         <v>7</v>
       </c>
-      <c r="I2" s="1">
+      <c r="K2" s="1">
         <v>9</v>
       </c>
-      <c r="J2" s="1">
+      <c r="L2" s="1">
         <v>11</v>
       </c>
-      <c r="K2" s="1">
+      <c r="M2" s="1">
         <v>13</v>
       </c>
-      <c r="L2" s="1">
+      <c r="N2" s="1">
         <v>15</v>
       </c>
-      <c r="M2" s="1">
-        <v>22</v>
-      </c>
-      <c r="N2" s="1">
-        <v>29</v>
-      </c>
       <c r="O2" s="11">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="P2" s="15">
         <v>50</v>
@@ -13409,7 +13409,7 @@
         <v>985</v>
       </c>
       <c r="C3" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D3" s="1">
         <v>3</v>
@@ -13421,31 +13421,31 @@
         <v>50</v>
       </c>
       <c r="G3" s="1">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="H3" s="12">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I3" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J3" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K3" s="1">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="L3" s="1">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="M3" s="1">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="N3" s="1">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="O3" s="11">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="P3" s="15">
         <v>100</v>
@@ -13468,7 +13468,7 @@
         <v>986</v>
       </c>
       <c r="C4" s="1">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="D4" s="1">
         <v>3</v>
@@ -13480,31 +13480,31 @@
         <v>50</v>
       </c>
       <c r="G4" s="1">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="H4" s="12">
+        <v>3</v>
+      </c>
+      <c r="I4" s="1">
+        <v>3</v>
+      </c>
+      <c r="J4" s="1">
         <v>5</v>
       </c>
-      <c r="I4" s="1">
+      <c r="K4" s="1">
         <v>7</v>
       </c>
-      <c r="J4" s="1">
+      <c r="L4" s="1">
         <v>9</v>
       </c>
-      <c r="K4" s="1">
+      <c r="M4" s="1">
         <v>11</v>
       </c>
-      <c r="L4" s="1">
+      <c r="N4" s="1">
         <v>13</v>
       </c>
-      <c r="M4" s="1">
-        <v>20</v>
-      </c>
-      <c r="N4" s="1">
-        <v>27</v>
-      </c>
       <c r="O4" s="11">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="P4" s="15">
         <v>150</v>
@@ -13527,7 +13527,7 @@
         <v>987</v>
       </c>
       <c r="C5" s="1">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="D5" s="1">
         <v>3</v>
@@ -13539,31 +13539,31 @@
         <v>50</v>
       </c>
       <c r="G5" s="1">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="H5" s="12">
+        <v>2</v>
+      </c>
+      <c r="I5" s="1">
+        <v>2</v>
+      </c>
+      <c r="J5" s="1">
         <v>5</v>
       </c>
-      <c r="I5" s="1">
+      <c r="K5" s="1">
         <v>7</v>
       </c>
-      <c r="J5" s="1">
+      <c r="L5" s="1">
         <v>9</v>
       </c>
-      <c r="K5" s="1">
+      <c r="M5" s="1">
         <v>11</v>
       </c>
-      <c r="L5" s="1">
-        <v>12</v>
-      </c>
-      <c r="M5" s="1">
-        <v>19</v>
-      </c>
       <c r="N5" s="1">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="O5" s="11">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="P5" s="15">
         <v>200</v>
@@ -14545,7 +14545,7 @@
   <sheetPr/>
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
@@ -33274,7 +33274,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="5" outlineLevelCol="7"/>

--- a/Conversion/AutoChangeJson/datasrc/111.xlsx
+++ b/Conversion/AutoChangeJson/datasrc/111.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" tabRatio="812" firstSheet="11" activeTab="12"/>
+    <workbookView windowWidth="22368" windowHeight="9420" tabRatio="880" firstSheet="7" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="RoleTable0" sheetId="2" r:id="rId1"/>
@@ -5286,8 +5286,9 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5301,7 +5302,59 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5315,23 +5368,37 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5354,77 +5421,10 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
@@ -5453,7 +5453,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5465,7 +5513,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5477,19 +5525,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5501,19 +5597,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5525,115 +5621,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5717,32 +5717,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -5753,39 +5727,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5813,16 +5754,75 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5831,16 +5831,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5849,118 +5849,118 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="11" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="21" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -13272,7 +13272,7 @@
   <dimension ref="A1:S5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="4"/>
@@ -13365,7 +13365,7 @@
         <v>50</v>
       </c>
       <c r="H2" s="12">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I2" s="1">
         <v>5</v>
@@ -13418,13 +13418,13 @@
         <v>50</v>
       </c>
       <c r="F3" s="11">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G3" s="1">
         <v>100</v>
       </c>
       <c r="H3" s="12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I3" s="1">
         <v>4</v>
@@ -13477,13 +13477,13 @@
         <v>50</v>
       </c>
       <c r="F4" s="11">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G4" s="1">
         <v>150</v>
       </c>
       <c r="H4" s="12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I4" s="1">
         <v>3</v>
@@ -13536,7 +13536,7 @@
         <v>50</v>
       </c>
       <c r="F5" s="11">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G5" s="1">
         <v>200</v>
@@ -13591,7 +13591,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="5"/>
@@ -14005,7 +14005,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.87962962962963" defaultRowHeight="13.8" outlineLevelCol="5"/>
@@ -14102,7 +14102,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5" s="3">
         <v>1</v>
@@ -14122,7 +14122,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D6" s="3">
         <v>3</v>
@@ -14142,7 +14142,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="4">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D7" s="3">
         <v>5</v>
@@ -14162,7 +14162,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="4">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D8" s="3">
         <v>7</v>
@@ -14182,7 +14182,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="4">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D9" s="3">
         <v>10</v>
@@ -14202,7 +14202,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="4">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D10" s="3">
         <v>14</v>
@@ -14222,7 +14222,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="4">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D11" s="3">
         <v>19</v>
@@ -33274,7 +33274,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="5" outlineLevelCol="7"/>
@@ -33335,7 +33335,7 @@
         <v>715</v>
       </c>
       <c r="G2" s="5">
-        <v>-10</v>
+        <v>-20</v>
       </c>
       <c r="H2" s="5">
         <v>-2</v>

--- a/Conversion/AutoChangeJson/datasrc/111.xlsx
+++ b/Conversion/AutoChangeJson/datasrc/111.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" tabRatio="880" firstSheet="9" activeTab="14"/>
+    <workbookView windowWidth="22368" windowHeight="9420" tabRatio="880" firstSheet="6" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="RoleTable0" sheetId="2" r:id="rId1"/>
@@ -1888,7 +1888,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2840" uniqueCount="1095">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2823" uniqueCount="1082">
   <si>
     <t>index</t>
   </si>
@@ -2292,7 +2292,7 @@
     <t>曹魏五谋士。</t>
   </si>
   <si>
-    <t>张绍</t>
+    <t>张昭</t>
   </si>
   <si>
     <t>东吴二张。</t>
@@ -4187,45 +4187,30 @@
     <t>89,1</t>
   </si>
   <si>
-    <t>黄帝</t>
-  </si>
-  <si>
     <t>魔王蚩尤</t>
   </si>
   <si>
     <t>90,1</t>
   </si>
   <si>
-    <t>魔王</t>
-  </si>
-  <si>
     <t>战神刑天</t>
   </si>
   <si>
     <t>91,1</t>
   </si>
   <si>
-    <t>战神</t>
-  </si>
-  <si>
     <t>水神共工</t>
   </si>
   <si>
     <t>92,1</t>
   </si>
   <si>
-    <t>水神</t>
-  </si>
-  <si>
     <t>洪荒凶兽</t>
   </si>
   <si>
     <t>93,1</t>
   </si>
   <si>
-    <t>洪荒</t>
-  </si>
-  <si>
     <t>三足金乌</t>
   </si>
   <si>
@@ -4244,43 +4229,88 @@
     <t>96,1</t>
   </si>
   <si>
-    <t>大荒</t>
-  </si>
-  <si>
     <t>黄巾之乱</t>
   </si>
   <si>
-    <t>1,1</t>
-  </si>
-  <si>
-    <t>2,1</t>
-  </si>
-  <si>
-    <t>3,1</t>
-  </si>
-  <si>
-    <t>4,1</t>
-  </si>
-  <si>
-    <t>5,1</t>
-  </si>
-  <si>
-    <t>6,1</t>
-  </si>
-  <si>
-    <t>妖兽</t>
+    <t>黄巾</t>
+  </si>
+  <si>
+    <t>65,2</t>
+  </si>
+  <si>
+    <t>18,1</t>
+  </si>
+  <si>
+    <t>66,2</t>
   </si>
   <si>
     <t>讨伐董卓</t>
   </si>
   <si>
-    <t>7,2</t>
-  </si>
-  <si>
-    <t>8,2</t>
-  </si>
-  <si>
-    <t>9,2</t>
+    <t>3,2</t>
+  </si>
+  <si>
+    <t>群雄割据</t>
+  </si>
+  <si>
+    <t>1,2</t>
+  </si>
+  <si>
+    <t>2,2</t>
+  </si>
+  <si>
+    <t>11,2</t>
+  </si>
+  <si>
+    <t>12,2</t>
+  </si>
+  <si>
+    <t>9,1</t>
+  </si>
+  <si>
+    <t>逐鹿中原</t>
+  </si>
+  <si>
+    <t>26,2</t>
+  </si>
+  <si>
+    <t>28,2</t>
+  </si>
+  <si>
+    <t>27,2</t>
+  </si>
+  <si>
+    <t>67,2</t>
+  </si>
+  <si>
+    <t>68,2</t>
+  </si>
+  <si>
+    <t>69,2</t>
+  </si>
+  <si>
+    <t>70,2</t>
+  </si>
+  <si>
+    <t>官渡之战</t>
+  </si>
+  <si>
+    <t>11,3</t>
+  </si>
+  <si>
+    <t>12,3</t>
+  </si>
+  <si>
+    <t>14,3</t>
+  </si>
+  <si>
+    <t>13,2</t>
+  </si>
+  <si>
+    <t>18,3</t>
+  </si>
+  <si>
+    <t>16,2</t>
   </si>
   <si>
     <t>29,2</t>
@@ -4292,75 +4322,12 @@
     <t>31,2</t>
   </si>
   <si>
-    <t>群雄割据</t>
-  </si>
-  <si>
-    <t>26,2</t>
-  </si>
-  <si>
-    <t>28,1</t>
-  </si>
-  <si>
-    <t>27,2</t>
-  </si>
-  <si>
-    <t>24,2</t>
-  </si>
-  <si>
-    <t>80,2</t>
-  </si>
-  <si>
-    <t>25,2</t>
-  </si>
-  <si>
-    <t>逐鹿中原</t>
-  </si>
-  <si>
-    <t>28,2</t>
-  </si>
-  <si>
-    <t>65,2</t>
-  </si>
-  <si>
-    <t>66,2</t>
-  </si>
-  <si>
-    <t>67,2</t>
-  </si>
-  <si>
-    <t>68,2</t>
-  </si>
-  <si>
-    <t>69,2</t>
-  </si>
-  <si>
-    <t>70,2</t>
-  </si>
-  <si>
-    <t>官渡之战</t>
-  </si>
-  <si>
-    <t>11,3</t>
-  </si>
-  <si>
-    <t>12,3</t>
-  </si>
-  <si>
-    <t>14,3</t>
-  </si>
-  <si>
-    <t>13,2</t>
-  </si>
-  <si>
-    <t>18,3</t>
-  </si>
-  <si>
-    <t>16,2</t>
-  </si>
-  <si>
     <t>平定北方</t>
   </si>
   <si>
+    <t>公孙瓒</t>
+  </si>
+  <si>
     <t>7,3</t>
   </si>
   <si>
@@ -4376,6 +4343,9 @@
     <t>一统东吴</t>
   </si>
   <si>
+    <t>孙权</t>
+  </si>
+  <si>
     <t>69,3</t>
   </si>
   <si>
@@ -4703,9 +4673,6 @@
     <t>洛阳</t>
   </si>
   <si>
-    <t>黄巾</t>
-  </si>
-  <si>
     <t>朝廷腐败，又遇大旱，赋税不减，百姓饥苦不堪。在危难之际，大贤良师张角得太平要术，治病救人，后召集信徒数十万余众，称“苍天已死，黄天当立”，顺应天意，揭竿而起……</t>
   </si>
   <si>
@@ -4757,9 +4724,6 @@
     <t>长沙</t>
   </si>
   <si>
-    <t>公孙瓒</t>
-  </si>
-  <si>
     <t>北方边境战乱不止，公孙瓒带领白马义从前往征讨，声名大作。后讨伐黄巾，成为十八路诸侯之一……</t>
   </si>
   <si>
@@ -4875,9 +4839,6 @@
   </si>
   <si>
     <t>prepareNum</t>
-  </si>
-  <si>
-    <t>1,2</t>
   </si>
   <si>
     <t>1,3</t>
@@ -5197,8 +5158,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -5279,9 +5240,102 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5295,73 +5349,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5377,44 +5375,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5446,7 +5407,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5458,19 +5485,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5482,37 +5557,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5524,43 +5569,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5572,61 +5587,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5709,17 +5670,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5728,7 +5685,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5750,26 +5707,18 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5789,20 +5738,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5812,10 +5773,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5824,16 +5785,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5842,118 +5803,118 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="9" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="29" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -6370,11 +6331,11 @@
   <dimension ref="A1:W82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C32" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="N62" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G2" sqref="G2:J82"/>
+      <selection pane="bottomRight" activeCell="B65" sqref="B65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
@@ -11384,8 +11345,8 @@
   <sheetPr/>
   <dimension ref="A1:Q21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
@@ -11529,9 +11490,6 @@
       <c r="K3" s="1" t="s">
         <v>759</v>
       </c>
-      <c r="P3" s="1" t="s">
-        <v>760</v>
-      </c>
       <c r="Q3" s="1">
         <v>2</v>
       </c>
@@ -11544,7 +11502,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>757</v>
@@ -11556,10 +11514,7 @@
         <v>-1</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>762</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="Q4" s="1">
         <v>3</v>
@@ -11573,7 +11528,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>757</v>
@@ -11585,10 +11540,7 @@
         <v>-1</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>765</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="Q5" s="1">
         <v>1</v>
@@ -11602,7 +11554,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>757</v>
@@ -11614,10 +11566,7 @@
         <v>-1</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>768</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="Q6" s="1">
         <v>1</v>
@@ -11631,7 +11580,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>757</v>
@@ -11643,10 +11592,7 @@
         <v>-1</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>771</v>
-      </c>
-      <c r="P7" s="1" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
       <c r="Q7" s="1">
         <v>8</v>
@@ -11660,7 +11606,7 @@
         <v>2</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>757</v>
@@ -11672,10 +11618,7 @@
         <v>-1</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>774</v>
-      </c>
-      <c r="P8" s="1" t="s">
-        <v>212</v>
+        <v>769</v>
       </c>
       <c r="Q8" s="1">
         <v>7</v>
@@ -11689,7 +11632,7 @@
         <v>2</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>775</v>
+        <v>770</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>757</v>
@@ -11701,10 +11644,7 @@
         <v>-1</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>776</v>
-      </c>
-      <c r="P9" s="1" t="s">
-        <v>211</v>
+        <v>771</v>
       </c>
       <c r="Q9" s="1">
         <v>6</v>
@@ -11718,7 +11658,7 @@
         <v>2</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>777</v>
+        <v>772</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>757</v>
@@ -11730,10 +11670,7 @@
         <v>-1</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>778</v>
-      </c>
-      <c r="P10" s="1" t="s">
-        <v>779</v>
+        <v>773</v>
       </c>
       <c r="Q10" s="1">
         <v>8</v>
@@ -11747,32 +11684,26 @@
         <v>1</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>780</v>
+        <v>774</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>775</v>
       </c>
       <c r="F11" s="1">
         <v>5</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>783</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>784</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>785</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>786</v>
-      </c>
-      <c r="P11" s="1" t="s">
-        <v>787</v>
-      </c>
+        <v>778</v>
+      </c>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
       <c r="Q11" s="1">
         <v>8</v>
       </c>
@@ -11785,32 +11716,28 @@
         <v>1</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>788</v>
+        <v>779</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="F12" s="1">
         <v>10</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>789</v>
+        <v>776</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>790</v>
+        <v>780</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>791</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>792</v>
-      </c>
+        <v>778</v>
+      </c>
+      <c r="J12" s="1"/>
       <c r="K12" s="1" t="s">
-        <v>793</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>794</v>
-      </c>
-      <c r="P12" s="1" t="s">
-        <v>308</v>
-      </c>
+        <v>777</v>
+      </c>
+      <c r="L12" s="1"/>
       <c r="Q12" s="1">
         <v>2</v>
       </c>
@@ -11823,41 +11750,34 @@
         <v>1</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>795</v>
+        <v>781</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="F13" s="1">
         <v>15</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>796</v>
+        <v>782</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>797</v>
+        <v>783</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>798</v>
+        <v>784</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>799</v>
+        <v>785</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>800</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>801</v>
-      </c>
-      <c r="M13" s="1" t="s">
-        <v>792</v>
-      </c>
-      <c r="N13" s="1" t="s">
-        <v>793</v>
-      </c>
-      <c r="O13" s="1" t="s">
-        <v>794</v>
-      </c>
-      <c r="P13" s="1" t="s">
-        <v>405</v>
-      </c>
+        <v>786</v>
+      </c>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
       <c r="Q13" s="1">
         <v>2</v>
       </c>
@@ -11870,41 +11790,42 @@
         <v>1</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>802</v>
+        <v>787</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>88</v>
       </c>
       <c r="F14" s="1">
         <v>20</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>796</v>
+        <v>788</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>803</v>
+        <v>789</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>804</v>
+        <v>776</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>805</v>
+        <v>778</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>806</v>
+        <v>791</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>807</v>
+        <v>792</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>808</v>
+        <v>793</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>809</v>
-      </c>
-      <c r="P14" s="1" t="s">
-        <v>386</v>
-      </c>
+        <v>794</v>
+      </c>
+      <c r="P14" s="1"/>
       <c r="Q14" s="1">
         <v>2</v>
       </c>
@@ -11917,41 +11838,42 @@
         <v>1</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>810</v>
+        <v>795</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>84</v>
       </c>
       <c r="F15" s="1">
         <v>25</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>811</v>
+        <v>796</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>812</v>
+        <v>797</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>813</v>
+        <v>798</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>814</v>
+        <v>799</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>815</v>
+        <v>800</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>816</v>
+        <v>801</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>792</v>
+        <v>802</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>793</v>
+        <v>803</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>794</v>
-      </c>
-      <c r="P15" s="1" t="s">
-        <v>288</v>
-      </c>
+        <v>804</v>
+      </c>
+      <c r="P15" s="1"/>
       <c r="Q15" s="1">
         <v>2</v>
       </c>
@@ -11964,41 +11886,42 @@
         <v>1</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>817</v>
+        <v>805</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>806</v>
       </c>
       <c r="F16" s="1">
         <v>30</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>818</v>
+        <v>807</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>819</v>
+        <v>808</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>820</v>
+        <v>809</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>804</v>
+        <v>776</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>821</v>
+        <v>810</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>805</v>
+        <v>778</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>806</v>
+        <v>791</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>807</v>
+        <v>792</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>808</v>
-      </c>
-      <c r="P16" s="1" t="s">
-        <v>390</v>
-      </c>
+        <v>793</v>
+      </c>
+      <c r="P16" s="1"/>
       <c r="Q16" s="1">
         <v>2</v>
       </c>
@@ -12011,41 +11934,42 @@
         <v>1</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>822</v>
+        <v>811</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>812</v>
       </c>
       <c r="F17" s="1">
         <v>35</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>823</v>
+        <v>813</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>824</v>
+        <v>814</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>825</v>
+        <v>815</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>821</v>
+        <v>810</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>826</v>
+        <v>816</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>815</v>
+        <v>800</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>809</v>
+        <v>794</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>827</v>
+        <v>817</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>828</v>
-      </c>
-      <c r="P17" s="1" t="s">
-        <v>405</v>
-      </c>
+        <v>818</v>
+      </c>
+      <c r="P17" s="1"/>
       <c r="Q17" s="1">
         <v>2</v>
       </c>
@@ -12058,41 +11982,42 @@
         <v>1</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>829</v>
+        <v>819</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>88</v>
       </c>
       <c r="F18" s="1">
         <v>40</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>818</v>
+        <v>807</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>819</v>
+        <v>808</v>
       </c>
       <c r="I18" s="1" t="s">
+        <v>809</v>
+      </c>
+      <c r="J18" s="1" t="s">
         <v>820</v>
       </c>
-      <c r="J18" s="1" t="s">
-        <v>830</v>
-      </c>
       <c r="K18" s="1" t="s">
-        <v>831</v>
+        <v>821</v>
       </c>
       <c r="L18" s="1" t="s">
+        <v>813</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>822</v>
+      </c>
+      <c r="N18" s="1" t="s">
         <v>823</v>
       </c>
-      <c r="M18" s="1" t="s">
-        <v>832</v>
-      </c>
-      <c r="N18" s="1" t="s">
-        <v>833</v>
-      </c>
       <c r="O18" s="1" t="s">
-        <v>834</v>
-      </c>
-      <c r="P18" s="1" t="s">
-        <v>388</v>
-      </c>
+        <v>824</v>
+      </c>
+      <c r="P18" s="1"/>
       <c r="Q18" s="1">
         <v>1</v>
       </c>
@@ -12105,41 +12030,42 @@
         <v>1</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>835</v>
+        <v>825</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>88</v>
       </c>
       <c r="F19" s="1">
         <v>45</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>836</v>
+        <v>826</v>
       </c>
       <c r="H19" s="1" t="s">
+        <v>800</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>827</v>
+      </c>
+      <c r="J19" s="1" t="s">
         <v>815</v>
       </c>
-      <c r="I19" s="1" t="s">
-        <v>837</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>825</v>
-      </c>
       <c r="K19" s="1" t="s">
-        <v>838</v>
+        <v>828</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>839</v>
+        <v>829</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>824</v>
+        <v>814</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>840</v>
+        <v>830</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>841</v>
-      </c>
-      <c r="P19" s="1" t="s">
-        <v>211</v>
-      </c>
+        <v>831</v>
+      </c>
+      <c r="P19" s="1"/>
       <c r="Q19" s="1">
         <v>6</v>
       </c>
@@ -12152,41 +12078,42 @@
         <v>1</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>842</v>
+        <v>832</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>812</v>
       </c>
       <c r="F20" s="1">
         <v>50</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>818</v>
+        <v>807</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>819</v>
+        <v>808</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>820</v>
+        <v>809</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>837</v>
+        <v>827</v>
       </c>
       <c r="K20" s="1" t="s">
+        <v>824</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>800</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>833</v>
+      </c>
+      <c r="N20" s="1" t="s">
         <v>834</v>
       </c>
-      <c r="L20" s="1" t="s">
-        <v>815</v>
-      </c>
-      <c r="M20" s="1" t="s">
-        <v>843</v>
-      </c>
-      <c r="N20" s="1" t="s">
-        <v>844</v>
-      </c>
       <c r="O20" s="1" t="s">
-        <v>845</v>
-      </c>
-      <c r="P20" s="1" t="s">
-        <v>373</v>
-      </c>
+        <v>835</v>
+      </c>
+      <c r="P20" s="1"/>
       <c r="Q20" s="1">
         <v>1</v>
       </c>
@@ -12199,41 +12126,42 @@
         <v>1</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>846</v>
+        <v>836</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>88</v>
       </c>
       <c r="F21" s="1">
         <v>55</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>819</v>
+        <v>808</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>820</v>
+        <v>809</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>847</v>
+        <v>837</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>825</v>
+        <v>815</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>815</v>
+        <v>800</v>
       </c>
       <c r="L21" s="1" t="s">
+        <v>828</v>
+      </c>
+      <c r="M21" s="1" t="s">
         <v>838</v>
       </c>
-      <c r="M21" s="1" t="s">
-        <v>848</v>
-      </c>
       <c r="N21" s="1" t="s">
-        <v>849</v>
+        <v>839</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>850</v>
-      </c>
-      <c r="P21" s="1" t="s">
-        <v>209</v>
-      </c>
+        <v>840</v>
+      </c>
+      <c r="P21" s="1"/>
       <c r="Q21" s="1">
         <v>8</v>
       </c>
@@ -12268,16 +12196,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>851</v>
+        <v>841</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>852</v>
+        <v>842</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>853</v>
+        <v>843</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>854</v>
+        <v>844</v>
       </c>
     </row>
     <row r="2" ht="17.4" spans="1:5">
@@ -12285,16 +12213,16 @@
         <v>13</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>855</v>
+        <v>845</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>856</v>
+        <v>846</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>857</v>
+        <v>847</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>858</v>
+        <v>848</v>
       </c>
     </row>
     <row r="3" ht="17.4" spans="1:5">
@@ -12302,16 +12230,16 @@
         <v>16</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>859</v>
+        <v>849</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>860</v>
+        <v>850</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>861</v>
+        <v>851</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>862</v>
+        <v>852</v>
       </c>
     </row>
     <row r="4" ht="17.4" spans="1:5">
@@ -12319,16 +12247,16 @@
         <v>23</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>863</v>
+        <v>853</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>864</v>
+        <v>854</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>865</v>
+        <v>855</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>866</v>
+        <v>856</v>
       </c>
     </row>
     <row r="5" ht="17.4" spans="1:5">
@@ -12336,16 +12264,16 @@
         <v>26</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>867</v>
+        <v>857</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>868</v>
+        <v>858</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>869</v>
+        <v>859</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>870</v>
+        <v>860</v>
       </c>
     </row>
     <row r="6" ht="17.4" spans="1:5">
@@ -12353,16 +12281,16 @@
         <v>33</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>871</v>
+        <v>861</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>872</v>
+        <v>862</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>873</v>
+        <v>863</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>874</v>
+        <v>864</v>
       </c>
     </row>
     <row r="7" ht="17.4" spans="1:5">
@@ -12370,16 +12298,16 @@
         <v>36</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>875</v>
+        <v>865</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>876</v>
+        <v>866</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>877</v>
+        <v>867</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>878</v>
+        <v>868</v>
       </c>
     </row>
     <row r="8" ht="17.4" spans="1:5">
@@ -12387,16 +12315,16 @@
         <v>43</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>879</v>
+        <v>869</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>864</v>
+        <v>854</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>880</v>
+        <v>870</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>881</v>
+        <v>871</v>
       </c>
     </row>
     <row r="9" ht="17.4" spans="1:5">
@@ -12404,16 +12332,16 @@
         <v>46</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>882</v>
+        <v>872</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>868</v>
+        <v>858</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>883</v>
+        <v>873</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>884</v>
+        <v>874</v>
       </c>
     </row>
     <row r="10" ht="17.4" spans="1:5">
@@ -12421,16 +12349,16 @@
         <v>53</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>885</v>
+        <v>875</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>872</v>
+        <v>862</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>886</v>
+        <v>876</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>887</v>
+        <v>877</v>
       </c>
     </row>
     <row r="11" ht="17.4" spans="1:5">
@@ -12438,16 +12366,16 @@
         <v>56</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>888</v>
+        <v>878</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>876</v>
+        <v>866</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>889</v>
+        <v>879</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>890</v>
+        <v>880</v>
       </c>
     </row>
     <row r="12" ht="17.4" spans="1:5">
@@ -12455,16 +12383,16 @@
         <v>63</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>891</v>
+        <v>881</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>872</v>
+        <v>862</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>892</v>
+        <v>882</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>893</v>
+        <v>883</v>
       </c>
     </row>
     <row r="13" ht="17.4" spans="1:5">
@@ -12472,16 +12400,16 @@
         <v>66</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>894</v>
+        <v>884</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>876</v>
+        <v>866</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>895</v>
+        <v>885</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>896</v>
+        <v>886</v>
       </c>
     </row>
     <row r="14" ht="17.4" spans="1:5">
@@ -12489,16 +12417,16 @@
         <v>73</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>897</v>
+        <v>887</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>872</v>
+        <v>862</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>898</v>
+        <v>888</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>899</v>
+        <v>889</v>
       </c>
     </row>
     <row r="15" ht="17.4" spans="1:5">
@@ -12506,16 +12434,16 @@
         <v>76</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>900</v>
+        <v>890</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>876</v>
+        <v>866</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>901</v>
+        <v>891</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>902</v>
+        <v>892</v>
       </c>
     </row>
     <row r="16" ht="17.4" spans="1:5">
@@ -12523,16 +12451,16 @@
         <v>83</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>903</v>
+        <v>893</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>904</v>
+        <v>894</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>905</v>
+        <v>895</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>906</v>
+        <v>896</v>
       </c>
     </row>
     <row r="17" ht="17.4" spans="1:5">
@@ -12540,16 +12468,16 @@
         <v>86</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>907</v>
+        <v>897</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>904</v>
+        <v>894</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>908</v>
+        <v>898</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>909</v>
+        <v>899</v>
       </c>
     </row>
     <row r="18" ht="17.4" spans="1:5">
@@ -12557,16 +12485,16 @@
         <v>93</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>910</v>
+        <v>900</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>872</v>
+        <v>862</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>911</v>
+        <v>901</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>912</v>
+        <v>902</v>
       </c>
     </row>
     <row r="19" ht="17.4" spans="1:5">
@@ -12574,16 +12502,16 @@
         <v>96</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>913</v>
+        <v>903</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>876</v>
+        <v>866</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>914</v>
+        <v>904</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>915</v>
+        <v>905</v>
       </c>
     </row>
     <row r="20" ht="17.4" spans="1:2">
@@ -12772,7 +12700,7 @@
   <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
@@ -12798,40 +12726,40 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>906</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>907</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>908</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>909</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>910</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>911</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>913</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>915</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>916</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="M1" s="1" t="s">
         <v>917</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>918</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>919</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>920</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>921</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>922</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>923</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>924</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>925</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>926</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>927</v>
       </c>
     </row>
     <row r="2" ht="17.4" spans="1:13">
@@ -12839,19 +12767,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>928</v>
+        <v>918</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>929</v>
+        <v>919</v>
       </c>
       <c r="D2" s="6">
         <v>150</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>930</v>
+        <v>920</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>928</v>
+        <v>918</v>
       </c>
       <c r="G2" s="1">
         <v>1</v>
@@ -12869,7 +12797,7 @@
         <v>1</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>931</v>
+        <v>921</v>
       </c>
     </row>
     <row r="3" ht="17.4" spans="1:13">
@@ -12877,19 +12805,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>932</v>
+        <v>775</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>933</v>
+        <v>922</v>
       </c>
       <c r="D3" s="6">
         <v>200</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>934</v>
+        <v>923</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>932</v>
+        <v>775</v>
       </c>
       <c r="G3" s="1">
         <v>2</v>
@@ -12907,7 +12835,7 @@
         <v>2</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>935</v>
+        <v>924</v>
       </c>
     </row>
     <row r="4" ht="17.4" spans="1:13">
@@ -12915,19 +12843,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>936</v>
+        <v>925</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>937</v>
+        <v>926</v>
       </c>
       <c r="D4" s="6">
         <v>0</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>938</v>
+        <v>927</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>936</v>
+        <v>925</v>
       </c>
       <c r="G4" s="1">
         <v>3</v>
@@ -12945,7 +12873,7 @@
         <v>3</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>939</v>
+        <v>928</v>
       </c>
     </row>
     <row r="5" ht="17.4" spans="1:13">
@@ -12956,13 +12884,13 @@
         <v>88</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>940</v>
+        <v>929</v>
       </c>
       <c r="D5" s="6">
         <v>0</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>941</v>
+        <v>930</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>88</v>
@@ -12983,7 +12911,7 @@
         <v>4</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>942</v>
+        <v>931</v>
       </c>
     </row>
     <row r="6" ht="17.4" spans="1:13">
@@ -12994,13 +12922,13 @@
         <v>37</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>943</v>
+        <v>932</v>
       </c>
       <c r="D6" s="6">
         <v>50</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>944</v>
+        <v>933</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>37</v>
@@ -13021,7 +12949,7 @@
         <v>5</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>945</v>
+        <v>934</v>
       </c>
     </row>
     <row r="7" ht="17.4" spans="1:13">
@@ -13032,13 +12960,13 @@
         <v>53</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>946</v>
+        <v>935</v>
       </c>
       <c r="D7" s="6">
         <v>100</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>947</v>
+        <v>936</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>53</v>
@@ -13059,7 +12987,7 @@
         <v>6</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>948</v>
+        <v>937</v>
       </c>
     </row>
     <row r="8" ht="17.4" spans="1:13">
@@ -13067,19 +12995,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>936</v>
+        <v>925</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>937</v>
+        <v>926</v>
       </c>
       <c r="D8" s="6">
         <v>0</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>938</v>
+        <v>927</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>936</v>
+        <v>925</v>
       </c>
       <c r="G8" s="1">
         <v>7</v>
@@ -13097,7 +13025,7 @@
         <v>7</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>935</v>
+        <v>924</v>
       </c>
     </row>
     <row r="9" ht="17.4" spans="1:13">
@@ -13108,13 +13036,13 @@
         <v>88</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>940</v>
+        <v>929</v>
       </c>
       <c r="D9" s="6">
         <v>0</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>941</v>
+        <v>930</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>88</v>
@@ -13135,7 +13063,7 @@
         <v>8</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>942</v>
+        <v>931</v>
       </c>
     </row>
     <row r="10" ht="17.4" spans="1:13">
@@ -13146,13 +13074,13 @@
         <v>37</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>943</v>
+        <v>932</v>
       </c>
       <c r="D10" s="6">
         <v>50</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>944</v>
+        <v>933</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>37</v>
@@ -13173,7 +13101,7 @@
         <v>9</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>949</v>
+        <v>938</v>
       </c>
     </row>
     <row r="11" ht="17.4" spans="1:13">
@@ -13184,13 +13112,13 @@
         <v>53</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>946</v>
+        <v>935</v>
       </c>
       <c r="D11" s="6">
         <v>100</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>947</v>
+        <v>936</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>53</v>
@@ -13211,7 +13139,7 @@
         <v>10</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>931</v>
+        <v>921</v>
       </c>
     </row>
     <row r="12" ht="17.4" spans="1:13">
@@ -13219,19 +13147,19 @@
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>950</v>
+        <v>806</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>951</v>
+        <v>939</v>
       </c>
       <c r="D12" s="6">
         <v>150</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>952</v>
+        <v>940</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>950</v>
+        <v>806</v>
       </c>
       <c r="G12" s="1">
         <v>11</v>
@@ -13249,7 +13177,7 @@
         <v>11</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>953</v>
+        <v>941</v>
       </c>
     </row>
     <row r="13" ht="17.4" spans="1:13">
@@ -13260,13 +13188,13 @@
         <v>84</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>954</v>
+        <v>942</v>
       </c>
       <c r="D13" s="2">
         <v>200</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>955</v>
+        <v>943</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>84</v>
@@ -13278,7 +13206,7 @@
         <v>6</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>956</v>
+        <v>944</v>
       </c>
       <c r="J13" s="1">
         <v>1</v>
@@ -13287,7 +13215,7 @@
         <v>12</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>957</v>
+        <v>945</v>
       </c>
     </row>
     <row r="14" ht="17.4" spans="1:13">
@@ -13295,19 +13223,19 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>958</v>
+        <v>946</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>959</v>
+        <v>947</v>
       </c>
       <c r="D14" s="2">
         <v>250</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>955</v>
+        <v>943</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>958</v>
+        <v>946</v>
       </c>
       <c r="G14" s="1">
         <v>13</v>
@@ -13325,7 +13253,7 @@
         <v>13</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>960</v>
+        <v>948</v>
       </c>
     </row>
     <row r="15" ht="17.4" spans="1:13">
@@ -13333,19 +13261,19 @@
         <v>14</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>936</v>
+        <v>925</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>937</v>
+        <v>926</v>
       </c>
       <c r="D15" s="6">
         <v>0</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>938</v>
+        <v>927</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>936</v>
+        <v>925</v>
       </c>
       <c r="G15" s="1">
         <v>14</v>
@@ -13363,7 +13291,7 @@
         <v>14</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>939</v>
+        <v>928</v>
       </c>
     </row>
     <row r="16" ht="17.4" spans="1:13">
@@ -13374,13 +13302,13 @@
         <v>88</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>940</v>
+        <v>929</v>
       </c>
       <c r="D16" s="6">
         <v>0</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>941</v>
+        <v>930</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>88</v>
@@ -13401,7 +13329,7 @@
         <v>15</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>961</v>
+        <v>949</v>
       </c>
     </row>
     <row r="17" ht="17.4" spans="1:13">
@@ -13412,13 +13340,13 @@
         <v>37</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>943</v>
+        <v>932</v>
       </c>
       <c r="D17" s="6">
         <v>50</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>944</v>
+        <v>933</v>
       </c>
       <c r="F17" s="6" t="s">
         <v>37</v>
@@ -13439,7 +13367,7 @@
         <v>16</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>945</v>
+        <v>934</v>
       </c>
     </row>
     <row r="18" ht="17.4" spans="1:13">
@@ -13450,13 +13378,13 @@
         <v>53</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>946</v>
+        <v>935</v>
       </c>
       <c r="D18" s="6">
         <v>100</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>947</v>
+        <v>936</v>
       </c>
       <c r="F18" s="6" t="s">
         <v>53</v>
@@ -13477,7 +13405,7 @@
         <v>17</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>962</v>
+        <v>950</v>
       </c>
     </row>
     <row r="19" ht="17.4" spans="1:13">
@@ -13485,19 +13413,19 @@
         <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>950</v>
+        <v>806</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>951</v>
+        <v>939</v>
       </c>
       <c r="D19" s="6">
         <v>150</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>952</v>
+        <v>940</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>950</v>
+        <v>806</v>
       </c>
       <c r="G19" s="1">
         <v>18</v>
@@ -13515,7 +13443,7 @@
         <v>18</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>953</v>
+        <v>941</v>
       </c>
     </row>
     <row r="20" ht="17.4" spans="1:13">
@@ -13526,13 +13454,13 @@
         <v>84</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>954</v>
+        <v>942</v>
       </c>
       <c r="D20" s="2">
         <v>200</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>955</v>
+        <v>943</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>84</v>
@@ -13544,7 +13472,7 @@
         <v>6</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>956</v>
+        <v>944</v>
       </c>
       <c r="J20" s="1">
         <v>1</v>
@@ -13553,7 +13481,7 @@
         <v>19</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>957</v>
+        <v>945</v>
       </c>
     </row>
     <row r="21" ht="17.4" spans="1:13">
@@ -13561,19 +13489,19 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>958</v>
+        <v>946</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>959</v>
+        <v>947</v>
       </c>
       <c r="D21" s="2">
         <v>250</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>955</v>
+        <v>943</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>958</v>
+        <v>946</v>
       </c>
       <c r="G21" s="1">
         <v>20</v>
@@ -13591,7 +13519,7 @@
         <v>20</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>963</v>
+        <v>951</v>
       </c>
     </row>
   </sheetData>
@@ -13607,7 +13535,7 @@
   <dimension ref="A1:S5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="4"/>
@@ -13623,55 +13551,55 @@
         <v>176</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>952</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>953</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>954</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>955</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>956</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>957</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>958</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>959</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>960</v>
+      </c>
+      <c r="K1" s="13" t="s">
+        <v>961</v>
+      </c>
+      <c r="L1" s="13" t="s">
+        <v>962</v>
+      </c>
+      <c r="M1" s="13" t="s">
+        <v>963</v>
+      </c>
+      <c r="N1" s="13" t="s">
         <v>964</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="O1" s="14" t="s">
         <v>965</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="P1" s="15" t="s">
         <v>966</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="Q1" s="15" t="s">
         <v>967</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="R1" s="15" t="s">
         <v>968</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>969</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>970</v>
-      </c>
-      <c r="I1" s="13" t="s">
-        <v>971</v>
-      </c>
-      <c r="J1" s="13" t="s">
-        <v>972</v>
-      </c>
-      <c r="K1" s="13" t="s">
-        <v>973</v>
-      </c>
-      <c r="L1" s="13" t="s">
-        <v>974</v>
-      </c>
-      <c r="M1" s="13" t="s">
-        <v>975</v>
-      </c>
-      <c r="N1" s="13" t="s">
-        <v>976</v>
-      </c>
-      <c r="O1" s="14" t="s">
-        <v>977</v>
-      </c>
-      <c r="P1" s="15" t="s">
-        <v>978</v>
-      </c>
-      <c r="Q1" s="15" t="s">
-        <v>979</v>
-      </c>
-      <c r="R1" s="15" t="s">
-        <v>980</v>
       </c>
       <c r="S1" s="15" t="s">
         <v>719</v>
@@ -13682,7 +13610,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>981</v>
+        <v>969</v>
       </c>
       <c r="C2" s="1">
         <v>50</v>
@@ -13741,7 +13669,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>982</v>
+        <v>970</v>
       </c>
       <c r="C3" s="1">
         <v>50</v>
@@ -13800,7 +13728,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>983</v>
+        <v>971</v>
       </c>
       <c r="C4" s="1">
         <v>50</v>
@@ -13859,7 +13787,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>984</v>
+        <v>972</v>
       </c>
       <c r="C5" s="1">
         <v>50</v>
@@ -13945,19 +13873,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>985</v>
+        <v>973</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>986</v>
+        <v>974</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>987</v>
+        <v>975</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>988</v>
+        <v>976</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>989</v>
+        <v>977</v>
       </c>
     </row>
     <row r="2" ht="17.4" spans="1:6">
@@ -13971,7 +13899,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>990</v>
+        <v>782</v>
       </c>
       <c r="E2" s="7">
         <v>1</v>
@@ -13991,7 +13919,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>991</v>
+        <v>978</v>
       </c>
       <c r="E3" s="7">
         <v>2</v>
@@ -14011,7 +13939,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>992</v>
+        <v>979</v>
       </c>
       <c r="E4" s="7">
         <v>3</v>
@@ -14031,7 +13959,7 @@
         <v>6</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>993</v>
+        <v>980</v>
       </c>
       <c r="E5" s="7">
         <v>4</v>
@@ -14051,7 +13979,7 @@
         <v>12</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>994</v>
+        <v>981</v>
       </c>
       <c r="E6" s="7">
         <v>5</v>
@@ -14071,7 +13999,7 @@
         <v>20</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>995</v>
+        <v>982</v>
       </c>
       <c r="E7" s="7">
         <v>6</v>
@@ -14091,7 +14019,7 @@
         <v>30</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>996</v>
+        <v>983</v>
       </c>
       <c r="E8" s="7">
         <v>7</v>
@@ -14111,7 +14039,7 @@
         <v>40</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>997</v>
+        <v>984</v>
       </c>
       <c r="E9" s="7">
         <v>8</v>
@@ -14131,7 +14059,7 @@
         <v>50</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>998</v>
+        <v>985</v>
       </c>
       <c r="E10" s="7">
         <v>9</v>
@@ -14151,7 +14079,7 @@
         <v>80</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>999</v>
+        <v>986</v>
       </c>
       <c r="E11" s="7">
         <v>9</v>
@@ -14172,8 +14100,8 @@
   <sheetPr/>
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.87962962962963" defaultRowHeight="15.6" outlineLevelRow="3" outlineLevelCol="5"/>
@@ -14192,19 +14120,19 @@
         <v>176</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1000</v>
+        <v>987</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1001</v>
+        <v>988</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1002</v>
+        <v>989</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>1003</v>
+        <v>990</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>1004</v>
+        <v>991</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -14212,19 +14140,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>780</v>
+        <v>774</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1005</v>
+        <v>992</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>1006</v>
+        <v>993</v>
       </c>
       <c r="E2" s="5">
         <v>184</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>1007</v>
+        <v>994</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -14232,19 +14160,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>788</v>
+        <v>779</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>1008</v>
+        <v>995</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>1009</v>
+        <v>996</v>
       </c>
       <c r="E3" s="5">
         <v>190</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>1010</v>
+        <v>997</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -14252,19 +14180,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>795</v>
+        <v>781</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>1011</v>
+        <v>998</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>1012</v>
+        <v>999</v>
       </c>
       <c r="E4" s="5">
         <v>194</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>1013</v>
+        <v>1000</v>
       </c>
     </row>
   </sheetData>
@@ -14294,19 +14222,19 @@
         <v>176</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>1014</v>
+        <v>1001</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>1015</v>
+        <v>1002</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>1016</v>
+        <v>1003</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>1017</v>
+        <v>1004</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>1018</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="2" ht="15.6" spans="1:6">
@@ -14314,19 +14242,19 @@
         <v>176</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>1019</v>
+        <v>1006</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>1020</v>
+        <v>1007</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>1021</v>
+        <v>1008</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>1022</v>
+        <v>1009</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>1023</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="3" ht="15.6" spans="1:6">
@@ -14558,13 +14486,13 @@
         <v>176</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>1024</v>
+        <v>1011</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>1025</v>
+        <v>1012</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1026</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -14572,13 +14500,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>1027</v>
+        <v>1014</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>1028</v>
+        <v>1015</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>1029</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -14586,13 +14514,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>1031</v>
+        <v>1018</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>1032</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -14600,13 +14528,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>1033</v>
+        <v>1020</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>1034</v>
+        <v>1021</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>1035</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -14614,13 +14542,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>1036</v>
+        <v>1023</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>1037</v>
+        <v>1024</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>1038</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -14628,13 +14556,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>1039</v>
+        <v>1026</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>1040</v>
+        <v>1027</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>1041</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -14642,13 +14570,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>1042</v>
+        <v>1029</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>1043</v>
+        <v>1030</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>1044</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -14656,13 +14584,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>1045</v>
+        <v>1032</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>1046</v>
+        <v>1033</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>1047</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -14670,13 +14598,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>1048</v>
+        <v>1035</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>1049</v>
+        <v>1036</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>1050</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -14684,13 +14612,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>1051</v>
+        <v>1038</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>603</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>1052</v>
+        <v>1039</v>
       </c>
     </row>
   </sheetData>
@@ -14722,10 +14650,10 @@
         <v>176</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1053</v>
+        <v>1040</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1054</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -14733,10 +14661,10 @@
         <v>176</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1055</v>
+        <v>1042</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1056</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -14744,7 +14672,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>1057</v>
+        <v>1044</v>
       </c>
       <c r="C3" s="1">
         <v>1</v>
@@ -14755,7 +14683,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>1058</v>
+        <v>1045</v>
       </c>
       <c r="C4" s="1">
         <v>3</v>
@@ -14766,7 +14694,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>1059</v>
+        <v>1046</v>
       </c>
       <c r="C5" s="1">
         <v>5</v>
@@ -14777,7 +14705,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>1060</v>
+        <v>1047</v>
       </c>
       <c r="C6" s="1">
         <v>7</v>
@@ -14788,7 +14716,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>1061</v>
+        <v>1048</v>
       </c>
       <c r="C7" s="1">
         <v>9</v>
@@ -14840,7 +14768,7 @@
         <v>725</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1062</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -14851,7 +14779,7 @@
         <v>740</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1063</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -14859,10 +14787,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1064</v>
+        <v>1051</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>1065</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -14870,10 +14798,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1066</v>
+        <v>1053</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>1067</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -14881,10 +14809,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1068</v>
+        <v>1055</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>1069</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -14892,10 +14820,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>1070</v>
+        <v>1057</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>1071</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -14903,10 +14831,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>1072</v>
+        <v>1059</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>1073</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -14914,10 +14842,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>1074</v>
+        <v>1061</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>1075</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -14925,10 +14853,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>1076</v>
+        <v>1063</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>1077</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -14936,10 +14864,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>1078</v>
+        <v>1065</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>1079</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -14947,10 +14875,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>1080</v>
+        <v>1067</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>1081</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -14958,10 +14886,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>1082</v>
+        <v>1069</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>1083</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -14969,10 +14897,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>1084</v>
+        <v>1071</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>1085</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -14980,10 +14908,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>1086</v>
+        <v>1073</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>1087</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -14991,10 +14919,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>1088</v>
+        <v>1075</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>1089</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -15002,10 +14930,10 @@
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>1090</v>
+        <v>1077</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>1091</v>
+        <v>1078</v>
       </c>
     </row>
   </sheetData>
@@ -21392,13 +21320,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>924</v>
+        <v>914</v>
       </c>
       <c r="B1" t="s">
-        <v>1092</v>
+        <v>1079</v>
       </c>
       <c r="C1" t="s">
-        <v>1093</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -21409,7 +21337,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>1094</v>
+        <v>1081</v>
       </c>
     </row>
   </sheetData>
@@ -29360,7 +29288,7 @@
   <dimension ref="A1:F51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="5"/>

--- a/Conversion/AutoChangeJson/datasrc/111.xlsx
+++ b/Conversion/AutoChangeJson/datasrc/111.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" tabRatio="880"/>
+    <workbookView windowWidth="22368" windowHeight="9420" tabRatio="880" firstSheet="3" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="RoleTable0" sheetId="2" r:id="rId1"/>
@@ -5156,9 +5156,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="33">
     <font>
@@ -5237,11 +5237,24 @@
       <charset val="134"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -5251,8 +5264,76 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5268,14 +5349,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5289,93 +5371,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
@@ -5410,7 +5410,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5422,25 +5458,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5452,13 +5488,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5476,7 +5518,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5488,7 +5542,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5500,97 +5584,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5673,15 +5673,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -5697,6 +5688,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -5708,21 +5708,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5745,17 +5730,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5770,16 +5746,40 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5788,16 +5788,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5806,118 +5806,118 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="27" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -6337,12 +6337,12 @@
   <sheetPr/>
   <dimension ref="A1:W82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="G29" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L4" sqref="L4"/>
+      <selection pane="bottomRight" activeCell="A46" sqref="$A46:$XFD46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
@@ -11352,8 +11352,8 @@
   <sheetPr/>
   <dimension ref="A1:Q21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
@@ -11697,7 +11697,7 @@
         <v>775</v>
       </c>
       <c r="F11" s="1">
-        <v>5</v>
+        <v>999</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>776</v>
@@ -11726,7 +11726,7 @@
         <v>53</v>
       </c>
       <c r="F12" s="1">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>776</v>
@@ -11758,7 +11758,7 @@
         <v>37</v>
       </c>
       <c r="F13" s="1">
-        <v>15</v>
+        <v>1001</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>782</v>
@@ -11793,7 +11793,7 @@
         <v>88</v>
       </c>
       <c r="F14" s="1">
-        <v>20</v>
+        <v>1002</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>788</v>
@@ -11840,7 +11840,7 @@
         <v>84</v>
       </c>
       <c r="F15" s="1">
-        <v>25</v>
+        <v>1003</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>796</v>
@@ -11887,7 +11887,7 @@
         <v>806</v>
       </c>
       <c r="F16" s="1">
-        <v>30</v>
+        <v>1004</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>807</v>
@@ -11934,7 +11934,7 @@
         <v>812</v>
       </c>
       <c r="F17" s="1">
-        <v>35</v>
+        <v>1005</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>813</v>
@@ -11981,7 +11981,7 @@
         <v>88</v>
       </c>
       <c r="F18" s="1">
-        <v>40</v>
+        <v>1006</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>807</v>
@@ -12028,7 +12028,7 @@
         <v>88</v>
       </c>
       <c r="F19" s="1">
-        <v>45</v>
+        <v>1007</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>826</v>
@@ -12075,7 +12075,7 @@
         <v>812</v>
       </c>
       <c r="F20" s="1">
-        <v>50</v>
+        <v>1008</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>807</v>
@@ -12122,7 +12122,7 @@
         <v>88</v>
       </c>
       <c r="F21" s="1">
-        <v>55</v>
+        <v>1009</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>808</v>
@@ -13524,7 +13524,7 @@
   <dimension ref="A1:S5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="4"/>
@@ -13617,28 +13617,28 @@
         <v>50</v>
       </c>
       <c r="H2" s="12">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I2" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J2" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="K2" s="1">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="L2" s="1">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="M2" s="1">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="N2" s="1">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="O2" s="11">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="P2" s="15">
         <v>50</v>

--- a/Conversion/AutoChangeJson/datasrc/111.xlsx
+++ b/Conversion/AutoChangeJson/datasrc/111.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" tabRatio="880" firstSheet="3" activeTab="9"/>
+    <workbookView windowWidth="22368" windowHeight="9420" tabRatio="880" firstSheet="10" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="RoleTable0" sheetId="2" r:id="rId1"/>
@@ -1888,7 +1888,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2823" uniqueCount="1081">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2825" uniqueCount="1081">
   <si>
     <t>index</t>
   </si>
@@ -2124,7 +2124,7 @@
     <t>表，坐谈客耳。</t>
   </si>
   <si>
-    <t>诸葛恪</t>
+    <t>袁术</t>
   </si>
   <si>
     <t>恪刚愎自用。</t>
@@ -4742,15 +4742,15 @@
     <t>44,53</t>
   </si>
   <si>
-    <t>袁术</t>
-  </si>
-  <si>
     <t>四世三公名门之后，受大将军何进提携。后董卓之乱，去往富庶之地南阳，兵粮充足……</t>
   </si>
   <si>
     <t>宛城</t>
   </si>
   <si>
+    <t>8,31,49</t>
+  </si>
+  <si>
     <t>许昌</t>
   </si>
   <si>
@@ -4787,7 +4787,7 @@
     <t>紫1周目</t>
   </si>
   <si>
-    <t>橙1周目</t>
+    <t>红1周目</t>
   </si>
   <si>
     <t>绿2周目</t>
@@ -4799,7 +4799,7 @@
     <t>紫2周目</t>
   </si>
   <si>
-    <t>橙2周目</t>
+    <t>红2周目</t>
   </si>
   <si>
     <t>声望奖励：第一名</t>
@@ -5156,9 +5156,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="33">
     <font>
@@ -5237,38 +5237,11 @@
       <charset val="134"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -5287,17 +5260,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -5309,18 +5282,18 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -5339,6 +5312,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -5347,11 +5327,41 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -5363,19 +5373,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
@@ -5410,13 +5410,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5428,31 +5428,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5470,13 +5476,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5494,31 +5506,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5530,7 +5524,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5548,7 +5548,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5560,25 +5572,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5590,7 +5584,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5673,6 +5673,69 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -5697,45 +5760,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -5746,40 +5770,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5788,16 +5788,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5806,118 +5806,118 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="27" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="27" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -6338,11 +6338,11 @@
   <dimension ref="A1:W82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="G29" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A46" sqref="$A46:$XFD46"/>
+      <selection pane="bottomRight" activeCell="A50" sqref="$A50:$XFD50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
@@ -11352,7 +11352,7 @@
   <sheetPr/>
   <dimension ref="A1:Q21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
@@ -12688,8 +12688,8 @@
   <sheetPr/>
   <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
@@ -13212,10 +13212,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C14" s="17" t="s">
         <v>945</v>
-      </c>
-      <c r="C14" s="17" t="s">
-        <v>946</v>
       </c>
       <c r="D14" s="2">
         <v>250</v>
@@ -13224,7 +13224,7 @@
         <v>942</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="G14" s="1">
         <v>13</v>
@@ -13232,8 +13232,8 @@
       <c r="H14" s="1">
         <v>5</v>
       </c>
-      <c r="I14" s="1">
-        <v>49</v>
+      <c r="I14" s="1" t="s">
+        <v>947</v>
       </c>
       <c r="J14" s="1">
         <v>1</v>
@@ -13242,7 +13242,7 @@
         <v>13</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="15" ht="17.4" spans="1:13">
@@ -13478,10 +13478,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C21" s="17" t="s">
         <v>945</v>
-      </c>
-      <c r="C21" s="17" t="s">
-        <v>946</v>
       </c>
       <c r="D21" s="2">
         <v>250</v>
@@ -13498,8 +13498,8 @@
       <c r="H21" s="1">
         <v>5</v>
       </c>
-      <c r="I21" s="1">
-        <v>49</v>
+      <c r="I21" s="1" t="s">
+        <v>947</v>
       </c>
       <c r="J21" s="1">
         <v>1</v>
@@ -13523,8 +13523,8 @@
   <sheetPr/>
   <dimension ref="A1:S5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="4"/>
@@ -13843,7 +13843,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="5"/>
@@ -13985,7 +13985,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="7">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>981</v>
@@ -14005,7 +14005,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="7">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>982</v>
@@ -14025,7 +14025,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="7">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>983</v>
@@ -14045,7 +14045,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="7">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>984</v>
@@ -14065,7 +14065,7 @@
         <v>10</v>
       </c>
       <c r="C11" s="7">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>985</v>
@@ -14738,7 +14738,7 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.87962962962963" defaultRowHeight="15.6" outlineLevelCol="2"/>

--- a/Conversion/AutoChangeJson/datasrc/111.xlsx
+++ b/Conversion/AutoChangeJson/datasrc/111.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" tabRatio="880" firstSheet="10" activeTab="11"/>
+    <workbookView windowWidth="22368" windowHeight="9420" tabRatio="880" firstSheet="6" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="RoleTable0" sheetId="2" r:id="rId1"/>
@@ -5237,11 +5237,18 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -5259,18 +5266,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -5282,31 +5298,16 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5321,9 +5322,32 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -5335,7 +5359,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5344,30 +5368,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5410,13 +5410,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5428,19 +5506,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5458,13 +5530,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5476,115 +5584,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5674,36 +5674,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -5721,8 +5691,58 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5750,36 +5770,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5788,16 +5788,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5806,115 +5806,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="31" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
@@ -12688,7 +12688,7 @@
   <sheetPr/>
   <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
@@ -13524,7 +13524,7 @@
   <dimension ref="A1:S5"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="4"/>
@@ -33465,8 +33465,8 @@
   <sheetPr/>
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="5" outlineLevelCol="7"/>
@@ -33521,7 +33521,7 @@
         <v>5</v>
       </c>
       <c r="E2" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>715</v>
@@ -33530,7 +33530,7 @@
         <v>-20</v>
       </c>
       <c r="H2" s="5">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="3" ht="15.6" spans="1:8">
@@ -33547,7 +33547,7 @@
         <v>4</v>
       </c>
       <c r="E3" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>717</v>
@@ -33556,7 +33556,7 @@
         <v>-8</v>
       </c>
       <c r="H3" s="5">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="4" ht="15.6" spans="1:8">
@@ -33573,7 +33573,7 @@
         <v>3</v>
       </c>
       <c r="E4" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>719</v>
@@ -33582,7 +33582,7 @@
         <v>-6</v>
       </c>
       <c r="H4" s="5">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="5" ht="15.6" spans="1:8">
@@ -33599,16 +33599,16 @@
         <v>2</v>
       </c>
       <c r="E5" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>721</v>
       </c>
       <c r="G5" s="5">
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="H5" s="5">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="6" ht="15.6" spans="1:8">
@@ -33622,19 +33622,19 @@
         <v>722</v>
       </c>
       <c r="D6" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E6" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>723</v>
       </c>
       <c r="G6" s="5">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="H6" s="5">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
   </sheetData>

--- a/Conversion/AutoChangeJson/datasrc/111.xlsx
+++ b/Conversion/AutoChangeJson/datasrc/111.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" tabRatio="880" firstSheet="6" activeTab="8"/>
+    <workbookView windowWidth="22368" windowHeight="9420" tabRatio="880" firstSheet="6" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="RoleTable0" sheetId="2" r:id="rId1"/>
@@ -5237,9 +5237,15 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5253,7 +5259,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5261,6 +5267,65 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5290,31 +5355,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5328,54 +5371,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
@@ -5410,7 +5410,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5422,37 +5536,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5464,25 +5566,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5494,103 +5584,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5673,6 +5673,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -5684,15 +5702,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5726,8 +5735,23 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5746,40 +5770,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5788,16 +5788,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5806,118 +5806,118 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="17" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="25" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="31" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -12688,8 +12688,8 @@
   <sheetPr/>
   <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
@@ -12762,7 +12762,7 @@
         <v>918</v>
       </c>
       <c r="D2" s="6">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>919</v>
@@ -12799,8 +12799,8 @@
       <c r="C3" s="17" t="s">
         <v>921</v>
       </c>
-      <c r="D3" s="6">
-        <v>200</v>
+      <c r="D3" s="2">
+        <v>750</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>922</v>
@@ -12914,7 +12914,7 @@
         <v>931</v>
       </c>
       <c r="D6" s="6">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>932</v>
@@ -12952,7 +12952,7 @@
         <v>934</v>
       </c>
       <c r="D7" s="6">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>935</v>
@@ -13066,7 +13066,7 @@
         <v>931</v>
       </c>
       <c r="D10" s="6">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>932</v>
@@ -13104,7 +13104,7 @@
         <v>934</v>
       </c>
       <c r="D11" s="6">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>935</v>
@@ -13142,7 +13142,7 @@
         <v>938</v>
       </c>
       <c r="D12" s="6">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>939</v>
@@ -13180,7 +13180,7 @@
         <v>941</v>
       </c>
       <c r="D13" s="2">
-        <v>200</v>
+        <v>750</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>942</v>
@@ -13218,7 +13218,7 @@
         <v>945</v>
       </c>
       <c r="D14" s="2">
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>942</v>
@@ -13332,7 +13332,7 @@
         <v>931</v>
       </c>
       <c r="D17" s="6">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>932</v>
@@ -13370,7 +13370,7 @@
         <v>934</v>
       </c>
       <c r="D18" s="6">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>935</v>
@@ -13408,7 +13408,7 @@
         <v>938</v>
       </c>
       <c r="D19" s="6">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="E19" s="6" t="s">
         <v>939</v>
@@ -13446,7 +13446,7 @@
         <v>941</v>
       </c>
       <c r="D20" s="2">
-        <v>200</v>
+        <v>750</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>942</v>
@@ -13484,7 +13484,7 @@
         <v>945</v>
       </c>
       <c r="D21" s="2">
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="E21" s="6" t="s">
         <v>942</v>
@@ -33465,7 +33465,7 @@
   <sheetPr/>
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>

--- a/Conversion/AutoChangeJson/datasrc/111.xlsx
+++ b/Conversion/AutoChangeJson/datasrc/111.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" tabRatio="880" firstSheet="6" activeTab="11"/>
+    <workbookView windowWidth="22368" windowHeight="9420" tabRatio="880" firstSheet="6" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="RoleTable0" sheetId="2" r:id="rId1"/>
@@ -4454,7 +4454,7 @@
     <t>虎卫3</t>
   </si>
   <si>
-    <t>夺命</t>
+    <t>狂战</t>
   </si>
   <si>
     <t>防御提升20%。</t>
@@ -4490,21 +4490,21 @@
     <t>刺盾6</t>
   </si>
   <si>
+    <t>飞闪</t>
+  </si>
+  <si>
+    <t>攻击提升10%。</t>
+  </si>
+  <si>
+    <t>战斗中每损失10%血量，提升5%闪避。</t>
+  </si>
+  <si>
+    <t>飞甲3</t>
+  </si>
+  <si>
     <t>疾风</t>
   </si>
   <si>
-    <t>攻击提升10%。</t>
-  </si>
-  <si>
-    <t>战斗中每损失10%血量，提升5%闪避。</t>
-  </si>
-  <si>
-    <t>飞甲3</t>
-  </si>
-  <si>
-    <t>瞬闪</t>
-  </si>
-  <si>
     <t>攻击提升20%。</t>
   </si>
   <si>
@@ -4523,7 +4523,7 @@
     <t>禁卫3</t>
   </si>
   <si>
-    <t>战魂</t>
+    <t>英魂</t>
   </si>
   <si>
     <t>每次攻击提升30%攻击，15%防御，可叠加3次。</t>
@@ -5237,6 +5237,14 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
@@ -5245,7 +5253,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5259,16 +5267,47 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -5281,17 +5320,10 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -5300,16 +5332,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5317,15 +5342,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5340,32 +5357,15 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5410,13 +5410,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5428,31 +5446,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5476,13 +5476,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5494,19 +5530,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5518,79 +5590,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5673,24 +5673,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -5723,10 +5705,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -5736,7 +5716,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5770,16 +5750,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5788,16 +5788,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5806,118 +5806,118 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="17" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="25" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -12168,7 +12168,7 @@
   <dimension ref="A1:E62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="4"/>
@@ -12688,7 +12688,7 @@
   <sheetPr/>
   <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
@@ -13523,8 +13523,8 @@
   <sheetPr/>
   <dimension ref="A1:S5"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="4"/>
@@ -13605,7 +13605,7 @@
         <v>50</v>
       </c>
       <c r="D2" s="1">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E2" s="1">
         <v>50</v>
@@ -13617,25 +13617,25 @@
         <v>50</v>
       </c>
       <c r="H2" s="12">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I2" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J2" s="1">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="K2" s="1">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L2" s="1">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M2" s="1">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="N2" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O2" s="11">
         <v>25</v>
@@ -13676,28 +13676,28 @@
         <v>100</v>
       </c>
       <c r="H3" s="12">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I3" s="1">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J3" s="1">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="K3" s="1">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="L3" s="1">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="M3" s="1">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="N3" s="1">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="O3" s="11">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="P3" s="15">
         <v>100</v>
@@ -13735,28 +13735,28 @@
         <v>150</v>
       </c>
       <c r="H4" s="12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I4" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J4" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K4" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="L4" s="1">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="M4" s="1">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="N4" s="1">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O4" s="11">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="P4" s="15">
         <v>150</v>
@@ -13794,10 +13794,10 @@
         <v>200</v>
       </c>
       <c r="H5" s="12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I5" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J5" s="1">
         <v>5</v>

--- a/Conversion/AutoChangeJson/datasrc/111.xlsx
+++ b/Conversion/AutoChangeJson/datasrc/111.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" tabRatio="880" firstSheet="6" activeTab="12"/>
+    <workbookView windowWidth="20928" windowHeight="9960" tabRatio="880" firstSheet="6" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="RoleTable0" sheetId="2" r:id="rId1"/>
@@ -5155,10 +5155,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="33">
     <font>
@@ -5238,6 +5238,58 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
@@ -5252,22 +5304,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5276,20 +5337,6 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5304,55 +5351,10 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -5371,11 +5373,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
@@ -5410,7 +5410,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5422,7 +5428,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5434,13 +5548,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5452,103 +5566,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5560,13 +5578,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5578,19 +5590,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5688,6 +5688,39 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -5703,24 +5736,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -5731,21 +5746,6 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -5776,10 +5776,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5788,16 +5788,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5806,55 +5806,55 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -5863,61 +5863,61 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -13524,7 +13524,7 @@
   <dimension ref="A1:S5"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="4"/>
@@ -13626,7 +13626,7 @@
         <v>11</v>
       </c>
       <c r="K2" s="1">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L2" s="1">
         <v>15</v>
@@ -13685,7 +13685,7 @@
         <v>9</v>
       </c>
       <c r="K3" s="1">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L3" s="1">
         <v>13</v>

--- a/Conversion/AutoChangeJson/datasrc/111.xlsx
+++ b/Conversion/AutoChangeJson/datasrc/111.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20928" windowHeight="9960" tabRatio="880" firstSheet="10" activeTab="11"/>
+    <workbookView windowWidth="22368" windowHeight="9420" tabRatio="880" firstSheet="10" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="RoleTable0" sheetId="2" r:id="rId1"/>
@@ -5234,15 +5234,17 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5269,24 +5271,26 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -5297,9 +5301,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5313,23 +5316,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -5337,15 +5325,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -5368,11 +5348,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
@@ -5407,31 +5407,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5443,73 +5425,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5527,13 +5449,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5551,43 +5581,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5696,30 +5696,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -5731,6 +5707,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5759,6 +5744,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -5773,10 +5773,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5785,16 +5785,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5803,118 +5803,118 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="21" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="31" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="31" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -12688,7 +12688,7 @@
   <sheetPr/>
   <dimension ref="A1:M23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
@@ -13456,8 +13456,8 @@
   <sheetPr/>
   <dimension ref="A1:S5"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="4"/>
@@ -13609,16 +13609,16 @@
         <v>100</v>
       </c>
       <c r="H3" s="12">
+        <v>3</v>
+      </c>
+      <c r="I3" s="1">
         <v>5</v>
       </c>
-      <c r="I3" s="1">
+      <c r="J3" s="1">
         <v>7</v>
       </c>
-      <c r="J3" s="1">
+      <c r="K3" s="1">
         <v>10</v>
-      </c>
-      <c r="K3" s="1">
-        <v>15</v>
       </c>
       <c r="L3" s="1">
         <v>13</v>
@@ -13776,7 +13776,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="5"/>
@@ -14130,7 +14130,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="A6" sqref="$A6:$XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.87962962962963" defaultRowHeight="13.8" outlineLevelCol="5"/>
@@ -14290,7 +14290,7 @@
         <v>10</v>
       </c>
       <c r="D8" s="4">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E8" s="4">
         <v>10</v>
@@ -14310,7 +14310,7 @@
         <v>15</v>
       </c>
       <c r="D9" s="4">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E9" s="4">
         <v>15</v>
@@ -14330,7 +14330,7 @@
         <v>20</v>
       </c>
       <c r="D10" s="4">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E10" s="4">
         <v>20</v>
@@ -14350,7 +14350,7 @@
         <v>25</v>
       </c>
       <c r="D11" s="4">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E11" s="4">
         <v>25</v>
@@ -33399,7 +33399,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="5" outlineLevelCol="7"/>
@@ -33463,7 +33463,7 @@
         <v>-20</v>
       </c>
       <c r="H2" s="5">
-        <v>-3</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="3" ht="15.6" spans="1:8">
@@ -33489,7 +33489,7 @@
         <v>-8</v>
       </c>
       <c r="H3" s="5">
-        <v>-3</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="4" ht="15.6" spans="1:8">
@@ -33515,7 +33515,7 @@
         <v>-6</v>
       </c>
       <c r="H4" s="5">
-        <v>-3</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="5" ht="15.6" spans="1:8">
@@ -33541,7 +33541,7 @@
         <v>-3</v>
       </c>
       <c r="H5" s="5">
-        <v>-3</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="6" ht="15.6" spans="1:8">
@@ -33564,10 +33564,10 @@
         <v>722</v>
       </c>
       <c r="G6" s="5">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="H6" s="5">
-        <v>-3</v>
+        <v>-2</v>
       </c>
     </row>
   </sheetData>

--- a/Conversion/AutoChangeJson/datasrc/111.xlsx
+++ b/Conversion/AutoChangeJson/datasrc/111.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" tabRatio="880" firstSheet="10" activeTab="12"/>
+    <workbookView windowWidth="22368" windowHeight="9420" tabRatio="880" firstSheet="10" activeTab="18"/>
   </bookViews>
   <sheets>
     <sheet name="RoleTable0" sheetId="2" r:id="rId1"/>
@@ -1888,7 +1888,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2829" uniqueCount="1080">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2831" uniqueCount="1082">
   <si>
     <t>index</t>
   </si>
@@ -5138,6 +5138,12 @@
     <t>起死回生</t>
   </si>
   <si>
+    <t>消灭势力</t>
+  </si>
+  <si>
+    <t>{0}势力灭亡！俘获{1}。</t>
+  </si>
+  <si>
     <t>flagIcon</t>
   </si>
   <si>
@@ -5152,10 +5158,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="33">
     <font>
@@ -5234,6 +5240,93 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -5251,58 +5344,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5324,25 +5366,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5354,25 +5379,6 @@
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
@@ -5407,7 +5413,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5419,97 +5569,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5521,49 +5581,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5576,18 +5594,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5670,32 +5676,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -5720,11 +5700,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5744,6 +5730,35 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -5758,25 +5773,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5785,16 +5791,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5803,118 +5809,118 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="21" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="32" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -13456,7 +13462,7 @@
   <sheetPr/>
   <dimension ref="A1:S5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
@@ -14668,10 +14674,10 @@
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.87962962962963" defaultRowHeight="15.6" outlineLevelCol="2"/>
@@ -14856,6 +14862,17 @@
       </c>
       <c r="C16" s="1" t="s">
         <v>1076</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>1077</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>1078</v>
       </c>
     </row>
   </sheetData>
@@ -21245,10 +21262,10 @@
         <v>913</v>
       </c>
       <c r="B1" t="s">
-        <v>1077</v>
+        <v>1079</v>
       </c>
       <c r="C1" t="s">
-        <v>1078</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -21259,7 +21276,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>1079</v>
+        <v>1081</v>
       </c>
     </row>
   </sheetData>

--- a/Conversion/AutoChangeJson/datasrc/111.xlsx
+++ b/Conversion/AutoChangeJson/datasrc/111.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" tabRatio="880" firstSheet="10" activeTab="18"/>
+    <workbookView windowWidth="22368" windowHeight="9420" tabRatio="880" firstSheet="10" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="RoleTable0" sheetId="2" r:id="rId1"/>
@@ -5006,7 +5006,7 @@
     <t>有效的震晕技能，适合放后排控制敌方</t>
   </si>
   <si>
-    <t>都统</t>
+    <t>统帅</t>
   </si>
   <si>
     <t>统</t>
@@ -5158,10 +5158,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="33">
     <font>
@@ -5240,59 +5240,11 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -5312,16 +5264,45 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5336,10 +5317,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -5351,10 +5332,25 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -5373,12 +5369,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
@@ -5413,7 +5413,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5425,7 +5575,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5437,163 +5593,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5676,26 +5676,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5734,27 +5719,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
         <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5773,16 +5738,51 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5791,16 +5791,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5809,118 +5809,118 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="32" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -12174,7 +12174,7 @@
   <dimension ref="A1:E62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="A14" sqref="$A14:$XFD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="4"/>
@@ -14396,8 +14396,8 @@
   <sheetPr/>
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.87962962962963" defaultRowHeight="15.6" outlineLevelCol="3"/>
@@ -14676,8 +14676,8 @@
   <sheetPr/>
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.87962962962963" defaultRowHeight="15.6" outlineLevelCol="2"/>

--- a/Conversion/AutoChangeJson/datasrc/111.xlsx
+++ b/Conversion/AutoChangeJson/datasrc/111.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" tabRatio="880" firstSheet="10" activeTab="16"/>
+    <workbookView windowWidth="20928" windowHeight="9960" tabRatio="880" firstSheet="6" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="RoleTable0" sheetId="2" r:id="rId1"/>
@@ -5158,9 +5158,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="33">
@@ -5240,11 +5240,44 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -5257,7 +5290,76 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5273,112 +5375,10 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
@@ -5413,25 +5413,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5443,19 +5437,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5473,13 +5491,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5491,7 +5545,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5503,49 +5569,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5557,43 +5593,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5676,11 +5676,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5696,6 +5702,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5724,17 +5745,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5750,26 +5765,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5779,10 +5779,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5791,16 +5791,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5809,118 +5809,118 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -13462,8 +13462,8 @@
   <sheetPr/>
   <dimension ref="A1:S5"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="4"/>
@@ -13556,28 +13556,28 @@
         <v>50</v>
       </c>
       <c r="H2" s="12">
+        <v>5</v>
+      </c>
+      <c r="I2" s="1">
         <v>7</v>
       </c>
-      <c r="I2" s="1">
-        <v>10</v>
-      </c>
       <c r="J2" s="1">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="K2" s="1">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="L2" s="1">
         <v>15</v>
       </c>
       <c r="M2" s="1">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="N2" s="1">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="O2" s="11">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="P2" s="15">
         <v>10</v>
@@ -13600,7 +13600,7 @@
         <v>968</v>
       </c>
       <c r="C3" s="1">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D3" s="1">
         <v>5</v>
@@ -13627,16 +13627,16 @@
         <v>10</v>
       </c>
       <c r="L3" s="1">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M3" s="1">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N3" s="1">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="O3" s="11">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="P3" s="15">
         <v>100</v>
@@ -13659,7 +13659,7 @@
         <v>969</v>
       </c>
       <c r="C4" s="1">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="D4" s="1">
         <v>3</v>
@@ -13674,28 +13674,28 @@
         <v>150</v>
       </c>
       <c r="H4" s="12">
+        <v>3</v>
+      </c>
+      <c r="I4" s="1">
         <v>5</v>
       </c>
-      <c r="I4" s="1">
+      <c r="J4" s="1">
         <v>7</v>
       </c>
-      <c r="J4" s="1">
-        <v>9</v>
-      </c>
       <c r="K4" s="1">
+        <v>10</v>
+      </c>
+      <c r="L4" s="1">
         <v>13</v>
       </c>
-      <c r="L4" s="1">
-        <v>11</v>
-      </c>
       <c r="M4" s="1">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="N4" s="1">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="O4" s="11">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="P4" s="15">
         <v>150</v>
@@ -13718,7 +13718,7 @@
         <v>970</v>
       </c>
       <c r="C5" s="1">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="D5" s="1">
         <v>3</v>
@@ -13745,16 +13745,16 @@
         <v>7</v>
       </c>
       <c r="L5" s="1">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="M5" s="1">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="N5" s="1">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="O5" s="11">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="P5" s="15">
         <v>200</v>
@@ -14396,7 +14396,7 @@
   <sheetPr/>
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>

--- a/Conversion/AutoChangeJson/datasrc/111.xlsx
+++ b/Conversion/AutoChangeJson/datasrc/111.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20928" windowHeight="9960" tabRatio="880" firstSheet="6" activeTab="12"/>
+    <workbookView windowWidth="22368" windowHeight="9420" tabRatio="880" firstSheet="7" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="RoleTable0" sheetId="2" r:id="rId1"/>
@@ -5158,10 +5158,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="33">
     <font>
@@ -5240,86 +5240,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -5335,7 +5255,65 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -5358,13 +5336,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -5374,11 +5345,40 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
@@ -5413,19 +5413,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5437,7 +5437,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5455,13 +5539,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5473,37 +5569,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5515,85 +5581,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5706,6 +5706,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -5717,6 +5726,24 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5738,38 +5765,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5779,10 +5779,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5791,16 +5791,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5809,118 +5809,118 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="19" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -13462,8 +13462,8 @@
   <sheetPr/>
   <dimension ref="A1:S5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="4"/>
@@ -13782,7 +13782,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="5"/>
@@ -14135,8 +14135,8 @@
   <sheetPr/>
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="$A6:$XFD6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.87962962962963" defaultRowHeight="13.8" outlineLevelCol="5"/>
@@ -14293,16 +14293,16 @@
         <v>6</v>
       </c>
       <c r="C8" s="4">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D8" s="4">
         <v>9</v>
       </c>
       <c r="E8" s="4">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F8" s="4">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" ht="15.6" spans="1:6">
@@ -14313,16 +14313,16 @@
         <v>7</v>
       </c>
       <c r="C9" s="4">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D9" s="4">
         <v>12</v>
       </c>
       <c r="E9" s="4">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F9" s="4">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" ht="15.6" spans="1:6">
@@ -14333,16 +14333,16 @@
         <v>8</v>
       </c>
       <c r="C10" s="4">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D10" s="4">
         <v>15</v>
       </c>
       <c r="E10" s="4">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F10" s="4">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" ht="15.6" spans="1:6">
@@ -14353,16 +14353,16 @@
         <v>9</v>
       </c>
       <c r="C11" s="4">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D11" s="4">
         <v>20</v>
       </c>
       <c r="E11" s="4">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F11" s="4">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" ht="15.6" spans="1:6">
@@ -14372,7 +14372,7 @@
       <c r="B12" s="3">
         <v>10</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="3">
         <v>25</v>
       </c>
       <c r="D12" s="3">

--- a/Conversion/AutoChangeJson/datasrc/111.xlsx
+++ b/Conversion/AutoChangeJson/datasrc/111.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Unity\Unity-Pj\ChinaGame\PackagedProject\trunk\Conversion\AutoChangeJson\datasrc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B41E2C18-AD1C-41B5-ADE5-E99DD01125C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E7651E5-7178-4282-819A-7E1F02401D4E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="880" firstSheet="7" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="880" firstSheet="7" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RoleTable0" sheetId="2" r:id="rId1"/>
@@ -2709,7 +2709,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2905" uniqueCount="1132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2910" uniqueCount="1137">
   <si>
     <t>index</t>
   </si>
@@ -6126,6 +6126,26 @@
   </si>
   <si>
     <t>Introduction</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>19,</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>20,</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>30,</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>29,</t>
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
 </sst>
@@ -6381,7 +6401,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -6476,6 +6496,9 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -14741,8 +14764,8 @@
   </sheetPr>
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7:F9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -14807,14 +14830,14 @@
       <c r="F2" s="6" t="s">
         <v>1012</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="54" t="s">
         <v>1013</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="54" t="s">
         <v>1014</v>
       </c>
-      <c r="I2" s="6">
-        <v>10</v>
+      <c r="I2" s="54" t="s">
+        <v>1133</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -14836,14 +14859,14 @@
       <c r="F3" s="6" t="s">
         <v>1017</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="54" t="s">
         <v>1018</v>
       </c>
-      <c r="H3" s="6">
-        <v>19</v>
-      </c>
-      <c r="I3" s="6">
-        <v>20</v>
+      <c r="H3" s="54" t="s">
+        <v>1132</v>
+      </c>
+      <c r="I3" s="54" t="s">
+        <v>1134</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -14865,14 +14888,14 @@
       <c r="F4" s="6" t="s">
         <v>1021</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="54" t="s">
         <v>1022</v>
       </c>
-      <c r="H4" s="6">
-        <v>29</v>
-      </c>
-      <c r="I4" s="6">
-        <v>30</v>
+      <c r="H4" s="54" t="s">
+        <v>1136</v>
+      </c>
+      <c r="I4" s="54" t="s">
+        <v>1135</v>
       </c>
     </row>
   </sheetData>
@@ -22039,7 +22062,7 @@
   </sheetPr>
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>

--- a/Conversion/AutoChangeJson/datasrc/111.xlsx
+++ b/Conversion/AutoChangeJson/datasrc/111.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Unity\Unity-Pj\ChinaGame\PackagedProject\trunk\Conversion\AutoChangeJson\datasrc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E7651E5-7178-4282-819A-7E1F02401D4E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF051896-55C9-4EC9-8EE4-BA2968971CBE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="880" firstSheet="7" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="880" firstSheet="7" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RoleTable0" sheetId="2" r:id="rId1"/>
@@ -2709,7 +2709,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2910" uniqueCount="1137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2910" uniqueCount="1145">
   <si>
     <t>index</t>
   </si>
@@ -6146,6 +6146,38 @@
   </si>
   <si>
     <t>29,</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>战意提升{0}，不得高于上限</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>士气提升{0}，不得高于上限</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>城防提升{0}，不得高于上限</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>民心提升{0}，不得高于上限</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>战意降低{0}，不得低于下限</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>士气降低{0}，不得低于下限</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>城防降低{0}，不得低于下限</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>民心降低{0}，不得低于下限</t>
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
 </sst>
@@ -14764,7 +14796,7 @@
   </sheetPr>
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
@@ -22062,8 +22094,8 @@
   </sheetPr>
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -22076,7 +22108,7 @@
     <col min="7" max="7" width="7" style="2" customWidth="1"/>
     <col min="8" max="8" width="12.625" style="2" customWidth="1"/>
     <col min="9" max="9" width="8.5" style="2" customWidth="1"/>
-    <col min="10" max="10" width="24" style="1" customWidth="1"/>
+    <col min="10" max="10" width="42.875" style="1" customWidth="1"/>
     <col min="11" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
@@ -22190,7 +22222,7 @@
         <v>1116</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>1117</v>
+        <v>1137</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>1117</v>
@@ -22216,7 +22248,7 @@
         <v>1116</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>1119</v>
+        <v>1138</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>1119</v>
@@ -22242,7 +22274,7 @@
         <v>1116</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>1121</v>
+        <v>1139</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>1121</v>
@@ -22268,7 +22300,7 @@
         <v>1116</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>1123</v>
+        <v>1140</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>1123</v>
@@ -22294,7 +22326,7 @@
         <v>1124</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>1125</v>
+        <v>1141</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>1125</v>
@@ -22320,7 +22352,7 @@
         <v>1124</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>1126</v>
+        <v>1142</v>
       </c>
       <c r="K9" s="1" t="s">
         <v>1126</v>
@@ -22346,7 +22378,7 @@
         <v>1124</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>1127</v>
+        <v>1143</v>
       </c>
       <c r="K10" s="1" t="s">
         <v>1127</v>
@@ -22372,7 +22404,7 @@
         <v>1124</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>1128</v>
+        <v>1144</v>
       </c>
       <c r="K11" s="1" t="s">
         <v>1128</v>

--- a/Conversion/AutoChangeJson/datasrc/111.xlsx
+++ b/Conversion/AutoChangeJson/datasrc/111.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" tabRatio="880" firstSheet="11" activeTab="14"/>
+    <workbookView windowWidth="22368" windowHeight="9420" tabRatio="880" firstSheet="11" activeTab="20"/>
   </bookViews>
   <sheets>
     <sheet name="RoleTable0" sheetId="2" r:id="rId1"/>
@@ -2486,7 +2486,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2910" uniqueCount="1145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2910" uniqueCount="1149">
   <si>
     <t>index</t>
   </si>
@@ -5874,7 +5874,7 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>紫气东来</t>
+    <t>（紫气东来）</t>
   </si>
   <si>
     <t>10,50</t>
@@ -5886,7 +5886,7 @@
     <t>战意提升10~50，不得高于上限</t>
   </si>
   <si>
-    <t>黄龙现世</t>
+    <t>（黄龙现世）</t>
   </si>
   <si>
     <t>士气提升{0}</t>
@@ -5895,7 +5895,7 @@
     <t>士气提升10~50，不得高于上限</t>
   </si>
   <si>
-    <t>仙人到访</t>
+    <t>（仙人到访）</t>
   </si>
   <si>
     <t>城防提升{0}</t>
@@ -5904,7 +5904,7 @@
     <t>城防提升10~50，不得高于上限</t>
   </si>
   <si>
-    <t>风调雨顺</t>
+    <t>（风调雨顺）</t>
   </si>
   <si>
     <t>民心提升{0}</t>
@@ -5913,6 +5913,9 @@
     <t>民心提升10~50，不得高于上限</t>
   </si>
   <si>
+    <t>（叛军四起）</t>
+  </si>
+  <si>
     <t>-10,-50</t>
   </si>
   <si>
@@ -5922,16 +5925,25 @@
     <t>战意降低10~50，不得低于下限</t>
   </si>
   <si>
+    <t>（妖言惑众）</t>
+  </si>
+  <si>
     <t>士气降低{0}</t>
   </si>
   <si>
     <t>士气降低10~50，不得低于下限</t>
   </si>
   <si>
+    <t>（洪水侵袭）</t>
+  </si>
+  <si>
     <t>城防降低{0}</t>
   </si>
   <si>
     <t>城防降低10~50，不得低于下限</t>
+  </si>
+  <si>
+    <t>（刁民暴乱）</t>
   </si>
   <si>
     <t>民心降低{0}</t>
@@ -5945,10 +5957,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="34">
     <font>
@@ -6034,22 +6046,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6063,6 +6074,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="等线"/>
@@ -6071,24 +6105,16 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6102,18 +6128,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -6132,38 +6151,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6172,6 +6177,13 @@
       <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
@@ -6212,37 +6224,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6254,25 +6248,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6290,7 +6284,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6308,7 +6332,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6320,79 +6398,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6475,17 +6487,41 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -6505,17 +6541,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -6530,58 +6584,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -6590,16 +6602,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -6608,118 +6620,118 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -13504,7 +13516,7 @@
   <dimension ref="A1:O23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:O19"/>
+      <selection activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
@@ -14389,8 +14401,8 @@
   </sheetPr>
   <dimension ref="A1:AD5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="Y9" sqref="Y9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelRow="4"/>
@@ -14570,28 +14582,28 @@
         <v>986</v>
       </c>
       <c r="W2" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="X2" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Y2" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AA2" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AB2" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AC2" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AD2" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:30">
@@ -14662,28 +14674,28 @@
         <v>986</v>
       </c>
       <c r="W3" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="X3" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Y3" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AA3" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AB3" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AC3" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AD3" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:30">
@@ -14754,28 +14766,28 @@
         <v>986</v>
       </c>
       <c r="W4" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="X4" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Y4" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AA4" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AB4" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AC4" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AD4" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:30">
@@ -14846,28 +14858,28 @@
         <v>986</v>
       </c>
       <c r="W5" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="X5" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Y5" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AA5" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AB5" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AC5" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AD5" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -15132,7 +15144,7 @@
   </sheetPr>
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
@@ -22436,14 +22448,14 @@
   </sheetPr>
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.87962962962963" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="8.87962962962963" style="1"/>
-    <col min="2" max="2" width="10.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.1111111111111" style="1" customWidth="1"/>
     <col min="3" max="4" width="11.1296296296296" style="1" customWidth="1"/>
     <col min="5" max="5" width="9.87962962962963" style="1" customWidth="1"/>
     <col min="6" max="6" width="10.5" style="2" customWidth="1"/>
@@ -22529,13 +22541,13 @@
         <v>1122</v>
       </c>
       <c r="C3" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D3" s="1">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="E3" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>1122</v>
@@ -22653,7 +22665,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>466</v>
+        <v>1136</v>
       </c>
       <c r="C8" s="1">
         <v>10</v>
@@ -22665,13 +22677,13 @@
         <v>3</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>1136</v>
+        <v>1137</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>1137</v>
+        <v>1138</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>1138</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -22679,7 +22691,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>467</v>
+        <v>1140</v>
       </c>
       <c r="C9" s="1">
         <v>10</v>
@@ -22691,13 +22703,13 @@
         <v>3</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>1136</v>
+        <v>1137</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>1139</v>
+        <v>1141</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>1140</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -22705,7 +22717,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>465</v>
+        <v>1143</v>
       </c>
       <c r="C10" s="1">
         <v>10</v>
@@ -22717,13 +22729,13 @@
         <v>3</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>1136</v>
+        <v>1137</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>1141</v>
+        <v>1144</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>1142</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -22731,7 +22743,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>468</v>
+        <v>1146</v>
       </c>
       <c r="C11" s="1">
         <v>10</v>
@@ -22743,13 +22755,13 @@
         <v>3</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>1136</v>
+        <v>1137</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>1143</v>
+        <v>1147</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>1144</v>
+        <v>1148</v>
       </c>
     </row>
   </sheetData>

--- a/Conversion/AutoChangeJson/datasrc/111.xlsx
+++ b/Conversion/AutoChangeJson/datasrc/111.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\字走三国\ZZSG\trunk\Conversion\AutoChangeJson\datasrc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30402C81-5657-4756-97AC-ED5E8E657651}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0C23D01-AF6A-48FE-AEBD-50B99C45E6F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="880" firstSheet="11" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RoleTable0" sheetId="2" r:id="rId1"/>
@@ -63,6 +63,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>LOVE:</t>
@@ -71,6 +72,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -85,6 +87,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
@@ -93,6 +96,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -108,6 +112,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">LOVE:兵种
@@ -118,6 +123,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>1、虎卫 2、陷阵 3、飞甲 4、禁卫 5、枪兵 6、戟兵 7、谋士 8、统帅 9、方士</t>
@@ -131,6 +137,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>LOVE:稀有度
@@ -148,6 +155,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>LOVE:</t>
@@ -156,6 +164,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -171,6 +180,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>LOVE:</t>
@@ -179,6 +189,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -193,6 +204,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>LOVE:</t>
@@ -201,6 +213,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -215,6 +228,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>LOVE:</t>
@@ -223,6 +237,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -237,6 +252,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>MBENBEN:</t>
@@ -245,6 +261,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -259,6 +276,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>MBENBEN:</t>
@@ -267,6 +285,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -281,6 +300,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>MBENBEN:</t>
@@ -289,6 +309,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -304,6 +325,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>MBENBEN:</t>
@@ -312,6 +334,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -326,6 +349,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>MBENBEN:</t>
@@ -334,6 +358,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -348,6 +373,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>MBENBEN:</t>
@@ -356,6 +382,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -370,6 +397,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>MBENBEN:</t>
@@ -378,6 +406,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -393,6 +422,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>MBENBEN:</t>
@@ -401,6 +431,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -416,6 +447,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>MBENBEN:</t>
@@ -424,6 +456,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -438,6 +471,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>MBENBEN:</t>
@@ -446,6 +480,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -461,6 +496,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>MBENBEN:</t>
@@ -469,6 +505,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -483,6 +520,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>MBENBEN:</t>
@@ -491,6 +529,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -506,6 +545,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>MBENBEN:</t>
@@ -514,6 +554,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -538,6 +579,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>MBENBEN:</t>
@@ -546,6 +588,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -560,6 +603,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>MBENBEN:</t>
@@ -568,6 +612,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -582,6 +627,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>MBENBEN:</t>
@@ -590,6 +636,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -614,6 +661,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>MBENBEN:</t>
@@ -622,6 +670,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -636,6 +685,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>MBENBEN:</t>
@@ -644,6 +694,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -669,6 +720,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>MBENBEN:</t>
@@ -677,6 +729,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -691,6 +744,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>LOVE:</t>
@@ -699,6 +753,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -714,6 +769,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>LOVE:</t>
@@ -722,6 +778,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -736,6 +793,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>LOVE:</t>
@@ -744,6 +802,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -758,6 +817,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>MBENBEN:</t>
@@ -766,6 +826,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -780,6 +841,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>MBENBEN:</t>
@@ -788,6 +850,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -802,6 +865,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>MBENBEN:</t>
@@ -810,6 +874,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -825,6 +890,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>MBENBEN:</t>
@@ -833,6 +899,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -847,6 +914,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>MBENBEN:</t>
@@ -855,6 +923,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -869,6 +938,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>MBENBEN:</t>
@@ -877,6 +947,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -903,6 +974,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>LOVE:</t>
@@ -911,6 +983,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -925,6 +998,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
@@ -933,6 +1007,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -947,6 +1022,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>LOVE:</t>
@@ -955,6 +1031,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -969,6 +1046,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>LOVE:</t>
@@ -977,6 +1055,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -992,6 +1071,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>LOVE:</t>
@@ -1000,6 +1080,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -1014,6 +1095,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>LOVE:</t>
@@ -1022,6 +1104,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -1036,6 +1119,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>MBENBEN:</t>
@@ -1044,6 +1128,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -1058,6 +1143,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>MBENBEN:</t>
@@ -1066,6 +1152,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -1080,6 +1167,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>MBENBEN:</t>
@@ -1088,6 +1176,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -1103,6 +1192,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>MBENBEN:</t>
@@ -1111,6 +1201,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -1125,6 +1216,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>MBENBEN:</t>
@@ -1133,6 +1225,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -1147,6 +1240,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>MBENBEN:</t>
@@ -1155,6 +1249,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -1179,6 +1274,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>MBENBEN:</t>
@@ -1187,6 +1283,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -1201,6 +1298,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>MBENBEN:</t>
@@ -1209,6 +1307,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -1223,6 +1322,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>MBENBEN:</t>
@@ -1231,6 +1331,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -1245,6 +1346,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>MBENBEN:</t>
@@ -1253,6 +1355,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -1267,6 +1370,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>MBENBEN:</t>
@@ -1275,6 +1379,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -1290,6 +1395,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>MBENBEN:</t>
@@ -1298,6 +1404,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -1312,6 +1419,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>MBENBEN:</t>
@@ -1320,6 +1428,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -1334,6 +1443,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>MBENBEN:</t>
@@ -1342,6 +1452,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -1356,6 +1467,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>MBENBEN:</t>
@@ -1364,6 +1476,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -1379,6 +1492,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>MBENBEN:</t>
@@ -1387,6 +1501,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -1401,6 +1516,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>MBENBEN:</t>
@@ -1409,6 +1525,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -1434,6 +1551,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>LOVE:</t>
@@ -1442,6 +1560,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -1456,6 +1575,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>LOVE:</t>
@@ -1464,6 +1584,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -1489,6 +1610,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>LOVE:</t>
@@ -1497,6 +1619,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -1511,6 +1634,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>MBENBEN:</t>
@@ -1519,6 +1643,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -1533,6 +1658,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>MBENBEN:</t>
@@ -1541,6 +1667,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -1555,6 +1682,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>LOVE:</t>
@@ -1563,6 +1691,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -1577,6 +1706,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>MBENBEN:</t>
@@ -1585,6 +1715,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -1599,6 +1730,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>LOVE:</t>
@@ -1607,6 +1739,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -1621,6 +1754,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>MBENBEN:</t>
@@ -1629,6 +1763,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -1643,6 +1778,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>MBENBEN:</t>
@@ -1651,6 +1787,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -1665,6 +1802,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>MBENBEN:</t>
@@ -1673,6 +1811,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -1688,6 +1827,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>MBENBEN:</t>
@@ -1696,6 +1836,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -1711,6 +1852,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>MBENBEN:</t>
@@ -1719,6 +1861,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -1733,6 +1876,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>MBENBEN:</t>
@@ -1741,6 +1885,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -1755,6 +1900,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>MBENBEN:</t>
@@ -1763,6 +1909,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -1778,6 +1925,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>MBENBEN:</t>
@@ -1786,6 +1934,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -1801,6 +1950,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>MBENBEN:</t>
@@ -1809,6 +1959,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -1834,6 +1985,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>MBENBEN:</t>
@@ -1842,6 +1994,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -1856,6 +2009,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>MBENBEN:</t>
@@ -1864,6 +2018,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -1879,6 +2034,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>MBENBEN:</t>
@@ -1887,6 +2043,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -1902,6 +2059,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>MBENBEN:</t>
@@ -1910,6 +2068,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -1924,6 +2083,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>MBENBEN:</t>
@@ -1932,6 +2092,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -1946,6 +2107,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>MBENBEN:</t>
@@ -1954,6 +2116,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -1968,6 +2131,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>MBENBEN:</t>
@@ -1976,6 +2140,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -1991,6 +2156,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>MBENBEN:</t>
@@ -1999,6 +2165,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -2014,6 +2181,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>MBENBEN:</t>
@@ -2022,6 +2190,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -2036,6 +2205,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>MBENBEN:</t>
@@ -2044,6 +2214,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -2058,6 +2229,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>MBENBEN:</t>
@@ -2066,6 +2238,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -2080,6 +2253,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>MBENBEN:</t>
@@ -2088,6 +2262,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -2102,6 +2277,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>MBENBEN:</t>
@@ -2110,6 +2286,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -2124,6 +2301,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>MBENBEN:</t>
@@ -2132,6 +2310,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -2146,6 +2325,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>MBENBEN:</t>
@@ -2154,6 +2334,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -2179,6 +2360,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>LOVE:</t>
@@ -2187,6 +2369,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -2201,6 +2384,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>LOVE:</t>
@@ -2209,6 +2393,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -2223,6 +2408,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>LOVE:</t>
@@ -2231,6 +2417,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -2245,6 +2432,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>LOVE:</t>
@@ -2253,6 +2441,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -2267,6 +2456,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>LOVE:</t>
@@ -2275,6 +2465,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -2289,6 +2480,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>LOVE:</t>
@@ -2297,6 +2489,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -2321,6 +2514,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>MBENBEN:</t>
@@ -2329,6 +2523,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -2343,6 +2538,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>MBENBEN:</t>
@@ -2351,6 +2547,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -2365,6 +2562,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>MBENBEN:</t>
@@ -2373,6 +2571,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -2387,6 +2586,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>MBENBEN:</t>
@@ -2395,6 +2595,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -2409,6 +2610,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>MBENBEN:</t>
@@ -2417,6 +2619,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -2432,6 +2635,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>MBENBEN:</t>
@@ -2440,6 +2644,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -2455,6 +2660,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>MBENBEN:</t>
@@ -2463,6 +2669,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -2479,6 +2686,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>MBENBEN:</t>
@@ -2487,6 +2695,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -2501,7 +2710,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2948" uniqueCount="1180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2949" uniqueCount="1181">
   <si>
     <t>index</t>
   </si>
@@ -3978,6 +4187,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>经商/忽略</t>
@@ -3987,6 +4197,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>/跳过</t>
@@ -6059,6 +6270,10 @@
   </si>
   <si>
     <t>effectId</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>addHpPercent</t>
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
 </sst>
@@ -6078,35 +6293,41 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0" tint="-0.499984740745262"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF00B050"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1" tint="0.499984740745262"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -6114,12 +6335,14 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -6127,6 +6350,7 @@
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -6134,34 +6358,40 @@
       <sz val="11"/>
       <color rgb="FF00B0F0"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF00B7"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -6292,7 +6522,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -6390,6 +6620,9 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -6675,13 +6908,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W82"/>
+  <dimension ref="A1:X82"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="N2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K1" sqref="K1:K1048576"/>
+      <selection pane="bottomRight" activeCell="X1" sqref="X1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6708,9 +6941,10 @@
     <col min="20" max="20" width="13" customWidth="1"/>
     <col min="21" max="22" width="18.5" customWidth="1"/>
     <col min="23" max="23" width="11" customWidth="1"/>
+    <col min="24" max="24" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -6780,8 +7014,11 @@
       <c r="W1" s="10" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X1" s="55" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2" s="24">
         <v>1</v>
       </c>
@@ -6839,8 +7076,11 @@
       <c r="W2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" s="24">
         <v>2</v>
       </c>
@@ -6898,8 +7138,11 @@
       <c r="W3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4" s="24">
         <v>3</v>
       </c>
@@ -6957,8 +7200,11 @@
       <c r="W4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" s="24">
         <v>4</v>
       </c>
@@ -7016,8 +7262,11 @@
       <c r="W5">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X5">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" s="24">
         <v>5</v>
       </c>
@@ -7075,8 +7324,11 @@
       <c r="W6">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X6">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7" s="24">
         <v>6</v>
       </c>
@@ -7134,8 +7386,11 @@
       <c r="W7">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X7">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8" s="24">
         <v>7</v>
       </c>
@@ -7197,8 +7452,11 @@
       <c r="W8">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X8">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9" s="24">
         <v>8</v>
       </c>
@@ -7260,8 +7518,11 @@
       <c r="W9">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X9">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10" s="24">
         <v>9</v>
       </c>
@@ -7323,8 +7584,11 @@
       <c r="W10">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X10">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11" s="24">
         <v>10</v>
       </c>
@@ -7382,8 +7646,11 @@
       <c r="W11">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X11">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A12" s="24">
         <v>11</v>
       </c>
@@ -7441,8 +7708,11 @@
       <c r="W12">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X12">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13" s="24">
         <v>12</v>
       </c>
@@ -7500,8 +7770,11 @@
       <c r="W13">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X13">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14" s="24">
         <v>13</v>
       </c>
@@ -7559,8 +7832,11 @@
       <c r="W14">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X14">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A15" s="24">
         <v>14</v>
       </c>
@@ -7618,8 +7894,11 @@
       <c r="W15">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X15">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A16" s="24">
         <v>15</v>
       </c>
@@ -7677,8 +7956,11 @@
       <c r="W16">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X16">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A17" s="24">
         <v>16</v>
       </c>
@@ -7740,8 +8022,11 @@
       <c r="W17">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X17">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A18" s="24">
         <v>17</v>
       </c>
@@ -7803,8 +8088,11 @@
       <c r="W18">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X18">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A19" s="24">
         <v>18</v>
       </c>
@@ -7866,8 +8154,11 @@
       <c r="W19">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X19">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A20" s="24">
         <v>19</v>
       </c>
@@ -7925,8 +8216,11 @@
       <c r="W20">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X20">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A21" s="24">
         <v>20</v>
       </c>
@@ -7984,8 +8278,11 @@
       <c r="W21">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X21">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A22" s="24">
         <v>21</v>
       </c>
@@ -8043,8 +8340,11 @@
       <c r="W22">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X22">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A23" s="24">
         <v>22</v>
       </c>
@@ -8102,8 +8402,11 @@
       <c r="W23">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X23">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A24" s="24">
         <v>23</v>
       </c>
@@ -8161,8 +8464,11 @@
       <c r="W24">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X24">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A25" s="24">
         <v>24</v>
       </c>
@@ -8220,8 +8526,11 @@
       <c r="W25">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X25">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A26" s="24">
         <v>25</v>
       </c>
@@ -8283,8 +8592,11 @@
       <c r="W26">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X26">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A27" s="24">
         <v>26</v>
       </c>
@@ -8346,8 +8658,11 @@
       <c r="W27">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X27">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A28" s="24">
         <v>27</v>
       </c>
@@ -8409,8 +8724,11 @@
       <c r="W28">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X28">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A29" s="24">
         <v>28</v>
       </c>
@@ -8468,8 +8786,11 @@
       <c r="W29">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X29">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A30" s="24">
         <v>29</v>
       </c>
@@ -8527,8 +8848,11 @@
       <c r="W30">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X30">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A31" s="24">
         <v>30</v>
       </c>
@@ -8586,8 +8910,11 @@
       <c r="W31">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X31">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A32" s="24">
         <v>31</v>
       </c>
@@ -8645,8 +8972,11 @@
       <c r="W32">
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X32">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A33" s="24">
         <v>32</v>
       </c>
@@ -8704,8 +9034,11 @@
       <c r="W33">
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X33">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A34" s="24">
         <v>33</v>
       </c>
@@ -8763,8 +9096,11 @@
       <c r="W34">
         <v>33</v>
       </c>
-    </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X34">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A35" s="24">
         <v>34</v>
       </c>
@@ -8826,8 +9162,11 @@
       <c r="W35">
         <v>34</v>
       </c>
-    </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X35">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A36" s="24">
         <v>35</v>
       </c>
@@ -8889,8 +9228,11 @@
       <c r="W36">
         <v>35</v>
       </c>
-    </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X36">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A37" s="24">
         <v>36</v>
       </c>
@@ -8952,8 +9294,11 @@
       <c r="W37">
         <v>36</v>
       </c>
-    </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X37">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A38" s="24">
         <v>37</v>
       </c>
@@ -9011,8 +9356,11 @@
       <c r="W38">
         <v>37</v>
       </c>
-    </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X38">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A39" s="24">
         <v>38</v>
       </c>
@@ -9070,8 +9418,11 @@
       <c r="W39">
         <v>38</v>
       </c>
-    </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X39">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A40" s="24">
         <v>39</v>
       </c>
@@ -9129,8 +9480,11 @@
       <c r="W40">
         <v>39</v>
       </c>
-    </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X40">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A41" s="24">
         <v>40</v>
       </c>
@@ -9188,8 +9542,11 @@
       <c r="W41">
         <v>40</v>
       </c>
-    </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X41">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A42" s="24">
         <v>41</v>
       </c>
@@ -9247,8 +9604,11 @@
       <c r="W42">
         <v>41</v>
       </c>
-    </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X42">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A43" s="24">
         <v>42</v>
       </c>
@@ -9306,8 +9666,11 @@
       <c r="W43">
         <v>42</v>
       </c>
-    </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X43">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A44" s="24">
         <v>43</v>
       </c>
@@ -9369,8 +9732,11 @@
       <c r="W44">
         <v>43</v>
       </c>
-    </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X44">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A45" s="24">
         <v>44</v>
       </c>
@@ -9432,8 +9798,11 @@
       <c r="W45">
         <v>44</v>
       </c>
-    </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X45">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A46" s="24">
         <v>45</v>
       </c>
@@ -9495,8 +9864,11 @@
       <c r="W46">
         <v>45</v>
       </c>
-    </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X46">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A47" s="24">
         <v>46</v>
       </c>
@@ -9554,8 +9926,11 @@
       <c r="W47">
         <v>46</v>
       </c>
-    </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X47">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A48" s="24">
         <v>47</v>
       </c>
@@ -9613,8 +9988,11 @@
       <c r="W48">
         <v>47</v>
       </c>
-    </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X48">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A49" s="24">
         <v>48</v>
       </c>
@@ -9672,8 +10050,11 @@
       <c r="W49">
         <v>48</v>
       </c>
-    </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X49">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A50" s="24">
         <v>49</v>
       </c>
@@ -9731,8 +10112,11 @@
       <c r="W50">
         <v>49</v>
       </c>
-    </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X50">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A51" s="24">
         <v>50</v>
       </c>
@@ -9790,8 +10174,11 @@
       <c r="W51">
         <v>50</v>
       </c>
-    </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X51">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A52" s="24">
         <v>51</v>
       </c>
@@ -9849,8 +10236,11 @@
       <c r="W52">
         <v>51</v>
       </c>
-    </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X52">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A53" s="24">
         <v>52</v>
       </c>
@@ -9912,8 +10302,11 @@
       <c r="W53">
         <v>52</v>
       </c>
-    </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X53">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A54" s="24">
         <v>53</v>
       </c>
@@ -9975,8 +10368,11 @@
       <c r="W54">
         <v>53</v>
       </c>
-    </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X54">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A55" s="24">
         <v>54</v>
       </c>
@@ -10038,8 +10434,11 @@
       <c r="W55">
         <v>54</v>
       </c>
-    </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X55">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A56" s="24">
         <v>55</v>
       </c>
@@ -10099,8 +10498,11 @@
       <c r="W56">
         <v>55</v>
       </c>
-    </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X56">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A57" s="24">
         <v>56</v>
       </c>
@@ -10158,8 +10560,11 @@
       <c r="W57">
         <v>56</v>
       </c>
-    </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X57">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A58" s="24">
         <v>57</v>
       </c>
@@ -10217,8 +10622,11 @@
       <c r="W58">
         <v>57</v>
       </c>
-    </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X58">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A59" s="24">
         <v>58</v>
       </c>
@@ -10276,8 +10684,11 @@
       <c r="W59">
         <v>58</v>
       </c>
-    </row>
-    <row r="60" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X59">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A60" s="24">
         <v>59</v>
       </c>
@@ -10335,8 +10746,11 @@
       <c r="W60">
         <v>59</v>
       </c>
-    </row>
-    <row r="61" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X60">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A61" s="24">
         <v>60</v>
       </c>
@@ -10394,8 +10808,11 @@
       <c r="W61">
         <v>60</v>
       </c>
-    </row>
-    <row r="62" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X61">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A62" s="24">
         <v>61</v>
       </c>
@@ -10457,8 +10874,11 @@
       <c r="W62">
         <v>61</v>
       </c>
-    </row>
-    <row r="63" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X62">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A63" s="24">
         <v>62</v>
       </c>
@@ -10520,8 +10940,11 @@
       <c r="W63">
         <v>62</v>
       </c>
-    </row>
-    <row r="64" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X63">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A64" s="24">
         <v>63</v>
       </c>
@@ -10583,8 +11006,11 @@
       <c r="W64">
         <v>63</v>
       </c>
-    </row>
-    <row r="65" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X64">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A65" s="24">
         <v>64</v>
       </c>
@@ -10642,8 +11068,11 @@
       <c r="W65">
         <v>64</v>
       </c>
-    </row>
-    <row r="66" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X65">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A66" s="24">
         <v>65</v>
       </c>
@@ -10701,8 +11130,11 @@
       <c r="W66">
         <v>65</v>
       </c>
-    </row>
-    <row r="67" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X66">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A67" s="24">
         <v>66</v>
       </c>
@@ -10760,8 +11192,11 @@
       <c r="W67">
         <v>66</v>
       </c>
-    </row>
-    <row r="68" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X67">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A68" s="24">
         <v>67</v>
       </c>
@@ -10819,8 +11254,11 @@
       <c r="W68">
         <v>67</v>
       </c>
-    </row>
-    <row r="69" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X68">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A69" s="24">
         <v>68</v>
       </c>
@@ -10878,8 +11316,11 @@
       <c r="W69">
         <v>68</v>
       </c>
-    </row>
-    <row r="70" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X69">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A70" s="24">
         <v>69</v>
       </c>
@@ -10937,8 +11378,11 @@
       <c r="W70">
         <v>69</v>
       </c>
-    </row>
-    <row r="71" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X70">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A71" s="24">
         <v>70</v>
       </c>
@@ -11000,8 +11444,11 @@
       <c r="W71">
         <v>70</v>
       </c>
-    </row>
-    <row r="72" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X71">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A72" s="24">
         <v>71</v>
       </c>
@@ -11063,8 +11510,11 @@
       <c r="W72">
         <v>71</v>
       </c>
-    </row>
-    <row r="73" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X72">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A73" s="24">
         <v>72</v>
       </c>
@@ -11126,8 +11576,11 @@
       <c r="W73">
         <v>72</v>
       </c>
-    </row>
-    <row r="74" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X73">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A74" s="24">
         <v>73</v>
       </c>
@@ -11185,8 +11638,11 @@
       <c r="W74">
         <v>73</v>
       </c>
-    </row>
-    <row r="75" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X74">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A75" s="24">
         <v>74</v>
       </c>
@@ -11244,8 +11700,11 @@
       <c r="W75">
         <v>74</v>
       </c>
-    </row>
-    <row r="76" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X75">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A76" s="24">
         <v>75</v>
       </c>
@@ -11303,8 +11762,11 @@
       <c r="W76">
         <v>75</v>
       </c>
-    </row>
-    <row r="77" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X76">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A77" s="24">
         <v>76</v>
       </c>
@@ -11362,8 +11824,11 @@
       <c r="W77">
         <v>76</v>
       </c>
-    </row>
-    <row r="78" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X77">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A78" s="24">
         <v>77</v>
       </c>
@@ -11421,8 +11886,11 @@
       <c r="W78">
         <v>77</v>
       </c>
-    </row>
-    <row r="79" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X78">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A79" s="24">
         <v>78</v>
       </c>
@@ -11482,8 +11950,11 @@
       <c r="W79">
         <v>78</v>
       </c>
-    </row>
-    <row r="80" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X79">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A80" s="24">
         <v>79</v>
       </c>
@@ -11545,8 +12016,11 @@
       <c r="W80">
         <v>79</v>
       </c>
-    </row>
-    <row r="81" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X80">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A81" s="24">
         <v>80</v>
       </c>
@@ -11608,8 +12082,11 @@
       <c r="W81">
         <v>80</v>
       </c>
-    </row>
-    <row r="82" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X81">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A82" s="24">
         <v>81</v>
       </c>
@@ -11670,6 +12147,9 @@
       </c>
       <c r="W82">
         <v>81</v>
+      </c>
+      <c r="X82">
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
@@ -21953,7 +22433,7 @@
   </sheetPr>
   <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>

--- a/Conversion/AutoChangeJson/datasrc/111.xlsx
+++ b/Conversion/AutoChangeJson/datasrc/111.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" tabRatio="880" firstSheet="11" activeTab="20"/>
+    <workbookView windowWidth="22368" windowHeight="9420" tabRatio="880" firstSheet="8" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="RoleTable0" sheetId="2" r:id="rId1"/>
@@ -2487,7 +2487,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2949" uniqueCount="1181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3027" uniqueCount="1170">
   <si>
     <t>index</t>
   </si>
@@ -4780,7 +4780,7 @@
     <t>势力</t>
   </si>
   <si>
-    <t>黄帝轩辕</t>
+    <t>魔王张角</t>
   </si>
   <si>
     <t>战斗开始前播放，一二三四五六七八九十</t>
@@ -4792,43 +4792,43 @@
     <t>89,1</t>
   </si>
   <si>
-    <t>魔王蚩尤</t>
+    <t>魔王董卓</t>
   </si>
   <si>
     <t>90,1</t>
   </si>
   <si>
-    <t>战神刑天</t>
+    <t>魔王吕布</t>
   </si>
   <si>
     <t>91,1</t>
   </si>
   <si>
-    <t>水神共工</t>
+    <t>魔王曹操</t>
   </si>
   <si>
     <t>92,1</t>
   </si>
   <si>
-    <t>洪荒凶兽</t>
+    <t>魔王关羽</t>
   </si>
   <si>
     <t>93,1</t>
   </si>
   <si>
-    <t>三足金乌</t>
+    <t>魔王诸葛亮</t>
   </si>
   <si>
     <t>94,1</t>
   </si>
   <si>
-    <t>钟山之神</t>
+    <t>魔王司马懿</t>
   </si>
   <si>
     <t>95,1</t>
   </si>
   <si>
-    <t>大荒混沌</t>
+    <t>魔王周瑜</t>
   </si>
   <si>
     <t>96,1</t>
@@ -4837,9 +4837,6 @@
     <t>黄巾之乱</t>
   </si>
   <si>
-    <t>黄巾</t>
-  </si>
-  <si>
     <t>65,2</t>
   </si>
   <si>
@@ -4849,1009 +4846,979 @@
     <t>66,2</t>
   </si>
   <si>
+    <t>3,2</t>
+  </si>
+  <si>
+    <t>1,2</t>
+  </si>
+  <si>
+    <t>2,2</t>
+  </si>
+  <si>
+    <t>11,2</t>
+  </si>
+  <si>
+    <t>12,2</t>
+  </si>
+  <si>
+    <t>9,1</t>
+  </si>
+  <si>
+    <t>26,2</t>
+  </si>
+  <si>
+    <t>28,2</t>
+  </si>
+  <si>
+    <t>27,2</t>
+  </si>
+  <si>
+    <t>67,2</t>
+  </si>
+  <si>
+    <t>68,2</t>
+  </si>
+  <si>
+    <t>69,2</t>
+  </si>
+  <si>
+    <t>70,2</t>
+  </si>
+  <si>
+    <t>11,3</t>
+  </si>
+  <si>
+    <t>12,3</t>
+  </si>
+  <si>
+    <t>14,3</t>
+  </si>
+  <si>
+    <t>13,2</t>
+  </si>
+  <si>
+    <t>18,3</t>
+  </si>
+  <si>
+    <t>16,2</t>
+  </si>
+  <si>
+    <t>29,2</t>
+  </si>
+  <si>
+    <t>30,2</t>
+  </si>
+  <si>
+    <t>31,2</t>
+  </si>
+  <si>
+    <t>7,3</t>
+  </si>
+  <si>
+    <t>8,3</t>
+  </si>
+  <si>
+    <t>9,3</t>
+  </si>
+  <si>
+    <t>72,3</t>
+  </si>
+  <si>
+    <t>69,3</t>
+  </si>
+  <si>
+    <t>74,3</t>
+  </si>
+  <si>
+    <t>17,3</t>
+  </si>
+  <si>
+    <t>80,3</t>
+  </si>
+  <si>
+    <t>75,2</t>
+  </si>
+  <si>
+    <t>19,2</t>
+  </si>
+  <si>
+    <t>70,3</t>
+  </si>
+  <si>
+    <t>71,3</t>
+  </si>
+  <si>
+    <t>62,3</t>
+  </si>
+  <si>
+    <t>57,1</t>
+  </si>
+  <si>
+    <t>63,3</t>
+  </si>
+  <si>
+    <t>13,3</t>
+  </si>
+  <si>
+    <t>16,3</t>
+  </si>
+  <si>
+    <t>19,3</t>
+  </si>
+  <si>
+    <t>15,3</t>
+  </si>
+  <si>
+    <t>82,3</t>
+  </si>
+  <si>
+    <t>75,3</t>
+  </si>
+  <si>
+    <t>56,3</t>
+  </si>
+  <si>
+    <t>81,3</t>
+  </si>
+  <si>
+    <t>57,3</t>
+  </si>
+  <si>
+    <t>10,3</t>
+  </si>
+  <si>
+    <t>26,3</t>
+  </si>
+  <si>
+    <t>27,3</t>
+  </si>
+  <si>
+    <t>28,3</t>
+  </si>
+  <si>
+    <t>skillName技能名</t>
+  </si>
+  <si>
+    <t>skillStaticIntro静态技能描述</t>
+  </si>
+  <si>
+    <t>skillDynamicIntro动态技能描述</t>
+  </si>
+  <si>
+    <t>corresArms对应兵种</t>
+  </si>
+  <si>
+    <t>虎扑</t>
+  </si>
+  <si>
+    <t>血量提升10%。</t>
+  </si>
+  <si>
+    <t>将造成伤害的30%转化为自身血量。</t>
+  </si>
+  <si>
+    <t>虎卫3</t>
+  </si>
+  <si>
+    <t>狂战</t>
+  </si>
+  <si>
+    <t>血量提升20%。</t>
+  </si>
+  <si>
+    <t>将造成伤害的60%转化为自身血量。</t>
+  </si>
+  <si>
+    <t>虎卫6</t>
+  </si>
+  <si>
+    <t>刺甲</t>
+  </si>
+  <si>
+    <t>每次受到伤害时反弹20%伤害。</t>
+  </si>
+  <si>
+    <t>刺盾3</t>
+  </si>
+  <si>
+    <t>刃甲</t>
+  </si>
+  <si>
+    <t>每次受到伤害时反弹40%伤害。</t>
+  </si>
+  <si>
+    <t>刺盾6</t>
+  </si>
+  <si>
+    <t>飞闪</t>
+  </si>
+  <si>
+    <t>攻击提升10%。</t>
+  </si>
+  <si>
+    <t>战斗中每损失10%血量，提升5%闪避。</t>
+  </si>
+  <si>
+    <t>飞甲3</t>
+  </si>
+  <si>
+    <t>疾风</t>
+  </si>
+  <si>
+    <t>攻击提升20%。</t>
+  </si>
+  <si>
+    <t>战斗中每损失10%血量，提升8%闪避。</t>
+  </si>
+  <si>
+    <t>飞甲6</t>
+  </si>
+  <si>
+    <t>战意</t>
+  </si>
+  <si>
+    <t>每次攻击提升20%攻击，10%防御，可叠加3次。</t>
+  </si>
+  <si>
+    <t>禁卫3</t>
+  </si>
+  <si>
+    <t>英魂</t>
+  </si>
+  <si>
+    <t>每次攻击提升30%攻击，15%防御，可叠加3次。</t>
+  </si>
+  <si>
+    <t>禁卫6</t>
+  </si>
+  <si>
+    <t>穿刺</t>
+  </si>
+  <si>
+    <t>突刺敌方后排50%伤害。</t>
+  </si>
+  <si>
+    <t>枪兵3</t>
+  </si>
+  <si>
+    <t>突刺</t>
+  </si>
+  <si>
+    <t>突刺敌方后排75%伤害。</t>
+  </si>
+  <si>
+    <t>枪兵6</t>
+  </si>
+  <si>
+    <t>横扫</t>
+  </si>
+  <si>
+    <t>攻击同一排敌人，每个造成50%伤害。</t>
+  </si>
+  <si>
+    <t>戟兵3</t>
+  </si>
+  <si>
+    <t>狂斩</t>
+  </si>
+  <si>
+    <t>攻击同一排敌人，每个造成75%伤害。</t>
+  </si>
+  <si>
+    <t>戟兵6</t>
+  </si>
+  <si>
+    <t>雷震</t>
+  </si>
+  <si>
+    <t>随机攻击3个不同目标，每个造成20%伤害，20%几率击晕1回合。</t>
+  </si>
+  <si>
+    <t>谋士3</t>
+  </si>
+  <si>
+    <t>天怒</t>
+  </si>
+  <si>
+    <t>随机攻击3个不同目标，每个造成20%伤害，30%几率击晕1回合。</t>
+  </si>
+  <si>
+    <t>谋士6</t>
+  </si>
+  <si>
+    <t>荒火</t>
+  </si>
+  <si>
+    <t>暴击率提升10%。</t>
+  </si>
+  <si>
+    <t>随机攻击3个目标，每个造成45%伤害，对同一目标最多攻击2次。</t>
+  </si>
+  <si>
+    <t>都督3</t>
+  </si>
+  <si>
+    <t>炎爆</t>
+  </si>
+  <si>
+    <t>随机攻击4个目标，每个造成40%伤害，对同一目标最多攻击2次。</t>
+  </si>
+  <si>
+    <t>都督6</t>
+  </si>
+  <si>
+    <t>复生</t>
+  </si>
+  <si>
+    <t>治疗2个血量百分比最低的友方目标，治疗量为伤害的50%。</t>
+  </si>
+  <si>
+    <t>方士3</t>
+  </si>
+  <si>
+    <t>回天</t>
+  </si>
+  <si>
+    <t>治疗3个血量百分比最低的友方目标，治疗量为伤害的40%。</t>
+  </si>
+  <si>
+    <t>方士6</t>
+  </si>
+  <si>
+    <t>forcesChoose</t>
+  </si>
+  <si>
+    <t>forceIntro</t>
+  </si>
+  <si>
+    <t>Prestige</t>
+  </si>
+  <si>
+    <t>forcesSign</t>
+  </si>
+  <si>
+    <t>cityName</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>cityIcon</t>
+  </si>
+  <si>
+    <t>firstHeroId</t>
+  </si>
+  <si>
+    <t>flagId</t>
+  </si>
+  <si>
+    <t>exclusiveSoldierId</t>
+  </si>
+  <si>
+    <t>shiQi</t>
+  </si>
+  <si>
+    <t>liangCao</t>
+  </si>
+  <si>
+    <t>chengFang</t>
+  </si>
+  <si>
+    <t>minXin</t>
+  </si>
+  <si>
+    <t>在天下大乱之时，曹操召集曹氏宗亲，清剿黄巾，讨伐董卓，战功累累。麾下有曹仁、夏侯惇等猛将，又有郭嘉、荀彧等能臣，所向披靡……</t>
+  </si>
+  <si>
+    <t>魏</t>
+  </si>
+  <si>
+    <t>许都</t>
+  </si>
+  <si>
+    <t>28,36,29</t>
+  </si>
+  <si>
+    <t>刘备</t>
+  </si>
+  <si>
+    <t>在镇压黄巾的战役中，刘备与结义兄弟关羽张飞并肩作战，虽数千人，但屡立战功，一时声名大作……</t>
+  </si>
+  <si>
+    <t>蜀</t>
+  </si>
+  <si>
+    <t>新野</t>
+  </si>
+  <si>
+    <t>37,45,38</t>
+  </si>
+  <si>
+    <t>在讨伐董卓之时，孙坚带领江东子弟，大破董卓，天下群雄无不忌惮……其子孙策孙权继承其父之志，立足江东，成就一番伟业……</t>
+  </si>
+  <si>
+    <t>吴</t>
+  </si>
+  <si>
+    <t>建业</t>
+  </si>
+  <si>
+    <t>1,9,2</t>
+  </si>
+  <si>
+    <t>四世三公名门之后，杀宦官，斥董卓。后群雄讨伐董卓，被推举为联军首领。后占冀州，夺青、并二州，一统北方，麾下有颜良文丑等名将，又有审配、逢纪、田丰、荀谌等名臣……</t>
+  </si>
+  <si>
+    <t>袁</t>
+  </si>
+  <si>
+    <t>冀州</t>
+  </si>
+  <si>
+    <t>44,34,53</t>
+  </si>
+  <si>
+    <t>公孙瓒</t>
+  </si>
+  <si>
+    <t>北方边境战乱不止，公孙瓒率领白马义从前往征讨，声名大作。后讨伐黄巾，成为十八路诸侯之一……</t>
+  </si>
+  <si>
+    <t>公</t>
+  </si>
+  <si>
+    <t>北平</t>
+  </si>
+  <si>
+    <t>19,27,20</t>
+  </si>
+  <si>
+    <t>董卓起兵于凉州，颇著威名。受大将军何进所召，率军进京讨伐十常侍。后掌权，废少帝，弑太后，专断朝政。天下诸侯群起讨伐，然董卓凭借飞将吕布与之抗衡……</t>
+  </si>
+  <si>
+    <t>董</t>
+  </si>
+  <si>
+    <t>长安</t>
+  </si>
+  <si>
+    <t>11,18,12</t>
+  </si>
+  <si>
+    <t>陈留</t>
+  </si>
+  <si>
+    <t>46,54,47</t>
+  </si>
+  <si>
+    <t>江陵</t>
+  </si>
+  <si>
+    <t>寿春</t>
+  </si>
+  <si>
+    <t>洛阳</t>
+  </si>
+  <si>
+    <t>55,63,57</t>
+  </si>
+  <si>
+    <t>永安</t>
+  </si>
+  <si>
+    <t>吴会</t>
+  </si>
+  <si>
+    <t>65,72,66</t>
+  </si>
+  <si>
+    <t>难度</t>
+  </si>
+  <si>
+    <t>玩家初始势力值</t>
+  </si>
+  <si>
+    <t>玩家初始金币</t>
+  </si>
+  <si>
+    <t>玩家初始民心</t>
+  </si>
+  <si>
+    <t>玩家初始士气</t>
+  </si>
+  <si>
+    <t>NPC初始势力值</t>
+  </si>
+  <si>
+    <t>绿1周目</t>
+  </si>
+  <si>
+    <t>蓝1周目</t>
+  </si>
+  <si>
+    <t>紫1周目</t>
+  </si>
+  <si>
+    <t>红1周目</t>
+  </si>
+  <si>
+    <t>绿2周目</t>
+  </si>
+  <si>
+    <t>蓝2周目</t>
+  </si>
+  <si>
+    <t>紫2周目</t>
+  </si>
+  <si>
+    <t>红2周目</t>
+  </si>
+  <si>
+    <t>声望奖励：第一名</t>
+  </si>
+  <si>
+    <t>第二名</t>
+  </si>
+  <si>
+    <t>第三名</t>
+  </si>
+  <si>
+    <t>结算金币</t>
+  </si>
+  <si>
+    <t>结算势力值</t>
+  </si>
+  <si>
+    <t>结算城防值</t>
+  </si>
+  <si>
+    <t>玩家士气加成</t>
+  </si>
+  <si>
+    <t>玩家粮草加成</t>
+  </si>
+  <si>
+    <t>玩家城防加成</t>
+  </si>
+  <si>
+    <t>玩家民心加成</t>
+  </si>
+  <si>
+    <t>NPC士气加成</t>
+  </si>
+  <si>
+    <t>NPC粮草加成</t>
+  </si>
+  <si>
+    <t>NPC城防加成</t>
+  </si>
+  <si>
+    <t>NPC民心加成</t>
+  </si>
+  <si>
+    <t>萌新</t>
+  </si>
+  <si>
+    <t>2,5</t>
+  </si>
+  <si>
+    <t>3,20</t>
+  </si>
+  <si>
+    <t>1,3</t>
+  </si>
+  <si>
+    <t>普通</t>
+  </si>
+  <si>
+    <t>困难</t>
+  </si>
+  <si>
+    <t>炼狱</t>
+  </si>
+  <si>
+    <t>level</t>
+  </si>
+  <si>
+    <t>experience</t>
+  </si>
+  <si>
+    <t>money</t>
+  </si>
+  <si>
+    <t>battleNum</t>
+  </si>
+  <si>
+    <t>prepareNum</t>
+  </si>
+  <si>
+    <t>2,3</t>
+  </si>
+  <si>
+    <t>2,4</t>
+  </si>
+  <si>
+    <t>3,4</t>
+  </si>
+  <si>
+    <t>3,5</t>
+  </si>
+  <si>
+    <t>4,5</t>
+  </si>
+  <si>
+    <t>4,6</t>
+  </si>
+  <si>
+    <t>5,6</t>
+  </si>
+  <si>
+    <t>5,7</t>
+  </si>
+  <si>
+    <t>battle</t>
+  </si>
+  <si>
+    <t>battleIntro</t>
+  </si>
+  <si>
+    <t>forceId</t>
+  </si>
+  <si>
+    <t>start</t>
+  </si>
+  <si>
+    <t>cityId</t>
+  </si>
+  <si>
+    <t>adventurePrefab</t>
+  </si>
+  <si>
+    <t>testPrefab</t>
+  </si>
+  <si>
+    <t>battlePrefab</t>
+  </si>
+  <si>
+    <t>东汉末年，朝廷腐败，宦官与外戚争权，国势衰退。又遇大旱，百姓饥苦不堪。大贤良师张角得太平要术，号称“苍天已死，黄天当立”召集信徒数十万余众，头戴黄巾，揭竿而起。史称黄巾之乱……</t>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6</t>
+  </si>
+  <si>
+    <t>0,1,2,3,4,5</t>
+  </si>
+  <si>
+    <t>6,7</t>
+  </si>
+  <si>
+    <t>8,9</t>
+  </si>
+  <si>
+    <t>10,</t>
+  </si>
+  <si>
     <t>讨伐董卓</t>
   </si>
   <si>
-    <t>3,2</t>
+    <t>中平六年，汉室衰退。董卓凭借飞将军吕布与数万西凉铁骑，独揽大权。废少帝，杀朝臣，乱后宫，纵兵抢掠，天怒人怨。群雄见此，以讨董为名会集十八路诸侯，陈兵虎牢关……</t>
+  </si>
+  <si>
+    <t>7,8,9,10,11,12</t>
+  </si>
+  <si>
+    <t>11,12,13,14,15,16</t>
+  </si>
+  <si>
+    <t>17,18</t>
+  </si>
+  <si>
+    <t>19,</t>
+  </si>
+  <si>
+    <t>20,</t>
   </si>
   <si>
     <t>群雄割据</t>
   </si>
   <si>
-    <t>1,2</t>
-  </si>
-  <si>
-    <t>2,2</t>
-  </si>
-  <si>
-    <t>11,2</t>
-  </si>
-  <si>
-    <t>12,2</t>
-  </si>
-  <si>
-    <t>9,1</t>
-  </si>
-  <si>
-    <t>逐鹿中原</t>
-  </si>
-  <si>
-    <t>26,2</t>
-  </si>
-  <si>
-    <t>28,2</t>
-  </si>
-  <si>
-    <t>27,2</t>
-  </si>
-  <si>
-    <t>67,2</t>
-  </si>
-  <si>
-    <t>68,2</t>
-  </si>
-  <si>
-    <t>69,2</t>
-  </si>
-  <si>
-    <t>70,2</t>
-  </si>
-  <si>
-    <t>官渡之战</t>
-  </si>
-  <si>
-    <t>11,3</t>
-  </si>
-  <si>
-    <t>12,3</t>
-  </si>
-  <si>
-    <t>14,3</t>
-  </si>
-  <si>
-    <t>13,2</t>
-  </si>
-  <si>
-    <t>18,3</t>
-  </si>
-  <si>
-    <t>16,2</t>
-  </si>
-  <si>
-    <t>29,2</t>
-  </si>
-  <si>
-    <t>30,2</t>
-  </si>
-  <si>
-    <t>31,2</t>
-  </si>
-  <si>
-    <t>平定北方</t>
-  </si>
-  <si>
-    <t>公孙瓒</t>
-  </si>
-  <si>
-    <t>7,3</t>
-  </si>
-  <si>
-    <t>8,3</t>
-  </si>
-  <si>
-    <t>9,3</t>
-  </si>
-  <si>
-    <t>72,3</t>
-  </si>
-  <si>
-    <t>一统东吴</t>
-  </si>
-  <si>
-    <t>孙权</t>
-  </si>
-  <si>
-    <t>69,3</t>
-  </si>
-  <si>
-    <t>74,3</t>
-  </si>
-  <si>
-    <t>17,3</t>
-  </si>
-  <si>
-    <t>80,3</t>
-  </si>
-  <si>
-    <t>75,2</t>
-  </si>
-  <si>
-    <t>19,2</t>
-  </si>
-  <si>
-    <t>赤壁之战</t>
-  </si>
-  <si>
-    <t>70,3</t>
-  </si>
-  <si>
-    <t>71,3</t>
-  </si>
-  <si>
-    <t>62,3</t>
-  </si>
-  <si>
-    <t>57,1</t>
-  </si>
-  <si>
-    <t>63,3</t>
-  </si>
-  <si>
-    <t>争夺汉中</t>
-  </si>
-  <si>
-    <t>13,3</t>
-  </si>
-  <si>
-    <t>16,3</t>
-  </si>
-  <si>
-    <t>19,3</t>
-  </si>
-  <si>
-    <t>15,3</t>
-  </si>
-  <si>
-    <t>82,3</t>
-  </si>
-  <si>
-    <t>75,3</t>
-  </si>
-  <si>
-    <t>夷陵之战</t>
-  </si>
-  <si>
-    <t>56,3</t>
-  </si>
-  <si>
-    <t>81,3</t>
-  </si>
-  <si>
-    <t>57,3</t>
-  </si>
-  <si>
-    <t>北伐中原</t>
-  </si>
-  <si>
-    <t>10,3</t>
-  </si>
-  <si>
-    <t>26,3</t>
-  </si>
-  <si>
-    <t>27,3</t>
-  </si>
-  <si>
-    <t>28,3</t>
-  </si>
-  <si>
-    <t>skillName技能名</t>
-  </si>
-  <si>
-    <t>skillStaticIntro静态技能描述</t>
-  </si>
-  <si>
-    <t>skillDynamicIntro动态技能描述</t>
-  </si>
-  <si>
-    <t>corresArms对应兵种</t>
-  </si>
-  <si>
-    <t>虎扑</t>
-  </si>
-  <si>
-    <t>防御提升10%。</t>
-  </si>
-  <si>
-    <t>将造成伤害的30%转化为自身血量。</t>
-  </si>
-  <si>
-    <t>虎卫3</t>
-  </si>
-  <si>
-    <t>狂战</t>
-  </si>
-  <si>
-    <t>防御提升20%。</t>
-  </si>
-  <si>
-    <t>将造成伤害的60%转化为自身血量。</t>
-  </si>
-  <si>
-    <t>虎卫6</t>
-  </si>
-  <si>
-    <t>刺甲</t>
-  </si>
-  <si>
-    <t>血量提升10%。</t>
-  </si>
-  <si>
-    <t>每次受到伤害时反弹20%伤害。</t>
-  </si>
-  <si>
-    <t>刺盾3</t>
-  </si>
-  <si>
-    <t>刃甲</t>
-  </si>
-  <si>
-    <t>血量提升20%。</t>
-  </si>
-  <si>
-    <t>每次受到伤害时反弹40%伤害。</t>
-  </si>
-  <si>
-    <t>刺盾6</t>
-  </si>
-  <si>
-    <t>飞闪</t>
-  </si>
-  <si>
-    <t>攻击提升10%。</t>
-  </si>
-  <si>
-    <t>战斗中每损失10%血量，提升5%闪避。</t>
-  </si>
-  <si>
-    <t>飞甲3</t>
-  </si>
-  <si>
-    <t>疾风</t>
-  </si>
-  <si>
-    <t>攻击提升20%。</t>
-  </si>
-  <si>
-    <t>战斗中每损失10%血量，提升8%闪避。</t>
-  </si>
-  <si>
-    <t>飞甲6</t>
-  </si>
-  <si>
-    <t>战意</t>
-  </si>
-  <si>
-    <t>每次攻击提升20%攻击，10%防御，可叠加3次。</t>
-  </si>
-  <si>
-    <t>禁卫3</t>
-  </si>
-  <si>
-    <t>英魂</t>
-  </si>
-  <si>
-    <t>每次攻击提升30%攻击，15%防御，可叠加3次。</t>
-  </si>
-  <si>
-    <t>禁卫6</t>
-  </si>
-  <si>
-    <t>穿刺</t>
-  </si>
-  <si>
-    <t>突刺敌方后排50%伤害。</t>
-  </si>
-  <si>
-    <t>枪兵3</t>
-  </si>
-  <si>
-    <t>突刺</t>
-  </si>
-  <si>
-    <t>突刺敌方后排75%伤害。</t>
-  </si>
-  <si>
-    <t>枪兵6</t>
-  </si>
-  <si>
-    <t>横扫</t>
-  </si>
-  <si>
-    <t>攻击同一排敌人，每个造成50%伤害。</t>
-  </si>
-  <si>
-    <t>戟兵3</t>
-  </si>
-  <si>
-    <t>狂斩</t>
-  </si>
-  <si>
-    <t>攻击同一排敌人，每个造成75%伤害。</t>
-  </si>
-  <si>
-    <t>戟兵6</t>
-  </si>
-  <si>
-    <t>雷震</t>
-  </si>
-  <si>
-    <t>随机攻击3个不同目标，每个造成20%伤害，20%几率击晕1回合。</t>
-  </si>
-  <si>
-    <t>谋士3</t>
-  </si>
-  <si>
-    <t>天怒</t>
-  </si>
-  <si>
-    <t>随机攻击3个不同目标，每个造成20%伤害，30%几率击晕1回合。</t>
-  </si>
-  <si>
-    <t>谋士6</t>
-  </si>
-  <si>
-    <t>荒火</t>
-  </si>
-  <si>
-    <t>暴击率提升10%。</t>
-  </si>
-  <si>
-    <t>随机攻击3个目标，每个造成45%伤害，对同一目标最多攻击2次。</t>
-  </si>
-  <si>
-    <t>都督3</t>
-  </si>
-  <si>
-    <t>炎爆</t>
-  </si>
-  <si>
-    <t>随机攻击4个目标，每个造成40%伤害，对同一目标最多攻击2次。</t>
-  </si>
-  <si>
-    <t>都督6</t>
-  </si>
-  <si>
-    <t>复生</t>
-  </si>
-  <si>
-    <t>治疗2个血量百分比最低的友方目标，治疗量为伤害的50%。</t>
-  </si>
-  <si>
-    <t>方士3</t>
-  </si>
-  <si>
-    <t>回天</t>
-  </si>
-  <si>
-    <t>治疗3个血量百分比最低的友方目标，治疗量为伤害的40%。</t>
-  </si>
-  <si>
-    <t>方士6</t>
-  </si>
-  <si>
-    <t>forcesChoose</t>
-  </si>
-  <si>
-    <t>forceIntro</t>
-  </si>
-  <si>
-    <t>Prestige</t>
-  </si>
-  <si>
-    <t>forcesSign</t>
-  </si>
-  <si>
-    <t>cityName</t>
-  </si>
-  <si>
-    <t>city</t>
-  </si>
-  <si>
-    <t>cityIcon</t>
-  </si>
-  <si>
-    <t>firstHeroId</t>
-  </si>
-  <si>
-    <t>flagId</t>
-  </si>
-  <si>
-    <t>exclusiveSoldierId</t>
+    <t>十八路诸侯中，虽有曹操、孙坚、刘备等奋力而战，然其余诸侯则各自心怀鬼胎，先是盟主袁绍用计夺取冀州，其弟袁术则坐拥南阳，意欲侵吞荆州……各路诸侯相互攻伐，群雄割据的时代已然到来……</t>
+  </si>
+  <si>
+    <t>13,14,15,16,17,18</t>
+  </si>
+  <si>
+    <t>21,22,23,24,25,26</t>
+  </si>
+  <si>
+    <t>27,28</t>
+  </si>
+  <si>
+    <t>29,</t>
+  </si>
+  <si>
+    <t>30,</t>
+  </si>
+  <si>
+    <t>enemyTotal</t>
+  </si>
+  <si>
+    <t>week1</t>
+  </si>
+  <si>
+    <t>week2</t>
+  </si>
+  <si>
+    <t>week3</t>
+  </si>
+  <si>
+    <t>week4</t>
+  </si>
+  <si>
+    <t>上阵数</t>
+  </si>
+  <si>
+    <t>开启周目（萌新）</t>
+  </si>
+  <si>
+    <t>开启周目（普通）</t>
+  </si>
+  <si>
+    <t>开启周目（困难）</t>
+  </si>
+  <si>
+    <t>开启周目（炼狱）</t>
+  </si>
+  <si>
+    <t>soldierType</t>
+  </si>
+  <si>
+    <t>logo</t>
+  </si>
+  <si>
+    <t>soldierIntroduce</t>
+  </si>
+  <si>
+    <t>虎卫</t>
+  </si>
+  <si>
+    <t>虎</t>
+  </si>
+  <si>
+    <t>造成伤害的同时回血，适合放前排充当肉盾</t>
+  </si>
+  <si>
+    <t>陷阵</t>
+  </si>
+  <si>
+    <t>陷</t>
+  </si>
+  <si>
+    <t>具有强大的反伤能力，适合放前排充当肉盾</t>
+  </si>
+  <si>
+    <t>飞甲</t>
+  </si>
+  <si>
+    <t>飞</t>
+  </si>
+  <si>
+    <t>血量越低闪避越高，适合放前排充当肉盾</t>
+  </si>
+  <si>
+    <t>禁卫</t>
+  </si>
+  <si>
+    <t>禁</t>
+  </si>
+  <si>
+    <t>越战越勇，适合放中排突破敌方肉盾</t>
+  </si>
+  <si>
+    <t>枪兵</t>
+  </si>
+  <si>
+    <t>枪</t>
+  </si>
+  <si>
+    <t>隔山打牛，适合放中排破坏敌方阵型</t>
+  </si>
+  <si>
+    <t>戟兵</t>
+  </si>
+  <si>
+    <t>戟</t>
+  </si>
+  <si>
+    <t>排山倒海，适合放中排强行碾压敌方前排</t>
+  </si>
+  <si>
+    <t>谋士</t>
+  </si>
+  <si>
+    <t>谋</t>
+  </si>
+  <si>
+    <t>有效的震晕技能，适合放后排控制敌方</t>
+  </si>
+  <si>
+    <t>统帅</t>
+  </si>
+  <si>
+    <t>统</t>
+  </si>
+  <si>
+    <t>成吨的群体伤害，适合放后排全力输出</t>
+  </si>
+  <si>
+    <t>方士</t>
+  </si>
+  <si>
+    <t>强大的治疗效果，适合放后排支援友方</t>
+  </si>
+  <si>
+    <t>warDrumName</t>
+  </si>
+  <si>
+    <t>unlockLevel</t>
+  </si>
+  <si>
+    <t>战鼓</t>
+  </si>
+  <si>
+    <t>解锁等级</t>
+  </si>
+  <si>
+    <t>雷</t>
+  </si>
+  <si>
+    <t>风</t>
+  </si>
+  <si>
+    <t>土</t>
+  </si>
+  <si>
+    <t>火</t>
+  </si>
+  <si>
+    <t>水</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>文本</t>
+  </si>
+  <si>
+    <t>开启宝箱</t>
+  </si>
+  <si>
+    <t>天降鸿福，获得{0}金币！</t>
+  </si>
+  <si>
+    <t>招募英雄</t>
+  </si>
+  <si>
+    <t>{0}加入麾下，实力大增！</t>
+  </si>
+  <si>
+    <t>提升等级</t>
+  </si>
+  <si>
+    <t>到达{0}级！</t>
+  </si>
+  <si>
+    <t>金币不足</t>
+  </si>
+  <si>
+    <t>金币不足！</t>
+  </si>
+  <si>
+    <t>上阵已满</t>
+  </si>
+  <si>
+    <t>上阵位已达当前等级上限！</t>
+  </si>
+  <si>
+    <t>备战已满</t>
+  </si>
+  <si>
+    <t>备战位已达当前等级上限！</t>
+  </si>
+  <si>
+    <t>声望不足</t>
+  </si>
+  <si>
+    <t>声望不足！</t>
+  </si>
+  <si>
+    <t>敬请期待</t>
+  </si>
+  <si>
+    <t>敬请期待！</t>
+  </si>
+  <si>
+    <t>已满级</t>
+  </si>
+  <si>
+    <t>已满级！</t>
+  </si>
+  <si>
+    <t>战鼓风</t>
+  </si>
+  <si>
+    <t>急急如风</t>
+  </si>
+  <si>
+    <t>战鼓雷</t>
+  </si>
+  <si>
+    <t>天雷怒号</t>
+  </si>
+  <si>
+    <t>战鼓土</t>
+  </si>
+  <si>
+    <t>固若金汤</t>
+  </si>
+  <si>
+    <t>战鼓火</t>
+  </si>
+  <si>
+    <t>火烧赤壁</t>
+  </si>
+  <si>
+    <t>战鼓水</t>
+  </si>
+  <si>
+    <t>起死回生</t>
+  </si>
+  <si>
+    <t>消灭势力</t>
+  </si>
+  <si>
+    <t>{0}势力灭亡！俘获{1}。</t>
+  </si>
+  <si>
+    <t>flagIcon</t>
+  </si>
+  <si>
+    <t>flagEffect</t>
+  </si>
+  <si>
+    <t>枪兵攻击+5</t>
+  </si>
+  <si>
+    <t>playerWV</t>
+  </si>
+  <si>
+    <t>NPCWV</t>
+  </si>
+  <si>
+    <t>duration</t>
   </si>
   <si>
     <t>zhanYi</t>
-  </si>
-  <si>
-    <t>shiQi</t>
-  </si>
-  <si>
-    <t>chengFang</t>
-  </si>
-  <si>
-    <t>minXin</t>
-  </si>
-  <si>
-    <t>在天下大乱之时，曹操召集曹氏宗亲，清剿黄巾，讨伐董卓，战功累累。麾下有曹仁、夏侯惇等猛将，又有郭嘉、荀彧等能臣，所向披靡……</t>
-  </si>
-  <si>
-    <t>魏</t>
-  </si>
-  <si>
-    <t>许都</t>
-  </si>
-  <si>
-    <t>28,36,29</t>
-  </si>
-  <si>
-    <t>刘备</t>
-  </si>
-  <si>
-    <t>在镇压黄巾的战役中，刘备与结义兄弟关羽张飞并肩作战，虽数千人，但屡立战功，一时声名大作……</t>
-  </si>
-  <si>
-    <t>蜀</t>
-  </si>
-  <si>
-    <t>新野</t>
-  </si>
-  <si>
-    <t>37,45,38</t>
-  </si>
-  <si>
-    <t>在讨伐董卓之时，孙坚带领江东子弟，大破董卓，天下群雄无不忌惮……其子孙策孙权继承其父之志，立足江东，成就一番伟业……</t>
-  </si>
-  <si>
-    <t>吴</t>
-  </si>
-  <si>
-    <t>建业</t>
-  </si>
-  <si>
-    <t>1,9,2</t>
-  </si>
-  <si>
-    <t>四世三公名门之后，杀宦官，斥董卓。后群雄讨伐董卓，被推举为联军首领。后占冀州，夺青、并二州，一统北方，麾下有颜良文丑等名将，又有审配、逢纪、田丰、荀谌等名臣……</t>
-  </si>
-  <si>
-    <t>袁</t>
-  </si>
-  <si>
-    <t>冀州</t>
-  </si>
-  <si>
-    <t>44,34,53</t>
-  </si>
-  <si>
-    <t>北方边境战乱不止，公孙瓒率领白马义从前往征讨，声名大作。后讨伐黄巾，成为十八路诸侯之一……</t>
-  </si>
-  <si>
-    <t>公</t>
-  </si>
-  <si>
-    <t>北平</t>
-  </si>
-  <si>
-    <t>19,27,20</t>
-  </si>
-  <si>
-    <t>董卓起兵于凉州，颇著威名。受大将军何进所召，率军进京讨伐十常侍。后掌权，废少帝，弑太后，专断朝政。天下诸侯群起讨伐，然董卓凭借飞将吕布与之抗衡……</t>
-  </si>
-  <si>
-    <t>董</t>
-  </si>
-  <si>
-    <t>长安</t>
-  </si>
-  <si>
-    <t>11,18,12</t>
-  </si>
-  <si>
-    <t>陈留</t>
-  </si>
-  <si>
-    <t>46,54,47</t>
-  </si>
-  <si>
-    <t>江陵</t>
-  </si>
-  <si>
-    <t>寿春</t>
-  </si>
-  <si>
-    <t>洛阳</t>
-  </si>
-  <si>
-    <t>55,63,57</t>
-  </si>
-  <si>
-    <t>永安</t>
-  </si>
-  <si>
-    <t>吴会</t>
-  </si>
-  <si>
-    <t>65,72,66</t>
-  </si>
-  <si>
-    <t>难度</t>
-  </si>
-  <si>
-    <t>玩家初始势力值</t>
-  </si>
-  <si>
-    <t>玩家初始金币</t>
-  </si>
-  <si>
-    <t>玩家初始民心</t>
-  </si>
-  <si>
-    <t>玩家初始士气</t>
-  </si>
-  <si>
-    <t>NPC初始势力值</t>
-  </si>
-  <si>
-    <t>绿1周目</t>
-  </si>
-  <si>
-    <t>蓝1周目</t>
-  </si>
-  <si>
-    <t>紫1周目</t>
-  </si>
-  <si>
-    <t>红1周目</t>
-  </si>
-  <si>
-    <t>绿2周目</t>
-  </si>
-  <si>
-    <t>蓝2周目</t>
-  </si>
-  <si>
-    <t>紫2周目</t>
-  </si>
-  <si>
-    <t>红2周目</t>
-  </si>
-  <si>
-    <t>声望奖励：第一名</t>
-  </si>
-  <si>
-    <t>第二名</t>
-  </si>
-  <si>
-    <t>第三名</t>
-  </si>
-  <si>
-    <t>结算金币</t>
-  </si>
-  <si>
-    <t>结算势力值</t>
-  </si>
-  <si>
-    <t>结算城防值</t>
-  </si>
-  <si>
-    <t>玩家战意加成</t>
-  </si>
-  <si>
-    <t>玩家士气加成</t>
-  </si>
-  <si>
-    <t>玩家城防加成</t>
-  </si>
-  <si>
-    <t>玩家民心加成</t>
-  </si>
-  <si>
-    <t>NPC战意加成</t>
-  </si>
-  <si>
-    <t>NPC士气加成</t>
-  </si>
-  <si>
-    <t>NPC城防加成</t>
-  </si>
-  <si>
-    <t>NPC民心加成</t>
-  </si>
-  <si>
-    <t>萌新</t>
-  </si>
-  <si>
-    <t>2,5</t>
-  </si>
-  <si>
-    <t>3,20</t>
-  </si>
-  <si>
-    <t>1,3</t>
-  </si>
-  <si>
-    <t>普通</t>
-  </si>
-  <si>
-    <t>困难</t>
-  </si>
-  <si>
-    <t>炼狱</t>
-  </si>
-  <si>
-    <t>level</t>
-  </si>
-  <si>
-    <t>experience</t>
-  </si>
-  <si>
-    <t>money</t>
-  </si>
-  <si>
-    <t>battleNum</t>
-  </si>
-  <si>
-    <t>prepareNum</t>
-  </si>
-  <si>
-    <t>2,3</t>
-  </si>
-  <si>
-    <t>2,4</t>
-  </si>
-  <si>
-    <t>3,4</t>
-  </si>
-  <si>
-    <t>3,5</t>
-  </si>
-  <si>
-    <t>4,5</t>
-  </si>
-  <si>
-    <t>4,6</t>
-  </si>
-  <si>
-    <t>5,6</t>
-  </si>
-  <si>
-    <t>5,7</t>
-  </si>
-  <si>
-    <t>battle</t>
-  </si>
-  <si>
-    <t>battleIntro</t>
-  </si>
-  <si>
-    <t>forceId</t>
-  </si>
-  <si>
-    <t>start</t>
-  </si>
-  <si>
-    <t>cityId</t>
-  </si>
-  <si>
-    <t>adventurePrefab</t>
-  </si>
-  <si>
-    <t>testPrefab</t>
-  </si>
-  <si>
-    <t>battlePrefab</t>
-  </si>
-  <si>
-    <t>东汉末年，朝廷腐败，宦官与外戚争权，国势衰退。又遇大旱，百姓饥苦不堪。大贤良师张角得太平要术，号称“苍天已死，黄天当立”召集信徒数十万余众，头戴黄巾，揭竿而起。史称黄巾之乱……</t>
-  </si>
-  <si>
-    <t>1,2,3,4,5,6</t>
-  </si>
-  <si>
-    <t>0,1,2,3,4,5</t>
-  </si>
-  <si>
-    <t>6,7</t>
-  </si>
-  <si>
-    <t>8,9</t>
-  </si>
-  <si>
-    <t>10,</t>
-  </si>
-  <si>
-    <t>中平六年，汉室衰退。董卓凭借飞将军吕布与数万西凉铁骑，独揽大权。废少帝，杀朝臣，乱后宫，纵兵抢掠，天怒人怨。群雄见此，以讨董为名会集十八路诸侯，陈兵虎牢关……</t>
-  </si>
-  <si>
-    <t>7,8,9,10,11,12</t>
-  </si>
-  <si>
-    <t>11,12,13,14,15,16</t>
-  </si>
-  <si>
-    <t>17,18</t>
-  </si>
-  <si>
-    <t>19,</t>
-  </si>
-  <si>
-    <t>20,</t>
-  </si>
-  <si>
-    <t>十八路诸侯中，虽有曹操、孙坚、刘备等奋力而战，然其余诸侯则各自心怀鬼胎，先是盟主袁绍用计夺取冀州，其弟袁术则坐拥南阳，意欲侵吞荆州……各路诸侯相互攻伐，群雄割据的时代已然到来……</t>
-  </si>
-  <si>
-    <t>13,14,15,16,17,18</t>
-  </si>
-  <si>
-    <t>21,22,23,24,25,26</t>
-  </si>
-  <si>
-    <t>27,28</t>
-  </si>
-  <si>
-    <t>29,</t>
-  </si>
-  <si>
-    <t>30,</t>
-  </si>
-  <si>
-    <t>enemyTotal</t>
-  </si>
-  <si>
-    <t>week1</t>
-  </si>
-  <si>
-    <t>week2</t>
-  </si>
-  <si>
-    <t>week3</t>
-  </si>
-  <si>
-    <t>week4</t>
-  </si>
-  <si>
-    <t>上阵数</t>
-  </si>
-  <si>
-    <t>开启周目（萌新）</t>
-  </si>
-  <si>
-    <t>开启周目（普通）</t>
-  </si>
-  <si>
-    <t>开启周目（困难）</t>
-  </si>
-  <si>
-    <t>开启周目（炼狱）</t>
-  </si>
-  <si>
-    <t>soldierType</t>
-  </si>
-  <si>
-    <t>logo</t>
-  </si>
-  <si>
-    <t>soldierIntroduce</t>
-  </si>
-  <si>
-    <t>虎卫</t>
-  </si>
-  <si>
-    <t>虎</t>
-  </si>
-  <si>
-    <t>造成伤害的同时回血，适合放前排充当肉盾</t>
-  </si>
-  <si>
-    <t>陷阵</t>
-  </si>
-  <si>
-    <t>陷</t>
-  </si>
-  <si>
-    <t>具有强大的反伤能力，适合放前排充当肉盾</t>
-  </si>
-  <si>
-    <t>飞甲</t>
-  </si>
-  <si>
-    <t>飞</t>
-  </si>
-  <si>
-    <t>血量越低闪避越高，适合放前排充当肉盾</t>
-  </si>
-  <si>
-    <t>禁卫</t>
-  </si>
-  <si>
-    <t>禁</t>
-  </si>
-  <si>
-    <t>越战越勇，适合放中排突破敌方肉盾</t>
-  </si>
-  <si>
-    <t>枪兵</t>
-  </si>
-  <si>
-    <t>枪</t>
-  </si>
-  <si>
-    <t>隔山打牛，适合放中排破坏敌方阵型</t>
-  </si>
-  <si>
-    <t>戟兵</t>
-  </si>
-  <si>
-    <t>戟</t>
-  </si>
-  <si>
-    <t>排山倒海，适合放中排强行碾压敌方前排</t>
-  </si>
-  <si>
-    <t>谋士</t>
-  </si>
-  <si>
-    <t>谋</t>
-  </si>
-  <si>
-    <t>有效的震晕技能，适合放后排控制敌方</t>
-  </si>
-  <si>
-    <t>统帅</t>
-  </si>
-  <si>
-    <t>统</t>
-  </si>
-  <si>
-    <t>成吨的群体伤害，适合放后排全力输出</t>
-  </si>
-  <si>
-    <t>方士</t>
-  </si>
-  <si>
-    <t>强大的治疗效果，适合放后排支援友方</t>
-  </si>
-  <si>
-    <t>warDrumName</t>
-  </si>
-  <si>
-    <t>unlockLevel</t>
-  </si>
-  <si>
-    <t>战鼓</t>
-  </si>
-  <si>
-    <t>解锁等级</t>
-  </si>
-  <si>
-    <t>雷</t>
-  </si>
-  <si>
-    <t>风</t>
-  </si>
-  <si>
-    <t>土</t>
-  </si>
-  <si>
-    <t>火</t>
-  </si>
-  <si>
-    <t>水</t>
-  </si>
-  <si>
-    <t>text</t>
-  </si>
-  <si>
-    <t>文本</t>
-  </si>
-  <si>
-    <t>开启宝箱</t>
-  </si>
-  <si>
-    <t>天降鸿福，获得{0}金币！</t>
-  </si>
-  <si>
-    <t>招募英雄</t>
-  </si>
-  <si>
-    <t>{0}加入麾下，实力大增！</t>
-  </si>
-  <si>
-    <t>提升等级</t>
-  </si>
-  <si>
-    <t>到达{0}级！</t>
-  </si>
-  <si>
-    <t>金币不足</t>
-  </si>
-  <si>
-    <t>金币不足！</t>
-  </si>
-  <si>
-    <t>上阵已满</t>
-  </si>
-  <si>
-    <t>上阵位已达当前等级上限！</t>
-  </si>
-  <si>
-    <t>备战已满</t>
-  </si>
-  <si>
-    <t>备战位已达当前等级上限！</t>
-  </si>
-  <si>
-    <t>声望不足</t>
-  </si>
-  <si>
-    <t>声望不足！</t>
-  </si>
-  <si>
-    <t>敬请期待</t>
-  </si>
-  <si>
-    <t>敬请期待！</t>
-  </si>
-  <si>
-    <t>已满级</t>
-  </si>
-  <si>
-    <t>已满级！</t>
-  </si>
-  <si>
-    <t>战鼓风</t>
-  </si>
-  <si>
-    <t>急急如风</t>
-  </si>
-  <si>
-    <t>战鼓雷</t>
-  </si>
-  <si>
-    <t>天雷怒号</t>
-  </si>
-  <si>
-    <t>战鼓土</t>
-  </si>
-  <si>
-    <t>固若金汤</t>
-  </si>
-  <si>
-    <t>战鼓火</t>
-  </si>
-  <si>
-    <t>火烧赤壁</t>
-  </si>
-  <si>
-    <t>战鼓水</t>
-  </si>
-  <si>
-    <t>起死回生</t>
-  </si>
-  <si>
-    <t>消灭势力</t>
-  </si>
-  <si>
-    <t>{0}势力灭亡！俘获{1}。</t>
-  </si>
-  <si>
-    <t>flagIcon</t>
-  </si>
-  <si>
-    <t>flagEffect</t>
-  </si>
-  <si>
-    <t>枪兵攻击+5</t>
-  </si>
-  <si>
-    <t>playerWV</t>
-  </si>
-  <si>
-    <t>NPCWV</t>
-  </si>
-  <si>
-    <t>duration</t>
   </si>
   <si>
     <t>Introduction</t>
@@ -6054,9 +6021,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="34">
@@ -6143,6 +6110,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -6151,7 +6125,30 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6165,16 +6162,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6189,7 +6192,7 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -6197,43 +6200,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6247,19 +6222,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -6271,16 +6243,11 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
@@ -6321,168 +6288,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -6495,13 +6300,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6584,6 +6551,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -6595,17 +6571,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -6634,30 +6599,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -6675,9 +6616,35 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -6687,10 +6654,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -6699,16 +6666,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -6717,118 +6684,118 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="35" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="18" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -7263,7 +7230,7 @@
   <dimension ref="A1:X82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="O62" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="P68" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -12522,10 +12489,10 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q21"/>
+  <dimension ref="A1:Q110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+      <selection activeCell="A3" sqref="A3:Q110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
@@ -12865,20 +12832,18 @@
       <c r="C11" s="1" t="s">
         <v>776</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="1"/>
+      <c r="F11" s="1">
+        <v>1</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>777</v>
       </c>
-      <c r="F11" s="1">
-        <v>999</v>
-      </c>
-      <c r="G11" s="1" t="s">
+      <c r="H11" s="1" t="s">
         <v>778</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="I11" s="1" t="s">
         <v>779</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>780</v>
       </c>
       <c r="Q11" s="1">
         <v>8</v>
@@ -12892,25 +12857,23 @@
         <v>1</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>781</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>55</v>
-      </c>
+        <v>776</v>
+      </c>
+      <c r="D12" s="1"/>
       <c r="F12" s="1">
-        <v>1000</v>
+        <v>2</v>
       </c>
       <c r="G12" s="1" t="s">
+        <v>777</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>779</v>
+      </c>
+      <c r="K12" s="1" t="s">
         <v>778</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>782</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>780</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>779</v>
       </c>
       <c r="Q12" s="1">
         <v>2</v>
@@ -12924,28 +12887,26 @@
         <v>1</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="F13" s="1">
+        <v>3</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>781</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>782</v>
+      </c>
+      <c r="I13" s="1" t="s">
         <v>783</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F13" s="1">
-        <v>1001</v>
-      </c>
-      <c r="G13" s="1" t="s">
+      <c r="J13" s="1" t="s">
         <v>784</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="K13" s="1" t="s">
         <v>785</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>786</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>787</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>788</v>
       </c>
       <c r="Q13" s="1">
         <v>2</v>
@@ -12959,40 +12920,38 @@
         <v>1</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="F14" s="1">
+        <v>4</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>787</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>777</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>779</v>
+      </c>
+      <c r="L14" s="1" t="s">
         <v>789</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F14" s="1">
-        <v>1002</v>
-      </c>
-      <c r="G14" s="1" t="s">
+      <c r="M14" s="1" t="s">
         <v>790</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="N14" s="1" t="s">
         <v>791</v>
       </c>
-      <c r="I14" s="1" t="s">
+      <c r="O14" s="1" t="s">
         <v>792</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>778</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>780</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>793</v>
-      </c>
-      <c r="M14" s="1" t="s">
-        <v>794</v>
-      </c>
-      <c r="N14" s="1" t="s">
-        <v>795</v>
-      </c>
-      <c r="O14" s="1" t="s">
-        <v>796</v>
       </c>
       <c r="Q14" s="1">
         <v>2</v>
@@ -13006,40 +12965,38 @@
         <v>1</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="F15" s="1">
+        <v>5</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>793</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>794</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>796</v>
+      </c>
+      <c r="K15" s="1" t="s">
         <v>797</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="F15" s="1">
-        <v>1003</v>
-      </c>
-      <c r="G15" s="1" t="s">
+      <c r="L15" s="1" t="s">
         <v>798</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="M15" s="1" t="s">
         <v>799</v>
       </c>
-      <c r="I15" s="1" t="s">
+      <c r="N15" s="1" t="s">
         <v>800</v>
       </c>
-      <c r="J15" s="1" t="s">
+      <c r="O15" s="1" t="s">
         <v>801</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>802</v>
-      </c>
-      <c r="L15" s="1" t="s">
-        <v>803</v>
-      </c>
-      <c r="M15" s="1" t="s">
-        <v>804</v>
-      </c>
-      <c r="N15" s="1" t="s">
-        <v>805</v>
-      </c>
-      <c r="O15" s="1" t="s">
-        <v>806</v>
       </c>
       <c r="Q15" s="1">
         <v>2</v>
@@ -13053,40 +13010,38 @@
         <v>1</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>807</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>808</v>
-      </c>
+        <v>776</v>
+      </c>
+      <c r="D16" s="1"/>
       <c r="F16" s="1">
-        <v>1004</v>
+        <v>6</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>809</v>
+        <v>802</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>810</v>
+        <v>803</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>811</v>
+        <v>804</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>812</v>
+        <v>805</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>794</v>
+        <v>790</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
       <c r="Q16" s="1">
         <v>2</v>
@@ -13100,40 +13055,38 @@
         <v>1</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>813</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>814</v>
-      </c>
+        <v>776</v>
+      </c>
+      <c r="D17" s="1"/>
       <c r="F17" s="1">
-        <v>1005</v>
+        <v>7</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>815</v>
+        <v>806</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>816</v>
+        <v>807</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>817</v>
+        <v>808</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>812</v>
+        <v>805</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>818</v>
+        <v>809</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>802</v>
+        <v>797</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>819</v>
+        <v>810</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>820</v>
+        <v>811</v>
       </c>
       <c r="Q17" s="1">
         <v>2</v>
@@ -13147,40 +13100,38 @@
         <v>1</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>821</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>90</v>
-      </c>
+        <v>776</v>
+      </c>
+      <c r="D18" s="1"/>
       <c r="F18" s="1">
-        <v>1006</v>
+        <v>8</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>809</v>
+        <v>802</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>810</v>
+        <v>803</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>811</v>
+        <v>804</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>822</v>
+        <v>812</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>823</v>
+        <v>813</v>
       </c>
       <c r="L18" s="1" t="s">
+        <v>806</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>814</v>
+      </c>
+      <c r="N18" s="1" t="s">
         <v>815</v>
       </c>
-      <c r="M18" s="1" t="s">
-        <v>824</v>
-      </c>
-      <c r="N18" s="1" t="s">
-        <v>825</v>
-      </c>
       <c r="O18" s="1" t="s">
-        <v>826</v>
+        <v>816</v>
       </c>
       <c r="Q18" s="1">
         <v>1</v>
@@ -13194,40 +13145,38 @@
         <v>1</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>827</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>90</v>
-      </c>
+        <v>776</v>
+      </c>
+      <c r="D19" s="1"/>
       <c r="F19" s="1">
-        <v>1007</v>
+        <v>9</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>828</v>
+        <v>817</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>802</v>
+        <v>797</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>829</v>
+        <v>818</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>817</v>
+        <v>808</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>830</v>
+        <v>819</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>831</v>
+        <v>820</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>816</v>
+        <v>807</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>832</v>
+        <v>821</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>833</v>
+        <v>822</v>
       </c>
       <c r="Q19" s="1">
         <v>6</v>
@@ -13241,40 +13190,38 @@
         <v>1</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>834</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>814</v>
-      </c>
+        <v>776</v>
+      </c>
+      <c r="D20" s="1"/>
       <c r="F20" s="1">
-        <v>1008</v>
+        <v>10</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>809</v>
+        <v>802</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>810</v>
+        <v>803</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>811</v>
+        <v>804</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>829</v>
+        <v>818</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>826</v>
+        <v>816</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>802</v>
+        <v>797</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>835</v>
+        <v>823</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>836</v>
+        <v>824</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>837</v>
+        <v>825</v>
       </c>
       <c r="Q20" s="1">
         <v>1</v>
@@ -13288,43 +13235,1287 @@
         <v>1</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>838</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>90</v>
-      </c>
+        <v>776</v>
+      </c>
+      <c r="D21" s="1"/>
       <c r="F21" s="1">
-        <v>1009</v>
+        <v>11</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>810</v>
+        <v>803</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>811</v>
+        <v>804</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>839</v>
+        <v>826</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>817</v>
+        <v>808</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>802</v>
+        <v>797</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>830</v>
+        <v>819</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>840</v>
+        <v>827</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>841</v>
+        <v>828</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>842</v>
+        <v>829</v>
       </c>
       <c r="Q21" s="1">
         <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="1">
+        <v>12</v>
+      </c>
+      <c r="B22" s="1">
+        <v>1</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="F22" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="1">
+        <v>13</v>
+      </c>
+      <c r="B23" s="1">
+        <v>1</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="F23" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="1">
+        <v>14</v>
+      </c>
+      <c r="B24" s="1">
+        <v>1</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="F24" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="1">
+        <v>15</v>
+      </c>
+      <c r="B25" s="1">
+        <v>1</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="F25" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="1">
+        <v>16</v>
+      </c>
+      <c r="B26" s="1">
+        <v>1</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="F26" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="1">
+        <v>17</v>
+      </c>
+      <c r="B27" s="1">
+        <v>1</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="F27" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="1">
+        <v>18</v>
+      </c>
+      <c r="B28" s="1">
+        <v>1</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="F28" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="1">
+        <v>19</v>
+      </c>
+      <c r="B29" s="1">
+        <v>1</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="F29" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="1">
+        <v>20</v>
+      </c>
+      <c r="B30" s="1">
+        <v>1</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="F30" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="1">
+        <v>21</v>
+      </c>
+      <c r="B31" s="1">
+        <v>1</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="F31" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="1">
+        <v>22</v>
+      </c>
+      <c r="B32" s="1">
+        <v>1</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="F32" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="1">
+        <v>23</v>
+      </c>
+      <c r="B33" s="1">
+        <v>1</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="F33" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="1">
+        <v>24</v>
+      </c>
+      <c r="B34" s="1">
+        <v>1</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="F34" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="1">
+        <v>25</v>
+      </c>
+      <c r="B35" s="1">
+        <v>1</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="F35" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="1">
+        <v>26</v>
+      </c>
+      <c r="B36" s="1">
+        <v>1</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="F36" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="1">
+        <v>27</v>
+      </c>
+      <c r="B37" s="1">
+        <v>1</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="F37" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="1">
+        <v>28</v>
+      </c>
+      <c r="B38" s="1">
+        <v>1</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="F38" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="1">
+        <v>29</v>
+      </c>
+      <c r="B39" s="1">
+        <v>1</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="F39" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="1">
+        <v>30</v>
+      </c>
+      <c r="B40" s="1">
+        <v>1</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="F40" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="1">
+        <v>31</v>
+      </c>
+      <c r="B41" s="1">
+        <v>1</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="F41" s="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="1">
+        <v>32</v>
+      </c>
+      <c r="B42" s="1">
+        <v>1</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="F42" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="1">
+        <v>33</v>
+      </c>
+      <c r="B43" s="1">
+        <v>1</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="F43" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="1">
+        <v>34</v>
+      </c>
+      <c r="B44" s="1">
+        <v>1</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="F44" s="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="1">
+        <v>35</v>
+      </c>
+      <c r="B45" s="1">
+        <v>1</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="F45" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="1">
+        <v>36</v>
+      </c>
+      <c r="B46" s="1">
+        <v>1</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="F46" s="1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="1">
+        <v>37</v>
+      </c>
+      <c r="B47" s="1">
+        <v>1</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="F47" s="1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="1">
+        <v>38</v>
+      </c>
+      <c r="B48" s="1">
+        <v>1</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="F48" s="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="1">
+        <v>39</v>
+      </c>
+      <c r="B49" s="1">
+        <v>1</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="F49" s="1">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="1">
+        <v>40</v>
+      </c>
+      <c r="B50" s="1">
+        <v>1</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="F50" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="1">
+        <v>41</v>
+      </c>
+      <c r="B51" s="1">
+        <v>1</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="F51" s="1">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="1">
+        <v>42</v>
+      </c>
+      <c r="B52" s="1">
+        <v>1</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="F52" s="1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="1">
+        <v>43</v>
+      </c>
+      <c r="B53" s="1">
+        <v>1</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="F53" s="1">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="1">
+        <v>44</v>
+      </c>
+      <c r="B54" s="1">
+        <v>1</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="F54" s="1">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="1">
+        <v>45</v>
+      </c>
+      <c r="B55" s="1">
+        <v>1</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="F55" s="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="1">
+        <v>46</v>
+      </c>
+      <c r="B56" s="1">
+        <v>1</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="F56" s="1">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="1">
+        <v>47</v>
+      </c>
+      <c r="B57" s="1">
+        <v>1</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="F57" s="1">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="1">
+        <v>48</v>
+      </c>
+      <c r="B58" s="1">
+        <v>1</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="F58" s="1">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="1">
+        <v>49</v>
+      </c>
+      <c r="B59" s="1">
+        <v>1</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="F59" s="1">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="1">
+        <v>50</v>
+      </c>
+      <c r="B60" s="1">
+        <v>1</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="F60" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" s="1">
+        <v>51</v>
+      </c>
+      <c r="B61" s="1">
+        <v>1</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="F61" s="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" s="1">
+        <v>52</v>
+      </c>
+      <c r="B62" s="1">
+        <v>1</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="F62" s="1">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" s="1">
+        <v>53</v>
+      </c>
+      <c r="B63" s="1">
+        <v>1</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="F63" s="1">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" s="1">
+        <v>54</v>
+      </c>
+      <c r="B64" s="1">
+        <v>1</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="F64" s="1">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" s="1">
+        <v>55</v>
+      </c>
+      <c r="B65" s="1">
+        <v>1</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="F65" s="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" s="1">
+        <v>56</v>
+      </c>
+      <c r="B66" s="1">
+        <v>1</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="F66" s="1">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" s="1">
+        <v>57</v>
+      </c>
+      <c r="B67" s="1">
+        <v>1</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="F67" s="1">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" s="1">
+        <v>58</v>
+      </c>
+      <c r="B68" s="1">
+        <v>1</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="F68" s="1">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" s="1">
+        <v>59</v>
+      </c>
+      <c r="B69" s="1">
+        <v>1</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="F69" s="1">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" s="1">
+        <v>60</v>
+      </c>
+      <c r="B70" s="1">
+        <v>1</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="F70" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" s="1">
+        <v>61</v>
+      </c>
+      <c r="B71" s="1">
+        <v>1</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="F71" s="1">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" s="1">
+        <v>62</v>
+      </c>
+      <c r="B72" s="1">
+        <v>1</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="F72" s="1">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" s="1">
+        <v>63</v>
+      </c>
+      <c r="B73" s="1">
+        <v>1</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="F73" s="1">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" s="1">
+        <v>64</v>
+      </c>
+      <c r="B74" s="1">
+        <v>1</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="F74" s="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" s="1">
+        <v>65</v>
+      </c>
+      <c r="B75" s="1">
+        <v>1</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="F75" s="1">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" s="1">
+        <v>66</v>
+      </c>
+      <c r="B76" s="1">
+        <v>1</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="F76" s="1">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" s="1">
+        <v>67</v>
+      </c>
+      <c r="B77" s="1">
+        <v>1</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="F77" s="1">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" s="1">
+        <v>68</v>
+      </c>
+      <c r="B78" s="1">
+        <v>1</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="F78" s="1">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" s="1">
+        <v>69</v>
+      </c>
+      <c r="B79" s="1">
+        <v>1</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="F79" s="1">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" s="1">
+        <v>70</v>
+      </c>
+      <c r="B80" s="1">
+        <v>1</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="F80" s="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" s="1">
+        <v>71</v>
+      </c>
+      <c r="B81" s="1">
+        <v>1</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="F81" s="1">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" s="1">
+        <v>72</v>
+      </c>
+      <c r="B82" s="1">
+        <v>1</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="F82" s="1">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" s="1">
+        <v>73</v>
+      </c>
+      <c r="B83" s="1">
+        <v>1</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="F83" s="1">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" s="1">
+        <v>74</v>
+      </c>
+      <c r="B84" s="1">
+        <v>1</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="F84" s="1">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85" s="1">
+        <v>75</v>
+      </c>
+      <c r="B85" s="1">
+        <v>1</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="F85" s="1">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86" s="1">
+        <v>76</v>
+      </c>
+      <c r="B86" s="1">
+        <v>1</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="F86" s="1">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87" s="1">
+        <v>77</v>
+      </c>
+      <c r="B87" s="1">
+        <v>1</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="F87" s="1">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88" s="1">
+        <v>78</v>
+      </c>
+      <c r="B88" s="1">
+        <v>1</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="F88" s="1">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89" s="1">
+        <v>79</v>
+      </c>
+      <c r="B89" s="1">
+        <v>1</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="F89" s="1">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90" s="1">
+        <v>80</v>
+      </c>
+      <c r="B90" s="1">
+        <v>1</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="F90" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91" s="1">
+        <v>81</v>
+      </c>
+      <c r="B91" s="1">
+        <v>1</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="F91" s="1">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92" s="1">
+        <v>82</v>
+      </c>
+      <c r="B92" s="1">
+        <v>1</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="F92" s="1">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93" s="1">
+        <v>83</v>
+      </c>
+      <c r="B93" s="1">
+        <v>1</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="F93" s="1">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94" s="1">
+        <v>84</v>
+      </c>
+      <c r="B94" s="1">
+        <v>1</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="F94" s="1">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95" s="1">
+        <v>85</v>
+      </c>
+      <c r="B95" s="1">
+        <v>1</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="F95" s="1">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96" s="1">
+        <v>86</v>
+      </c>
+      <c r="B96" s="1">
+        <v>1</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="F96" s="1">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97" s="1">
+        <v>87</v>
+      </c>
+      <c r="B97" s="1">
+        <v>1</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="F97" s="1">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98" s="1">
+        <v>88</v>
+      </c>
+      <c r="B98" s="1">
+        <v>1</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="F98" s="1">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99" s="1">
+        <v>89</v>
+      </c>
+      <c r="B99" s="1">
+        <v>1</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="F99" s="1">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100" s="1">
+        <v>90</v>
+      </c>
+      <c r="B100" s="1">
+        <v>1</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="F100" s="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101" s="1">
+        <v>91</v>
+      </c>
+      <c r="B101" s="1">
+        <v>1</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="F101" s="1">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="A102" s="1">
+        <v>92</v>
+      </c>
+      <c r="B102" s="1">
+        <v>1</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="F102" s="1">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="A103" s="1">
+        <v>93</v>
+      </c>
+      <c r="B103" s="1">
+        <v>1</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="F103" s="1">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="A104" s="1">
+        <v>94</v>
+      </c>
+      <c r="B104" s="1">
+        <v>1</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="F104" s="1">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
+      <c r="A105" s="1">
+        <v>95</v>
+      </c>
+      <c r="B105" s="1">
+        <v>1</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="F105" s="1">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
+      <c r="A106" s="1">
+        <v>96</v>
+      </c>
+      <c r="B106" s="1">
+        <v>1</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="F106" s="1">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="A107" s="1">
+        <v>97</v>
+      </c>
+      <c r="B107" s="1">
+        <v>1</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="F107" s="1">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="A108" s="1">
+        <v>98</v>
+      </c>
+      <c r="B108" s="1">
+        <v>1</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="F108" s="1">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
+      <c r="A109" s="1">
+        <v>99</v>
+      </c>
+      <c r="B109" s="1">
+        <v>1</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="F109" s="1">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
+      <c r="A110" s="1">
+        <v>100</v>
+      </c>
+      <c r="B110" s="1">
+        <v>1</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="F110" s="1">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -13340,7 +14531,7 @@
   <dimension ref="A1:E62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="$A14:$XFD14"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="4"/>
@@ -13357,16 +14548,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>843</v>
+        <v>830</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>844</v>
+        <v>831</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>845</v>
+        <v>832</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>846</v>
+        <v>833</v>
       </c>
     </row>
     <row r="2" ht="17.4" spans="1:5">
@@ -13374,16 +14565,16 @@
         <v>13</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>847</v>
+        <v>834</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>848</v>
+        <v>835</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>849</v>
+        <v>836</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>850</v>
+        <v>837</v>
       </c>
     </row>
     <row r="3" ht="17.4" spans="1:5">
@@ -13391,16 +14582,16 @@
         <v>16</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>851</v>
+        <v>838</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>852</v>
+        <v>839</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>853</v>
+        <v>840</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>854</v>
+        <v>841</v>
       </c>
     </row>
     <row r="4" ht="17.4" spans="1:5">
@@ -13408,16 +14599,16 @@
         <v>23</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>855</v>
+        <v>842</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>856</v>
+        <v>835</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>857</v>
+        <v>843</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>858</v>
+        <v>844</v>
       </c>
     </row>
     <row r="5" ht="17.4" spans="1:5">
@@ -13425,16 +14616,16 @@
         <v>26</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>859</v>
+        <v>845</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>860</v>
+        <v>839</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>861</v>
+        <v>846</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>862</v>
+        <v>847</v>
       </c>
     </row>
     <row r="6" ht="17.4" spans="1:5">
@@ -13442,16 +14633,16 @@
         <v>33</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>863</v>
+        <v>848</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>864</v>
+        <v>849</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>865</v>
+        <v>850</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>866</v>
+        <v>851</v>
       </c>
     </row>
     <row r="7" ht="17.4" spans="1:5">
@@ -13459,16 +14650,16 @@
         <v>36</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>867</v>
+        <v>852</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>868</v>
+        <v>853</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>869</v>
+        <v>854</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>870</v>
+        <v>855</v>
       </c>
     </row>
     <row r="8" ht="17.4" spans="1:5">
@@ -13476,16 +14667,16 @@
         <v>43</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>871</v>
+        <v>856</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>856</v>
+        <v>835</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>872</v>
+        <v>857</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>873</v>
+        <v>858</v>
       </c>
     </row>
     <row r="9" ht="17.4" spans="1:5">
@@ -13493,16 +14684,16 @@
         <v>46</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>874</v>
+        <v>859</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>839</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>860</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>875</v>
-      </c>
       <c r="E9" s="1" t="s">
-        <v>876</v>
+        <v>861</v>
       </c>
     </row>
     <row r="10" ht="17.4" spans="1:5">
@@ -13510,16 +14701,16 @@
         <v>53</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>877</v>
+        <v>862</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>863</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>864</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>878</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>879</v>
       </c>
     </row>
     <row r="11" ht="17.4" spans="1:5">
@@ -13527,16 +14718,16 @@
         <v>56</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>880</v>
+        <v>865</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>868</v>
+        <v>853</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>881</v>
+        <v>866</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>882</v>
+        <v>867</v>
       </c>
     </row>
     <row r="12" ht="17.4" spans="1:5">
@@ -13544,16 +14735,16 @@
         <v>63</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>883</v>
+        <v>868</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>864</v>
+        <v>849</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>884</v>
+        <v>869</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>885</v>
+        <v>870</v>
       </c>
     </row>
     <row r="13" ht="17.4" spans="1:5">
@@ -13561,16 +14752,16 @@
         <v>66</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>886</v>
+        <v>871</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>868</v>
+        <v>853</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>887</v>
+        <v>872</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>888</v>
+        <v>873</v>
       </c>
     </row>
     <row r="14" ht="17.4" spans="1:5">
@@ -13578,16 +14769,16 @@
         <v>73</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>889</v>
+        <v>874</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>864</v>
+        <v>849</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>890</v>
+        <v>875</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>891</v>
+        <v>876</v>
       </c>
     </row>
     <row r="15" ht="17.4" spans="1:5">
@@ -13595,16 +14786,16 @@
         <v>76</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>892</v>
+        <v>877</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>868</v>
+        <v>853</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>893</v>
+        <v>878</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>894</v>
+        <v>879</v>
       </c>
     </row>
     <row r="16" ht="17.4" spans="1:5">
@@ -13612,16 +14803,16 @@
         <v>83</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>895</v>
+        <v>880</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>896</v>
+        <v>881</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>897</v>
+        <v>882</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>898</v>
+        <v>883</v>
       </c>
     </row>
     <row r="17" ht="17.4" spans="1:5">
@@ -13629,16 +14820,16 @@
         <v>86</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>899</v>
+        <v>884</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>896</v>
+        <v>881</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>900</v>
+        <v>885</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>901</v>
+        <v>886</v>
       </c>
     </row>
     <row r="18" ht="17.4" spans="1:5">
@@ -13646,16 +14837,16 @@
         <v>93</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>902</v>
+        <v>887</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>864</v>
+        <v>849</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>903</v>
+        <v>888</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>904</v>
+        <v>889</v>
       </c>
     </row>
     <row r="19" ht="17.4" spans="1:5">
@@ -13663,16 +14854,16 @@
         <v>96</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>905</v>
+        <v>890</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>868</v>
+        <v>853</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>906</v>
+        <v>891</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>907</v>
+        <v>892</v>
       </c>
     </row>
     <row r="20" ht="17.4" spans="1:2">
@@ -13863,7 +15054,7 @@
   <dimension ref="A1:O23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q3" sqref="Q3"/>
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
@@ -13880,7 +15071,7 @@
     <col min="10" max="10" width="9" style="1"/>
     <col min="11" max="11" width="19.75" style="1" customWidth="1"/>
     <col min="12" max="12" width="8" style="1" customWidth="1"/>
-    <col min="13" max="13" width="6.5" style="1" customWidth="1"/>
+    <col min="13" max="13" width="10.1111111111111" style="1" customWidth="1"/>
     <col min="14" max="14" width="12.6296296296296" style="1" customWidth="1"/>
     <col min="15" max="15" width="8.5" style="1" customWidth="1"/>
     <col min="16" max="16384" width="9" style="1"/>
@@ -13891,46 +15082,46 @@
         <v>0</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>908</v>
+        <v>893</v>
       </c>
       <c r="C1" s="20" t="s">
-        <v>909</v>
+        <v>894</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>910</v>
+        <v>895</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>911</v>
+        <v>896</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>912</v>
+        <v>897</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>913</v>
+        <v>898</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>914</v>
+        <v>899</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>915</v>
+        <v>900</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>916</v>
+        <v>901</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>917</v>
+        <v>902</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>918</v>
+        <v>903</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>919</v>
+        <v>904</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>920</v>
+        <v>905</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>921</v>
+        <v>906</v>
       </c>
     </row>
     <row r="2" ht="17.4" spans="1:15">
@@ -13941,16 +15132,16 @@
         <v>90</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>922</v>
+        <v>907</v>
       </c>
       <c r="D2" s="3">
         <v>0</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>923</v>
+        <v>908</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>924</v>
+        <v>909</v>
       </c>
       <c r="G2" s="1">
         <v>1</v>
@@ -13959,7 +15150,7 @@
         <v>1</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>925</v>
+        <v>910</v>
       </c>
       <c r="J2" s="1">
         <v>1</v>
@@ -13982,19 +15173,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>926</v>
+        <v>911</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>927</v>
+        <v>912</v>
       </c>
       <c r="D3" s="3">
         <v>0</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>928</v>
+        <v>913</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>929</v>
+        <v>914</v>
       </c>
       <c r="G3" s="1">
         <v>2</v>
@@ -14003,7 +15194,7 @@
         <v>2</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>930</v>
+        <v>915</v>
       </c>
       <c r="J3" s="1">
         <v>1</v>
@@ -14029,16 +15220,16 @@
         <v>38</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>931</v>
+        <v>916</v>
       </c>
       <c r="D4" s="3">
         <v>0</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>932</v>
+        <v>917</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>933</v>
+        <v>918</v>
       </c>
       <c r="G4" s="1">
         <v>3</v>
@@ -14047,7 +15238,7 @@
         <v>3</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>934</v>
+        <v>919</v>
       </c>
       <c r="J4" s="1">
         <v>1</v>
@@ -14073,16 +15264,16 @@
         <v>86</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>935</v>
+        <v>920</v>
       </c>
       <c r="D5" s="3">
         <v>500</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>936</v>
+        <v>921</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>937</v>
+        <v>922</v>
       </c>
       <c r="G5" s="1">
         <v>4</v>
@@ -14091,7 +15282,7 @@
         <v>4</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>938</v>
+        <v>923</v>
       </c>
       <c r="J5" s="1">
         <v>1</v>
@@ -14114,19 +15305,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>808</v>
+        <v>924</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>939</v>
+        <v>925</v>
       </c>
       <c r="D6" s="3">
         <v>100</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>940</v>
+        <v>926</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>941</v>
+        <v>927</v>
       </c>
       <c r="G6" s="1">
         <v>5</v>
@@ -14135,7 +15326,7 @@
         <v>6</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>942</v>
+        <v>928</v>
       </c>
       <c r="J6" s="1">
         <v>1</v>
@@ -14161,16 +15352,16 @@
         <v>55</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>943</v>
+        <v>929</v>
       </c>
       <c r="D7" s="3">
         <v>50</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>944</v>
+        <v>930</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>945</v>
+        <v>931</v>
       </c>
       <c r="G7" s="1">
         <v>6</v>
@@ -14179,7 +15370,7 @@
         <v>5</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>946</v>
+        <v>932</v>
       </c>
       <c r="J7" s="1">
         <v>1</v>
@@ -14205,16 +15396,16 @@
         <v>90</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>922</v>
+        <v>907</v>
       </c>
       <c r="D8" s="3">
         <v>0</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>923</v>
+        <v>908</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>947</v>
+        <v>933</v>
       </c>
       <c r="G8" s="1">
         <v>7</v>
@@ -14223,7 +15414,7 @@
         <v>1</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>948</v>
+        <v>934</v>
       </c>
       <c r="J8" s="1">
         <v>1</v>
@@ -14246,19 +15437,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>926</v>
+        <v>911</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>927</v>
+        <v>912</v>
       </c>
       <c r="D9" s="3">
         <v>0</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>928</v>
+        <v>913</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>949</v>
+        <v>935</v>
       </c>
       <c r="G9" s="1">
         <v>8</v>
@@ -14267,7 +15458,7 @@
         <v>2</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>930</v>
+        <v>915</v>
       </c>
       <c r="J9" s="1">
         <v>1</v>
@@ -14293,16 +15484,16 @@
         <v>38</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>931</v>
+        <v>916</v>
       </c>
       <c r="D10" s="3">
         <v>0</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>932</v>
+        <v>917</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>950</v>
+        <v>936</v>
       </c>
       <c r="G10" s="1">
         <v>9</v>
@@ -14311,7 +15502,7 @@
         <v>3</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>934</v>
+        <v>919</v>
       </c>
       <c r="J10" s="1">
         <v>1</v>
@@ -14337,16 +15528,16 @@
         <v>86</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>935</v>
+        <v>920</v>
       </c>
       <c r="D11" s="3">
         <v>500</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>936</v>
+        <v>921</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>937</v>
+        <v>922</v>
       </c>
       <c r="G11" s="1">
         <v>10</v>
@@ -14355,7 +15546,7 @@
         <v>4</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>938</v>
+        <v>923</v>
       </c>
       <c r="J11" s="1">
         <v>1</v>
@@ -14378,19 +15569,19 @@
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>808</v>
+        <v>924</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>939</v>
+        <v>925</v>
       </c>
       <c r="D12" s="3">
         <v>100</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>940</v>
+        <v>926</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>941</v>
+        <v>927</v>
       </c>
       <c r="G12" s="1">
         <v>11</v>
@@ -14399,7 +15590,7 @@
         <v>6</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>942</v>
+        <v>928</v>
       </c>
       <c r="J12" s="1">
         <v>1</v>
@@ -14425,16 +15616,16 @@
         <v>55</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>943</v>
+        <v>929</v>
       </c>
       <c r="D13" s="3">
         <v>50</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>944</v>
+        <v>930</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>951</v>
+        <v>937</v>
       </c>
       <c r="G13" s="1">
         <v>12</v>
@@ -14443,7 +15634,7 @@
         <v>5</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>946</v>
+        <v>932</v>
       </c>
       <c r="J13" s="1">
         <v>1</v>
@@ -14469,16 +15660,16 @@
         <v>90</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>922</v>
+        <v>907</v>
       </c>
       <c r="D14" s="3">
         <v>0</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>923</v>
+        <v>908</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>924</v>
+        <v>909</v>
       </c>
       <c r="G14" s="1">
         <v>13</v>
@@ -14487,7 +15678,7 @@
         <v>1</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>952</v>
+        <v>938</v>
       </c>
       <c r="J14" s="1">
         <v>1</v>
@@ -14510,19 +15701,19 @@
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>926</v>
+        <v>911</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>927</v>
+        <v>912</v>
       </c>
       <c r="D15" s="3">
         <v>0</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>928</v>
+        <v>913</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>953</v>
+        <v>939</v>
       </c>
       <c r="G15" s="1">
         <v>14</v>
@@ -14531,7 +15722,7 @@
         <v>2</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>930</v>
+        <v>915</v>
       </c>
       <c r="J15" s="1">
         <v>1</v>
@@ -14557,16 +15748,16 @@
         <v>38</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>931</v>
+        <v>916</v>
       </c>
       <c r="D16" s="3">
         <v>0</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>932</v>
+        <v>917</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>954</v>
+        <v>940</v>
       </c>
       <c r="G16" s="1">
         <v>15</v>
@@ -14575,7 +15766,7 @@
         <v>3</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>955</v>
+        <v>941</v>
       </c>
       <c r="J16" s="1">
         <v>1</v>
@@ -14601,16 +15792,16 @@
         <v>86</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>935</v>
+        <v>920</v>
       </c>
       <c r="D17" s="3">
         <v>500</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>936</v>
+        <v>921</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>937</v>
+        <v>922</v>
       </c>
       <c r="G17" s="1">
         <v>16</v>
@@ -14619,7 +15810,7 @@
         <v>4</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>938</v>
+        <v>923</v>
       </c>
       <c r="J17" s="1">
         <v>1</v>
@@ -14642,19 +15833,19 @@
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>808</v>
+        <v>924</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>939</v>
+        <v>925</v>
       </c>
       <c r="D18" s="3">
         <v>100</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>940</v>
+        <v>926</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>941</v>
+        <v>927</v>
       </c>
       <c r="G18" s="1">
         <v>17</v>
@@ -14663,7 +15854,7 @@
         <v>6</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>942</v>
+        <v>928</v>
       </c>
       <c r="J18" s="1">
         <v>1</v>
@@ -14689,16 +15880,16 @@
         <v>55</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>943</v>
+        <v>929</v>
       </c>
       <c r="D19" s="3">
         <v>50</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>944</v>
+        <v>930</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>945</v>
+        <v>931</v>
       </c>
       <c r="G19" s="1">
         <v>18</v>
@@ -14707,7 +15898,7 @@
         <v>5</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>946</v>
+        <v>932</v>
       </c>
       <c r="J19" s="1">
         <v>1</v>
@@ -14748,8 +15939,8 @@
   </sheetPr>
   <dimension ref="A1:AD5"/>
   <sheetViews>
-    <sheetView topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="Y9" sqref="Y9"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="R9" sqref="R9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelRow="4"/>
@@ -14774,91 +15965,91 @@
         <v>176</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>942</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>943</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>944</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>945</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>946</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>947</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>948</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>949</v>
+      </c>
+      <c r="J1" s="16" t="s">
+        <v>950</v>
+      </c>
+      <c r="K1" s="16" t="s">
+        <v>951</v>
+      </c>
+      <c r="L1" s="16" t="s">
+        <v>952</v>
+      </c>
+      <c r="M1" s="16" t="s">
+        <v>953</v>
+      </c>
+      <c r="N1" s="16" t="s">
+        <v>954</v>
+      </c>
+      <c r="O1" s="17" t="s">
+        <v>955</v>
+      </c>
+      <c r="P1" s="18" t="s">
         <v>956</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="Q1" s="18" t="s">
         <v>957</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="R1" s="18" t="s">
         <v>958</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>959</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>960</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>961</v>
-      </c>
-      <c r="H1" s="14" t="s">
-        <v>962</v>
-      </c>
-      <c r="I1" s="16" t="s">
-        <v>963</v>
-      </c>
-      <c r="J1" s="16" t="s">
-        <v>964</v>
-      </c>
-      <c r="K1" s="16" t="s">
-        <v>965</v>
-      </c>
-      <c r="L1" s="16" t="s">
-        <v>966</v>
-      </c>
-      <c r="M1" s="16" t="s">
-        <v>967</v>
-      </c>
-      <c r="N1" s="16" t="s">
-        <v>968</v>
-      </c>
-      <c r="O1" s="17" t="s">
-        <v>969</v>
-      </c>
-      <c r="P1" s="18" t="s">
-        <v>970</v>
-      </c>
-      <c r="Q1" s="18" t="s">
-        <v>971</v>
-      </c>
-      <c r="R1" s="18" t="s">
-        <v>972</v>
       </c>
       <c r="S1" s="18" t="s">
         <v>721</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>973</v>
+        <v>959</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>974</v>
+        <v>960</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>975</v>
+        <v>961</v>
       </c>
       <c r="W1" s="12" t="s">
-        <v>976</v>
+        <v>962</v>
       </c>
       <c r="X1" s="12" t="s">
-        <v>977</v>
+        <v>963</v>
       </c>
       <c r="Y1" s="12" t="s">
-        <v>978</v>
+        <v>964</v>
       </c>
       <c r="Z1" s="12" t="s">
-        <v>979</v>
+        <v>965</v>
       </c>
       <c r="AA1" s="12" t="s">
-        <v>980</v>
+        <v>966</v>
       </c>
       <c r="AB1" s="12" t="s">
-        <v>981</v>
+        <v>967</v>
       </c>
       <c r="AC1" s="12" t="s">
-        <v>982</v>
+        <v>968</v>
       </c>
       <c r="AD1" s="12" t="s">
-        <v>983</v>
+        <v>969</v>
       </c>
     </row>
     <row r="2" spans="1:30">
@@ -14866,7 +16057,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>984</v>
+        <v>970</v>
       </c>
       <c r="C2" s="1">
         <v>50</v>
@@ -14920,13 +16111,13 @@
         <v>5</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>985</v>
+        <v>971</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>986</v>
+        <v>972</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>987</v>
+        <v>973</v>
       </c>
       <c r="W2" s="1">
         <v>0</v>
@@ -14958,7 +16149,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>988</v>
+        <v>974</v>
       </c>
       <c r="C3" s="1">
         <v>100</v>
@@ -15012,13 +16203,13 @@
         <v>10</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>985</v>
+        <v>971</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>986</v>
+        <v>972</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>987</v>
+        <v>973</v>
       </c>
       <c r="W3" s="1">
         <v>0</v>
@@ -15050,7 +16241,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>989</v>
+        <v>975</v>
       </c>
       <c r="C4" s="1">
         <v>150</v>
@@ -15104,13 +16295,13 @@
         <v>20</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>985</v>
+        <v>971</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>986</v>
+        <v>972</v>
       </c>
       <c r="V4" s="1" t="s">
-        <v>987</v>
+        <v>973</v>
       </c>
       <c r="W4" s="1">
         <v>0</v>
@@ -15142,7 +16333,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>990</v>
+        <v>976</v>
       </c>
       <c r="C5" s="1">
         <v>200</v>
@@ -15196,13 +16387,13 @@
         <v>30</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>985</v>
+        <v>971</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>986</v>
+        <v>972</v>
       </c>
       <c r="V5" s="1" t="s">
-        <v>987</v>
+        <v>973</v>
       </c>
       <c r="W5" s="1">
         <v>0</v>
@@ -15262,19 +16453,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>991</v>
+        <v>977</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>992</v>
+        <v>978</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>993</v>
+        <v>979</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>994</v>
+        <v>980</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>995</v>
+        <v>981</v>
       </c>
     </row>
     <row r="2" ht="17.4" spans="1:6">
@@ -15288,7 +16479,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="E2" s="10">
         <v>2</v>
@@ -15308,7 +16499,7 @@
         <v>3</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>987</v>
+        <v>973</v>
       </c>
       <c r="E3" s="10">
         <v>3</v>
@@ -15328,7 +16519,7 @@
         <v>5</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>996</v>
+        <v>982</v>
       </c>
       <c r="E4" s="10">
         <v>4</v>
@@ -15348,7 +16539,7 @@
         <v>7</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>997</v>
+        <v>983</v>
       </c>
       <c r="E5" s="10">
         <v>5</v>
@@ -15368,7 +16559,7 @@
         <v>12</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>998</v>
+        <v>984</v>
       </c>
       <c r="E6" s="10">
         <v>6</v>
@@ -15388,7 +16579,7 @@
         <v>20</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>999</v>
+        <v>985</v>
       </c>
       <c r="E7" s="10">
         <v>7</v>
@@ -15408,7 +16599,7 @@
         <v>30</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>1000</v>
+        <v>986</v>
       </c>
       <c r="E8" s="10">
         <v>8</v>
@@ -15428,7 +16619,7 @@
         <v>40</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>1001</v>
+        <v>987</v>
       </c>
       <c r="E9" s="10">
         <v>9</v>
@@ -15448,7 +16639,7 @@
         <v>50</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>1002</v>
+        <v>988</v>
       </c>
       <c r="E10" s="10">
         <v>9</v>
@@ -15468,7 +16659,7 @@
         <v>60</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>1003</v>
+        <v>989</v>
       </c>
       <c r="E11" s="10">
         <v>9</v>
@@ -15514,28 +16705,28 @@
         <v>176</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1004</v>
+        <v>990</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1005</v>
+        <v>991</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>1006</v>
+        <v>992</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>1007</v>
+        <v>993</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>1008</v>
+        <v>994</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>1009</v>
+        <v>995</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>1010</v>
+        <v>996</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>1011</v>
+        <v>997</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -15546,25 +16737,25 @@
         <v>776</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1012</v>
+        <v>998</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>1013</v>
+        <v>999</v>
       </c>
       <c r="E2" s="7">
         <v>184</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>1014</v>
+        <v>1000</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>1015</v>
+        <v>1001</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>1016</v>
+        <v>1002</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>1017</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -15572,28 +16763,28 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>781</v>
+        <v>1004</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>1018</v>
+        <v>1005</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>1019</v>
+        <v>1006</v>
       </c>
       <c r="E3" s="7">
         <v>190</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>1020</v>
+        <v>1007</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>1021</v>
+        <v>1008</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>1022</v>
+        <v>1009</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>1023</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -15601,28 +16792,28 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>783</v>
+        <v>1011</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>1024</v>
+        <v>1012</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>1025</v>
+        <v>1013</v>
       </c>
       <c r="E4" s="7">
         <v>194</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>1026</v>
+        <v>1014</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>1027</v>
+        <v>1015</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>1028</v>
+        <v>1016</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>1029</v>
+        <v>1017</v>
       </c>
     </row>
   </sheetData>
@@ -15652,19 +16843,19 @@
         <v>176</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>1030</v>
+        <v>1018</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>1031</v>
+        <v>1019</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>1032</v>
+        <v>1020</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>1033</v>
+        <v>1021</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>1034</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="2" ht="15.6" spans="1:6">
@@ -15672,19 +16863,19 @@
         <v>176</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>1035</v>
+        <v>1023</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>1036</v>
+        <v>1024</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>1037</v>
+        <v>1025</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>1038</v>
+        <v>1026</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>1039</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="3" ht="15.6" spans="1:6">
@@ -15916,13 +17107,13 @@
         <v>176</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>1040</v>
+        <v>1028</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>1041</v>
+        <v>1029</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1042</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -15930,13 +17121,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>1043</v>
+        <v>1031</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>1044</v>
+        <v>1032</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>1045</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -15944,13 +17135,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>1046</v>
+        <v>1034</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>1047</v>
+        <v>1035</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>1048</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -15958,13 +17149,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>1049</v>
+        <v>1037</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>1050</v>
+        <v>1038</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>1051</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -15972,13 +17163,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>1052</v>
+        <v>1040</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>1053</v>
+        <v>1041</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>1054</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -15986,13 +17177,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>1055</v>
+        <v>1043</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>1056</v>
+        <v>1044</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>1057</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -16000,13 +17191,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>1058</v>
+        <v>1046</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>1059</v>
+        <v>1047</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>1060</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -16014,13 +17205,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>1061</v>
+        <v>1049</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>1062</v>
+        <v>1050</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>1063</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -16028,13 +17219,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>1064</v>
+        <v>1052</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>1065</v>
+        <v>1053</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>1066</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -16042,13 +17233,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>1067</v>
+        <v>1055</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>603</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>1068</v>
+        <v>1056</v>
       </c>
     </row>
   </sheetData>
@@ -16080,10 +17271,10 @@
         <v>176</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1069</v>
+        <v>1057</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1070</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -16091,10 +17282,10 @@
         <v>176</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1071</v>
+        <v>1059</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1072</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -16102,7 +17293,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>1073</v>
+        <v>1061</v>
       </c>
       <c r="C3" s="1">
         <v>1</v>
@@ -16113,7 +17304,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>1074</v>
+        <v>1062</v>
       </c>
       <c r="C4" s="1">
         <v>3</v>
@@ -16124,7 +17315,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>1075</v>
+        <v>1063</v>
       </c>
       <c r="C5" s="1">
         <v>5</v>
@@ -16135,7 +17326,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>1076</v>
+        <v>1064</v>
       </c>
       <c r="C6" s="1">
         <v>7</v>
@@ -16146,7 +17337,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>1077</v>
+        <v>1065</v>
       </c>
       <c r="C7" s="1">
         <v>9</v>
@@ -16198,7 +17389,7 @@
         <v>727</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1078</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -16209,7 +17400,7 @@
         <v>742</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1079</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -16217,10 +17408,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1080</v>
+        <v>1068</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>1081</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -16228,10 +17419,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1082</v>
+        <v>1070</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>1083</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -16239,10 +17430,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1084</v>
+        <v>1072</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>1085</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -16250,10 +17441,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>1086</v>
+        <v>1074</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>1087</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -16261,10 +17452,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>1088</v>
+        <v>1076</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>1089</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -16272,10 +17463,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>1090</v>
+        <v>1078</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>1091</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -16283,10 +17474,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>1092</v>
+        <v>1080</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>1093</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -16294,10 +17485,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>1094</v>
+        <v>1082</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>1095</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -16305,10 +17496,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>1096</v>
+        <v>1084</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>1097</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -16316,10 +17507,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>1098</v>
+        <v>1086</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>1099</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -16327,10 +17518,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>1100</v>
+        <v>1088</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>1101</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -16338,10 +17529,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>1102</v>
+        <v>1090</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>1103</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -16349,10 +17540,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>1104</v>
+        <v>1092</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>1105</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -16360,10 +17551,10 @@
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>1106</v>
+        <v>1094</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>1107</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -16371,10 +17562,10 @@
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>1108</v>
+        <v>1096</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>1109</v>
+        <v>1097</v>
       </c>
     </row>
   </sheetData>
@@ -22761,13 +23952,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>916</v>
+        <v>901</v>
       </c>
       <c r="B1" t="s">
-        <v>1110</v>
+        <v>1098</v>
       </c>
       <c r="C1" t="s">
-        <v>1111</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -22778,7 +23969,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>1112</v>
+        <v>1100</v>
       </c>
     </row>
   </sheetData>
@@ -22795,7 +23986,7 @@
   </sheetPr>
   <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E5" sqref="E5:E11"/>
     </sheetView>
   </sheetViews>
@@ -22821,31 +24012,31 @@
         <v>727</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1113</v>
+        <v>1101</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1114</v>
+        <v>1102</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1115</v>
+        <v>1103</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>918</v>
+        <v>1104</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>919</v>
+        <v>903</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>920</v>
+        <v>905</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>921</v>
+        <v>906</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>1116</v>
+        <v>1105</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>1117</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -22856,34 +24047,34 @@
         <v>742</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1118</v>
+        <v>1107</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>1119</v>
+        <v>1108</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>1120</v>
+        <v>1109</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>871</v>
+        <v>856</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>535</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>1121</v>
+        <v>1110</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>534</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>1122</v>
+        <v>1111</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>1123</v>
+        <v>1112</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>1124</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -22891,7 +24082,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1125</v>
+        <v>1114</v>
       </c>
       <c r="C3" s="1">
         <v>100</v>
@@ -22903,7 +24094,7 @@
         <v>3</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>1125</v>
+        <v>1114</v>
       </c>
       <c r="K3" s="1">
         <v>-1</v>
@@ -22917,7 +24108,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1126</v>
+        <v>1115</v>
       </c>
       <c r="C4" s="1">
         <v>5</v>
@@ -22929,16 +24120,16 @@
         <v>1</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>1127</v>
+        <v>1116</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>1128</v>
+        <v>1117</v>
       </c>
       <c r="K4" s="1">
         <v>0</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>1129</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -22946,7 +24137,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1130</v>
+        <v>1119</v>
       </c>
       <c r="C5" s="1">
         <v>5</v>
@@ -22958,16 +24149,16 @@
         <v>1</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>1127</v>
+        <v>1116</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>1131</v>
+        <v>1120</v>
       </c>
       <c r="K5" s="1">
         <v>0</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>1132</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -22975,7 +24166,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>1133</v>
+        <v>1122</v>
       </c>
       <c r="C6" s="1">
         <v>5</v>
@@ -22987,16 +24178,16 @@
         <v>1</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>1127</v>
+        <v>1116</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>1134</v>
+        <v>1123</v>
       </c>
       <c r="K6" s="1">
         <v>0</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>1135</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -23004,7 +24195,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>1136</v>
+        <v>1125</v>
       </c>
       <c r="C7" s="1">
         <v>5</v>
@@ -23016,16 +24207,16 @@
         <v>1</v>
       </c>
       <c r="I7" s="2" t="s">
+        <v>1116</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>1126</v>
+      </c>
+      <c r="K7" s="1">
+        <v>0</v>
+      </c>
+      <c r="L7" s="1" t="s">
         <v>1127</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>1137</v>
-      </c>
-      <c r="K7" s="1">
-        <v>0</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>1138</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -23033,7 +24224,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>1139</v>
+        <v>1128</v>
       </c>
       <c r="C8" s="1">
         <v>5</v>
@@ -23045,16 +24236,16 @@
         <v>1</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>1140</v>
+        <v>1129</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>1141</v>
+        <v>1130</v>
       </c>
       <c r="K8" s="1">
         <v>1</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>1142</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -23062,7 +24253,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>1143</v>
+        <v>1132</v>
       </c>
       <c r="C9" s="1">
         <v>5</v>
@@ -23074,16 +24265,16 @@
         <v>1</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>1140</v>
+        <v>1129</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>1144</v>
+        <v>1133</v>
       </c>
       <c r="K9" s="1">
         <v>1</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>1145</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -23091,7 +24282,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>1146</v>
+        <v>1135</v>
       </c>
       <c r="C10" s="1">
         <v>5</v>
@@ -23103,16 +24294,16 @@
         <v>1</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>1140</v>
+        <v>1129</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>1147</v>
+        <v>1136</v>
       </c>
       <c r="K10" s="1">
         <v>1</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>1148</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -23120,7 +24311,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>1149</v>
+        <v>1138</v>
       </c>
       <c r="C11" s="1">
         <v>5</v>
@@ -23132,16 +24323,16 @@
         <v>1</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>1140</v>
+        <v>1129</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>1150</v>
+        <v>1139</v>
       </c>
       <c r="K11" s="1">
         <v>1</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>1151</v>
+        <v>1140</v>
       </c>
     </row>
   </sheetData>
@@ -23172,19 +24363,19 @@
         <v>176</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1152</v>
+        <v>1141</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1153</v>
+        <v>1142</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1154</v>
+        <v>1143</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1155</v>
+        <v>1144</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>1156</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -23192,19 +24383,19 @@
         <v>176</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1157</v>
+        <v>1146</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1158</v>
+        <v>1147</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>1159</v>
+        <v>1148</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>1160</v>
+        <v>1149</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>1161</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -23215,13 +24406,13 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>1162</v>
+        <v>1151</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>1163</v>
+        <v>1152</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>926</v>
+        <v>911</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>90</v>
@@ -23235,16 +24426,16 @@
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>1164</v>
+        <v>1153</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>1165</v>
+        <v>1154</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>1163</v>
+        <v>1152</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>1166</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -23255,16 +24446,16 @@
         <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>1167</v>
+        <v>1156</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>886</v>
+        <v>871</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>877</v>
+        <v>862</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>1168</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -23275,16 +24466,16 @@
         <v>2</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>1169</v>
+        <v>1158</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>1170</v>
+        <v>1159</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>1171</v>
+        <v>1160</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>1172</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -23295,16 +24486,16 @@
         <v>3</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>1173</v>
+        <v>1162</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>1174</v>
+        <v>1163</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>1175</v>
+        <v>1164</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>1176</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -23315,16 +24506,16 @@
         <v>3</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>1177</v>
+        <v>1166</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>1178</v>
+        <v>1167</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>1179</v>
+        <v>1168</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>1180</v>
+        <v>1169</v>
       </c>
     </row>
   </sheetData>
